--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/transcriptions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B050CBD-FA8D-CC44-B149-02A2AD7DAB0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82606B3-16AB-E042-8F2F-D98117D82FBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="8140" windowWidth="24980" windowHeight="7860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="1018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="1132">
   <si>
     <t>liv_000017</t>
   </si>
@@ -3095,6 +3095,351 @@
   </si>
   <si>
     <t>1:opposite 300</t>
+  </si>
+  <si>
+    <t>liv_020070</t>
+  </si>
+  <si>
+    <t>Letter to Louis-Alexis Chamerovzow</t>
+  </si>
+  <si>
+    <t>Letter to Louis-Alexis Chamerovzow, 23 April 1853</t>
+  </si>
+  <si>
+    <t>Craft, William, 1824-1900</t>
+  </si>
+  <si>
+    <t>MSS. Brit. Emp. S. 18, C30/11</t>
+  </si>
+  <si>
+    <t>23 April 1853</t>
+  </si>
+  <si>
+    <t>Ockham School</t>
+  </si>
+  <si>
+    <t>liv_020071</t>
+  </si>
+  <si>
+    <t>Letter to [Unknown]</t>
+  </si>
+  <si>
+    <t>Letter to [Unknown], 18 March 1863</t>
+  </si>
+  <si>
+    <t>Craft, Ellen, 1826-1891</t>
+  </si>
+  <si>
+    <t>MSS. Brit. Emp. S. 18, C30/10</t>
+  </si>
+  <si>
+    <t>18 March 1863</t>
+  </si>
+  <si>
+    <t>12 Cambridge Road Hammersmith</t>
+  </si>
+  <si>
+    <t>liv_020072</t>
+  </si>
+  <si>
+    <t>Letter to Reverend T. Phillips</t>
+  </si>
+  <si>
+    <t>Letter to T. Phillips, 9 January 1868</t>
+  </si>
+  <si>
+    <t>MSS. Brit. Emp. S. 18, C39/92</t>
+  </si>
+  <si>
+    <t>9 January 1868</t>
+  </si>
+  <si>
+    <t>4 Lawn Place Shepherd’s Bush</t>
+  </si>
+  <si>
+    <t>liv_020073</t>
+  </si>
+  <si>
+    <t>Letter to [unknown] Phillips</t>
+  </si>
+  <si>
+    <t>Letter to [unknown] Phillips, 29 October 1868</t>
+  </si>
+  <si>
+    <t>Craft, Alice Isabella Ellen, 1866-1917</t>
+  </si>
+  <si>
+    <t>MSS. Brit. Emp. S. 18, C39/91</t>
+  </si>
+  <si>
+    <t>29 October 1868</t>
+  </si>
+  <si>
+    <t>124 Stockwell Park Road Brixton</t>
+  </si>
+  <si>
+    <t>liv_020074</t>
+  </si>
+  <si>
+    <t>Letter to the Committee of The National Freedmen's Aid Union</t>
+  </si>
+  <si>
+    <t>Letter to the Committee of The National Freedmen's Aid Union, 5 December 1867</t>
+  </si>
+  <si>
+    <t>Craft, William Ivens, 1855-1926</t>
+  </si>
+  <si>
+    <t>MSS. Brit. Emp. S. 18, C117/148</t>
+  </si>
+  <si>
+    <t>5 December 1867</t>
+  </si>
+  <si>
+    <t>liv_020075</t>
+  </si>
+  <si>
+    <t>Letter to Frederick William Chesson</t>
+  </si>
+  <si>
+    <t>Letter to Frederick William Chesson, 16 August 1881</t>
+  </si>
+  <si>
+    <t>MSS. Brit. Emp. S.18, C129/128</t>
+  </si>
+  <si>
+    <t>16 August 1881</t>
+  </si>
+  <si>
+    <t>12 Blue Cross St. Haymarket S.W.</t>
+  </si>
+  <si>
+    <t>liv_020076</t>
+  </si>
+  <si>
+    <t>Letter to Elizabeth Pease Nichol</t>
+  </si>
+  <si>
+    <t>Letter to Elizabeth Pease Nichol, 29 August 1881</t>
+  </si>
+  <si>
+    <t>MSS. Brit. Emp. S. 18, C129/130</t>
+  </si>
+  <si>
+    <t>29 August 1881</t>
+  </si>
+  <si>
+    <t>12 Blue Cross St. Haymarket, S.W.</t>
+  </si>
+  <si>
+    <t>liv_020077</t>
+  </si>
+  <si>
+    <t>Receipt for Frederick William Chesson</t>
+  </si>
+  <si>
+    <t>Receipt for Frederick William Chesson, 5 September 1881</t>
+  </si>
+  <si>
+    <t>MSS. Brit. Emp. S. 18, C129/132</t>
+  </si>
+  <si>
+    <t>5 September 1881</t>
+  </si>
+  <si>
+    <t>liv_020078</t>
+  </si>
+  <si>
+    <t>Letter to Frederick William Chesson, 5 September 1881</t>
+  </si>
+  <si>
+    <t>MSS. Brit. Emp. S. 18, C129/133</t>
+  </si>
+  <si>
+    <t>6 September 1881</t>
+  </si>
+  <si>
+    <t>liv_020079</t>
+  </si>
+  <si>
+    <t>Letter to Frederick William Chesson, 6 September 1881</t>
+  </si>
+  <si>
+    <t>MSS. Brit. Emp. S. 18, C129/134</t>
+  </si>
+  <si>
+    <t>liv_020080</t>
+  </si>
+  <si>
+    <t>Received of Frederick William Chesson</t>
+  </si>
+  <si>
+    <t>Received of Frederick William Chesson, 6 September 1881</t>
+  </si>
+  <si>
+    <t>MSS. Brit. Emp. S. 18, C129/135</t>
+  </si>
+  <si>
+    <t>liv_020081</t>
+  </si>
+  <si>
+    <t>Letter to Frederick William Chesson, 9 September 1881</t>
+  </si>
+  <si>
+    <t>MSS. Brit. Emp. S. 18, C129/136</t>
+  </si>
+  <si>
+    <t>9 September 1881</t>
+  </si>
+  <si>
+    <t>12 B.C. St. Haymarket S.W.</t>
+  </si>
+  <si>
+    <t>liv_020082</t>
+  </si>
+  <si>
+    <t>Letter to Frederick William Chesson, 23 December 1881</t>
+  </si>
+  <si>
+    <t>MSS. Brit. Emp. S. 18, C129/137</t>
+  </si>
+  <si>
+    <t>23 December 1881</t>
+  </si>
+  <si>
+    <t>The Railways &amp; Metropolitan Omnibus Company Limited,
+18, Queen Victoria Street, E.C. 
+London</t>
+  </si>
+  <si>
+    <t>liv_020083</t>
+  </si>
+  <si>
+    <t>Letter to [Unknown], 25 August 1881-27 August 1881</t>
+  </si>
+  <si>
+    <t>MSS. Brit. Emp. S. 18, C129/129</t>
+  </si>
+  <si>
+    <t>25 August 1881-27 August 1881</t>
+  </si>
+  <si>
+    <t>liv_020084</t>
+  </si>
+  <si>
+    <t>Letter to Frederick William Chesson, 31 August</t>
+  </si>
+  <si>
+    <t>Nichol, Elizabeth Pease, 1807-1897</t>
+  </si>
+  <si>
+    <t>MSS. Brit. Emp. S. 18, C129/131</t>
+  </si>
+  <si>
+    <t>31 August</t>
+  </si>
+  <si>
+    <t>Huntly Lodge Edinburgh</t>
+  </si>
+  <si>
+    <t>liv_020085</t>
+  </si>
+  <si>
+    <t>Letter to Frederick William Chesson, 3 May 1882</t>
+  </si>
+  <si>
+    <t>MSS. Brit. Emp. S. 18, C129/138</t>
+  </si>
+  <si>
+    <t>3 May 1882</t>
+  </si>
+  <si>
+    <t>Railways &amp; Metropolitan Omnibus Company Limited.
+16, Devonshire Chambers Bishopsgate Street Without, London, E.C.</t>
+  </si>
+  <si>
+    <t>liv_020086</t>
+  </si>
+  <si>
+    <t>Letter to Frederick William Chesson, 12 August 1882</t>
+  </si>
+  <si>
+    <t>MSS. Brit. Emp. S. 18, C129/139</t>
+  </si>
+  <si>
+    <t>12 August 1882</t>
+  </si>
+  <si>
+    <t>35 Charlotte St. Fitzroy Square, W.C.</t>
+  </si>
+  <si>
+    <t>liv_020087</t>
+  </si>
+  <si>
+    <t>Letter to William Ivens Craft</t>
+  </si>
+  <si>
+    <t>Letter to William Ivens Craft, 11 August 1882</t>
+  </si>
+  <si>
+    <t>Fowler, Robert Nicholas,  (1828-1891)</t>
+  </si>
+  <si>
+    <t>MSS. Brit. Emp. S. 18, C129/140</t>
+  </si>
+  <si>
+    <t>11 August 1882</t>
+  </si>
+  <si>
+    <t>50, Cornhill London, E.C.</t>
+  </si>
+  <si>
+    <t>liv_020088</t>
+  </si>
+  <si>
+    <t>Letter to Elizabeth Pease Nichol, 31 March 1882</t>
+  </si>
+  <si>
+    <t>MSS. Brit. Emp. S. 18, C156/136</t>
+  </si>
+  <si>
+    <t>31 March 1882</t>
+  </si>
+  <si>
+    <t>Ways Sta Bryan Co Ga</t>
+  </si>
+  <si>
+    <t>liv_020089</t>
+  </si>
+  <si>
+    <t>Letter to Elizabeth Pease Nichol, 22 December 1881</t>
+  </si>
+  <si>
+    <t>MSS. Brit. Emp. S. 18, C156/137</t>
+  </si>
+  <si>
+    <t>22 December 1881</t>
+  </si>
+  <si>
+    <t>liv_020090</t>
+  </si>
+  <si>
+    <t>Letter to Elizabeth Pease Nichol, 24 April 1882</t>
+  </si>
+  <si>
+    <t>MSS. Brit. Emp. S. 18, C156/138</t>
+  </si>
+  <si>
+    <t>24 April 1882</t>
+  </si>
+  <si>
+    <t>liv_020091</t>
+  </si>
+  <si>
+    <t>Letter to Elizabeth Pease Nichol, 3 May 1882</t>
+  </si>
+  <si>
+    <t>MSS. Brit. Emp. S. 18, C156/139</t>
   </si>
 </sst>
 </file>
@@ -3582,11 +3927,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97A9DD5-2802-8C46-B4DE-35FF576EF7FC}">
-  <dimension ref="A1:AK51"/>
+  <dimension ref="A1:AK73"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH51" sqref="AH51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4739,62 +5084,53 @@
         <v>469</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="102" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" ht="119" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>514</v>
+        <v>647</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>565</v>
+        <v>648</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>566</v>
+        <v>649</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>177</v>
+        <v>650</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O31" s="1">
-        <v>807</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="32" spans="1:37" ht="119" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="AC31" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="AD31" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="AH31" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="AJ31" s="4">
+        <v>1855</v>
+      </c>
+      <c r="AK31" s="4" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>518</v>
+        <v>595</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>522</v>
+        <v>597</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>530</v>
+        <v>598</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>115</v>
@@ -4803,36 +5139,33 @@
         <v>16</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>17</v>
+        <v>473</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O32" s="1">
-        <v>807</v>
+        <v>474</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>602</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>519</v>
+        <v>604</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:37" ht="85" x14ac:dyDescent="0.2">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>549</v>
+        <v>596</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>520</v>
+        <v>599</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>521</v>
+        <v>600</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>115</v>
@@ -4841,144 +5174,147 @@
         <v>16</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>17</v>
+        <v>473</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O33" s="1">
-        <v>807</v>
+        <v>474</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>603</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>523</v>
+        <v>605</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:37" ht="85" x14ac:dyDescent="0.2">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>550</v>
+        <v>619</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>831</v>
+        <v>620</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>832</v>
+        <v>621</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>834</v>
+        <v>63</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>429</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="T34" s="1" t="s">
-        <v>553</v>
+        <v>622</v>
+      </c>
+      <c r="T34" s="1">
+        <v>3</v>
       </c>
       <c r="U34" s="1">
-        <v>44</v>
-      </c>
-      <c r="V34" s="1">
-        <v>53</v>
+        <v>25</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>623</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="35" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>560</v>
+        <v>656</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>567</v>
+        <v>655</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>568</v>
+        <v>657</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>569</v>
+        <v>170</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>561</v>
+        <v>658</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>660</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>429</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>562</v>
+        <v>622</v>
       </c>
       <c r="T35" s="1">
-        <v>12</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>563</v>
+        <v>2</v>
+      </c>
+      <c r="U35" s="1">
+        <v>20</v>
+      </c>
+      <c r="V35" s="5" t="s">
+        <v>667</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="36" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" ht="119" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>595</v>
+        <v>914</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>597</v>
+        <v>915</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>598</v>
+        <v>916</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>601</v>
+        <v>650</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="37" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="AC36" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="AD36" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="AH36" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="AJ36" s="4">
+        <v>1855</v>
+      </c>
+      <c r="AK36" s="4" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" ht="102" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>596</v>
+        <v>514</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>599</v>
+        <v>565</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>600</v>
+        <v>566</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>601</v>
+        <v>515</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>115</v>
@@ -4987,544 +5323,1600 @@
         <v>16</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>473</v>
+        <v>17</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>603</v>
+        <v>92</v>
+      </c>
+      <c r="O37" s="1">
+        <v>807</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>605</v>
+        <v>516</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="38" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37" ht="119" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>619</v>
+        <v>518</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>620</v>
+        <v>522</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>621</v>
+        <v>530</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>170</v>
+        <v>557</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>63</v>
+        <v>556</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="T38" s="1">
-        <v>3</v>
-      </c>
-      <c r="U38" s="1">
-        <v>25</v>
-      </c>
-      <c r="V38" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="W38" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="39" spans="1:37" ht="119" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O38" s="1">
+        <v>807</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37" ht="85" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>647</v>
+        <v>549</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>648</v>
+        <v>520</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>649</v>
+        <v>521</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>650</v>
+        <v>558</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="Y39" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="AC39" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="AD39" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="AH39" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="AJ39" s="4">
-        <v>1855</v>
-      </c>
-      <c r="AK39" s="4" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="40" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O39" s="1">
+        <v>807</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37" ht="85" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>656</v>
+        <v>550</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>655</v>
+        <v>831</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>657</v>
+        <v>832</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>658</v>
+        <v>833</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>659</v>
+        <v>170</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>660</v>
+        <v>559</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>834</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>429</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="T40" s="1">
-        <v>2</v>
+        <v>551</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>553</v>
       </c>
       <c r="U40" s="1">
-        <v>20</v>
-      </c>
-      <c r="V40" s="5" t="s">
-        <v>667</v>
+        <v>44</v>
+      </c>
+      <c r="V40" s="1">
+        <v>53</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="41" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>662</v>
+        <v>560</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>663</v>
+        <v>567</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>664</v>
+        <v>568</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>170</v>
+        <v>569</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>671</v>
+        <v>561</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>429</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="V41" s="1">
-        <v>5</v>
+        <v>562</v>
+      </c>
+      <c r="T41" s="1">
+        <v>12</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>563</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="42" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>678</v>
+        <v>170</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>679</v>
+        <v>665</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>671</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="AC42" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="AD42" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH42" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="AJ42" s="4">
-        <v>1904</v>
-      </c>
-      <c r="AK42" s="4" t="s">
-        <v>682</v>
+      <c r="S42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V42" s="1">
+        <v>5</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="43" spans="1:37" ht="68" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>673</v>
+        <v>908</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>676</v>
+        <v>909</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>677</v>
+        <v>910</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>679</v>
+        <v>264</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>429</v>
       </c>
+      <c r="Y43" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z43" s="4" t="s">
+        <v>911</v>
+      </c>
       <c r="AC43" s="4" t="s">
-        <v>681</v>
+        <v>909</v>
       </c>
       <c r="AD43" s="4" t="s">
-        <v>64</v>
+        <v>912</v>
       </c>
       <c r="AH43" s="4" t="s">
-        <v>680</v>
+        <v>913</v>
       </c>
       <c r="AJ43" s="4">
-        <v>1904</v>
-      </c>
-      <c r="AK43" s="4" t="s">
-        <v>683</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="44" spans="1:37" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>674</v>
+        <v>881</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>676</v>
+        <v>883</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>677</v>
+        <v>884</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>679</v>
+        <v>32</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="AC44" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="AD44" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH44" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="AJ44" s="4">
-        <v>1904</v>
-      </c>
-      <c r="AK44" s="4" t="s">
-        <v>684</v>
+        <v>115</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="45" spans="1:37" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>675</v>
+        <v>882</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>676</v>
+        <v>886</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>677</v>
+        <v>887</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>679</v>
+        <v>885</v>
       </c>
       <c r="J45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" ht="187" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="AC45" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="AD45" s="4" t="s">
+      <c r="AA46" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="AB46" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="AC46" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="AD46" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AH45" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="AJ45" s="4">
-        <v>1904</v>
-      </c>
-      <c r="AK45" s="4" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="46" spans="1:37" ht="85" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M46" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="N46" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="O46" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="Q46" s="1" t="s">
-        <v>827</v>
+      <c r="AH46" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="AJ46" s="4">
+        <v>1905</v>
+      </c>
+      <c r="AK46" s="4" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="47" spans="1:37" ht="68" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>881</v>
+        <v>672</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>883</v>
+        <v>676</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>884</v>
+        <v>677</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>32</v>
+        <v>678</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>679</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M47" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="N47" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>893</v>
+        <v>429</v>
+      </c>
+      <c r="AC47" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="AD47" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH47" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="AJ47" s="4">
+        <v>1904</v>
+      </c>
+      <c r="AK47" s="4" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="48" spans="1:37" ht="68" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>882</v>
+        <v>673</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>886</v>
+        <v>676</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>887</v>
+        <v>677</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>885</v>
+        <v>678</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>679</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M48" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="N48" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="49" spans="1:37" ht="187" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+      <c r="AC48" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="AD48" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH48" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="AJ48" s="4">
+        <v>1904</v>
+      </c>
+      <c r="AK48" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>894</v>
+        <v>674</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>895</v>
+        <v>676</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>896</v>
+        <v>677</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>897</v>
+        <v>678</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>901</v>
+        <v>679</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="AA49" s="4" t="s">
-        <v>903</v>
-      </c>
-      <c r="AB49" s="4" t="s">
-        <v>904</v>
-      </c>
       <c r="AC49" s="4" t="s">
-        <v>905</v>
+        <v>681</v>
       </c>
       <c r="AD49" s="4" t="s">
         <v>64</v>
       </c>
       <c r="AH49" s="4" t="s">
-        <v>906</v>
+        <v>680</v>
       </c>
       <c r="AJ49" s="4">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="AK49" s="4" t="s">
-        <v>907</v>
+        <v>684</v>
       </c>
     </row>
     <row r="50" spans="1:37" ht="68" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>908</v>
+        <v>675</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>909</v>
+        <v>676</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>910</v>
+        <v>677</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>264</v>
+        <v>678</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>679</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="Y50" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z50" s="4" t="s">
-        <v>911</v>
-      </c>
       <c r="AC50" s="4" t="s">
-        <v>909</v>
+        <v>681</v>
       </c>
       <c r="AD50" s="4" t="s">
-        <v>912</v>
+        <v>64</v>
       </c>
       <c r="AH50" s="4" t="s">
-        <v>913</v>
+        <v>680</v>
       </c>
       <c r="AJ50" s="4">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="51" spans="1:37" ht="119" x14ac:dyDescent="0.2">
+        <v>1904</v>
+      </c>
+      <c r="AK50" s="4" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37" ht="85" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>914</v>
+        <v>822</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>915</v>
+        <v>823</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>916</v>
+        <v>824</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>650</v>
+        <v>825</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="Y51" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="AC51" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="AD51" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="AH51" s="4" t="s">
-        <v>918</v>
-      </c>
-      <c r="AJ51" s="4">
-        <v>1855</v>
-      </c>
-      <c r="AK51" s="4" t="s">
-        <v>917</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="N51" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="52" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+    </row>
+    <row r="53" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
+      <c r="AG53" s="1"/>
+      <c r="AH53" s="1"/>
+      <c r="AI53" s="1"/>
+      <c r="AJ53" s="1"/>
+      <c r="AK53" s="1"/>
+    </row>
+    <row r="54" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1"/>
+      <c r="AA54" s="1"/>
+      <c r="AB54" s="1"/>
+      <c r="AC54" s="1"/>
+      <c r="AD54" s="1"/>
+      <c r="AE54" s="1"/>
+      <c r="AF54" s="1"/>
+      <c r="AG54" s="1"/>
+      <c r="AH54" s="1"/>
+      <c r="AI54" s="1"/>
+      <c r="AJ54" s="1"/>
+      <c r="AK54" s="1"/>
+    </row>
+    <row r="55" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1"/>
+      <c r="AH55" s="1"/>
+      <c r="AI55" s="1"/>
+      <c r="AJ55" s="1"/>
+      <c r="AK55" s="1"/>
+    </row>
+    <row r="56" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
+      <c r="AA56" s="1"/>
+      <c r="AB56" s="1"/>
+      <c r="AC56" s="1"/>
+      <c r="AD56" s="1"/>
+      <c r="AE56" s="1"/>
+      <c r="AF56" s="1"/>
+      <c r="AG56" s="1"/>
+      <c r="AH56" s="1"/>
+      <c r="AI56" s="1"/>
+      <c r="AJ56" s="1"/>
+      <c r="AK56" s="1"/>
+    </row>
+    <row r="57" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1"/>
+      <c r="AG57" s="1"/>
+      <c r="AH57" s="1"/>
+      <c r="AI57" s="1"/>
+      <c r="AJ57" s="1"/>
+      <c r="AK57" s="1"/>
+    </row>
+    <row r="58" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="1"/>
+      <c r="AE58" s="1"/>
+      <c r="AF58" s="1"/>
+      <c r="AG58" s="1"/>
+      <c r="AH58" s="1"/>
+      <c r="AI58" s="1"/>
+      <c r="AJ58" s="1"/>
+      <c r="AK58" s="1"/>
+    </row>
+    <row r="59" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="1"/>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="1"/>
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="1"/>
+      <c r="AH59" s="1"/>
+      <c r="AI59" s="1"/>
+      <c r="AJ59" s="1"/>
+      <c r="AK59" s="1"/>
+    </row>
+    <row r="60" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
+      <c r="AE60" s="1"/>
+      <c r="AF60" s="1"/>
+      <c r="AG60" s="1"/>
+      <c r="AH60" s="1"/>
+      <c r="AI60" s="1"/>
+      <c r="AJ60" s="1"/>
+      <c r="AK60" s="1"/>
+    </row>
+    <row r="61" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="1"/>
+      <c r="AE61" s="1"/>
+      <c r="AF61" s="1"/>
+      <c r="AG61" s="1"/>
+      <c r="AH61" s="1"/>
+      <c r="AI61" s="1"/>
+      <c r="AJ61" s="1"/>
+      <c r="AK61" s="1"/>
+    </row>
+    <row r="62" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1"/>
+      <c r="AC62" s="1"/>
+      <c r="AD62" s="1"/>
+      <c r="AE62" s="1"/>
+      <c r="AF62" s="1"/>
+      <c r="AG62" s="1"/>
+      <c r="AH62" s="1"/>
+      <c r="AI62" s="1"/>
+      <c r="AJ62" s="1"/>
+      <c r="AK62" s="1"/>
+    </row>
+    <row r="63" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1"/>
+      <c r="AC63" s="1"/>
+      <c r="AD63" s="1"/>
+      <c r="AE63" s="1"/>
+      <c r="AF63" s="1"/>
+      <c r="AG63" s="1"/>
+      <c r="AH63" s="1"/>
+      <c r="AI63" s="1"/>
+      <c r="AJ63" s="1"/>
+      <c r="AK63" s="1"/>
+    </row>
+    <row r="64" spans="1:37" ht="102" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1"/>
+      <c r="AA64" s="1"/>
+      <c r="AB64" s="1"/>
+      <c r="AC64" s="1"/>
+      <c r="AD64" s="1"/>
+      <c r="AE64" s="1"/>
+      <c r="AF64" s="1"/>
+      <c r="AG64" s="1"/>
+      <c r="AH64" s="1"/>
+      <c r="AI64" s="1"/>
+      <c r="AJ64" s="1"/>
+      <c r="AK64" s="1"/>
+    </row>
+    <row r="65" spans="1:37" ht="102" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
+      <c r="AD65" s="1"/>
+      <c r="AE65" s="1"/>
+      <c r="AF65" s="1"/>
+      <c r="AG65" s="1"/>
+      <c r="AH65" s="1"/>
+      <c r="AI65" s="1"/>
+      <c r="AJ65" s="1"/>
+      <c r="AK65" s="1"/>
+    </row>
+    <row r="66" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="P66" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+      <c r="AA66" s="1"/>
+      <c r="AB66" s="1"/>
+      <c r="AC66" s="1"/>
+      <c r="AD66" s="1"/>
+      <c r="AE66" s="1"/>
+      <c r="AF66" s="1"/>
+      <c r="AG66" s="1"/>
+      <c r="AH66" s="1"/>
+      <c r="AI66" s="1"/>
+      <c r="AJ66" s="1"/>
+      <c r="AK66" s="1"/>
+    </row>
+    <row r="67" spans="1:37" ht="119" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+      <c r="AE67" s="1"/>
+      <c r="AF67" s="1"/>
+      <c r="AG67" s="1"/>
+      <c r="AH67" s="1"/>
+      <c r="AI67" s="1"/>
+      <c r="AJ67" s="1"/>
+      <c r="AK67" s="1"/>
+    </row>
+    <row r="68" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+      <c r="AE68" s="1"/>
+      <c r="AF68" s="1"/>
+      <c r="AG68" s="1"/>
+      <c r="AH68" s="1"/>
+      <c r="AI68" s="1"/>
+      <c r="AJ68" s="1"/>
+      <c r="AK68" s="1"/>
+    </row>
+    <row r="69" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AB69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="1"/>
+      <c r="AF69" s="1"/>
+      <c r="AG69" s="1"/>
+      <c r="AH69" s="1"/>
+      <c r="AI69" s="1"/>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="1"/>
+    </row>
+    <row r="70" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1"/>
+      <c r="AA70" s="1"/>
+      <c r="AB70" s="1"/>
+      <c r="AC70" s="1"/>
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="1"/>
+      <c r="AF70" s="1"/>
+      <c r="AG70" s="1"/>
+      <c r="AH70" s="1"/>
+      <c r="AI70" s="1"/>
+      <c r="AJ70" s="1"/>
+      <c r="AK70" s="1"/>
+    </row>
+    <row r="71" spans="1:37" ht="102" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="1"/>
+      <c r="AF71" s="1"/>
+      <c r="AG71" s="1"/>
+      <c r="AH71" s="1"/>
+      <c r="AI71" s="1"/>
+      <c r="AJ71" s="1"/>
+      <c r="AK71" s="1"/>
+    </row>
+    <row r="72" spans="1:37" ht="119" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N72" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
+      <c r="AB72" s="1"/>
+      <c r="AC72" s="1"/>
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="1"/>
+      <c r="AF72" s="1"/>
+      <c r="AG72" s="1"/>
+      <c r="AH72" s="1"/>
+      <c r="AI72" s="1"/>
+      <c r="AJ72" s="1"/>
+      <c r="AK72" s="1"/>
+    </row>
+    <row r="73" spans="1:37" ht="119" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+      <c r="AB73" s="1"/>
+      <c r="AC73" s="1"/>
+      <c r="AD73" s="1"/>
+      <c r="AE73" s="1"/>
+      <c r="AF73" s="1"/>
+      <c r="AG73" s="1"/>
+      <c r="AH73" s="1"/>
+      <c r="AI73" s="1"/>
+      <c r="AJ73" s="1"/>
+      <c r="AK73" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AK33">
-    <sortCondition ref="A2:A33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AK51">
+    <sortCondition ref="A2:A51"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5536,9 +6928,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH83" sqref="AH83"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82606B3-16AB-E042-8F2F-D98117D82FBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847F0AF7-74C2-FD45-8A77-2717FB15AD07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="8940" windowWidth="25020" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
@@ -3382,9 +3382,6 @@
     <t>Letter to William Ivens Craft, 11 August 1882</t>
   </si>
   <si>
-    <t>Fowler, Robert Nicholas,  (1828-1891)</t>
-  </si>
-  <si>
     <t>MSS. Brit. Emp. S. 18, C129/140</t>
   </si>
   <si>
@@ -3440,6 +3437,9 @@
   </si>
   <si>
     <t>MSS. Brit. Emp. S. 18, C156/139</t>
+  </si>
+  <si>
+    <t>Fowler, Robert Nicholas,  1828-1891</t>
   </si>
 </sst>
 </file>
@@ -3930,8 +3930,8 @@
   <dimension ref="A1:AK73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6685,7 +6685,7 @@
         <v>1111</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1112</v>
+        <v>1131</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>115</v>
@@ -6700,13 +6700,13 @@
         <v>474</v>
       </c>
       <c r="O69" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="P69" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="P69" s="1" t="s">
+      <c r="Q69" s="1" t="s">
         <v>1114</v>
-      </c>
-      <c r="Q69" s="1" t="s">
-        <v>1115</v>
       </c>
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
@@ -6724,13 +6724,13 @@
     </row>
     <row r="70" spans="1:37" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>1058</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>1028</v>
@@ -6748,13 +6748,13 @@
         <v>474</v>
       </c>
       <c r="O70" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="P70" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="P70" s="1" t="s">
+      <c r="Q70" s="1" t="s">
         <v>1119</v>
-      </c>
-      <c r="Q70" s="1" t="s">
-        <v>1120</v>
       </c>
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
@@ -6772,13 +6772,13 @@
     </row>
     <row r="71" spans="1:37" ht="102" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>1058</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>1048</v>
@@ -6796,10 +6796,10 @@
         <v>474</v>
       </c>
       <c r="O71" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="P71" s="1" t="s">
         <v>1123</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>1124</v>
       </c>
       <c r="Q71" s="1" t="s">
         <v>1088</v>
@@ -6820,13 +6820,13 @@
     </row>
     <row r="72" spans="1:37" ht="119" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>1058</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>1048</v>
@@ -6844,10 +6844,10 @@
         <v>474</v>
       </c>
       <c r="O72" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="P72" s="1" t="s">
         <v>1127</v>
-      </c>
-      <c r="P72" s="1" t="s">
-        <v>1128</v>
       </c>
       <c r="Q72" s="1" t="s">
         <v>1103</v>
@@ -6868,13 +6868,13 @@
     </row>
     <row r="73" spans="1:37" ht="119" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>1058</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>1048</v>
@@ -6892,7 +6892,7 @@
         <v>474</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="P73" s="1" t="s">
         <v>1102</v>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847F0AF7-74C2-FD45-8A77-2717FB15AD07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E74321A-D3F8-5041-A92A-DA311210C0EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="8940" windowWidth="25020" windowHeight="6780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="8740" windowWidth="25020" windowHeight="6980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="1140">
   <si>
     <t>liv_000017</t>
   </si>
@@ -3440,6 +3440,30 @@
   </si>
   <si>
     <t>Fowler, Robert Nicholas,  1828-1891</t>
+  </si>
+  <si>
+    <t>https://archive.org/details/wheniwaschild00markuoft</t>
+  </si>
+  <si>
+    <t>Yoshio Markino seated at desk in half profile and facing forward.</t>
+  </si>
+  <si>
+    <t>liv_021080</t>
+  </si>
+  <si>
+    <t>Markino, Yoshio, 1869-1956</t>
+  </si>
+  <si>
+    <t>When I Was a Child</t>
+  </si>
+  <si>
+    <t>Constable &amp; Company, Ltd.</t>
+  </si>
+  <si>
+    <t>Yoshio Markino (with Facsimile Signature)</t>
+  </si>
+  <si>
+    <t>Yoshio Markino (with Facsimile Signature), 1912</t>
   </si>
 </sst>
 </file>
@@ -3929,7 +3953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97A9DD5-2802-8C46-B4DE-35FF576EF7FC}">
   <dimension ref="A1:AK73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
@@ -6926,11 +6950,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ83"/>
+  <dimension ref="A1:AQ84"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10259,7 +10283,7 @@
       <c r="Z76" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="AB76" s="1" t="s">
+      <c r="AC76" s="1" t="s">
         <v>973</v>
       </c>
       <c r="AG76" s="1">
@@ -10311,7 +10335,7 @@
         <v>703</v>
       </c>
       <c r="X77" s="17"/>
-      <c r="AB77" s="1"/>
+      <c r="AC77" s="1"/>
       <c r="AH77" s="1"/>
     </row>
     <row r="78" spans="1:34" ht="68" x14ac:dyDescent="0.2">
@@ -10356,7 +10380,7 @@
         <v>703</v>
       </c>
       <c r="X78" s="17"/>
-      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
       <c r="AH78" s="1"/>
     </row>
     <row r="79" spans="1:34" ht="51" x14ac:dyDescent="0.2">
@@ -10401,7 +10425,7 @@
         <v>703</v>
       </c>
       <c r="X79" s="17"/>
-      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
       <c r="AH79" s="1"/>
     </row>
     <row r="80" spans="1:34" ht="102" x14ac:dyDescent="0.2">
@@ -10443,7 +10467,7 @@
       <c r="Y80" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="AB80" s="1" t="s">
+      <c r="AC80" s="1" t="s">
         <v>974</v>
       </c>
       <c r="AG80" s="1">
@@ -10497,7 +10521,7 @@
         <v>703</v>
       </c>
       <c r="X81" s="17"/>
-      <c r="AB81" s="1"/>
+      <c r="AC81" s="1"/>
       <c r="AH81" s="1"/>
     </row>
     <row r="82" spans="1:34" ht="51" x14ac:dyDescent="0.2">
@@ -10544,7 +10568,7 @@
         <v>976</v>
       </c>
       <c r="X82" s="17"/>
-      <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
       <c r="AH82" s="1"/>
     </row>
     <row r="83" spans="1:34" ht="136" x14ac:dyDescent="0.2">
@@ -10585,7 +10609,7 @@
       <c r="Y83" s="17" t="s">
         <v>977</v>
       </c>
-      <c r="AB83" s="1" t="s">
+      <c r="AC83" s="1" t="s">
         <v>975</v>
       </c>
       <c r="AG83" s="1" t="s">
@@ -10593,6 +10617,53 @@
       </c>
       <c r="AH83" s="1" t="s">
         <v>1017</v>
+      </c>
+    </row>
+    <row r="84" spans="1:34" ht="51" x14ac:dyDescent="0.2">
+      <c r="A84" s="7" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>1139</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L84" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M84" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="V84" s="10" t="s">
+        <v>1135</v>
+      </c>
+      <c r="X84" s="7" t="s">
+        <v>1136</v>
+      </c>
+      <c r="Y84" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC84" s="7" t="s">
+        <v>1137</v>
+      </c>
+      <c r="AG84" s="7">
+        <v>1912</v>
+      </c>
+      <c r="AH84" s="7" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E74321A-D3F8-5041-A92A-DA311210C0EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA29DF73-25AD-EC41-A806-470FFFF3005F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="8740" windowWidth="25020" windowHeight="6980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="1140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="1144">
   <si>
     <t>liv_000017</t>
   </si>
@@ -3312,16 +3312,7 @@
 London</t>
   </si>
   <si>
-    <t>liv_020083</t>
-  </si>
-  <si>
-    <t>Letter to [Unknown], 25 August 1881-27 August 1881</t>
-  </si>
-  <si>
     <t>MSS. Brit. Emp. S. 18, C129/129</t>
-  </si>
-  <si>
-    <t>25 August 1881-27 August 1881</t>
   </si>
   <si>
     <t>liv_020084</t>
@@ -3464,6 +3455,27 @@
   </si>
   <si>
     <t>Yoshio Markino (with Facsimile Signature), 1912</t>
+  </si>
+  <si>
+    <t>liv_020092</t>
+  </si>
+  <si>
+    <t>Letter to [Unknown], 25 August 1881</t>
+  </si>
+  <si>
+    <t>25 August 1881</t>
+  </si>
+  <si>
+    <t>liv_020093</t>
+  </si>
+  <si>
+    <t>Letter to [Unknown], 27 August 1881</t>
+  </si>
+  <si>
+    <t>Chesson, Frederick William, 1833-1888</t>
+  </si>
+  <si>
+    <t>27 August 1881</t>
   </si>
 </sst>
 </file>
@@ -3951,11 +3963,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97A9DD5-2802-8C46-B4DE-35FF576EF7FC}">
-  <dimension ref="A1:AK73"/>
+  <dimension ref="A1:AK74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6506,18 +6518,18 @@
       <c r="AJ64" s="1"/>
       <c r="AK64" s="1"/>
     </row>
-    <row r="65" spans="1:37" ht="102" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:37" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1026</v>
+        <v>1052</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1048</v>
+        <v>1092</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>115</v>
@@ -6532,13 +6544,13 @@
         <v>474</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>1092</v>
+        <v>1093</v>
+      </c>
+      <c r="P65" s="5" t="s">
+        <v>1094</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>1088</v>
+        <v>1095</v>
       </c>
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
@@ -6554,18 +6566,18 @@
       <c r="AJ65" s="1"/>
       <c r="AK65" s="1"/>
     </row>
-    <row r="66" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:37" ht="119" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>1052</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1095</v>
+        <v>1048</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>115</v>
@@ -6580,13 +6592,13 @@
         <v>474</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="P66" s="5" t="s">
-        <v>1097</v>
+        <v>1098</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>1099</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
@@ -6602,15 +6614,15 @@
       <c r="AJ66" s="1"/>
       <c r="AK66" s="1"/>
     </row>
-    <row r="67" spans="1:37" ht="119" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:37" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>1052</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>1048</v>
@@ -6628,13 +6640,13 @@
         <v>474</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
@@ -6650,18 +6662,18 @@
       <c r="AJ67" s="1"/>
       <c r="AK67" s="1"/>
     </row>
-    <row r="68" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:37" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1052</v>
+        <v>1107</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1048</v>
+        <v>1128</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>115</v>
@@ -6676,13 +6688,13 @@
         <v>474</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
@@ -6698,18 +6710,18 @@
       <c r="AJ68" s="1"/>
       <c r="AK68" s="1"/>
     </row>
-    <row r="69" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:37" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1110</v>
+        <v>1058</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1131</v>
+        <v>1028</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>115</v>
@@ -6724,13 +6736,13 @@
         <v>474</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
@@ -6746,18 +6758,18 @@
       <c r="AJ69" s="1"/>
       <c r="AK69" s="1"/>
     </row>
-    <row r="70" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:37" ht="102" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>1058</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1028</v>
+        <v>1048</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>115</v>
@@ -6772,13 +6784,13 @@
         <v>474</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>1119</v>
+        <v>1088</v>
       </c>
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
@@ -6794,15 +6806,15 @@
       <c r="AJ70" s="1"/>
       <c r="AK70" s="1"/>
     </row>
-    <row r="71" spans="1:37" ht="102" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:37" ht="119" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>1058</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>1048</v>
@@ -6820,13 +6832,13 @@
         <v>474</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>1088</v>
+        <v>1100</v>
       </c>
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
@@ -6844,13 +6856,13 @@
     </row>
     <row r="72" spans="1:37" ht="119" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>1058</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>1048</v>
@@ -6868,13 +6880,13 @@
         <v>474</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>1127</v>
+        <v>1099</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
@@ -6890,15 +6902,15 @@
       <c r="AJ72" s="1"/>
       <c r="AK72" s="1"/>
     </row>
-    <row r="73" spans="1:37" ht="119" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:37" ht="102" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>1128</v>
+        <v>1137</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1058</v>
+        <v>1026</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1129</v>
+        <v>1138</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>1048</v>
@@ -6916,13 +6928,13 @@
         <v>474</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>1130</v>
+        <v>1089</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>1102</v>
+        <v>1139</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>1103</v>
+        <v>1088</v>
       </c>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
@@ -6937,6 +6949,51 @@
       <c r="AI73" s="1"/>
       <c r="AJ73" s="1"/>
       <c r="AK73" s="1"/>
+    </row>
+    <row r="74" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
+      <c r="AD74" s="1"/>
+      <c r="AE74" s="1"/>
+      <c r="AF74" s="1"/>
+      <c r="AG74" s="1"/>
+      <c r="AH74" s="1"/>
+      <c r="AI74" s="1"/>
+      <c r="AJ74" s="1"/>
+      <c r="AK74" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AK51">
@@ -6952,7 +7009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
     </sheetView>
@@ -10621,22 +10678,22 @@
     </row>
     <row r="84" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="B84" s="17" t="s">
         <v>706</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="I84" s="7" t="s">
         <v>170</v>
@@ -10648,16 +10705,16 @@
         <v>116</v>
       </c>
       <c r="V84" s="10" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="X84" s="7" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="Y84" s="7" t="s">
         <v>64</v>
       </c>
       <c r="AC84" s="7" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="AG84" s="7">
         <v>1912</v>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA29DF73-25AD-EC41-A806-470FFFF3005F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FC8DA4-E292-A046-8BBD-BDCB6F16051C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="1144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="1152">
   <si>
     <t>liv_000017</t>
   </si>
@@ -3476,6 +3476,30 @@
   </si>
   <si>
     <t>27 August 1881</t>
+  </si>
+  <si>
+    <t>liv_020053</t>
+  </si>
+  <si>
+    <t>“Majwara's Account of the Last Journey and Death of Dr. Livingstone”</t>
+  </si>
+  <si>
+    <t>“Majwara's Account of the Last Journey and Death of Dr. Livingstone,” 13 April 1874</t>
+  </si>
+  <si>
+    <t>Majwara, c.1857-1886</t>
+  </si>
+  <si>
+    <t>Holmwood, Frederick</t>
+  </si>
+  <si>
+    <t>Proceedings of the Royal Geographical Society</t>
+  </si>
+  <si>
+    <t>244-46</t>
+  </si>
+  <si>
+    <t>12 March 1874; 13 April 1874</t>
   </si>
 </sst>
 </file>
@@ -3963,11 +3987,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97A9DD5-2802-8C46-B4DE-35FF576EF7FC}">
-  <dimension ref="A1:AK74"/>
+  <dimension ref="A1:AK75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J74" sqref="J74"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA46" sqref="AA46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5675,94 +5699,97 @@
         <v>892</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="187" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:37" ht="85" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>894</v>
+        <v>1144</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>895</v>
+        <v>1145</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>896</v>
+        <v>1146</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>897</v>
+        <v>1148</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>900</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>901</v>
+        <v>1147</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="AA46" s="4" t="s">
-        <v>903</v>
-      </c>
-      <c r="AB46" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="AC46" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="AD46" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH46" s="4" t="s">
-        <v>906</v>
-      </c>
-      <c r="AJ46" s="4">
-        <v>1905</v>
-      </c>
-      <c r="AK46" s="4" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="47" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="S46" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="T46" s="1">
+        <v>18</v>
+      </c>
+      <c r="U46" s="1">
+        <v>3</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37" ht="187" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>672</v>
+        <v>894</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>676</v>
+        <v>895</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>677</v>
+        <v>896</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>678</v>
+        <v>897</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>679</v>
+        <v>898</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>901</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>429</v>
       </c>
+      <c r="AA47" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="AB47" s="4" t="s">
+        <v>904</v>
+      </c>
       <c r="AC47" s="4" t="s">
-        <v>681</v>
+        <v>905</v>
       </c>
       <c r="AD47" s="4" t="s">
         <v>64</v>
       </c>
       <c r="AH47" s="4" t="s">
-        <v>680</v>
+        <v>906</v>
       </c>
       <c r="AJ47" s="4">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="AK47" s="4" t="s">
-        <v>682</v>
+        <v>907</v>
       </c>
     </row>
     <row r="48" spans="1:37" ht="68" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>676</v>
@@ -5792,12 +5819,12 @@
         <v>1904</v>
       </c>
       <c r="AK48" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="49" spans="1:37" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>676</v>
@@ -5827,12 +5854,12 @@
         <v>1904</v>
       </c>
       <c r="AK49" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="50" spans="1:37" ht="68" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>676</v>
@@ -5862,107 +5889,94 @@
         <v>1904</v>
       </c>
       <c r="AK50" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="51" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AC51" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="AD51" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH51" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="AJ51" s="4">
+        <v>1904</v>
+      </c>
+      <c r="AK51" s="4" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="85" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:37" ht="85" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M51" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="N51" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="52" spans="1:37" ht="51" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>1021</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="L52" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M52" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>474</v>
+      <c r="M52" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="N52" s="7" t="s">
+        <v>612</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>1022</v>
+        <v>828</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>1023</v>
+        <v>826</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="1"/>
-      <c r="AA52" s="1"/>
-      <c r="AB52" s="1"/>
-      <c r="AC52" s="1"/>
-      <c r="AD52" s="1"/>
-      <c r="AE52" s="1"/>
-      <c r="AF52" s="1"/>
-      <c r="AG52" s="1"/>
-      <c r="AH52" s="1"/>
-      <c r="AI52" s="1"/>
-      <c r="AJ52" s="1"/>
-      <c r="AK52" s="1"/>
-    </row>
-    <row r="53" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="53" spans="1:37" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>115</v>
@@ -5977,13 +5991,13 @@
         <v>474</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
@@ -6001,16 +6015,16 @@
     </row>
     <row r="54" spans="1:37" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1021</v>
+        <v>1028</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>115</v>
@@ -6025,13 +6039,13 @@
         <v>474</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
@@ -6047,18 +6061,18 @@
       <c r="AJ54" s="1"/>
       <c r="AK54" s="1"/>
     </row>
-    <row r="55" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:37" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>1041</v>
+        <v>1021</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>115</v>
@@ -6073,13 +6087,13 @@
         <v>474</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
@@ -6095,18 +6109,18 @@
       <c r="AJ55" s="1"/>
       <c r="AK55" s="1"/>
     </row>
-    <row r="56" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:37" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>115</v>
@@ -6121,13 +6135,13 @@
         <v>474</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>1037</v>
+        <v>1044</v>
       </c>
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
@@ -6143,15 +6157,15 @@
       <c r="AJ56" s="1"/>
       <c r="AK56" s="1"/>
     </row>
-    <row r="57" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:37" ht="68" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>1048</v>
@@ -6169,13 +6183,13 @@
         <v>474</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>1056</v>
+        <v>1037</v>
       </c>
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
@@ -6193,13 +6207,13 @@
     </row>
     <row r="58" spans="1:37" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>1048</v>
@@ -6217,13 +6231,13 @@
         <v>474</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
@@ -6241,13 +6255,13 @@
     </row>
     <row r="59" spans="1:37" ht="51" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>1048</v>
@@ -6265,10 +6279,13 @@
         <v>474</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>1067</v>
+        <v>1061</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>1062</v>
       </c>
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
@@ -6286,13 +6303,13 @@
     </row>
     <row r="60" spans="1:37" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1052</v>
+        <v>1064</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>1048</v>
@@ -6310,10 +6327,10 @@
         <v>474</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
@@ -6331,13 +6348,13 @@
     </row>
     <row r="61" spans="1:37" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>1052</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>1048</v>
@@ -6355,13 +6372,10 @@
         <v>474</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="P61" s="1" t="s">
         <v>1071</v>
-      </c>
-      <c r="Q61" s="1" t="s">
-        <v>1056</v>
       </c>
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
@@ -6379,13 +6393,13 @@
     </row>
     <row r="62" spans="1:37" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1076</v>
+        <v>1052</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>1048</v>
@@ -6403,10 +6417,13 @@
         <v>474</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="P62" s="1" t="s">
         <v>1071</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>1056</v>
       </c>
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
@@ -6424,13 +6441,13 @@
     </row>
     <row r="63" spans="1:37" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1052</v>
+        <v>1076</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>1048</v>
@@ -6448,13 +6465,10 @@
         <v>474</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>1082</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>1083</v>
+        <v>1071</v>
       </c>
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
@@ -6470,15 +6484,15 @@
       <c r="AJ63" s="1"/>
       <c r="AK63" s="1"/>
     </row>
-    <row r="64" spans="1:37" ht="102" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:37" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>1052</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>1048</v>
@@ -6496,13 +6510,13 @@
         <v>474</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
@@ -6518,18 +6532,18 @@
       <c r="AJ64" s="1"/>
       <c r="AK64" s="1"/>
     </row>
-    <row r="65" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:37" ht="102" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>1052</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1092</v>
+        <v>1048</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>115</v>
@@ -6544,13 +6558,13 @@
         <v>474</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>1093</v>
-      </c>
-      <c r="P65" s="5" t="s">
-        <v>1094</v>
+        <v>1086</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>1087</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
@@ -6566,18 +6580,18 @@
       <c r="AJ65" s="1"/>
       <c r="AK65" s="1"/>
     </row>
-    <row r="66" spans="1:37" ht="119" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:37" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>1052</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1048</v>
+        <v>1092</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>115</v>
@@ -6592,13 +6606,13 @@
         <v>474</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>1099</v>
+        <v>1093</v>
+      </c>
+      <c r="P66" s="5" t="s">
+        <v>1094</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
@@ -6614,15 +6628,15 @@
       <c r="AJ66" s="1"/>
       <c r="AK66" s="1"/>
     </row>
-    <row r="67" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:37" ht="119" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>1052</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>1048</v>
@@ -6640,13 +6654,13 @@
         <v>474</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
@@ -6662,18 +6676,18 @@
       <c r="AJ67" s="1"/>
       <c r="AK67" s="1"/>
     </row>
-    <row r="68" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:37" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1107</v>
+        <v>1052</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1128</v>
+        <v>1048</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>115</v>
@@ -6688,13 +6702,13 @@
         <v>474</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
@@ -6710,18 +6724,18 @@
       <c r="AJ68" s="1"/>
       <c r="AK68" s="1"/>
     </row>
-    <row r="69" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:37" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1058</v>
+        <v>1107</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1028</v>
+        <v>1128</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>115</v>
@@ -6736,13 +6750,13 @@
         <v>474</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
@@ -6758,18 +6772,18 @@
       <c r="AJ69" s="1"/>
       <c r="AK69" s="1"/>
     </row>
-    <row r="70" spans="1:37" ht="102" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:37" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>1058</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1048</v>
+        <v>1028</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>115</v>
@@ -6784,13 +6798,13 @@
         <v>474</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>1088</v>
+        <v>1116</v>
       </c>
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
@@ -6806,15 +6820,15 @@
       <c r="AJ70" s="1"/>
       <c r="AK70" s="1"/>
     </row>
-    <row r="71" spans="1:37" ht="119" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:37" ht="102" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>1058</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>1048</v>
@@ -6832,13 +6846,13 @@
         <v>474</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>1100</v>
+        <v>1088</v>
       </c>
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
@@ -6856,13 +6870,13 @@
     </row>
     <row r="72" spans="1:37" ht="119" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>1058</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>1048</v>
@@ -6880,10 +6894,10 @@
         <v>474</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>1099</v>
+        <v>1124</v>
       </c>
       <c r="Q72" s="1" t="s">
         <v>1100</v>
@@ -6902,15 +6916,15 @@
       <c r="AJ72" s="1"/>
       <c r="AK72" s="1"/>
     </row>
-    <row r="73" spans="1:37" ht="102" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:37" ht="119" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>1137</v>
+        <v>1125</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1026</v>
+        <v>1058</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1138</v>
+        <v>1126</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>1048</v>
@@ -6928,13 +6942,13 @@
         <v>474</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>1089</v>
+        <v>1127</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>1139</v>
+        <v>1099</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>1088</v>
+        <v>1100</v>
       </c>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
@@ -6950,18 +6964,18 @@
       <c r="AJ73" s="1"/>
       <c r="AK73" s="1"/>
     </row>
-    <row r="74" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:37" ht="102" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>1026</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1142</v>
+        <v>1048</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>115</v>
@@ -6979,7 +6993,10 @@
         <v>1089</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>1143</v>
+        <v>1139</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>1088</v>
       </c>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
@@ -6995,9 +7012,54 @@
       <c r="AJ74" s="1"/>
       <c r="AK74" s="1"/>
     </row>
+    <row r="75" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1"/>
+      <c r="AA75" s="1"/>
+      <c r="AB75" s="1"/>
+      <c r="AC75" s="1"/>
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="1"/>
+      <c r="AF75" s="1"/>
+      <c r="AG75" s="1"/>
+      <c r="AH75" s="1"/>
+      <c r="AI75" s="1"/>
+      <c r="AJ75" s="1"/>
+      <c r="AK75" s="1"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AK51">
-    <sortCondition ref="A2:A51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AK52">
+    <sortCondition ref="A2:A52"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FC8DA4-E292-A046-8BBD-BDCB6F16051C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FB16D3-A10E-5046-9BE8-18FFE3A2E761}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="1152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="1161">
   <si>
     <t>liv_000017</t>
   </si>
@@ -3500,6 +3500,33 @@
   </si>
   <si>
     <t>12 March 1874; 13 April 1874</t>
+  </si>
+  <si>
+    <t>liv_020062</t>
+  </si>
+  <si>
+    <t>liv_020063</t>
+  </si>
+  <si>
+    <t>“The Caffre War”</t>
+  </si>
+  <si>
+    <t>“The General and the Caffre Chief”</t>
+  </si>
+  <si>
+    <t>“The General and the Caffre Chief,” 1 March 1853</t>
+  </si>
+  <si>
+    <t>“The Caffre War,” 28 February 1853</t>
+  </si>
+  <si>
+    <t>8-9</t>
+  </si>
+  <si>
+    <t>28 February 1853</t>
+  </si>
+  <si>
+    <t>1 March 1853</t>
   </si>
 </sst>
 </file>
@@ -3987,11 +4014,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97A9DD5-2802-8C46-B4DE-35FF576EF7FC}">
-  <dimension ref="A1:AK75"/>
+  <dimension ref="A1:AK77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA46" sqref="AA46"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W54" sqref="W54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5965,111 +5992,73 @@
         <v>827</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:37" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="S53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V53" s="1">
+        <v>5</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="S54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V54" s="5" t="s">
+        <v>1158</v>
+      </c>
+      <c r="W54" s="1" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>1020</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="Y53" s="1"/>
-      <c r="Z53" s="1"/>
-      <c r="AA53" s="1"/>
-      <c r="AB53" s="1"/>
-      <c r="AC53" s="1"/>
-      <c r="AD53" s="1"/>
-      <c r="AE53" s="1"/>
-      <c r="AF53" s="1"/>
-      <c r="AG53" s="1"/>
-      <c r="AH53" s="1"/>
-      <c r="AI53" s="1"/>
-      <c r="AJ53" s="1"/>
-      <c r="AK53" s="1"/>
-    </row>
-    <row r="54" spans="1:37" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>1028</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="Q54" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
-      <c r="AA54" s="1"/>
-      <c r="AB54" s="1"/>
-      <c r="AC54" s="1"/>
-      <c r="AD54" s="1"/>
-      <c r="AE54" s="1"/>
-      <c r="AF54" s="1"/>
-      <c r="AG54" s="1"/>
-      <c r="AH54" s="1"/>
-      <c r="AI54" s="1"/>
-      <c r="AJ54" s="1"/>
-      <c r="AK54" s="1"/>
-    </row>
-    <row r="55" spans="1:37" ht="34" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>1034</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>1021</v>
@@ -6087,13 +6076,13 @@
         <v>474</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>1036</v>
+        <v>1023</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>1037</v>
+        <v>1024</v>
       </c>
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
@@ -6109,18 +6098,18 @@
       <c r="AJ55" s="1"/>
       <c r="AK55" s="1"/>
     </row>
-    <row r="56" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:37" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1039</v>
+        <v>1026</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>115</v>
@@ -6135,13 +6124,13 @@
         <v>474</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>1043</v>
+        <v>1030</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
@@ -6157,18 +6146,18 @@
       <c r="AJ56" s="1"/>
       <c r="AK56" s="1"/>
     </row>
-    <row r="57" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:37" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>1045</v>
+        <v>1032</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1046</v>
+        <v>1033</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1048</v>
+        <v>1021</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>115</v>
@@ -6183,10 +6172,10 @@
         <v>474</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>1049</v>
+        <v>1035</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>1050</v>
+        <v>1036</v>
       </c>
       <c r="Q57" s="1" t="s">
         <v>1037</v>
@@ -6207,16 +6196,16 @@
     </row>
     <row r="58" spans="1:37" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>1051</v>
+        <v>1038</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1052</v>
+        <v>1039</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1053</v>
+        <v>1040</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>115</v>
@@ -6231,13 +6220,13 @@
         <v>474</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>1054</v>
+        <v>1042</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>1055</v>
+        <v>1043</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
@@ -6253,15 +6242,15 @@
       <c r="AJ58" s="1"/>
       <c r="AK58" s="1"/>
     </row>
-    <row r="59" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:37" ht="68" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>1057</v>
+        <v>1045</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1058</v>
+        <v>1046</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1059</v>
+        <v>1047</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>1048</v>
@@ -6279,13 +6268,13 @@
         <v>474</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>1060</v>
+        <v>1049</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>1061</v>
+        <v>1050</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>1062</v>
+        <v>1037</v>
       </c>
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
@@ -6303,13 +6292,13 @@
     </row>
     <row r="60" spans="1:37" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>1063</v>
+        <v>1051</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1065</v>
+        <v>1053</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>1048</v>
@@ -6327,10 +6316,13 @@
         <v>474</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>1066</v>
+        <v>1054</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>1067</v>
+        <v>1055</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>1056</v>
       </c>
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
@@ -6348,13 +6340,13 @@
     </row>
     <row r="61" spans="1:37" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>1068</v>
+        <v>1057</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>1048</v>
@@ -6372,10 +6364,13 @@
         <v>474</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>1071</v>
+        <v>1061</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>1062</v>
       </c>
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
@@ -6393,13 +6388,13 @@
     </row>
     <row r="62" spans="1:37" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>1072</v>
+        <v>1063</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1052</v>
+        <v>1064</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>1048</v>
@@ -6417,13 +6412,10 @@
         <v>474</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>1071</v>
-      </c>
-      <c r="Q62" s="1" t="s">
-        <v>1056</v>
+        <v>1067</v>
       </c>
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
@@ -6441,13 +6433,13 @@
     </row>
     <row r="63" spans="1:37" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1076</v>
+        <v>1052</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>1048</v>
@@ -6465,7 +6457,7 @@
         <v>474</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="P63" s="1" t="s">
         <v>1071</v>
@@ -6486,13 +6478,13 @@
     </row>
     <row r="64" spans="1:37" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>1052</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1080</v>
+        <v>1073</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>1048</v>
@@ -6510,13 +6502,13 @@
         <v>474</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>1082</v>
+        <v>1071</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>1083</v>
+        <v>1056</v>
       </c>
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
@@ -6532,15 +6524,15 @@
       <c r="AJ64" s="1"/>
       <c r="AK64" s="1"/>
     </row>
-    <row r="65" spans="1:37" ht="102" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:37" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1052</v>
+        <v>1076</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>1048</v>
@@ -6558,13 +6550,10 @@
         <v>474</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="Q65" s="1" t="s">
-        <v>1088</v>
+        <v>1071</v>
       </c>
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
@@ -6582,16 +6571,16 @@
     </row>
     <row r="66" spans="1:37" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>1090</v>
+        <v>1079</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>1052</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1091</v>
+        <v>1080</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1092</v>
+        <v>1048</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>115</v>
@@ -6606,13 +6595,13 @@
         <v>474</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>1093</v>
-      </c>
-      <c r="P66" s="5" t="s">
-        <v>1094</v>
+        <v>1081</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>1082</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>1095</v>
+        <v>1083</v>
       </c>
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
@@ -6628,15 +6617,15 @@
       <c r="AJ66" s="1"/>
       <c r="AK66" s="1"/>
     </row>
-    <row r="67" spans="1:37" ht="119" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:37" ht="102" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>1096</v>
+        <v>1084</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>1052</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>1048</v>
@@ -6654,13 +6643,13 @@
         <v>474</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>1098</v>
+        <v>1086</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>1099</v>
+        <v>1087</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>1100</v>
+        <v>1088</v>
       </c>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
@@ -6678,16 +6667,16 @@
     </row>
     <row r="68" spans="1:37" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>1101</v>
+        <v>1090</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>1052</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1102</v>
+        <v>1091</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1048</v>
+        <v>1092</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>115</v>
@@ -6702,13 +6691,13 @@
         <v>474</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>1103</v>
-      </c>
-      <c r="P68" s="1" t="s">
-        <v>1104</v>
+        <v>1093</v>
+      </c>
+      <c r="P68" s="5" t="s">
+        <v>1094</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
@@ -6724,18 +6713,18 @@
       <c r="AJ68" s="1"/>
       <c r="AK68" s="1"/>
     </row>
-    <row r="69" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:37" ht="119" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1107</v>
+        <v>1052</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1108</v>
+        <v>1097</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1128</v>
+        <v>1048</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>115</v>
@@ -6750,13 +6739,13 @@
         <v>474</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>1109</v>
+        <v>1098</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>1110</v>
+        <v>1099</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>1111</v>
+        <v>1100</v>
       </c>
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
@@ -6774,16 +6763,16 @@
     </row>
     <row r="70" spans="1:37" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>1112</v>
+        <v>1101</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1113</v>
+        <v>1102</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1028</v>
+        <v>1048</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>115</v>
@@ -6798,13 +6787,13 @@
         <v>474</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>1114</v>
+        <v>1103</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>1115</v>
+        <v>1104</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>1116</v>
+        <v>1105</v>
       </c>
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
@@ -6820,18 +6809,18 @@
       <c r="AJ70" s="1"/>
       <c r="AK70" s="1"/>
     </row>
-    <row r="71" spans="1:37" ht="102" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:37" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1058</v>
+        <v>1107</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1048</v>
+        <v>1128</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>115</v>
@@ -6846,13 +6835,13 @@
         <v>474</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>1119</v>
+        <v>1109</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>1088</v>
+        <v>1111</v>
       </c>
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
@@ -6868,18 +6857,18 @@
       <c r="AJ71" s="1"/>
       <c r="AK71" s="1"/>
     </row>
-    <row r="72" spans="1:37" ht="119" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:37" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>1058</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1122</v>
+        <v>1113</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1048</v>
+        <v>1028</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>115</v>
@@ -6894,13 +6883,13 @@
         <v>474</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>1124</v>
+        <v>1115</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>1100</v>
+        <v>1116</v>
       </c>
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
@@ -6916,15 +6905,15 @@
       <c r="AJ72" s="1"/>
       <c r="AK72" s="1"/>
     </row>
-    <row r="73" spans="1:37" ht="119" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:37" ht="102" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>1058</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>1048</v>
@@ -6942,13 +6931,13 @@
         <v>474</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>1099</v>
+        <v>1120</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>1100</v>
+        <v>1088</v>
       </c>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
@@ -6964,15 +6953,15 @@
       <c r="AJ73" s="1"/>
       <c r="AK73" s="1"/>
     </row>
-    <row r="74" spans="1:37" ht="102" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:37" ht="119" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>1137</v>
+        <v>1121</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1026</v>
+        <v>1058</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1138</v>
+        <v>1122</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>1048</v>
@@ -6990,13 +6979,13 @@
         <v>474</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>1089</v>
+        <v>1123</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>1139</v>
+        <v>1124</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>1088</v>
+        <v>1100</v>
       </c>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
@@ -7012,18 +7001,18 @@
       <c r="AJ74" s="1"/>
       <c r="AK74" s="1"/>
     </row>
-    <row r="75" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:37" ht="119" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>1140</v>
+        <v>1125</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1026</v>
+        <v>1058</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1141</v>
+        <v>1126</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1142</v>
+        <v>1048</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>115</v>
@@ -7038,10 +7027,13 @@
         <v>474</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>1089</v>
+        <v>1127</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>1143</v>
+        <v>1099</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>1100</v>
       </c>
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
@@ -7056,6 +7048,99 @@
       <c r="AI75" s="1"/>
       <c r="AJ75" s="1"/>
       <c r="AK75" s="1"/>
+    </row>
+    <row r="76" spans="1:37" ht="102" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="P76" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1"/>
+      <c r="AA76" s="1"/>
+      <c r="AB76" s="1"/>
+      <c r="AC76" s="1"/>
+      <c r="AD76" s="1"/>
+      <c r="AE76" s="1"/>
+      <c r="AF76" s="1"/>
+      <c r="AG76" s="1"/>
+      <c r="AH76" s="1"/>
+      <c r="AI76" s="1"/>
+      <c r="AJ76" s="1"/>
+      <c r="AK76" s="1"/>
+    </row>
+    <row r="77" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1"/>
+      <c r="AA77" s="1"/>
+      <c r="AB77" s="1"/>
+      <c r="AC77" s="1"/>
+      <c r="AD77" s="1"/>
+      <c r="AE77" s="1"/>
+      <c r="AF77" s="1"/>
+      <c r="AG77" s="1"/>
+      <c r="AH77" s="1"/>
+      <c r="AI77" s="1"/>
+      <c r="AJ77" s="1"/>
+      <c r="AK77" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AK52">

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FB16D3-A10E-5046-9BE8-18FFE3A2E761}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B18A832-7318-ED42-9EC6-CB99B5216DC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="1161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="1167">
   <si>
     <t>liv_000017</t>
   </si>
@@ -3527,6 +3527,24 @@
   </si>
   <si>
     <t>1 March 1853</t>
+  </si>
+  <si>
+    <t>Cloëté, Abraham Josias, 1794-1886</t>
+  </si>
+  <si>
+    <t>Eyre, William</t>
+  </si>
+  <si>
+    <t>Napier, George Thomas, 1784-1855</t>
+  </si>
+  <si>
+    <t>Moshoeshoe I, c.1786-1870</t>
+  </si>
+  <si>
+    <t>Cathcart, George, 1794-1854</t>
+  </si>
+  <si>
+    <t>Ayliff, John, 1797-1862</t>
   </si>
 </sst>
 </file>
@@ -4014,11 +4032,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97A9DD5-2802-8C46-B4DE-35FF576EF7FC}">
-  <dimension ref="A1:AK77"/>
+  <dimension ref="A1:AL77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W54" sqref="W54"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4026,20 +4044,20 @@
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="1" customWidth="1"/>
-    <col min="4" max="9" width="20.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" style="3" customWidth="1"/>
-    <col min="12" max="14" width="21.83203125" style="1" customWidth="1"/>
-    <col min="15" max="17" width="20.83203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.83203125" style="3" customWidth="1"/>
-    <col min="19" max="22" width="15.83203125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="20.83203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="12.83203125" style="3" customWidth="1"/>
-    <col min="25" max="37" width="15.83203125" style="4" customWidth="1"/>
-    <col min="38" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="10" width="20.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" style="3" customWidth="1"/>
+    <col min="13" max="15" width="21.83203125" style="1" customWidth="1"/>
+    <col min="16" max="18" width="20.83203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.83203125" style="3" customWidth="1"/>
+    <col min="20" max="23" width="15.83203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.83203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="12.83203125" style="3" customWidth="1"/>
+    <col min="26" max="38" width="15.83203125" style="4" customWidth="1"/>
+    <col min="39" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" s="2" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>111</v>
       </c>
@@ -4068,67 +4086,67 @@
         <v>114</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>247</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>902</v>
+        <v>247</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>902</v>
       </c>
       <c r="AC1" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>196</v>
@@ -4140,19 +4158,22 @@
         <v>196</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AI1" s="2" t="s">
         <v>197</v>
       </c>
       <c r="AJ1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AK1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4165,29 +4186,29 @@
       <c r="D2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>360</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4200,29 +4221,29 @@
       <c r="D3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>801</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4235,29 +4256,29 @@
       <c r="D4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>833</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4270,29 +4291,29 @@
       <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>836</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -4305,29 +4326,29 @@
       <c r="D6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -4340,29 +4361,29 @@
       <c r="D7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>174</v>
       </c>
@@ -4378,29 +4399,29 @@
       <c r="E8" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="153" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" ht="153" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>524</v>
       </c>
@@ -4416,29 +4437,29 @@
       <c r="E9" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -4454,29 +4475,29 @@
       <c r="E10" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -4492,23 +4513,23 @@
       <c r="E11" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T11" s="1">
+      <c r="U11" s="1">
         <v>15</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="W11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="X11" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -4524,23 +4545,23 @@
       <c r="E12" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="T12" s="1">
+      <c r="U12" s="1">
         <v>18</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="W12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="X12" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -4562,23 +4583,23 @@
       <c r="G13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="T13" s="1">
+      <c r="U13" s="1">
         <v>15</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="W13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="W13" s="1">
+      <c r="X13" s="1">
         <v>1845</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -4591,29 +4612,29 @@
       <c r="D14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -4626,29 +4647,29 @@
       <c r="D15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -4670,20 +4691,20 @@
       <c r="G16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="V16" s="1">
+      <c r="W16" s="1">
         <v>10</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="X16" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -4696,23 +4717,23 @@
       <c r="D17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="T17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="U17" s="1">
+      <c r="V17" s="1">
         <v>93</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="W17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="X17" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="85" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -4725,29 +4746,29 @@
       <c r="D18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="R18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>172</v>
       </c>
@@ -4763,26 +4784,26 @@
       <c r="E19" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="T19" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="T19" s="1">
+      <c r="U19" s="1">
         <v>28</v>
       </c>
-      <c r="U19" s="1">
+      <c r="V19" s="1">
         <v>6</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="W19" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="X19" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="85" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>136</v>
       </c>
@@ -4798,42 +4819,42 @@
       <c r="E20" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
-      <c r="Y20" s="1" t="s">
+      <c r="X20" s="4"/>
+      <c r="Z20" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AC20" s="4" t="s">
+      <c r="AD20" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AD20" s="4" t="s">
+      <c r="AE20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AE20" s="4" t="s">
+      <c r="AF20" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="AF20" s="4" t="s">
+      <c r="AG20" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="AG20" s="4" t="s">
+      <c r="AH20" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="AH20" s="4" t="s">
+      <c r="AI20" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="AJ20" s="4">
+      <c r="AK20" s="4">
         <v>1906</v>
       </c>
-      <c r="AK20" s="4">
+      <c r="AL20" s="4">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>262</v>
       </c>
@@ -4849,20 +4870,20 @@
       <c r="E21" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="T21" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="V21" s="1">
+      <c r="W21" s="1">
         <v>3</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="X21" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>277</v>
       </c>
@@ -4878,23 +4899,23 @@
       <c r="E22" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="T22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="U22" s="1">
+      <c r="V22" s="1">
         <v>89</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="W22" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="X22" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>451</v>
       </c>
@@ -4910,29 +4931,29 @@
       <c r="E23" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="Q23" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="R23" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>445</v>
       </c>
@@ -4954,17 +4975,17 @@
       <c r="G24" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="T24" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="X24" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>450</v>
       </c>
@@ -4986,29 +5007,29 @@
       <c r="G25" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="O25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="P25" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="Q25" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="Q25" s="1" t="s">
+      <c r="R25" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>267</v>
       </c>
@@ -5024,23 +5045,23 @@
       <c r="E26" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="T26" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="T26" s="1">
+      <c r="U26" s="1">
         <v>1</v>
       </c>
-      <c r="U26" s="1">
+      <c r="V26" s="1">
         <v>82</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="X26" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>270</v>
       </c>
@@ -5053,29 +5074,29 @@
       <c r="D27" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="O27" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="P27" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="P27" s="5" t="s">
+      <c r="Q27" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="Q27" s="1" t="s">
+      <c r="R27" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>428</v>
       </c>
@@ -5091,20 +5112,20 @@
       <c r="E28" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="S28" s="1" t="s">
+      <c r="T28" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="V28" s="1" t="s">
+      <c r="W28" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="X28" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>440</v>
       </c>
@@ -5120,20 +5141,20 @@
       <c r="E29" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="S29" s="1" t="s">
+      <c r="T29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="V29" s="1">
+      <c r="W29" s="1">
         <v>5</v>
       </c>
-      <c r="W29" s="1" t="s">
+      <c r="X29" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>452</v>
       </c>
@@ -5149,29 +5170,29 @@
       <c r="E30" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="O30" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="P30" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="Q30" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="R30" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="119" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>647</v>
       </c>
@@ -5184,29 +5205,29 @@
       <c r="D31" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="Z31" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="AC31" s="4" t="s">
+      <c r="AD31" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="AD31" s="4" t="s">
+      <c r="AE31" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="AH31" s="4" t="s">
+      <c r="AI31" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="AJ31" s="4">
+      <c r="AK31" s="4">
         <v>1855</v>
       </c>
-      <c r="AK31" s="4" t="s">
+      <c r="AL31" s="4" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>595</v>
       </c>
@@ -5219,29 +5240,29 @@
       <c r="D32" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="O32" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="P32" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="P32" s="1" t="s">
+      <c r="Q32" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="Q32" s="1" t="s">
+      <c r="R32" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>596</v>
       </c>
@@ -5254,29 +5275,29 @@
       <c r="D33" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="M33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="O33" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="P33" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="Q33" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="Q33" s="1" t="s">
+      <c r="R33" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>619</v>
       </c>
@@ -5292,26 +5313,26 @@
       <c r="E34" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="S34" s="1" t="s">
+      <c r="T34" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="T34" s="1">
+      <c r="U34" s="1">
         <v>3</v>
       </c>
-      <c r="U34" s="1">
+      <c r="V34" s="1">
         <v>25</v>
       </c>
-      <c r="V34" s="1" t="s">
+      <c r="W34" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="W34" s="1" t="s">
+      <c r="X34" s="1" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>656</v>
       </c>
@@ -5333,26 +5354,26 @@
       <c r="G35" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="S35" s="1" t="s">
+      <c r="T35" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="T35" s="1">
+      <c r="U35" s="1">
         <v>2</v>
       </c>
-      <c r="U35" s="1">
+      <c r="V35" s="1">
         <v>20</v>
       </c>
-      <c r="V35" s="5" t="s">
+      <c r="W35" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="W35" s="1" t="s">
+      <c r="X35" s="1" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="119" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>914</v>
       </c>
@@ -5365,29 +5386,29 @@
       <c r="D36" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="Y36" s="1" t="s">
+      <c r="Z36" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="AC36" s="4" t="s">
+      <c r="AD36" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="AD36" s="4" t="s">
+      <c r="AE36" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="AH36" s="4" t="s">
+      <c r="AI36" s="4" t="s">
         <v>918</v>
       </c>
-      <c r="AJ36" s="4">
+      <c r="AK36" s="4">
         <v>1855</v>
       </c>
-      <c r="AK36" s="4" t="s">
+      <c r="AL36" s="4" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="102" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>514</v>
       </c>
@@ -5403,29 +5424,29 @@
       <c r="E37" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="M37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="N37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="O37" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O37" s="1">
+      <c r="P37" s="1">
         <v>807</v>
       </c>
-      <c r="P37" s="1" t="s">
+      <c r="Q37" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="Q37" s="1" t="s">
+      <c r="R37" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="119" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>518</v>
       </c>
@@ -5444,29 +5465,29 @@
       <c r="F38" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="M38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="N38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="O38" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O38" s="1">
+      <c r="P38" s="1">
         <v>807</v>
       </c>
-      <c r="P38" s="1" t="s">
+      <c r="Q38" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="Q38" s="1" t="s">
+      <c r="R38" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="85" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>549</v>
       </c>
@@ -5482,29 +5503,29 @@
       <c r="E39" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="N39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="O39" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O39" s="1">
+      <c r="P39" s="1">
         <v>807</v>
       </c>
-      <c r="P39" s="1" t="s">
+      <c r="Q39" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="Q39" s="1" t="s">
+      <c r="R39" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="85" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>550</v>
       </c>
@@ -5529,26 +5550,26 @@
       <c r="H40" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="K40" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="S40" s="1" t="s">
+      <c r="T40" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="T40" s="1" t="s">
+      <c r="U40" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="U40" s="1">
+      <c r="V40" s="1">
         <v>44</v>
       </c>
-      <c r="V40" s="1">
+      <c r="W40" s="1">
         <v>53</v>
       </c>
-      <c r="W40" s="1" t="s">
+      <c r="X40" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>560</v>
       </c>
@@ -5564,23 +5585,23 @@
       <c r="E41" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="K41" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="S41" s="1" t="s">
+      <c r="T41" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="T41" s="1">
+      <c r="U41" s="1">
         <v>12</v>
       </c>
-      <c r="V41" s="1" t="s">
+      <c r="W41" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="W41" s="1" t="s">
+      <c r="X41" s="1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>662</v>
       </c>
@@ -5608,20 +5629,20 @@
       <c r="I42" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="K42" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="S42" s="1" t="s">
+      <c r="T42" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="V42" s="1">
+      <c r="W42" s="1">
         <v>5</v>
       </c>
-      <c r="W42" s="1" t="s">
+      <c r="X42" s="1" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>908</v>
       </c>
@@ -5634,29 +5655,29 @@
       <c r="D43" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="Y43" s="4" t="s">
+      <c r="Z43" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="Z43" s="4" t="s">
+      <c r="AA43" s="4" t="s">
         <v>911</v>
       </c>
-      <c r="AC43" s="4" t="s">
+      <c r="AD43" s="4" t="s">
         <v>909</v>
       </c>
-      <c r="AD43" s="4" t="s">
+      <c r="AE43" s="4" t="s">
         <v>912</v>
       </c>
-      <c r="AH43" s="4" t="s">
+      <c r="AI43" s="4" t="s">
         <v>913</v>
       </c>
-      <c r="AJ43" s="4">
+      <c r="AK43" s="4">
         <v>1846</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>881</v>
       </c>
@@ -5669,29 +5690,29 @@
       <c r="D44" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="K44" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L44" s="7" t="s">
+      <c r="M44" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M44" s="7" t="s">
+      <c r="N44" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="N44" s="7" t="s">
+      <c r="O44" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="O44" s="1" t="s">
+      <c r="P44" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="P44" s="1" t="s">
+      <c r="Q44" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="Q44" s="1" t="s">
+      <c r="R44" s="1" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>882</v>
       </c>
@@ -5704,29 +5725,29 @@
       <c r="D45" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L45" s="7" t="s">
+      <c r="M45" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M45" s="7" t="s">
+      <c r="N45" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="N45" s="7" t="s">
+      <c r="O45" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="P45" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="P45" s="1" t="s">
+      <c r="Q45" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="R45" s="1" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="85" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>1144</v>
       </c>
@@ -5742,29 +5763,29 @@
       <c r="E46" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="L46" s="7"/>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
-      <c r="S46" s="1" t="s">
+      <c r="O46" s="7"/>
+      <c r="T46" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="T46" s="1">
+      <c r="U46" s="1">
         <v>18</v>
       </c>
-      <c r="U46" s="1">
+      <c r="V46" s="1">
         <v>3</v>
       </c>
-      <c r="V46" s="1" t="s">
+      <c r="W46" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="W46" s="1" t="s">
+      <c r="X46" s="1" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="187" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:38" ht="187" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>894</v>
       </c>
@@ -5789,32 +5810,32 @@
       <c r="H47" s="1" t="s">
         <v>901</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="K47" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="AA47" s="4" t="s">
+      <c r="AB47" s="4" t="s">
         <v>903</v>
       </c>
-      <c r="AB47" s="4" t="s">
+      <c r="AC47" s="4" t="s">
         <v>904</v>
       </c>
-      <c r="AC47" s="4" t="s">
+      <c r="AD47" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="AD47" s="4" t="s">
+      <c r="AE47" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AH47" s="4" t="s">
+      <c r="AI47" s="4" t="s">
         <v>906</v>
       </c>
-      <c r="AJ47" s="4">
+      <c r="AK47" s="4">
         <v>1905</v>
       </c>
-      <c r="AK47" s="4" t="s">
+      <c r="AL47" s="4" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>672</v>
       </c>
@@ -5830,26 +5851,26 @@
       <c r="E48" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="K48" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="AC48" s="4" t="s">
+      <c r="AD48" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="AD48" s="4" t="s">
+      <c r="AE48" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AH48" s="4" t="s">
+      <c r="AI48" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="AJ48" s="4">
+      <c r="AK48" s="4">
         <v>1904</v>
       </c>
-      <c r="AK48" s="4" t="s">
+      <c r="AL48" s="4" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>673</v>
       </c>
@@ -5865,26 +5886,26 @@
       <c r="E49" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="K49" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="AC49" s="4" t="s">
+      <c r="AD49" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="AD49" s="4" t="s">
+      <c r="AE49" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AH49" s="4" t="s">
+      <c r="AI49" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="AJ49" s="4">
+      <c r="AK49" s="4">
         <v>1904</v>
       </c>
-      <c r="AK49" s="4" t="s">
+      <c r="AL49" s="4" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>674</v>
       </c>
@@ -5900,26 +5921,26 @@
       <c r="E50" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="K50" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="AC50" s="4" t="s">
+      <c r="AD50" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="AD50" s="4" t="s">
+      <c r="AE50" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AH50" s="4" t="s">
+      <c r="AI50" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="AJ50" s="4">
+      <c r="AK50" s="4">
         <v>1904</v>
       </c>
-      <c r="AK50" s="4" t="s">
+      <c r="AL50" s="4" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>675</v>
       </c>
@@ -5935,26 +5956,26 @@
       <c r="E51" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="K51" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="AC51" s="4" t="s">
+      <c r="AD51" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="AD51" s="4" t="s">
+      <c r="AE51" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AH51" s="4" t="s">
+      <c r="AI51" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="AJ51" s="4">
+      <c r="AK51" s="4">
         <v>1904</v>
       </c>
-      <c r="AK51" s="4" t="s">
+      <c r="AL51" s="4" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="85" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>822</v>
       </c>
@@ -5970,29 +5991,29 @@
       <c r="E52" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="K52" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L52" s="7" t="s">
+      <c r="M52" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M52" s="7" t="s">
+      <c r="N52" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="N52" s="7" t="s">
+      <c r="O52" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="O52" s="1" t="s">
+      <c r="P52" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="P52" s="1" t="s">
+      <c r="Q52" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="Q52" s="1" t="s">
+      <c r="R52" s="1" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>1152</v>
       </c>
@@ -6003,25 +6024,43 @@
         <v>1157</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>666</v>
+        <v>170</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>1165</v>
       </c>
       <c r="J53" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="K53" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="L53" s="7"/>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
-      <c r="S53" s="1" t="s">
+      <c r="O53" s="7"/>
+      <c r="T53" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="V53" s="1">
+      <c r="W53" s="1">
         <v>5</v>
       </c>
-      <c r="W53" s="1" t="s">
+      <c r="X53" s="1" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>1153</v>
       </c>
@@ -6034,23 +6073,23 @@
       <c r="D54" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="K54" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="L54" s="7"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
-      <c r="S54" s="1" t="s">
+      <c r="O54" s="7"/>
+      <c r="T54" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="V54" s="5" t="s">
+      <c r="W54" s="5" t="s">
         <v>1158</v>
       </c>
-      <c r="W54" s="1" t="s">
+      <c r="X54" s="1" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>1018</v>
       </c>
@@ -6063,28 +6102,27 @@
       <c r="D55" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="K55" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L55" s="1" t="s">
+      <c r="M55" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="N55" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="N55" s="1" t="s">
+      <c r="O55" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="O55" s="1" t="s">
+      <c r="P55" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="P55" s="1" t="s">
+      <c r="Q55" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="Q55" s="1" t="s">
+      <c r="R55" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
@@ -6097,8 +6135,9 @@
       <c r="AI55" s="1"/>
       <c r="AJ55" s="1"/>
       <c r="AK55" s="1"/>
-    </row>
-    <row r="56" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+      <c r="AL55" s="1"/>
+    </row>
+    <row r="56" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>1025</v>
       </c>
@@ -6111,28 +6150,27 @@
       <c r="D56" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="K56" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="M56" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="N56" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="N56" s="1" t="s">
+      <c r="O56" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="O56" s="1" t="s">
+      <c r="P56" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="P56" s="1" t="s">
+      <c r="Q56" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="Q56" s="1" t="s">
+      <c r="R56" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
@@ -6145,8 +6183,9 @@
       <c r="AI56" s="1"/>
       <c r="AJ56" s="1"/>
       <c r="AK56" s="1"/>
-    </row>
-    <row r="57" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+      <c r="AL56" s="1"/>
+    </row>
+    <row r="57" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>1032</v>
       </c>
@@ -6159,28 +6198,27 @@
       <c r="D57" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="K57" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="M57" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="N57" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="N57" s="1" t="s">
+      <c r="O57" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="O57" s="1" t="s">
+      <c r="P57" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="P57" s="1" t="s">
+      <c r="Q57" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="Q57" s="1" t="s">
+      <c r="R57" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
@@ -6193,8 +6231,9 @@
       <c r="AI57" s="1"/>
       <c r="AJ57" s="1"/>
       <c r="AK57" s="1"/>
-    </row>
-    <row r="58" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+      <c r="AL57" s="1"/>
+    </row>
+    <row r="58" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>1038</v>
       </c>
@@ -6207,28 +6246,27 @@
       <c r="D58" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="K58" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="M58" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="N58" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="N58" s="1" t="s">
+      <c r="O58" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="O58" s="1" t="s">
+      <c r="P58" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="P58" s="1" t="s">
+      <c r="Q58" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="Q58" s="1" t="s">
+      <c r="R58" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
@@ -6241,8 +6279,9 @@
       <c r="AI58" s="1"/>
       <c r="AJ58" s="1"/>
       <c r="AK58" s="1"/>
-    </row>
-    <row r="59" spans="1:37" ht="68" x14ac:dyDescent="0.2">
+      <c r="AL58" s="1"/>
+    </row>
+    <row r="59" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>1045</v>
       </c>
@@ -6255,28 +6294,27 @@
       <c r="D59" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="K59" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="M59" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M59" s="1" t="s">
+      <c r="N59" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="N59" s="1" t="s">
+      <c r="O59" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="O59" s="1" t="s">
+      <c r="P59" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="P59" s="1" t="s">
+      <c r="Q59" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="Q59" s="1" t="s">
+      <c r="R59" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
@@ -6289,8 +6327,9 @@
       <c r="AI59" s="1"/>
       <c r="AJ59" s="1"/>
       <c r="AK59" s="1"/>
-    </row>
-    <row r="60" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+      <c r="AL59" s="1"/>
+    </row>
+    <row r="60" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>1051</v>
       </c>
@@ -6303,28 +6342,27 @@
       <c r="D60" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="K60" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L60" s="1" t="s">
+      <c r="M60" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="N60" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="N60" s="1" t="s">
+      <c r="O60" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="O60" s="1" t="s">
+      <c r="P60" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="P60" s="1" t="s">
+      <c r="Q60" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="Q60" s="1" t="s">
+      <c r="R60" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
@@ -6337,8 +6375,9 @@
       <c r="AI60" s="1"/>
       <c r="AJ60" s="1"/>
       <c r="AK60" s="1"/>
-    </row>
-    <row r="61" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+      <c r="AL60" s="1"/>
+    </row>
+    <row r="61" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>1057</v>
       </c>
@@ -6351,28 +6390,27 @@
       <c r="D61" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="K61" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="M61" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="N61" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="N61" s="1" t="s">
+      <c r="O61" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="O61" s="1" t="s">
+      <c r="P61" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="P61" s="1" t="s">
+      <c r="Q61" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="Q61" s="1" t="s">
+      <c r="R61" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
@@ -6385,8 +6423,9 @@
       <c r="AI61" s="1"/>
       <c r="AJ61" s="1"/>
       <c r="AK61" s="1"/>
-    </row>
-    <row r="62" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+      <c r="AL61" s="1"/>
+    </row>
+    <row r="62" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>1063</v>
       </c>
@@ -6399,25 +6438,24 @@
       <c r="D62" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="K62" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="M62" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M62" s="1" t="s">
+      <c r="N62" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="N62" s="1" t="s">
+      <c r="O62" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="O62" s="1" t="s">
+      <c r="P62" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="P62" s="1" t="s">
+      <c r="Q62" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
@@ -6430,8 +6468,9 @@
       <c r="AI62" s="1"/>
       <c r="AJ62" s="1"/>
       <c r="AK62" s="1"/>
-    </row>
-    <row r="63" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+      <c r="AL62" s="1"/>
+    </row>
+    <row r="63" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>1068</v>
       </c>
@@ -6444,25 +6483,24 @@
       <c r="D63" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="K63" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L63" s="1" t="s">
+      <c r="M63" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M63" s="1" t="s">
+      <c r="N63" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="N63" s="1" t="s">
+      <c r="O63" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="O63" s="1" t="s">
+      <c r="P63" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="P63" s="1" t="s">
+      <c r="Q63" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
@@ -6475,8 +6513,9 @@
       <c r="AI63" s="1"/>
       <c r="AJ63" s="1"/>
       <c r="AK63" s="1"/>
-    </row>
-    <row r="64" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+      <c r="AL63" s="1"/>
+    </row>
+    <row r="64" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>1072</v>
       </c>
@@ -6489,28 +6528,27 @@
       <c r="D64" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="K64" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="M64" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="N64" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="N64" s="1" t="s">
+      <c r="O64" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="O64" s="1" t="s">
+      <c r="P64" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="P64" s="1" t="s">
+      <c r="Q64" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="Q64" s="1" t="s">
+      <c r="R64" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
@@ -6523,8 +6561,9 @@
       <c r="AI64" s="1"/>
       <c r="AJ64" s="1"/>
       <c r="AK64" s="1"/>
-    </row>
-    <row r="65" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+      <c r="AL64" s="1"/>
+    </row>
+    <row r="65" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>1075</v>
       </c>
@@ -6537,25 +6576,24 @@
       <c r="D65" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="K65" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="M65" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M65" s="1" t="s">
+      <c r="N65" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="N65" s="1" t="s">
+      <c r="O65" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="O65" s="1" t="s">
+      <c r="P65" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="P65" s="1" t="s">
+      <c r="Q65" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
@@ -6568,8 +6606,9 @@
       <c r="AI65" s="1"/>
       <c r="AJ65" s="1"/>
       <c r="AK65" s="1"/>
-    </row>
-    <row r="66" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+      <c r="AL65" s="1"/>
+    </row>
+    <row r="66" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>1079</v>
       </c>
@@ -6582,28 +6621,27 @@
       <c r="D66" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="K66" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L66" s="1" t="s">
+      <c r="M66" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M66" s="1" t="s">
+      <c r="N66" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="N66" s="1" t="s">
+      <c r="O66" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="O66" s="1" t="s">
+      <c r="P66" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="P66" s="1" t="s">
+      <c r="Q66" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="Q66" s="1" t="s">
+      <c r="R66" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
@@ -6616,8 +6654,9 @@
       <c r="AI66" s="1"/>
       <c r="AJ66" s="1"/>
       <c r="AK66" s="1"/>
-    </row>
-    <row r="67" spans="1:37" ht="102" x14ac:dyDescent="0.2">
+      <c r="AL66" s="1"/>
+    </row>
+    <row r="67" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>1084</v>
       </c>
@@ -6630,28 +6669,27 @@
       <c r="D67" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="K67" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L67" s="1" t="s">
+      <c r="M67" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M67" s="1" t="s">
+      <c r="N67" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="N67" s="1" t="s">
+      <c r="O67" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="O67" s="1" t="s">
+      <c r="P67" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="P67" s="1" t="s">
+      <c r="Q67" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="Q67" s="1" t="s">
+      <c r="R67" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
@@ -6664,8 +6702,9 @@
       <c r="AI67" s="1"/>
       <c r="AJ67" s="1"/>
       <c r="AK67" s="1"/>
-    </row>
-    <row r="68" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+      <c r="AL67" s="1"/>
+    </row>
+    <row r="68" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>1090</v>
       </c>
@@ -6678,28 +6717,27 @@
       <c r="D68" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="K68" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L68" s="1" t="s">
+      <c r="M68" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M68" s="1" t="s">
+      <c r="N68" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="N68" s="1" t="s">
+      <c r="O68" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="O68" s="1" t="s">
+      <c r="P68" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="P68" s="5" t="s">
+      <c r="Q68" s="5" t="s">
         <v>1094</v>
       </c>
-      <c r="Q68" s="1" t="s">
+      <c r="R68" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
@@ -6712,8 +6750,9 @@
       <c r="AI68" s="1"/>
       <c r="AJ68" s="1"/>
       <c r="AK68" s="1"/>
-    </row>
-    <row r="69" spans="1:37" ht="119" x14ac:dyDescent="0.2">
+      <c r="AL68" s="1"/>
+    </row>
+    <row r="69" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>1096</v>
       </c>
@@ -6726,28 +6765,27 @@
       <c r="D69" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="K69" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L69" s="1" t="s">
+      <c r="M69" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M69" s="1" t="s">
+      <c r="N69" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="N69" s="1" t="s">
+      <c r="O69" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="O69" s="1" t="s">
+      <c r="P69" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="P69" s="1" t="s">
+      <c r="Q69" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="Q69" s="1" t="s">
+      <c r="R69" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
@@ -6760,8 +6798,9 @@
       <c r="AI69" s="1"/>
       <c r="AJ69" s="1"/>
       <c r="AK69" s="1"/>
-    </row>
-    <row r="70" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+      <c r="AL69" s="1"/>
+    </row>
+    <row r="70" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>1101</v>
       </c>
@@ -6774,28 +6813,27 @@
       <c r="D70" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="K70" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="M70" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M70" s="1" t="s">
+      <c r="N70" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="N70" s="1" t="s">
+      <c r="O70" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="O70" s="1" t="s">
+      <c r="P70" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="P70" s="1" t="s">
+      <c r="Q70" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="Q70" s="1" t="s">
+      <c r="R70" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
@@ -6808,8 +6846,9 @@
       <c r="AI70" s="1"/>
       <c r="AJ70" s="1"/>
       <c r="AK70" s="1"/>
-    </row>
-    <row r="71" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+      <c r="AL70" s="1"/>
+    </row>
+    <row r="71" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>1106</v>
       </c>
@@ -6822,28 +6861,27 @@
       <c r="D71" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="K71" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L71" s="1" t="s">
+      <c r="M71" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M71" s="1" t="s">
+      <c r="N71" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="N71" s="1" t="s">
+      <c r="O71" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="O71" s="1" t="s">
+      <c r="P71" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="P71" s="1" t="s">
+      <c r="Q71" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="Q71" s="1" t="s">
+      <c r="R71" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
@@ -6856,8 +6894,9 @@
       <c r="AI71" s="1"/>
       <c r="AJ71" s="1"/>
       <c r="AK71" s="1"/>
-    </row>
-    <row r="72" spans="1:37" ht="51" x14ac:dyDescent="0.2">
+      <c r="AL71" s="1"/>
+    </row>
+    <row r="72" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>1112</v>
       </c>
@@ -6870,28 +6909,27 @@
       <c r="D72" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="K72" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="M72" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M72" s="1" t="s">
+      <c r="N72" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="N72" s="1" t="s">
+      <c r="O72" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="O72" s="1" t="s">
+      <c r="P72" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="P72" s="1" t="s">
+      <c r="Q72" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="Q72" s="1" t="s">
+      <c r="R72" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
@@ -6904,8 +6942,9 @@
       <c r="AI72" s="1"/>
       <c r="AJ72" s="1"/>
       <c r="AK72" s="1"/>
-    </row>
-    <row r="73" spans="1:37" ht="102" x14ac:dyDescent="0.2">
+      <c r="AL72" s="1"/>
+    </row>
+    <row r="73" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>1117</v>
       </c>
@@ -6918,28 +6957,27 @@
       <c r="D73" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="K73" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L73" s="1" t="s">
+      <c r="M73" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M73" s="1" t="s">
+      <c r="N73" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="N73" s="1" t="s">
+      <c r="O73" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="O73" s="1" t="s">
+      <c r="P73" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="P73" s="1" t="s">
+      <c r="Q73" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="Q73" s="1" t="s">
+      <c r="R73" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
@@ -6952,8 +6990,9 @@
       <c r="AI73" s="1"/>
       <c r="AJ73" s="1"/>
       <c r="AK73" s="1"/>
-    </row>
-    <row r="74" spans="1:37" ht="119" x14ac:dyDescent="0.2">
+      <c r="AL73" s="1"/>
+    </row>
+    <row r="74" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>1121</v>
       </c>
@@ -6966,28 +7005,27 @@
       <c r="D74" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="K74" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L74" s="1" t="s">
+      <c r="M74" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M74" s="1" t="s">
+      <c r="N74" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="N74" s="1" t="s">
+      <c r="O74" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="O74" s="1" t="s">
+      <c r="P74" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="P74" s="1" t="s">
+      <c r="Q74" s="1" t="s">
         <v>1124</v>
       </c>
-      <c r="Q74" s="1" t="s">
+      <c r="R74" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
@@ -7000,8 +7038,9 @@
       <c r="AI74" s="1"/>
       <c r="AJ74" s="1"/>
       <c r="AK74" s="1"/>
-    </row>
-    <row r="75" spans="1:37" ht="119" x14ac:dyDescent="0.2">
+      <c r="AL74" s="1"/>
+    </row>
+    <row r="75" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>1125</v>
       </c>
@@ -7014,28 +7053,27 @@
       <c r="D75" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="J75" s="1" t="s">
+      <c r="K75" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L75" s="1" t="s">
+      <c r="M75" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M75" s="1" t="s">
+      <c r="N75" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="N75" s="1" t="s">
+      <c r="O75" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="O75" s="1" t="s">
+      <c r="P75" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="P75" s="1" t="s">
+      <c r="Q75" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="Q75" s="1" t="s">
+      <c r="R75" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
@@ -7048,8 +7086,9 @@
       <c r="AI75" s="1"/>
       <c r="AJ75" s="1"/>
       <c r="AK75" s="1"/>
-    </row>
-    <row r="76" spans="1:37" ht="102" x14ac:dyDescent="0.2">
+      <c r="AL75" s="1"/>
+    </row>
+    <row r="76" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>1137</v>
       </c>
@@ -7062,28 +7101,27 @@
       <c r="D76" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="K76" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="M76" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M76" s="1" t="s">
+      <c r="N76" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="N76" s="1" t="s">
+      <c r="O76" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="O76" s="1" t="s">
+      <c r="P76" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="P76" s="1" t="s">
+      <c r="Q76" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="Q76" s="1" t="s">
+      <c r="R76" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
@@ -7096,8 +7134,9 @@
       <c r="AI76" s="1"/>
       <c r="AJ76" s="1"/>
       <c r="AK76" s="1"/>
-    </row>
-    <row r="77" spans="1:37" ht="34" x14ac:dyDescent="0.2">
+      <c r="AL76" s="1"/>
+    </row>
+    <row r="77" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>1140</v>
       </c>
@@ -7110,25 +7149,24 @@
       <c r="D77" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="J77" s="1" t="s">
+      <c r="K77" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L77" s="1" t="s">
+      <c r="M77" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M77" s="1" t="s">
+      <c r="N77" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="N77" s="1" t="s">
+      <c r="O77" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="O77" s="1" t="s">
+      <c r="P77" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="P77" s="1" t="s">
+      <c r="Q77" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
@@ -7141,9 +7179,10 @@
       <c r="AI77" s="1"/>
       <c r="AJ77" s="1"/>
       <c r="AK77" s="1"/>
+      <c r="AL77" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AK52">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL52">
     <sortCondition ref="A2:A52"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B18A832-7318-ED42-9EC6-CB99B5216DC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA9AEE5-A5F6-7C41-A4A6-53F3D2D0A1A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="1167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="1167">
   <si>
     <t>liv_000017</t>
   </si>
@@ -4035,8 +4035,8 @@
   <dimension ref="A1:AL77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6071,6 +6071,12 @@
         <v>1156</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>666</v>
       </c>
       <c r="K54" s="1" t="s">

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA9AEE5-A5F6-7C41-A4A6-53F3D2D0A1A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D19CCF9-F225-0F41-849F-DB00F2F01E10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="1167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="1190">
   <si>
     <t>liv_000017</t>
   </si>
@@ -3545,6 +3545,77 @@
   </si>
   <si>
     <t>Ayliff, John, 1797-1862</t>
+  </si>
+  <si>
+    <t>https://www.npg.org.uk/collections/search/portrait/mw135377/Sir-Henry-Morton-Stanley-Dorothy-ne-Tennant-Lady-Stanley-and-Sali</t>
+  </si>
+  <si>
+    <t>Henry Morton Stanley and Dorothy Stanley, seated, with Saleh bin Osman standing behind them.</t>
+  </si>
+  <si>
+    <t>liv_021081</t>
+  </si>
+  <si>
+    <t>liv_021082</t>
+  </si>
+  <si>
+    <t>liv_021083</t>
+  </si>
+  <si>
+    <t>Used by permission. Rights reserved. Contact the Archives Centre, Merseyside Maritime Museum (https://www.liverpoolmuseums.org.uk/contact) for permission to reuse this image.</t>
+  </si>
+  <si>
+    <t>A man seated in half profile at the back of a room furnished with many picture frames.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Sir Henry Morton Stanley; Dorothy (née Tennant), Lady Stanley and 'Sali'</t>
+  </si>
+  <si>
+    <t>Copyright National Portrait Gallery, London. Academic license for academic and non-commercial use.</t>
+  </si>
+  <si>
+    <t>Professional Wetstamp, Verso of  Lose Print, Untitled</t>
+  </si>
+  <si>
+    <t>Professional Wetstamp, Verso of  Lose Print, Untitled, [c.1895]</t>
+  </si>
+  <si>
+    <t>Untitled (Interior with a seated man, possibly an agent for Elder Dempster, possibly James Howie), [c.1892]</t>
+  </si>
+  <si>
+    <t>Untitled (Interior with a seated man, possibly an agent for Elder Dempster, possibly James Howie)</t>
+  </si>
+  <si>
+    <t>Myers (née Tennant), Eveleen, 1856-1937</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Archives Centre, Merseyside Maritime Museum, National Museums Liverpool</t>
+  </si>
+  <si>
+    <t>National Portrait Gallery</t>
+  </si>
+  <si>
+    <t>Photographs Collection, NPG Ax68770</t>
+  </si>
+  <si>
+    <t>Ocean Archive, Elder Dempster, OA/12/1703 (Part of a Photographic Album owned and compiled by James Howie, a West African Agent for the Elder Dempster Shipping Line)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Sir Henry Morton Stanley; Dorothy (née Tennant), Lady Stanley and 'Sali,' 1890</t>
+  </si>
+  <si>
+    <t>[c.1892]</t>
+  </si>
+  <si>
+    <t>[c.1895]</t>
+  </si>
+  <si>
+    <t>Stained paper with a diagonol purple stamp that says, “J.A. Green, Artist Photographer, Bonny Opobo, &amp;c, &amp;c”</t>
   </si>
 </sst>
 </file>
@@ -4034,7 +4105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97A9DD5-2802-8C46-B4DE-35FF576EF7FC}">
   <dimension ref="A1:AL77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
@@ -7199,11 +7270,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ84"/>
+  <dimension ref="A1:AQ87"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
+      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10913,6 +10984,132 @@
       </c>
       <c r="AH84" s="7" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="85" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+      <c r="A85" s="7" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>1186</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>1180</v>
+      </c>
+      <c r="L85" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O85" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="P85" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q85" s="7" t="s">
+        <v>1183</v>
+      </c>
+      <c r="R85" s="7" t="s">
+        <v>1184</v>
+      </c>
+      <c r="S85" s="7">
+        <v>1890</v>
+      </c>
+      <c r="T85" s="7" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="86" spans="1:34" ht="136" x14ac:dyDescent="0.2">
+      <c r="B86" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>1178</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="L86" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O86" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="P86" s="7" t="s">
+        <v>1181</v>
+      </c>
+      <c r="Q86" s="7" t="s">
+        <v>1182</v>
+      </c>
+      <c r="R86" s="7" t="s">
+        <v>1185</v>
+      </c>
+      <c r="S86" s="7" t="s">
+        <v>1187</v>
+      </c>
+      <c r="T86" s="7" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="87" spans="1:34" ht="136" x14ac:dyDescent="0.2">
+      <c r="B87" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>1177</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="L87" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O87" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="P87" s="7" t="s">
+        <v>1181</v>
+      </c>
+      <c r="Q87" s="7" t="s">
+        <v>1182</v>
+      </c>
+      <c r="R87" s="7" t="s">
+        <v>1185</v>
+      </c>
+      <c r="S87" s="7" t="s">
+        <v>1188</v>
+      </c>
+      <c r="T87" s="7" t="s">
+        <v>637</v>
       </c>
     </row>
   </sheetData>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D19CCF9-F225-0F41-849F-DB00F2F01E10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6314900-C590-8246-A6E0-0CDE6FACA3D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3568,54 +3568,54 @@
     <t>A man seated in half profile at the back of a room furnished with many picture frames.</t>
   </si>
   <si>
+    <t>Copyright National Portrait Gallery, London. Academic license for academic and non-commercial use.</t>
+  </si>
+  <si>
+    <t>Professional Wetstamp, Verso of  Lose Print, Untitled</t>
+  </si>
+  <si>
+    <t>Professional Wetstamp, Verso of  Lose Print, Untitled, [c.1895]</t>
+  </si>
+  <si>
+    <t>Untitled (Interior with a seated man, possibly an agent for Elder Dempster, possibly James Howie), [c.1892]</t>
+  </si>
+  <si>
+    <t>Untitled (Interior with a seated man, possibly an agent for Elder Dempster, possibly James Howie)</t>
+  </si>
+  <si>
+    <t>Myers (née Tennant), Eveleen, 1856-1937</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Archives Centre, Merseyside Maritime Museum, National Museums Liverpool</t>
+  </si>
+  <si>
+    <t>National Portrait Gallery</t>
+  </si>
+  <si>
+    <t>Photographs Collection, NPG Ax68770</t>
+  </si>
+  <si>
+    <t>Ocean Archive, Elder Dempster, OA/12/1703 (Part of a Photographic Album owned and compiled by James Howie, a West African Agent for the Elder Dempster Shipping Line)</t>
+  </si>
+  <si>
+    <t>[c.1892]</t>
+  </si>
+  <si>
+    <t>[c.1895]</t>
+  </si>
+  <si>
+    <t>Stained paper with a diagonol purple stamp that says, “J.A. Green, Artist Photographer, Bonny Opobo, &amp;c, &amp;c”</t>
+  </si>
+  <si>
     <t xml:space="preserve">
-Sir Henry Morton Stanley; Dorothy (née Tennant), Lady Stanley and 'Sali'</t>
-  </si>
-  <si>
-    <t>Copyright National Portrait Gallery, London. Academic license for academic and non-commercial use.</t>
-  </si>
-  <si>
-    <t>Professional Wetstamp, Verso of  Lose Print, Untitled</t>
-  </si>
-  <si>
-    <t>Professional Wetstamp, Verso of  Lose Print, Untitled, [c.1895]</t>
-  </si>
-  <si>
-    <t>Untitled (Interior with a seated man, possibly an agent for Elder Dempster, possibly James Howie), [c.1892]</t>
-  </si>
-  <si>
-    <t>Untitled (Interior with a seated man, possibly an agent for Elder Dempster, possibly James Howie)</t>
-  </si>
-  <si>
-    <t>Myers (née Tennant), Eveleen, 1856-1937</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Archives Centre, Merseyside Maritime Museum, National Museums Liverpool</t>
-  </si>
-  <si>
-    <t>National Portrait Gallery</t>
-  </si>
-  <si>
-    <t>Photographs Collection, NPG Ax68770</t>
-  </si>
-  <si>
-    <t>Ocean Archive, Elder Dempster, OA/12/1703 (Part of a Photographic Album owned and compiled by James Howie, a West African Agent for the Elder Dempster Shipping Line)</t>
+Sir Henry Morton Stanley; Dorothy (née Tennant), Lady Stanley; and 'Sali'</t>
   </si>
   <si>
     <t xml:space="preserve">
-Sir Henry Morton Stanley; Dorothy (née Tennant), Lady Stanley and 'Sali,' 1890</t>
-  </si>
-  <si>
-    <t>[c.1892]</t>
-  </si>
-  <si>
-    <t>[c.1895]</t>
-  </si>
-  <si>
-    <t>Stained paper with a diagonol purple stamp that says, “J.A. Green, Artist Photographer, Bonny Opobo, &amp;c, &amp;c”</t>
+Sir Henry Morton Stanley; Dorothy (née Tennant), Lady Stanley; and 'Sali,' 1890</t>
   </si>
 </sst>
 </file>
@@ -7273,8 +7273,8 @@
   <dimension ref="A1:AQ87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10991,7 +10991,7 @@
         <v>1167</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>1168</v>
@@ -11000,13 +11000,13 @@
         <v>1169</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>1174</v>
+        <v>1188</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="L85" s="7" t="s">
         <v>117</v>
@@ -11018,10 +11018,10 @@
         <v>64</v>
       </c>
       <c r="Q85" s="7" t="s">
+        <v>1182</v>
+      </c>
+      <c r="R85" s="7" t="s">
         <v>1183</v>
-      </c>
-      <c r="R85" s="7" t="s">
-        <v>1184</v>
       </c>
       <c r="S85" s="7">
         <v>1890</v>
@@ -11041,10 +11041,10 @@
         <v>1170</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="I86" s="7" t="s">
         <v>645</v>
@@ -11056,16 +11056,16 @@
         <v>614</v>
       </c>
       <c r="P86" s="7" t="s">
+        <v>1180</v>
+      </c>
+      <c r="Q86" s="7" t="s">
         <v>1181</v>
       </c>
-      <c r="Q86" s="7" t="s">
-        <v>1182</v>
-      </c>
       <c r="R86" s="7" t="s">
+        <v>1184</v>
+      </c>
+      <c r="S86" s="7" t="s">
         <v>1185</v>
-      </c>
-      <c r="S86" s="7" t="s">
-        <v>1187</v>
       </c>
       <c r="T86" s="7" t="s">
         <v>637</v>
@@ -11076,16 +11076,16 @@
         <v>1172</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>1171</v>
       </c>
       <c r="G87" s="7" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H87" s="7" t="s">
         <v>1176</v>
-      </c>
-      <c r="H87" s="7" t="s">
-        <v>1177</v>
       </c>
       <c r="I87" s="7" t="s">
         <v>645</v>
@@ -11097,16 +11097,16 @@
         <v>614</v>
       </c>
       <c r="P87" s="7" t="s">
+        <v>1180</v>
+      </c>
+      <c r="Q87" s="7" t="s">
         <v>1181</v>
       </c>
-      <c r="Q87" s="7" t="s">
-        <v>1182</v>
-      </c>
       <c r="R87" s="7" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="S87" s="7" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="T87" s="7" t="s">
         <v>637</v>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6314900-C590-8246-A6E0-0CDE6FACA3D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BBE354-2583-EA40-88FD-2206D17433BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3571,18 +3571,6 @@
     <t>Copyright National Portrait Gallery, London. Academic license for academic and non-commercial use.</t>
   </si>
   <si>
-    <t>Professional Wetstamp, Verso of  Lose Print, Untitled</t>
-  </si>
-  <si>
-    <t>Professional Wetstamp, Verso of  Lose Print, Untitled, [c.1895]</t>
-  </si>
-  <si>
-    <t>Untitled (Interior with a seated man, possibly an agent for Elder Dempster, possibly James Howie), [c.1892]</t>
-  </si>
-  <si>
-    <t>Untitled (Interior with a seated man, possibly an agent for Elder Dempster, possibly James Howie)</t>
-  </si>
-  <si>
     <t>Myers (née Tennant), Eveleen, 1856-1937</t>
   </si>
   <si>
@@ -3616,6 +3604,18 @@
   <si>
     <t xml:space="preserve">
 Sir Henry Morton Stanley; Dorothy (née Tennant), Lady Stanley; and 'Sali,' 1890</t>
+  </si>
+  <si>
+    <t>Interior with a Seated Man (Possibly an Agent for Elder Dempster or James Howie)</t>
+  </si>
+  <si>
+    <t>Interior with a Seated Man (Possibly an Agent for Elder Dempster or James Howie), [c.1892]</t>
+  </si>
+  <si>
+    <t>Professional Wetstamp (Verso of Lose Print), [c.1895]</t>
+  </si>
+  <si>
+    <t>Professional Wetstamp (Verso of Lose Print)</t>
   </si>
 </sst>
 </file>
@@ -7273,8 +7273,8 @@
   <dimension ref="A1:AQ87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11000,13 +11000,13 @@
         <v>1169</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="L85" s="7" t="s">
         <v>117</v>
@@ -11018,10 +11018,10 @@
         <v>64</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="R85" s="7" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="S85" s="7">
         <v>1890</v>
@@ -11041,10 +11041,10 @@
         <v>1170</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>1178</v>
+        <v>1186</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>1177</v>
+        <v>1187</v>
       </c>
       <c r="I86" s="7" t="s">
         <v>645</v>
@@ -11056,16 +11056,16 @@
         <v>614</v>
       </c>
       <c r="P86" s="7" t="s">
+        <v>1176</v>
+      </c>
+      <c r="Q86" s="7" t="s">
+        <v>1177</v>
+      </c>
+      <c r="R86" s="7" t="s">
         <v>1180</v>
       </c>
-      <c r="Q86" s="7" t="s">
+      <c r="S86" s="7" t="s">
         <v>1181</v>
-      </c>
-      <c r="R86" s="7" t="s">
-        <v>1184</v>
-      </c>
-      <c r="S86" s="7" t="s">
-        <v>1185</v>
       </c>
       <c r="T86" s="7" t="s">
         <v>637</v>
@@ -11076,16 +11076,16 @@
         <v>1172</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>1171</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>1175</v>
+        <v>1189</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>1176</v>
+        <v>1188</v>
       </c>
       <c r="I87" s="7" t="s">
         <v>645</v>
@@ -11097,16 +11097,16 @@
         <v>614</v>
       </c>
       <c r="P87" s="7" t="s">
+        <v>1176</v>
+      </c>
+      <c r="Q87" s="7" t="s">
+        <v>1177</v>
+      </c>
+      <c r="R87" s="7" t="s">
         <v>1180</v>
       </c>
-      <c r="Q87" s="7" t="s">
-        <v>1181</v>
-      </c>
-      <c r="R87" s="7" t="s">
-        <v>1184</v>
-      </c>
       <c r="S87" s="7" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="T87" s="7" t="s">
         <v>637</v>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BBE354-2583-EA40-88FD-2206D17433BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4AB51D-6EE6-B940-8817-D66C17A033C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
@@ -3160,12 +3160,6 @@
     <t>liv_020073</t>
   </si>
   <si>
-    <t>Letter to [unknown] Phillips</t>
-  </si>
-  <si>
-    <t>Letter to [unknown] Phillips, 29 October 1868</t>
-  </si>
-  <si>
     <t>Craft, Alice Isabella Ellen, 1866-1917</t>
   </si>
   <si>
@@ -3616,6 +3610,12 @@
   </si>
   <si>
     <t>Professional Wetstamp (Verso of Lose Print)</t>
+  </si>
+  <si>
+    <t>Letter to [?] Phillips</t>
+  </si>
+  <si>
+    <t>Letter to [?] Phillips, 29 October 1868</t>
   </si>
 </sst>
 </file>
@@ -4105,9 +4105,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97A9DD5-2802-8C46-B4DE-35FF576EF7FC}">
   <dimension ref="A1:AL77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5820,19 +5820,19 @@
     </row>
     <row r="46" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="D46" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>1145</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>1147</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>429</v>
@@ -5841,7 +5841,7 @@
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
       <c r="T46" s="1" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="U46" s="1">
         <v>18</v>
@@ -5850,10 +5850,10 @@
         <v>3</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="X46" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="47" spans="1:38" ht="187" x14ac:dyDescent="0.2">
@@ -6086,34 +6086,34 @@
     </row>
     <row r="53" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>1154</v>
-      </c>
       <c r="C53" s="1" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E53" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>1162</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>1163</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="J53" s="1" t="s">
         <v>1164</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>1166</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>429</v>
@@ -6128,24 +6128,24 @@
         <v>5</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="54" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>1155</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>666</v>
@@ -6160,10 +6160,10 @@
         <v>76</v>
       </c>
       <c r="W54" s="5" t="s">
+        <v>1156</v>
+      </c>
+      <c r="X54" s="1" t="s">
         <v>1158</v>
-      </c>
-      <c r="X54" s="1" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="55" spans="1:38" ht="51" x14ac:dyDescent="0.2">
@@ -6310,18 +6310,18 @@
       <c r="AK57" s="1"/>
       <c r="AL57" s="1"/>
     </row>
-    <row r="58" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>1038</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>1039</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>1041</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>115</v>
@@ -6336,13 +6336,13 @@
         <v>474</v>
       </c>
       <c r="P58" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="R58" s="1" t="s">
         <v>1042</v>
-      </c>
-      <c r="Q58" s="1" t="s">
-        <v>1043</v>
-      </c>
-      <c r="R58" s="1" t="s">
-        <v>1044</v>
       </c>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
@@ -6360,16 +6360,16 @@
     </row>
     <row r="59" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>1046</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>1048</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>115</v>
@@ -6384,10 +6384,10 @@
         <v>474</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="R59" s="1" t="s">
         <v>1037</v>
@@ -6408,16 +6408,16 @@
     </row>
     <row r="60" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>1053</v>
-      </c>
       <c r="D60" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>115</v>
@@ -6432,13 +6432,13 @@
         <v>474</v>
       </c>
       <c r="P60" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="R60" s="1" t="s">
         <v>1054</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>1056</v>
       </c>
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
@@ -6456,16 +6456,16 @@
     </row>
     <row r="61" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>1059</v>
-      </c>
       <c r="D61" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>115</v>
@@ -6480,13 +6480,13 @@
         <v>474</v>
       </c>
       <c r="P61" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="R61" s="1" t="s">
         <v>1060</v>
-      </c>
-      <c r="Q61" s="1" t="s">
-        <v>1061</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>1062</v>
       </c>
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
@@ -6504,16 +6504,16 @@
     </row>
     <row r="62" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>1065</v>
-      </c>
       <c r="D62" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>115</v>
@@ -6528,10 +6528,10 @@
         <v>474</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
@@ -6549,16 +6549,16 @@
     </row>
     <row r="63" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>115</v>
@@ -6573,10 +6573,10 @@
         <v>474</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
@@ -6594,16 +6594,16 @@
     </row>
     <row r="64" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>115</v>
@@ -6618,13 +6618,13 @@
         <v>474</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
@@ -6642,16 +6642,16 @@
     </row>
     <row r="65" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>1077</v>
-      </c>
       <c r="D65" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>115</v>
@@ -6666,10 +6666,10 @@
         <v>474</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
@@ -6687,16 +6687,16 @@
     </row>
     <row r="66" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>115</v>
@@ -6711,13 +6711,13 @@
         <v>474</v>
       </c>
       <c r="P66" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="R66" s="1" t="s">
         <v>1081</v>
-      </c>
-      <c r="Q66" s="1" t="s">
-        <v>1082</v>
-      </c>
-      <c r="R66" s="1" t="s">
-        <v>1083</v>
       </c>
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
@@ -6735,16 +6735,16 @@
     </row>
     <row r="67" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>115</v>
@@ -6759,13 +6759,13 @@
         <v>474</v>
       </c>
       <c r="P67" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="R67" s="1" t="s">
         <v>1086</v>
-      </c>
-      <c r="Q67" s="1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>1088</v>
       </c>
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
@@ -6783,16 +6783,16 @@
     </row>
     <row r="68" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>1090</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>1092</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>115</v>
@@ -6807,13 +6807,13 @@
         <v>474</v>
       </c>
       <c r="P68" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="Q68" s="5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="R68" s="1" t="s">
         <v>1093</v>
-      </c>
-      <c r="Q68" s="5" t="s">
-        <v>1094</v>
-      </c>
-      <c r="R68" s="1" t="s">
-        <v>1095</v>
       </c>
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
@@ -6831,16 +6831,16 @@
     </row>
     <row r="69" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>115</v>
@@ -6855,13 +6855,13 @@
         <v>474</v>
       </c>
       <c r="P69" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="R69" s="1" t="s">
         <v>1098</v>
-      </c>
-      <c r="Q69" s="1" t="s">
-        <v>1099</v>
-      </c>
-      <c r="R69" s="1" t="s">
-        <v>1100</v>
       </c>
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
@@ -6879,16 +6879,16 @@
     </row>
     <row r="70" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>115</v>
@@ -6903,13 +6903,13 @@
         <v>474</v>
       </c>
       <c r="P70" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="R70" s="1" t="s">
         <v>1103</v>
-      </c>
-      <c r="Q70" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>1105</v>
       </c>
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
@@ -6927,16 +6927,16 @@
     </row>
     <row r="71" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>1108</v>
-      </c>
       <c r="D71" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>115</v>
@@ -6951,13 +6951,13 @@
         <v>474</v>
       </c>
       <c r="P71" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="R71" s="1" t="s">
         <v>1109</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>1110</v>
-      </c>
-      <c r="R71" s="1" t="s">
-        <v>1111</v>
       </c>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
@@ -6975,13 +6975,13 @@
     </row>
     <row r="72" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>1028</v>
@@ -6999,13 +6999,13 @@
         <v>474</v>
       </c>
       <c r="P72" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="R72" s="1" t="s">
         <v>1114</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>1115</v>
-      </c>
-      <c r="R72" s="1" t="s">
-        <v>1116</v>
       </c>
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
@@ -7023,16 +7023,16 @@
     </row>
     <row r="73" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>115</v>
@@ -7047,13 +7047,13 @@
         <v>474</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
@@ -7071,16 +7071,16 @@
     </row>
     <row r="74" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>115</v>
@@ -7095,13 +7095,13 @@
         <v>474</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
@@ -7119,16 +7119,16 @@
     </row>
     <row r="75" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>115</v>
@@ -7143,13 +7143,13 @@
         <v>474</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
@@ -7167,16 +7167,16 @@
     </row>
     <row r="76" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>1026</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>115</v>
@@ -7191,13 +7191,13 @@
         <v>474</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
@@ -7215,16 +7215,16 @@
     </row>
     <row r="77" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>1026</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>115</v>
@@ -7239,10 +7239,10 @@
         <v>474</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
@@ -7272,8 +7272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
@@ -10941,22 +10941,22 @@
     </row>
     <row r="84" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B84" s="17" t="s">
         <v>706</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="I84" s="7" t="s">
         <v>170</v>
@@ -10968,16 +10968,16 @@
         <v>116</v>
       </c>
       <c r="V84" s="10" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="X84" s="7" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="Y84" s="7" t="s">
         <v>64</v>
       </c>
       <c r="AC84" s="7" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="AG84" s="7">
         <v>1912</v>
@@ -10988,25 +10988,25 @@
     </row>
     <row r="85" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F85" s="7" t="s">
         <v>1167</v>
       </c>
-      <c r="B85" s="7" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>1168</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>1169</v>
-      </c>
       <c r="G85" s="7" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="L85" s="7" t="s">
         <v>117</v>
@@ -11018,10 +11018,10 @@
         <v>64</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="R85" s="7" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="S85" s="7">
         <v>1890</v>
@@ -11032,19 +11032,19 @@
     </row>
     <row r="86" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="B86" s="7" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="I86" s="7" t="s">
         <v>645</v>
@@ -11056,16 +11056,16 @@
         <v>614</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="R86" s="7" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="S86" s="7" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="T86" s="7" t="s">
         <v>637</v>
@@ -11073,19 +11073,19 @@
     </row>
     <row r="87" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="B87" s="7" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="I87" s="7" t="s">
         <v>645</v>
@@ -11097,16 +11097,16 @@
         <v>614</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="R87" s="7" t="s">
+        <v>1178</v>
+      </c>
+      <c r="S87" s="7" t="s">
         <v>1180</v>
-      </c>
-      <c r="S87" s="7" t="s">
-        <v>1182</v>
       </c>
       <c r="T87" s="7" t="s">
         <v>637</v>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4AB51D-6EE6-B940-8817-D66C17A033C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC3E139-76AF-774D-8DBF-60FE77C26568}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
-    <sheet name="Artifacts" sheetId="1" r:id="rId2"/>
+    <sheet name="Visual Materials" sheetId="1" r:id="rId2"/>
     <sheet name="dev" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -3600,12 +3600,6 @@
 Sir Henry Morton Stanley; Dorothy (née Tennant), Lady Stanley; and 'Sali,' 1890</t>
   </si>
   <si>
-    <t>Interior with a Seated Man (Possibly an Agent for Elder Dempster or James Howie)</t>
-  </si>
-  <si>
-    <t>Interior with a Seated Man (Possibly an Agent for Elder Dempster or James Howie), [c.1892]</t>
-  </si>
-  <si>
     <t>Professional Wetstamp (Verso of Lose Print), [c.1895]</t>
   </si>
   <si>
@@ -3616,6 +3610,12 @@
   </si>
   <si>
     <t>Letter to [?] Phillips, 29 October 1868</t>
+  </si>
+  <si>
+    <t>Interior with a Seated Man (Possibly an Agent for Elder Dempster, Possibly James Howie)</t>
+  </si>
+  <si>
+    <t>Interior with a Seated Man (Possibly an Agent for Elder Dempster, Possibly James Howie), [c.1892]</t>
   </si>
 </sst>
 </file>
@@ -4105,7 +4105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97A9DD5-2802-8C46-B4DE-35FF576EF7FC}">
   <dimension ref="A1:AL77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
@@ -6315,10 +6315,10 @@
         <v>1038</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>1039</v>
@@ -7272,9 +7272,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ87"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G87" sqref="G87"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11041,10 +11041,10 @@
         <v>1168</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>1184</v>
+        <v>1188</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>1185</v>
+        <v>1189</v>
       </c>
       <c r="I86" s="7" t="s">
         <v>645</v>
@@ -11082,10 +11082,10 @@
         <v>1169</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="I87" s="7" t="s">
         <v>645</v>
@@ -11145,7 +11145,7 @@
         <v>413</v>
       </c>
       <c r="B1" t="str">
-        <f>Artifacts!I29</f>
+        <f>'Visual Materials'!I29</f>
         <v>Anonymous</v>
       </c>
       <c r="C1" t="s">
@@ -11155,14 +11155,14 @@
         <v>410</v>
       </c>
       <c r="E1" t="str">
-        <f>Artifacts!G29</f>
+        <f>'Visual Materials'!G29</f>
         <v>Pandita Ramabai Sarasvati</v>
       </c>
       <c r="F1" t="s">
         <v>412</v>
       </c>
       <c r="G1" t="str">
-        <f>Artifacts!S29</f>
+        <f>'Visual Materials'!S29</f>
         <v>[Late nineteenth century]</v>
       </c>
       <c r="H1" t="s">
@@ -11178,7 +11178,7 @@
         <v>413</v>
       </c>
       <c r="B2" t="str">
-        <f>Artifacts!I30</f>
+        <f>'Visual Materials'!I30</f>
         <v>J. Paul</v>
       </c>
       <c r="C2" t="s">
@@ -11188,14 +11188,14 @@
         <v>415</v>
       </c>
       <c r="E2" t="str">
-        <f>Artifacts!G30</f>
+        <f>'Visual Materials'!G30</f>
         <v>“Pandita Ramabai &amp; Her Gifted Daughter Manoramabai”</v>
       </c>
       <c r="F2" t="s">
         <v>412</v>
       </c>
       <c r="G2" t="str">
-        <f>Artifacts!S30</f>
+        <f>'Visual Materials'!S30</f>
         <v>[Early twentieth century]</v>
       </c>
       <c r="H2" t="s">
@@ -11211,7 +11211,7 @@
         <v>413</v>
       </c>
       <c r="B3" t="str">
-        <f>Artifacts!I31</f>
+        <f>'Visual Materials'!I31</f>
         <v>Anonymous</v>
       </c>
       <c r="C3" t="s">
@@ -11221,7 +11221,7 @@
         <v>416</v>
       </c>
       <c r="E3" t="str">
-        <f>Artifacts!G31</f>
+        <f>'Visual Materials'!G31</f>
         <v>E. Pauline Johnson</v>
       </c>
       <c r="F3" t="s">
@@ -11243,7 +11243,7 @@
         <v>413</v>
       </c>
       <c r="B4" t="str">
-        <f>Artifacts!I32</f>
+        <f>'Visual Materials'!I32</f>
         <v>Johnson, E. Pauline, 1861-1913</v>
       </c>
       <c r="C4" t="s">
@@ -11253,7 +11253,7 @@
         <v>417</v>
       </c>
       <c r="E4" t="str">
-        <f>Artifacts!G32</f>
+        <f>'Visual Materials'!G32</f>
         <v>“And He Said ‘Fight On’” (Manuscript Facsimile)</v>
       </c>
       <c r="F4" t="s">
@@ -11275,7 +11275,7 @@
         <v>413</v>
       </c>
       <c r="B5" t="str">
-        <f>Artifacts!I33</f>
+        <f>'Visual Materials'!I33</f>
         <v>Anonymous</v>
       </c>
       <c r="C5" t="s">
@@ -11285,7 +11285,7 @@
         <v>418</v>
       </c>
       <c r="E5" t="str">
-        <f>Artifacts!G33</f>
+        <f>'Visual Materials'!G33</f>
         <v>E. Pauline Johnson (with Facsimile Signature)</v>
       </c>
       <c r="F5" t="s">
@@ -11307,7 +11307,7 @@
         <v>413</v>
       </c>
       <c r="B6" t="str">
-        <f>Artifacts!I34</f>
+        <f>'Visual Materials'!I34</f>
         <v>Anonymous</v>
       </c>
       <c r="C6" t="s">
@@ -11317,7 +11317,7 @@
         <v>419</v>
       </c>
       <c r="E6" t="str">
-        <f>Artifacts!G34</f>
+        <f>'Visual Materials'!G34</f>
         <v>E. Pauline Johnson (with Facsimile Signature)</v>
       </c>
       <c r="F6" t="s">
@@ -11339,7 +11339,7 @@
         <v>413</v>
       </c>
       <c r="B7" t="str">
-        <f>Artifacts!I35</f>
+        <f>'Visual Materials'!I35</f>
         <v>Anonymous</v>
       </c>
       <c r="C7" t="s">
@@ -11349,7 +11349,7 @@
         <v>420</v>
       </c>
       <c r="E7" t="str">
-        <f>Artifacts!G35</f>
+        <f>'Visual Materials'!G35</f>
         <v>E. Pauline Johnson</v>
       </c>
       <c r="F7" t="s">
@@ -11371,7 +11371,7 @@
         <v>413</v>
       </c>
       <c r="B8" t="str">
-        <f>Artifacts!I36</f>
+        <f>'Visual Materials'!I36</f>
         <v>Anonymous</v>
       </c>
       <c r="C8" t="s">
@@ -11381,7 +11381,7 @@
         <v>421</v>
       </c>
       <c r="E8" t="str">
-        <f>Artifacts!G36</f>
+        <f>'Visual Materials'!G36</f>
         <v xml:space="preserve">“The Grave of Pauline Johnson in Stanley Park, Near Siwash Rock”; “Siwash Rock”; “The Spirit of Siwash Rock” </v>
       </c>
       <c r="F8" t="s">
@@ -11403,7 +11403,7 @@
         <v>413</v>
       </c>
       <c r="B9" t="str">
-        <f>Artifacts!I37</f>
+        <f>'Visual Materials'!I37</f>
         <v>Anonymous</v>
       </c>
       <c r="C9" t="s">
@@ -11413,7 +11413,7 @@
         <v>422</v>
       </c>
       <c r="E9" t="str">
-        <f>Artifacts!G37</f>
+        <f>'Visual Materials'!G37</f>
         <v>E. Pauline Johnson</v>
       </c>
       <c r="F9" t="s">

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC3E139-76AF-774D-8DBF-60FE77C26568}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA1511F-2F60-7B45-A093-B5F99BC01EE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="1190">
   <si>
     <t>liv_000017</t>
   </si>
@@ -1424,9 +1424,6 @@
   </si>
   <si>
     <t>Statement and Attestations</t>
-  </si>
-  <si>
-    <t>Thompson, Tom</t>
   </si>
   <si>
     <t>7 May 1853, 11 May 1853, 11 May 1853, 11 May 1853</t>
@@ -3616,6 +3613,9 @@
   </si>
   <si>
     <t>Interior with a Seated Man (Possibly an Agent for Elder Dempster, Possibly James Howie), [c.1892]</t>
+  </si>
+  <si>
+    <t>Thompson, William</t>
   </si>
 </sst>
 </file>
@@ -4105,9 +4105,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97A9DD5-2802-8C46-B4DE-35FF576EF7FC}">
   <dimension ref="A1:AL77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4211,10 +4211,10 @@
         <v>247</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AD1" s="2" t="s">
         <v>246</v>
@@ -4494,16 +4494,16 @@
     </row>
     <row r="9" spans="1:38" ht="153" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>526</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>177</v>
@@ -4521,10 +4521,10 @@
         <v>34</v>
       </c>
       <c r="P9" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>528</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>49</v>
@@ -4544,7 +4544,7 @@
         <v>43</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>115</v>
@@ -4582,7 +4582,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>429</v>
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>429</v>
@@ -4646,7 +4646,7 @@
         <v>57</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>58</v>
@@ -4968,7 +4968,7 @@
         <v>170</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>429</v>
@@ -5043,9 +5043,6 @@
       <c r="F24" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="K24" s="1" t="s">
         <v>429</v>
       </c>
@@ -5073,10 +5070,7 @@
         <v>447</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>461</v>
+        <v>1189</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>115</v>
@@ -5091,13 +5085,13 @@
         <v>65</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Q25" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="R25" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="R25" s="1" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="26" spans="1:38" ht="68" x14ac:dyDescent="0.2">
@@ -5230,10 +5224,10 @@
         <v>452</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>178</v>
@@ -5254,62 +5248,62 @@
         <v>65</v>
       </c>
       <c r="P30" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q30" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="R30" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="31" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>650</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>429</v>
       </c>
       <c r="Z31" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="AD31" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="AE31" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="AD31" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="AE31" s="4" t="s">
+      <c r="AI31" s="4" t="s">
         <v>651</v>
-      </c>
-      <c r="AI31" s="4" t="s">
-        <v>652</v>
       </c>
       <c r="AK31" s="4">
         <v>1855</v>
       </c>
       <c r="AL31" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="32" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>598</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>115</v>
@@ -5318,33 +5312,33 @@
         <v>16</v>
       </c>
       <c r="N32" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="O32" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="P32" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="33" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>115</v>
@@ -5353,30 +5347,30 @@
         <v>16</v>
       </c>
       <c r="N33" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O33" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="O33" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="P33" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="34" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>621</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>170</v>
@@ -5388,7 +5382,7 @@
         <v>429</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="U34" s="1">
         <v>3</v>
@@ -5397,39 +5391,39 @@
         <v>25</v>
       </c>
       <c r="W34" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="X34" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="X34" s="1" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="35" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>656</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>657</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>659</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>660</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>429</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="U35" s="1">
         <v>2</v>
@@ -5438,59 +5432,59 @@
         <v>20</v>
       </c>
       <c r="W35" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="36" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>916</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>429</v>
       </c>
       <c r="Z36" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="AD36" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="AE36" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="AD36" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="AE36" s="4" t="s">
-        <v>651</v>
-      </c>
       <c r="AI36" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="AK36" s="4">
         <v>1855</v>
       </c>
       <c r="AL36" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="37" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>515</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>177</v>
@@ -5511,27 +5505,27 @@
         <v>807</v>
       </c>
       <c r="Q37" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="R37" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="38" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>177</v>
@@ -5552,7 +5546,7 @@
         <v>807</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="R38" s="1" t="s">
         <v>49</v>
@@ -5560,16 +5554,16 @@
     </row>
     <row r="39" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>521</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>177</v>
@@ -5590,7 +5584,7 @@
         <v>807</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="R39" s="1" t="s">
         <v>49</v>
@@ -5598,37 +5592,37 @@
     </row>
     <row r="40" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>831</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>832</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>170</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>429</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="V40" s="1">
         <v>44</v>
@@ -5637,68 +5631,68 @@
         <v>53</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="41" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>561</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>429</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="U41" s="1">
         <v>12</v>
       </c>
       <c r="W41" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="X41" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="X41" s="1" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="42" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>664</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>666</v>
-      </c>
       <c r="G42" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>671</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>429</v>
@@ -5710,18 +5704,18 @@
         <v>5</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="43" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>909</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>910</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>264</v>
@@ -5733,16 +5727,16 @@
         <v>264</v>
       </c>
       <c r="AA43" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="AD43" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="AE43" s="4" t="s">
         <v>911</v>
       </c>
-      <c r="AD43" s="4" t="s">
-        <v>909</v>
-      </c>
-      <c r="AE43" s="4" t="s">
+      <c r="AI43" s="4" t="s">
         <v>912</v>
-      </c>
-      <c r="AI43" s="4" t="s">
-        <v>913</v>
       </c>
       <c r="AK43" s="4">
         <v>1846</v>
@@ -5750,13 +5744,13 @@
     </row>
     <row r="44" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>883</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>884</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>32</v>
@@ -5768,33 +5762,33 @@
         <v>16</v>
       </c>
       <c r="N44" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="O44" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="O44" s="7" t="s">
-        <v>612</v>
-      </c>
       <c r="P44" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="45" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>887</v>
-      </c>
       <c r="D45" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>115</v>
@@ -5803,36 +5797,36 @@
         <v>16</v>
       </c>
       <c r="N45" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="O45" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>612</v>
-      </c>
       <c r="P45" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="R45" s="1" t="s">
         <v>891</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="46" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>1144</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>1146</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>1145</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>429</v>
@@ -5841,7 +5835,7 @@
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
       <c r="T46" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="U46" s="1">
         <v>18</v>
@@ -5850,214 +5844,214 @@
         <v>3</v>
       </c>
       <c r="W46" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="X46" s="1" t="s">
         <v>1148</v>
-      </c>
-      <c r="X46" s="1" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="47" spans="1:38" ht="187" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>900</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>901</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AB47" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="AC47" s="4" t="s">
         <v>903</v>
       </c>
-      <c r="AC47" s="4" t="s">
+      <c r="AD47" s="4" t="s">
         <v>904</v>
-      </c>
-      <c r="AD47" s="4" t="s">
-        <v>905</v>
       </c>
       <c r="AE47" s="4" t="s">
         <v>64</v>
       </c>
       <c r="AI47" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AK47" s="4">
         <v>1905</v>
       </c>
       <c r="AL47" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="48" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>679</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AD48" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AE48" s="4" t="s">
         <v>64</v>
       </c>
       <c r="AI48" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AK48" s="4">
         <v>1904</v>
       </c>
       <c r="AL48" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="49" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>679</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AD49" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AE49" s="4" t="s">
         <v>64</v>
       </c>
       <c r="AI49" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AK49" s="4">
         <v>1904</v>
       </c>
       <c r="AL49" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="50" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>679</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AD50" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AE50" s="4" t="s">
         <v>64</v>
       </c>
       <c r="AI50" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AK50" s="4">
         <v>1904</v>
       </c>
       <c r="AL50" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="51" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>679</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AD51" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AE51" s="4" t="s">
         <v>64</v>
       </c>
       <c r="AI51" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AK51" s="4">
         <v>1904</v>
       </c>
       <c r="AL51" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="52" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>824</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>825</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>170</v>
@@ -6069,51 +6063,51 @@
         <v>16</v>
       </c>
       <c r="N52" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="O52" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="O52" s="7" t="s">
-        <v>612</v>
-      </c>
       <c r="P52" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="Q52" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="R52" s="1" t="s">
         <v>826</v>
-      </c>
-      <c r="R52" s="1" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="53" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E53" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>1159</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>1162</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="J53" s="1" t="s">
         <v>1163</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>1164</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>429</v>
@@ -6128,27 +6122,27 @@
         <v>5</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="54" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>1153</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>1154</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>429</v>
@@ -6160,24 +6154,24 @@
         <v>76</v>
       </c>
       <c r="W54" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="X54" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="55" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>1020</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>1021</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>115</v>
@@ -6186,19 +6180,19 @@
         <v>16</v>
       </c>
       <c r="N55" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O55" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="O55" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="P55" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Q55" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="Q55" s="1" t="s">
+      <c r="R55" s="1" t="s">
         <v>1023</v>
-      </c>
-      <c r="R55" s="1" t="s">
-        <v>1024</v>
       </c>
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
@@ -6216,16 +6210,16 @@
     </row>
     <row r="56" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>1027</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>1028</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>115</v>
@@ -6234,19 +6228,19 @@
         <v>16</v>
       </c>
       <c r="N56" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O56" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="O56" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="P56" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="Q56" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="Q56" s="1" t="s">
+      <c r="R56" s="1" t="s">
         <v>1030</v>
-      </c>
-      <c r="R56" s="1" t="s">
-        <v>1031</v>
       </c>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
@@ -6264,16 +6258,16 @@
     </row>
     <row r="57" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>1034</v>
-      </c>
       <c r="D57" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>115</v>
@@ -6282,19 +6276,19 @@
         <v>16</v>
       </c>
       <c r="N57" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O57" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="O57" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="P57" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="Q57" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="Q57" s="1" t="s">
+      <c r="R57" s="1" t="s">
         <v>1036</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>1037</v>
       </c>
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
@@ -6312,16 +6306,16 @@
     </row>
     <row r="58" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>1038</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>1039</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>115</v>
@@ -6330,19 +6324,19 @@
         <v>16</v>
       </c>
       <c r="N58" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O58" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="O58" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="P58" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="Q58" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="Q58" s="1" t="s">
+      <c r="R58" s="1" t="s">
         <v>1041</v>
-      </c>
-      <c r="R58" s="1" t="s">
-        <v>1042</v>
       </c>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
@@ -6360,16 +6354,16 @@
     </row>
     <row r="59" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>1045</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>1046</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>115</v>
@@ -6378,19 +6372,19 @@
         <v>16</v>
       </c>
       <c r="N59" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O59" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="O59" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="P59" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Q59" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="Q59" s="1" t="s">
-        <v>1048</v>
-      </c>
       <c r="R59" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
@@ -6408,16 +6402,16 @@
     </row>
     <row r="60" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>1051</v>
-      </c>
       <c r="D60" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>115</v>
@@ -6426,19 +6420,19 @@
         <v>16</v>
       </c>
       <c r="N60" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O60" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="O60" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="P60" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="Q60" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="Q60" s="1" t="s">
+      <c r="R60" s="1" t="s">
         <v>1053</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>1054</v>
       </c>
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
@@ -6456,16 +6450,16 @@
     </row>
     <row r="61" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>1057</v>
-      </c>
       <c r="D61" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>115</v>
@@ -6474,19 +6468,19 @@
         <v>16</v>
       </c>
       <c r="N61" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O61" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="O61" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="P61" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="Q61" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="Q61" s="1" t="s">
+      <c r="R61" s="1" t="s">
         <v>1059</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>1060</v>
       </c>
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
@@ -6504,16 +6498,16 @@
     </row>
     <row r="62" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>1063</v>
-      </c>
       <c r="D62" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>115</v>
@@ -6522,16 +6516,16 @@
         <v>16</v>
       </c>
       <c r="N62" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O62" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="O62" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="P62" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="Q62" s="1" t="s">
         <v>1064</v>
-      </c>
-      <c r="Q62" s="1" t="s">
-        <v>1065</v>
       </c>
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
@@ -6549,16 +6543,16 @@
     </row>
     <row r="63" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>1067</v>
-      </c>
       <c r="D63" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>115</v>
@@ -6567,16 +6561,16 @@
         <v>16</v>
       </c>
       <c r="N63" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O63" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="O63" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="P63" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Q63" s="1" t="s">
         <v>1068</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>1069</v>
       </c>
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
@@ -6594,16 +6588,16 @@
     </row>
     <row r="64" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>1071</v>
-      </c>
       <c r="D64" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>115</v>
@@ -6612,19 +6606,19 @@
         <v>16</v>
       </c>
       <c r="N64" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O64" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="O64" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="P64" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
@@ -6642,16 +6636,16 @@
     </row>
     <row r="65" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>1075</v>
-      </c>
       <c r="D65" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>115</v>
@@ -6660,16 +6654,16 @@
         <v>16</v>
       </c>
       <c r="N65" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O65" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="O65" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="P65" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
@@ -6687,16 +6681,16 @@
     </row>
     <row r="66" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>1078</v>
-      </c>
       <c r="D66" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>115</v>
@@ -6705,19 +6699,19 @@
         <v>16</v>
       </c>
       <c r="N66" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O66" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="O66" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="P66" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="Q66" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="Q66" s="1" t="s">
+      <c r="R66" s="1" t="s">
         <v>1080</v>
-      </c>
-      <c r="R66" s="1" t="s">
-        <v>1081</v>
       </c>
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
@@ -6735,16 +6729,16 @@
     </row>
     <row r="67" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>1083</v>
-      </c>
       <c r="D67" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>115</v>
@@ -6753,19 +6747,19 @@
         <v>16</v>
       </c>
       <c r="N67" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O67" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="O67" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="P67" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="Q67" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="Q67" s="1" t="s">
+      <c r="R67" s="1" t="s">
         <v>1085</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>1086</v>
       </c>
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
@@ -6783,16 +6777,16 @@
     </row>
     <row r="68" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>1089</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>1090</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>115</v>
@@ -6801,19 +6795,19 @@
         <v>16</v>
       </c>
       <c r="N68" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O68" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="O68" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="P68" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="Q68" s="5" t="s">
         <v>1091</v>
       </c>
-      <c r="Q68" s="5" t="s">
+      <c r="R68" s="1" t="s">
         <v>1092</v>
-      </c>
-      <c r="R68" s="1" t="s">
-        <v>1093</v>
       </c>
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
@@ -6831,16 +6825,16 @@
     </row>
     <row r="69" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>1095</v>
-      </c>
       <c r="D69" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>115</v>
@@ -6849,19 +6843,19 @@
         <v>16</v>
       </c>
       <c r="N69" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O69" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="O69" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="P69" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="Q69" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="Q69" s="1" t="s">
+      <c r="R69" s="1" t="s">
         <v>1097</v>
-      </c>
-      <c r="R69" s="1" t="s">
-        <v>1098</v>
       </c>
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
@@ -6879,16 +6873,16 @@
     </row>
     <row r="70" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>1100</v>
-      </c>
       <c r="D70" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>115</v>
@@ -6897,19 +6891,19 @@
         <v>16</v>
       </c>
       <c r="N70" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O70" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="O70" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="P70" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="Q70" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="Q70" s="1" t="s">
+      <c r="R70" s="1" t="s">
         <v>1102</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>1103</v>
       </c>
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
@@ -6927,16 +6921,16 @@
     </row>
     <row r="71" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>1106</v>
-      </c>
       <c r="D71" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>115</v>
@@ -6945,19 +6939,19 @@
         <v>16</v>
       </c>
       <c r="N71" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O71" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="O71" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="P71" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="Q71" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="Q71" s="1" t="s">
+      <c r="R71" s="1" t="s">
         <v>1108</v>
-      </c>
-      <c r="R71" s="1" t="s">
-        <v>1109</v>
       </c>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
@@ -6975,16 +6969,16 @@
     </row>
     <row r="72" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>1111</v>
-      </c>
       <c r="D72" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>115</v>
@@ -6993,19 +6987,19 @@
         <v>16</v>
       </c>
       <c r="N72" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O72" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="O72" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="P72" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="Q72" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="Q72" s="1" t="s">
+      <c r="R72" s="1" t="s">
         <v>1113</v>
-      </c>
-      <c r="R72" s="1" t="s">
-        <v>1114</v>
       </c>
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
@@ -7023,16 +7017,16 @@
     </row>
     <row r="73" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>1116</v>
-      </c>
       <c r="D73" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>115</v>
@@ -7041,19 +7035,19 @@
         <v>16</v>
       </c>
       <c r="N73" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O73" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="O73" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="P73" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="Q73" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="Q73" s="1" t="s">
-        <v>1118</v>
-      </c>
       <c r="R73" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
@@ -7071,16 +7065,16 @@
     </row>
     <row r="74" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>1120</v>
-      </c>
       <c r="D74" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>115</v>
@@ -7089,19 +7083,19 @@
         <v>16</v>
       </c>
       <c r="N74" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O74" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="O74" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="P74" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="Q74" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="Q74" s="1" t="s">
-        <v>1122</v>
-      </c>
       <c r="R74" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
@@ -7119,16 +7113,16 @@
     </row>
     <row r="75" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>1124</v>
-      </c>
       <c r="D75" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>115</v>
@@ -7137,19 +7131,19 @@
         <v>16</v>
       </c>
       <c r="N75" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O75" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="O75" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="P75" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="Q75" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="R75" s="1" t="s">
         <v>1097</v>
-      </c>
-      <c r="R75" s="1" t="s">
-        <v>1098</v>
       </c>
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
@@ -7167,16 +7161,16 @@
     </row>
     <row r="76" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>1136</v>
-      </c>
       <c r="D76" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>115</v>
@@ -7185,19 +7179,19 @@
         <v>16</v>
       </c>
       <c r="N76" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O76" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="O76" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="P76" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
@@ -7215,16 +7209,16 @@
     </row>
     <row r="77" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>1139</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>1140</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>115</v>
@@ -7233,16 +7227,16 @@
         <v>16</v>
       </c>
       <c r="N77" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O77" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="O77" s="1" t="s">
-        <v>474</v>
-      </c>
       <c r="P77" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
@@ -7272,7 +7266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H86" sqref="H86"/>
     </sheetView>
@@ -7304,10 +7298,10 @@
   <sheetData>
     <row r="1" spans="1:39" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>299</v>
@@ -7512,7 +7506,7 @@
     </row>
     <row r="6" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="C6" s="11" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>103</v>
@@ -7544,7 +7538,7 @@
     </row>
     <row r="7" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="C7" s="11" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>103</v>
@@ -8830,19 +8824,19 @@
         <v>308</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G38" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="H38" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="H38" s="11" t="s">
-        <v>484</v>
-      </c>
       <c r="I38" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>117</v>
@@ -8851,39 +8845,39 @@
         <v>16</v>
       </c>
       <c r="P38" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="Q38" s="7" t="s">
-        <v>474</v>
-      </c>
       <c r="R38" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S38" s="7">
         <v>1874</v>
       </c>
       <c r="T38" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="39" spans="3:34" ht="136" x14ac:dyDescent="0.2">
       <c r="C39" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G39" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="I39" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>117</v>
@@ -8892,33 +8886,33 @@
         <v>16</v>
       </c>
       <c r="P39" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="Q39" s="7" t="s">
-        <v>474</v>
-      </c>
       <c r="R39" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S39" s="7">
         <v>1874</v>
       </c>
       <c r="T39" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="40" spans="3:34" ht="51" x14ac:dyDescent="0.2">
       <c r="C40" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G40" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="H40" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>170</v>
@@ -8927,40 +8921,40 @@
         <v>117</v>
       </c>
       <c r="V40" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="X40" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="X40" s="7" t="s">
+      <c r="Y40" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="Y40" s="7" t="s">
+      <c r="AC40" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="AC40" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="AG40" s="7">
         <v>1917</v>
       </c>
       <c r="AH40" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="41" spans="3:34" ht="85" x14ac:dyDescent="0.2">
       <c r="C41" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D41" s="11"/>
       <c r="F41" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G41" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="H41" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="H41" s="7" t="s">
-        <v>509</v>
-      </c>
       <c r="I41" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>115</v>
@@ -8969,22 +8963,22 @@
         <v>116</v>
       </c>
       <c r="V41" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="X41" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="X41" s="7" t="s">
+      <c r="Y41" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="Y41" s="7" t="s">
-        <v>499</v>
       </c>
       <c r="Z41" s="7" t="s">
         <v>204</v>
       </c>
       <c r="AC41" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="AG41" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="AG41" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="AH41" s="7" t="s">
         <v>385</v>
@@ -8992,16 +8986,16 @@
     </row>
     <row r="42" spans="3:34" ht="85" x14ac:dyDescent="0.2">
       <c r="C42" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G42" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="H42" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>170</v>
@@ -9016,19 +9010,19 @@
         <v>116</v>
       </c>
       <c r="V42" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="X42" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="X42" s="7" t="s">
+      <c r="Y42" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="Y42" s="7" t="s">
-        <v>499</v>
       </c>
       <c r="Z42" s="7" t="s">
         <v>204</v>
       </c>
       <c r="AC42" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AG42" s="7">
         <v>1899</v>
@@ -9039,22 +9033,22 @@
     </row>
     <row r="43" spans="3:34" ht="102" x14ac:dyDescent="0.2">
       <c r="C43" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>506</v>
-      </c>
       <c r="H43" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>170</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>117</v>
@@ -9063,10 +9057,10 @@
         <v>116</v>
       </c>
       <c r="V43" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="X43" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="Y43" s="7" t="s">
         <v>204</v>
@@ -9075,7 +9069,7 @@
         <v>64</v>
       </c>
       <c r="AC43" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AG43" s="7">
         <v>1902</v>
@@ -9086,19 +9080,19 @@
     </row>
     <row r="44" spans="3:34" ht="187" x14ac:dyDescent="0.2">
       <c r="C44" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F44" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="H44" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="H44" s="7" t="s">
-        <v>534</v>
-      </c>
       <c r="I44" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>117</v>
@@ -9122,27 +9116,27 @@
         <v>1874</v>
       </c>
       <c r="T44" s="14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="45" spans="3:34" ht="68" x14ac:dyDescent="0.2">
       <c r="C45" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G45" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="H45" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="H45" s="7" t="s">
-        <v>578</v>
-      </c>
       <c r="I45" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>44</v>
@@ -9151,36 +9145,36 @@
         <v>45</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="R45" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="S45" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="T45" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="T45" s="7" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="46" spans="3:34" ht="68" x14ac:dyDescent="0.2">
       <c r="C46" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="I46" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="F46" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>576</v>
-      </c>
       <c r="L46" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="O46" s="7" t="s">
         <v>44</v>
@@ -9189,33 +9183,33 @@
         <v>45</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="R46" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S46" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="T46" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="T46" s="7" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="47" spans="3:34" ht="68" x14ac:dyDescent="0.2">
       <c r="C47" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F47" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="H47" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="I47" s="7" t="s">
         <v>609</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>610</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>32</v>
@@ -9227,39 +9221,39 @@
         <v>16</v>
       </c>
       <c r="P47" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="Q47" s="7" t="s">
-        <v>612</v>
-      </c>
       <c r="R47" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="S47" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="T47" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="48" spans="3:34" ht="51" x14ac:dyDescent="0.2">
       <c r="C48" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>170</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>16</v>
@@ -9271,30 +9265,30 @@
         <v>152</v>
       </c>
       <c r="R48" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="S48" s="7" t="s">
         <v>368</v>
       </c>
       <c r="T48" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="49" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="C49" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>117</v>
@@ -9303,36 +9297,36 @@
         <v>16</v>
       </c>
       <c r="P49" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="R49" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="S49" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="Q49" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="R49" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="S49" s="7" t="s">
-        <v>635</v>
-      </c>
       <c r="T49" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="50" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="C50" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H50" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="I50" s="7" t="s">
         <v>644</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>645</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>117</v>
@@ -9341,36 +9335,36 @@
         <v>16</v>
       </c>
       <c r="P50" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="R50" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="S50" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="Q50" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="R50" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="S50" s="7" t="s">
+      <c r="T50" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="T50" s="7" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="51" spans="1:34" ht="153" x14ac:dyDescent="0.2">
       <c r="C51" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F51" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="H51" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="I51" s="7" t="s">
         <v>688</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>689</v>
       </c>
       <c r="L51" s="7" t="s">
         <v>117</v>
@@ -9388,25 +9382,25 @@
         <v>152</v>
       </c>
       <c r="R51" s="7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="S51" s="7" t="s">
         <v>368</v>
       </c>
       <c r="T51" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="V51" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="X51" s="7" t="s">
         <v>691</v>
       </c>
-      <c r="V51" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="X51" s="7" t="s">
+      <c r="Y51" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="Y51" s="7" t="s">
+      <c r="AC51" s="7" t="s">
         <v>693</v>
-      </c>
-      <c r="AC51" s="7" t="s">
-        <v>694</v>
       </c>
       <c r="AG51" s="7">
         <v>1913</v>
@@ -9417,10 +9411,10 @@
     </row>
     <row r="52" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="C52" s="7" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>134</v>
@@ -9450,27 +9444,27 @@
         <v>22</v>
       </c>
       <c r="T52" s="7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="53" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F53" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>699</v>
       </c>
-      <c r="G53" s="7" t="s">
-        <v>700</v>
-      </c>
       <c r="H53" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>170</v>
@@ -9485,36 +9479,36 @@
         <v>45</v>
       </c>
       <c r="Q53" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="R53" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="S53" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="T53" s="7" t="s">
         <v>702</v>
-      </c>
-      <c r="R53" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="S53" s="7" t="s">
-        <v>759</v>
-      </c>
-      <c r="T53" s="7" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="54" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>705</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="C54" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>755</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>707</v>
-      </c>
       <c r="G54" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>170</v>
@@ -9529,39 +9523,39 @@
         <v>45</v>
       </c>
       <c r="Q54" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="R54" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="S54" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="T54" s="7" t="s">
         <v>702</v>
-      </c>
-      <c r="R54" s="7" t="s">
-        <v>714</v>
-      </c>
-      <c r="S54" s="7" t="s">
-        <v>758</v>
-      </c>
-      <c r="T54" s="7" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="55" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>711</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>708</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>712</v>
-      </c>
       <c r="H55" s="7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>117</v>
@@ -9573,39 +9567,39 @@
         <v>45</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="R55" s="17" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="S55" s="16" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="T55" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="56" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="C56" s="7" t="s">
+      <c r="F56" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="F56" s="7" t="s">
-        <v>719</v>
-      </c>
       <c r="G56" s="7" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L56" s="7" t="s">
         <v>117</v>
@@ -9617,45 +9611,45 @@
         <v>45</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="R56" s="17" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="S56" s="16" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="T56" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="57" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>724</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>829</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>830</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>830</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>725</v>
-      </c>
       <c r="G57" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>117</v>
@@ -9667,39 +9661,39 @@
         <v>45</v>
       </c>
       <c r="Q57" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="R57" s="17" t="s">
+        <v>729</v>
+      </c>
+      <c r="S57" s="16" t="s">
+        <v>728</v>
+      </c>
+      <c r="T57" s="7" t="s">
         <v>702</v>
-      </c>
-      <c r="R57" s="17" t="s">
-        <v>730</v>
-      </c>
-      <c r="S57" s="16" t="s">
-        <v>729</v>
-      </c>
-      <c r="T57" s="7" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="58" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="C58" s="7" t="s">
+      <c r="F58" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="F58" s="7" t="s">
-        <v>726</v>
-      </c>
-      <c r="G58" s="7" t="s">
+      <c r="H58" s="7" t="s">
         <v>733</v>
       </c>
-      <c r="H58" s="7" t="s">
-        <v>734</v>
-      </c>
       <c r="I58" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>117</v>
@@ -9711,39 +9705,39 @@
         <v>45</v>
       </c>
       <c r="Q58" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="R58" s="17" t="s">
+        <v>734</v>
+      </c>
+      <c r="S58" s="16" t="s">
+        <v>762</v>
+      </c>
+      <c r="T58" s="7" t="s">
         <v>702</v>
-      </c>
-      <c r="R58" s="17" t="s">
-        <v>735</v>
-      </c>
-      <c r="S58" s="16" t="s">
-        <v>763</v>
-      </c>
-      <c r="T58" s="7" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="59" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>740</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="G59" s="7" t="s">
+      <c r="H59" s="7" t="s">
         <v>737</v>
       </c>
-      <c r="H59" s="7" t="s">
-        <v>738</v>
-      </c>
       <c r="I59" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L59" s="7" t="s">
         <v>117</v>
@@ -9755,39 +9749,39 @@
         <v>45</v>
       </c>
       <c r="Q59" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="R59" s="17" t="s">
+        <v>738</v>
+      </c>
+      <c r="S59" s="16" t="s">
+        <v>763</v>
+      </c>
+      <c r="T59" s="7" t="s">
         <v>702</v>
-      </c>
-      <c r="R59" s="17" t="s">
-        <v>739</v>
-      </c>
-      <c r="S59" s="16" t="s">
-        <v>764</v>
-      </c>
-      <c r="T59" s="7" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="60" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C60" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="F60" s="7" t="s">
         <v>741</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>742</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>200</v>
       </c>
       <c r="H60" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="I60" s="7" t="s">
         <v>745</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>746</v>
       </c>
       <c r="L60" s="7" t="s">
         <v>117</v>
@@ -9799,27 +9793,27 @@
         <v>45</v>
       </c>
       <c r="Q60" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="R60" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="S60" s="16" t="s">
+        <v>752</v>
+      </c>
+      <c r="T60" s="7" t="s">
         <v>702</v>
-      </c>
-      <c r="R60" s="17" t="s">
-        <v>747</v>
-      </c>
-      <c r="S60" s="16" t="s">
-        <v>753</v>
-      </c>
-      <c r="T60" s="7" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="61" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="B61" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>748</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>754</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>749</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>154</v>
@@ -9834,39 +9828,39 @@
         <v>117</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="S61" s="7" t="s">
         <v>155</v>
       </c>
       <c r="T61" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="62" spans="1:34" ht="119" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="F62" s="7" t="s">
         <v>766</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>765</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>779</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>767</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>200</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>170</v>
@@ -9881,22 +9875,22 @@
         <v>204</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R62" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="S62" s="7" t="s">
         <v>769</v>
       </c>
-      <c r="S62" s="7" t="s">
+      <c r="T62" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="V62" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="X62" s="7" t="s">
         <v>770</v>
-      </c>
-      <c r="T62" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="V62" s="10" t="s">
-        <v>859</v>
-      </c>
-      <c r="X62" s="7" t="s">
-        <v>771</v>
       </c>
       <c r="Y62" s="7" t="s">
         <v>64</v>
@@ -9908,30 +9902,30 @@
         <v>1906</v>
       </c>
       <c r="AH62" s="16" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="63" spans="1:34" ht="119" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>775</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>778</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>774</v>
-      </c>
-      <c r="G63" s="7" t="s">
+      <c r="H63" s="7" t="s">
         <v>776</v>
       </c>
-      <c r="H63" s="7" t="s">
-        <v>777</v>
-      </c>
       <c r="I63" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L63" s="7" t="s">
         <v>117</v>
@@ -9943,28 +9937,28 @@
         <v>204</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R63" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="S63" s="7">
         <v>1910</v>
       </c>
       <c r="T63" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="V63" s="10" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="X63" s="7" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="Y63" s="7" t="s">
         <v>64</v>
       </c>
       <c r="AC63" s="7" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AG63" s="7">
         <v>1910</v>
@@ -9975,22 +9969,22 @@
     </row>
     <row r="64" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>785</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>773</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>797</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>786</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>386</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>170</v>
@@ -10005,36 +9999,36 @@
         <v>204</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="R64" s="7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="S64" s="7" t="s">
         <v>368</v>
       </c>
       <c r="T64" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="65" spans="1:34" ht="119" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>790</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>798</v>
-      </c>
-      <c r="F65" s="7" t="s">
+      <c r="G65" s="7" t="s">
         <v>791</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="H65" s="7" t="s">
         <v>792</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>793</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>170</v>
@@ -10049,28 +10043,28 @@
         <v>204</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R65" s="7" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="S65" s="7">
         <v>1923</v>
       </c>
       <c r="T65" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="V65" s="10" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="X65" s="7" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="Y65" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AC65" s="7" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AG65" s="7">
         <v>1923</v>
@@ -10081,22 +10075,22 @@
     </row>
     <row r="66" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>799</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>773</v>
-      </c>
-      <c r="C66" s="7" t="s">
+      <c r="F66" s="7" t="s">
         <v>800</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="G66" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="H66" s="7" t="s">
         <v>801</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>792</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>802</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>170</v>
@@ -10111,36 +10105,36 @@
         <v>204</v>
       </c>
       <c r="Q66" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="R66" s="7" t="s">
         <v>803</v>
       </c>
-      <c r="R66" s="7" t="s">
+      <c r="S66" s="7" t="s">
         <v>804</v>
       </c>
-      <c r="S66" s="7" t="s">
-        <v>805</v>
-      </c>
       <c r="T66" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="67" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G67" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="H67" s="7" t="s">
         <v>806</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>807</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>170</v>
@@ -10149,7 +10143,7 @@
         <v>117</v>
       </c>
       <c r="M67" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="O67" s="7" t="s">
         <v>44</v>
@@ -10158,36 +10152,36 @@
         <v>204</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="R67" s="7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="S67" s="7">
         <v>1903</v>
       </c>
       <c r="T67" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="68" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G68" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="H68" s="7" t="s">
         <v>812</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>813</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>170</v>
@@ -10202,51 +10196,51 @@
         <v>204</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="R68" s="7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="S68" s="7" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="T68" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="V68" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="X68" s="7" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AG68" s="7">
         <v>1903</v>
       </c>
       <c r="AH68" s="7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="69" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="L69" s="7" t="s">
         <v>117</v>
@@ -10255,16 +10249,16 @@
         <v>44</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q69" s="17" t="s">
+        <v>861</v>
+      </c>
+      <c r="R69" s="17" t="s">
         <v>862</v>
       </c>
-      <c r="R69" s="17" t="s">
-        <v>863</v>
-      </c>
       <c r="S69" s="7" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="T69" s="17" t="s">
         <v>44</v>
@@ -10272,25 +10266,25 @@
     </row>
     <row r="70" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A70" s="17" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G70" s="17" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I70" s="17" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="L70" s="7" t="s">
         <v>117</v>
@@ -10299,39 +10293,39 @@
         <v>44</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q70" s="17" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="R70" s="17" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="S70" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="T70" s="17" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="71" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A71" s="17" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I71" s="17" t="s">
         <v>170</v>
@@ -10340,22 +10334,22 @@
         <v>117</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="Q71" s="17"/>
       <c r="R71" s="17"/>
       <c r="T71" s="17"/>
       <c r="V71" s="10" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="X71" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="Y71" s="7" t="s">
         <v>33</v>
       </c>
       <c r="AC71" s="7" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="AG71" s="7">
         <v>1894</v>
@@ -10366,25 +10360,25 @@
     </row>
     <row r="72" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" s="17" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="I72" s="17" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L72" s="7" t="s">
         <v>117</v>
@@ -10393,42 +10387,42 @@
         <v>44</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q72" s="17" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="R72" s="17" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="S72" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="T72" s="17" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="73" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="17" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I73" s="17" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>117</v>
@@ -10437,39 +10431,39 @@
         <v>44</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Q73" s="17" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="R73" s="17" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="S73" s="7" t="s">
         <v>368</v>
       </c>
       <c r="T73" s="17" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="74" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
+        <v>918</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>919</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="C74" s="7" t="s">
+      <c r="F74" s="7" t="s">
         <v>920</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="G74" s="7" t="s">
         <v>921</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="H74" s="7" t="s">
         <v>922</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>923</v>
       </c>
       <c r="I74" s="17" t="s">
         <v>170</v>
@@ -10481,10 +10475,10 @@
         <v>116</v>
       </c>
       <c r="V74" s="10" t="s">
+        <v>923</v>
+      </c>
+      <c r="X74" s="7" t="s">
         <v>924</v>
-      </c>
-      <c r="X74" s="7" t="s">
-        <v>925</v>
       </c>
       <c r="Y74" s="7" t="s">
         <v>33</v>
@@ -10493,22 +10487,22 @@
         <v>64</v>
       </c>
       <c r="AA74" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="AB74" s="7" t="s">
         <v>926</v>
       </c>
-      <c r="AB74" s="7" t="s">
+      <c r="AC74" s="7" t="s">
         <v>927</v>
       </c>
-      <c r="AC74" s="7" t="s">
+      <c r="AD74" s="7" t="s">
         <v>928</v>
       </c>
-      <c r="AD74" s="7" t="s">
+      <c r="AE74" s="7" t="s">
         <v>929</v>
       </c>
-      <c r="AE74" s="7" t="s">
+      <c r="AF74" s="7" t="s">
         <v>930</v>
-      </c>
-      <c r="AF74" s="7" t="s">
-        <v>931</v>
       </c>
       <c r="AG74" s="7">
         <v>1877</v>
@@ -10519,22 +10513,22 @@
     </row>
     <row r="75" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A75" s="17" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G75" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H75" s="7" t="s">
         <v>1001</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>1002</v>
       </c>
       <c r="I75" s="18" t="s">
         <v>170</v>
@@ -10543,19 +10537,19 @@
         <v>117</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="T75" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="X75" s="17"/>
       <c r="AB75" s="1"/>
@@ -10563,22 +10557,22 @@
     </row>
     <row r="76" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="I76" s="18" t="s">
         <v>170</v>
@@ -10592,10 +10586,10 @@
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
       <c r="V76" s="10" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="X76" s="17" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Y76" s="17" t="s">
         <v>64</v>
@@ -10604,7 +10598,7 @@
         <v>204</v>
       </c>
       <c r="AC76" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="AG76" s="1">
         <v>1996</v>
@@ -10615,44 +10609,44 @@
     </row>
     <row r="77" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A77" s="17" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I77" s="18" t="s">
         <v>170</v>
       </c>
       <c r="L77" s="17" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="O77" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="P77" s="7" t="s">
         <v>991</v>
       </c>
-      <c r="P77" s="7" t="s">
-        <v>992</v>
-      </c>
       <c r="Q77" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="R77" s="1"/>
       <c r="S77" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="T77" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="X77" s="17"/>
       <c r="AC77" s="1"/>
@@ -10660,22 +10654,22 @@
     </row>
     <row r="78" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A78" s="17" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I78" s="18" t="s">
         <v>170</v>
@@ -10684,20 +10678,20 @@
         <v>117</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="R78" s="1"/>
       <c r="S78" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="T78" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="X78" s="17"/>
       <c r="AC78" s="1"/>
@@ -10705,44 +10699,44 @@
     </row>
     <row r="79" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="17" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="I79" s="17" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="L79" s="17" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="P79" s="7" t="s">
+        <v>994</v>
+      </c>
+      <c r="Q79" s="1" t="s">
         <v>995</v>
-      </c>
-      <c r="Q79" s="1" t="s">
-        <v>996</v>
       </c>
       <c r="R79" s="1"/>
       <c r="S79" s="1">
         <v>1905</v>
       </c>
       <c r="T79" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="X79" s="17"/>
       <c r="AC79" s="1"/>
@@ -10750,25 +10744,25 @@
     </row>
     <row r="80" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A80" s="17" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G80" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H80" s="7" t="s">
         <v>1012</v>
       </c>
-      <c r="H80" s="7" t="s">
-        <v>1013</v>
-      </c>
       <c r="I80" s="17" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="L80" s="7" t="s">
         <v>117</v>
@@ -10779,45 +10773,45 @@
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
       <c r="V80" s="17" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="X80" s="17" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Y80" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AC80" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AG80" s="1">
         <v>1910</v>
       </c>
       <c r="AH80" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="81" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A81" s="17" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C81" s="17" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>937</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H81" s="7" t="s">
         <v>1009</v>
       </c>
-      <c r="F81" s="7" t="s">
-        <v>938</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>1010</v>
-      </c>
       <c r="I81" s="17" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="L81" s="7" t="s">
         <v>117</v>
@@ -10829,16 +10823,16 @@
         <v>64</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="T81" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="X81" s="17"/>
       <c r="AC81" s="1"/>
@@ -10846,37 +10840,37 @@
     </row>
     <row r="82" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A82" s="17" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="I82" s="17" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="L82" s="7" t="s">
         <v>117</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="R82" s="1">
         <v>909.01310000000001</v>
@@ -10885,7 +10879,7 @@
         <v>1894</v>
       </c>
       <c r="T82" s="17" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="X82" s="17"/>
       <c r="AC82" s="1"/>
@@ -10893,25 +10887,25 @@
     </row>
     <row r="83" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A83" s="17" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="G83" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H83" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="H83" s="7" t="s">
-        <v>1016</v>
-      </c>
       <c r="I83" s="17" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L83" s="7" t="s">
         <v>117</v>
@@ -10921,42 +10915,42 @@
       </c>
       <c r="Q83" s="1"/>
       <c r="V83" s="17" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="X83" s="17" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="Y83" s="17" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="AC83" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="AG83" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AH83" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="84" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="C84" s="7" t="s">
         <v>1127</v>
       </c>
-      <c r="B84" s="17" t="s">
-        <v>706</v>
-      </c>
-      <c r="C84" s="7" t="s">
+      <c r="F84" s="7" t="s">
         <v>1128</v>
       </c>
-      <c r="F84" s="7" t="s">
-        <v>1129</v>
-      </c>
       <c r="G84" s="7" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H84" s="7" t="s">
         <v>1133</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>1134</v>
       </c>
       <c r="I84" s="7" t="s">
         <v>170</v>
@@ -10968,16 +10962,16 @@
         <v>116</v>
       </c>
       <c r="V84" s="10" t="s">
+        <v>1129</v>
+      </c>
+      <c r="X84" s="7" t="s">
         <v>1130</v>
-      </c>
-      <c r="X84" s="7" t="s">
-        <v>1131</v>
       </c>
       <c r="Y84" s="7" t="s">
         <v>64</v>
       </c>
       <c r="AC84" s="7" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="AG84" s="7">
         <v>1912</v>
@@ -10988,128 +10982,128 @@
     </row>
     <row r="85" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>1165</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="F85" s="7" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>1182</v>
+      </c>
+      <c r="I85" s="7" t="s">
         <v>1172</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>1166</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>1167</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>1182</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>1183</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>1173</v>
       </c>
       <c r="L85" s="7" t="s">
         <v>117</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="P85" s="7" t="s">
         <v>64</v>
       </c>
       <c r="Q85" s="7" t="s">
+        <v>1175</v>
+      </c>
+      <c r="R85" s="7" t="s">
         <v>1176</v>
-      </c>
-      <c r="R85" s="7" t="s">
-        <v>1177</v>
       </c>
       <c r="S85" s="7">
         <v>1890</v>
       </c>
       <c r="T85" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="86" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="B86" s="7" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C86" s="7" t="s">
         <v>1170</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>1171</v>
-      </c>
       <c r="F86" s="7" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="G86" s="7" t="s">
+        <v>1187</v>
+      </c>
+      <c r="H86" s="7" t="s">
         <v>1188</v>
       </c>
-      <c r="H86" s="7" t="s">
-        <v>1189</v>
-      </c>
       <c r="I86" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="L86" s="7" t="s">
         <v>117</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="P86" s="7" t="s">
+        <v>1173</v>
+      </c>
+      <c r="Q86" s="7" t="s">
         <v>1174</v>
       </c>
-      <c r="Q86" s="7" t="s">
-        <v>1175</v>
-      </c>
       <c r="R86" s="7" t="s">
+        <v>1177</v>
+      </c>
+      <c r="S86" s="7" t="s">
         <v>1178</v>
       </c>
-      <c r="S86" s="7" t="s">
-        <v>1179</v>
-      </c>
       <c r="T86" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="87" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="B87" s="7" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="L87" s="7" t="s">
         <v>117</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="P87" s="7" t="s">
+        <v>1173</v>
+      </c>
+      <c r="Q87" s="7" t="s">
         <v>1174</v>
       </c>
-      <c r="Q87" s="7" t="s">
-        <v>1175</v>
-      </c>
       <c r="R87" s="7" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="S87" s="7" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="T87" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -11432,10 +11426,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G12" t="str">
         <f>E12&amp;" "&amp;F12</f>
@@ -11444,10 +11438,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F13" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ref="G13:G18" si="1">E13&amp;" "&amp;F13</f>
@@ -11456,10 +11450,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F14" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
@@ -11468,10 +11462,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F15" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
@@ -11480,10 +11474,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
@@ -11492,10 +11486,10 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F17" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
@@ -11504,10 +11498,10 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F18" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
@@ -11516,19 +11510,19 @@
     </row>
     <row r="21" spans="1:32" s="7" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="9"/>
@@ -11539,16 +11533,16 @@
         <v>45</v>
       </c>
       <c r="L21" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="N21" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="M21" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="N21" s="7" t="s">
+      <c r="O21" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="P21" s="9"/>
       <c r="Q21" s="10"/>
@@ -11556,24 +11550,24 @@
       <c r="Z21" s="9"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="22" spans="1:32" s="7" customFormat="1" ht="238" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D22" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="9"/>
@@ -11584,16 +11578,16 @@
         <v>45</v>
       </c>
       <c r="L22" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="N22" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="M22" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="N22" s="7" t="s">
+      <c r="O22" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="P22" s="9"/>
       <c r="Q22" s="10"/>
@@ -11601,7 +11595,7 @@
       <c r="Z22" s="9"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA1511F-2F60-7B45-A093-B5F99BC01EE5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED92FBF-0146-2A4D-BC65-0D287A80812F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="1195">
   <si>
     <t>liv_000017</t>
   </si>
@@ -3616,6 +3616,21 @@
   </si>
   <si>
     <t>Thompson, William</t>
+  </si>
+  <si>
+    <t>liv_020054</t>
+  </si>
+  <si>
+    <t>“The Liberian War. To the Editor of the Times”</t>
+  </si>
+  <si>
+    <t>“The Liberian War. To the Editor of the Times,” 7 March 1856</t>
+  </si>
+  <si>
+    <t>Weah, Bye</t>
+  </si>
+  <si>
+    <t>24 January 1876; 7 March 1876</t>
   </si>
 </sst>
 </file>
@@ -4103,11 +4118,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97A9DD5-2802-8C46-B4DE-35FF576EF7FC}">
-  <dimension ref="A1:AL77"/>
+  <dimension ref="A1:AL78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y47" sqref="Y47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5850,94 +5865,88 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="47" spans="1:38" ht="187" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>893</v>
+        <v>1190</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>894</v>
+        <v>1191</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>895</v>
+        <v>1192</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>898</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>899</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>900</v>
+        <v>1193</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="AB47" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="AC47" s="4" t="s">
-        <v>903</v>
-      </c>
-      <c r="AD47" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="AE47" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI47" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="AK47" s="4">
-        <v>1905</v>
-      </c>
-      <c r="AL47" s="4" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="48" spans="1:38" ht="68" x14ac:dyDescent="0.2">
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="T47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W47" s="1">
+        <v>12</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" ht="187" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>671</v>
+        <v>893</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>675</v>
+        <v>894</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>676</v>
+        <v>895</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>677</v>
+        <v>896</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>678</v>
+        <v>897</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>900</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>429</v>
       </c>
+      <c r="AB48" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="AC48" s="4" t="s">
+        <v>903</v>
+      </c>
       <c r="AD48" s="4" t="s">
-        <v>680</v>
+        <v>904</v>
       </c>
       <c r="AE48" s="4" t="s">
         <v>64</v>
       </c>
       <c r="AI48" s="4" t="s">
-        <v>679</v>
+        <v>905</v>
       </c>
       <c r="AK48" s="4">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="AL48" s="4" t="s">
-        <v>681</v>
+        <v>906</v>
       </c>
     </row>
     <row r="49" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>675</v>
@@ -5967,12 +5976,12 @@
         <v>1904</v>
       </c>
       <c r="AL49" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="50" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>675</v>
@@ -6002,12 +6011,12 @@
         <v>1904</v>
       </c>
       <c r="AL50" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="51" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>675</v>
@@ -6037,112 +6046,112 @@
         <v>1904</v>
       </c>
       <c r="AL51" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="52" spans="1:38" ht="68" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AD52" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="AE52" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI52" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="AK52" s="4">
+        <v>1904</v>
+      </c>
+      <c r="AL52" s="4" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="52" spans="1:38" ht="85" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:38" ht="85" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K52" s="1" t="s">
+      <c r="K53" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M52" s="7" t="s">
+      <c r="M53" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N52" s="7" t="s">
+      <c r="N53" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="O52" s="7" t="s">
+      <c r="O53" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="P52" s="1" t="s">
+      <c r="P53" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="Q52" s="1" t="s">
+      <c r="Q53" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="R52" s="1" t="s">
+      <c r="R53" s="1" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="53" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:38" ht="34" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>1154</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>1158</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-      <c r="T53" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W53" s="1">
-        <v>5</v>
-      </c>
-      <c r="X53" s="1" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="54" spans="1:38" ht="51" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>1153</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="I54" s="1" t="s">
         <v>1162</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>665</v>
+      <c r="J54" s="1" t="s">
+        <v>1163</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>429</v>
@@ -6153,73 +6162,60 @@
       <c r="T54" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="W54" s="5" t="s">
-        <v>1155</v>
+      <c r="W54" s="1">
+        <v>5</v>
       </c>
       <c r="X54" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="55" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="T55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W55" s="5" t="s">
+        <v>1155</v>
+      </c>
+      <c r="X55" s="1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>1020</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="R55" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="Z55" s="1"/>
-      <c r="AA55" s="1"/>
-      <c r="AB55" s="1"/>
-      <c r="AC55" s="1"/>
-      <c r="AD55" s="1"/>
-      <c r="AE55" s="1"/>
-      <c r="AF55" s="1"/>
-      <c r="AG55" s="1"/>
-      <c r="AH55" s="1"/>
-      <c r="AI55" s="1"/>
-      <c r="AJ55" s="1"/>
-      <c r="AK55" s="1"/>
-      <c r="AL55" s="1"/>
-    </row>
-    <row r="56" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>1027</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>115</v>
@@ -6234,13 +6230,13 @@
         <v>473</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
@@ -6258,16 +6254,16 @@
     </row>
     <row r="57" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1020</v>
+        <v>1027</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>115</v>
@@ -6282,13 +6278,13 @@
         <v>473</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
@@ -6306,16 +6302,16 @@
     </row>
     <row r="58" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1185</v>
+        <v>1032</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1186</v>
+        <v>1033</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1038</v>
+        <v>1020</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>115</v>
@@ -6330,13 +6326,13 @@
         <v>473</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
@@ -6352,18 +6348,18 @@
       <c r="AK58" s="1"/>
       <c r="AL58" s="1"/>
     </row>
-    <row r="59" spans="1:38" ht="68" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1043</v>
+        <v>1185</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1044</v>
+        <v>1186</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>115</v>
@@ -6378,13 +6374,13 @@
         <v>473</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>1036</v>
+        <v>1041</v>
       </c>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
@@ -6400,15 +6396,15 @@
       <c r="AK59" s="1"/>
       <c r="AL59" s="1"/>
     </row>
-    <row r="60" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>1045</v>
@@ -6426,13 +6422,13 @@
         <v>473</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>1053</v>
+        <v>1036</v>
       </c>
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
@@ -6450,13 +6446,13 @@
     </row>
     <row r="61" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>1045</v>
@@ -6474,13 +6470,13 @@
         <v>473</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
@@ -6498,13 +6494,13 @@
     </row>
     <row r="62" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>1045</v>
@@ -6522,10 +6518,13 @@
         <v>473</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>1064</v>
+        <v>1058</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>1059</v>
       </c>
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
@@ -6543,13 +6542,13 @@
     </row>
     <row r="63" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1049</v>
+        <v>1061</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>1045</v>
@@ -6567,10 +6566,10 @@
         <v>473</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
@@ -6588,13 +6587,13 @@
     </row>
     <row r="64" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>1049</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>1045</v>
@@ -6612,13 +6611,10 @@
         <v>473</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="Q64" s="1" t="s">
         <v>1068</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>1053</v>
       </c>
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
@@ -6636,13 +6632,13 @@
     </row>
     <row r="65" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1073</v>
+        <v>1049</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>1045</v>
@@ -6660,10 +6656,13 @@
         <v>473</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="Q65" s="1" t="s">
         <v>1068</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>1053</v>
       </c>
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
@@ -6681,13 +6680,13 @@
     </row>
     <row r="66" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1049</v>
+        <v>1073</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>1045</v>
@@ -6705,13 +6704,10 @@
         <v>473</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>1079</v>
-      </c>
-      <c r="R66" s="1" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
@@ -6727,15 +6723,15 @@
       <c r="AK66" s="1"/>
       <c r="AL66" s="1"/>
     </row>
-    <row r="67" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>1049</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>1045</v>
@@ -6753,13 +6749,13 @@
         <v>473</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
@@ -6775,18 +6771,18 @@
       <c r="AK67" s="1"/>
       <c r="AL67" s="1"/>
     </row>
-    <row r="68" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>1049</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1089</v>
+        <v>1045</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>115</v>
@@ -6801,13 +6797,13 @@
         <v>473</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="Q68" s="5" t="s">
-        <v>1091</v>
+        <v>1083</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>1084</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
@@ -6823,18 +6819,18 @@
       <c r="AK68" s="1"/>
       <c r="AL68" s="1"/>
     </row>
-    <row r="69" spans="1:38" ht="119" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>1049</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1045</v>
+        <v>1089</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>115</v>
@@ -6849,13 +6845,13 @@
         <v>473</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>1095</v>
-      </c>
-      <c r="Q69" s="1" t="s">
-        <v>1096</v>
+        <v>1090</v>
+      </c>
+      <c r="Q69" s="5" t="s">
+        <v>1091</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
@@ -6871,15 +6867,15 @@
       <c r="AK69" s="1"/>
       <c r="AL69" s="1"/>
     </row>
-    <row r="70" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>1049</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>1045</v>
@@ -6897,13 +6893,13 @@
         <v>473</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
@@ -6919,18 +6915,18 @@
       <c r="AK70" s="1"/>
       <c r="AL70" s="1"/>
     </row>
-    <row r="71" spans="1:38" ht="34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1104</v>
+        <v>1049</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1125</v>
+        <v>1045</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>115</v>
@@ -6945,13 +6941,13 @@
         <v>473</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
@@ -6967,18 +6963,18 @@
       <c r="AK71" s="1"/>
       <c r="AL71" s="1"/>
     </row>
-    <row r="72" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1055</v>
+        <v>1104</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1027</v>
+        <v>1125</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>115</v>
@@ -6993,13 +6989,13 @@
         <v>473</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
@@ -7015,18 +7011,18 @@
       <c r="AK72" s="1"/>
       <c r="AL72" s="1"/>
     </row>
-    <row r="73" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>1055</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1045</v>
+        <v>1027</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>115</v>
@@ -7041,13 +7037,13 @@
         <v>473</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>1085</v>
+        <v>1113</v>
       </c>
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
@@ -7063,15 +7059,15 @@
       <c r="AK73" s="1"/>
       <c r="AL73" s="1"/>
     </row>
-    <row r="74" spans="1:38" ht="119" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>1055</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>1045</v>
@@ -7089,13 +7085,13 @@
         <v>473</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
@@ -7113,13 +7109,13 @@
     </row>
     <row r="75" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>1055</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>1045</v>
@@ -7137,10 +7133,10 @@
         <v>473</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>1096</v>
+        <v>1121</v>
       </c>
       <c r="R75" s="1" t="s">
         <v>1097</v>
@@ -7159,15 +7155,15 @@
       <c r="AK75" s="1"/>
       <c r="AL75" s="1"/>
     </row>
-    <row r="76" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>1134</v>
+        <v>1122</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1025</v>
+        <v>1055</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1135</v>
+        <v>1123</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>1045</v>
@@ -7185,13 +7181,13 @@
         <v>473</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>1086</v>
+        <v>1124</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>1136</v>
+        <v>1096</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>1085</v>
+        <v>1097</v>
       </c>
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
@@ -7207,18 +7203,18 @@
       <c r="AK76" s="1"/>
       <c r="AL76" s="1"/>
     </row>
-    <row r="77" spans="1:38" ht="34" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>1025</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>1139</v>
+        <v>1045</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>115</v>
@@ -7236,7 +7232,10 @@
         <v>1086</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>1140</v>
+        <v>1136</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>1085</v>
       </c>
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
@@ -7252,9 +7251,54 @@
       <c r="AK77" s="1"/>
       <c r="AL77" s="1"/>
     </row>
+    <row r="78" spans="1:38" ht="34" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
+      <c r="AF78" s="1"/>
+      <c r="AG78" s="1"/>
+      <c r="AH78" s="1"/>
+      <c r="AI78" s="1"/>
+      <c r="AJ78" s="1"/>
+      <c r="AK78" s="1"/>
+      <c r="AL78" s="1"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL52">
-    <sortCondition ref="A2:A52"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL53">
+    <sortCondition ref="A2:A53"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED92FBF-0146-2A4D-BC65-0D287A80812F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FB678F-6A52-7A4B-BD9F-70AC9DCDD86D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="1195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="1196">
   <si>
     <t>liv_000017</t>
   </si>
@@ -1436,9 +1436,6 @@
   </si>
   <si>
     <t>Letter to Moshete, 31 October 1865</t>
-  </si>
-  <si>
-    <t>Letter to Moshete</t>
   </si>
   <si>
     <t xml:space="preserve">CWM/LMS/South Africa/Incoming Correspondence/Box 33/File 5/Jacket A </t>
@@ -3631,6 +3628,12 @@
   </si>
   <si>
     <t>24 January 1876; 7 March 1876</t>
+  </si>
+  <si>
+    <t>Letter to Robert Moffat</t>
+  </si>
+  <si>
+    <t>Moffat, John Smith, 1835-1918</t>
   </si>
 </sst>
 </file>
@@ -4120,9 +4123,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97A9DD5-2802-8C46-B4DE-35FF576EF7FC}">
   <dimension ref="A1:AL78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y47" sqref="Y47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4226,10 +4229,10 @@
         <v>247</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="AD1" s="2" t="s">
         <v>246</v>
@@ -4509,16 +4512,16 @@
     </row>
     <row r="9" spans="1:38" ht="153" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>525</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>177</v>
@@ -4536,10 +4539,10 @@
         <v>34</v>
       </c>
       <c r="P9" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>527</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>49</v>
@@ -4559,7 +4562,7 @@
         <v>43</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>115</v>
@@ -4597,7 +4600,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>429</v>
@@ -4629,7 +4632,7 @@
         <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>429</v>
@@ -4661,7 +4664,7 @@
         <v>57</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>58</v>
@@ -4983,7 +4986,7 @@
         <v>170</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>429</v>
@@ -5085,7 +5088,7 @@
         <v>447</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>115</v>
@@ -5239,7 +5242,7 @@
         <v>452</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>465</v>
+        <v>1194</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>464</v>
@@ -5248,7 +5251,7 @@
         <v>178</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>455</v>
+        <v>1195</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>115</v>
@@ -5263,62 +5266,62 @@
         <v>65</v>
       </c>
       <c r="P30" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q30" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="R30" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>649</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>429</v>
       </c>
       <c r="Z31" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="AD31" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="AE31" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="AD31" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="AE31" s="4" t="s">
+      <c r="AI31" s="4" t="s">
         <v>650</v>
-      </c>
-      <c r="AI31" s="4" t="s">
-        <v>651</v>
       </c>
       <c r="AK31" s="4">
         <v>1855</v>
       </c>
       <c r="AL31" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="32" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>597</v>
-      </c>
       <c r="D32" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>115</v>
@@ -5327,33 +5330,33 @@
         <v>16</v>
       </c>
       <c r="N32" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="O32" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="P32" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="33" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>600</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>115</v>
@@ -5362,30 +5365,30 @@
         <v>16</v>
       </c>
       <c r="N33" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O33" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="O33" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="P33" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="34" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>620</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>170</v>
@@ -5397,7 +5400,7 @@
         <v>429</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="U34" s="1">
         <v>3</v>
@@ -5406,39 +5409,39 @@
         <v>25</v>
       </c>
       <c r="W34" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="X34" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="X34" s="1" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="35" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>655</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>656</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>658</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>659</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>429</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="U35" s="1">
         <v>2</v>
@@ -5447,59 +5450,59 @@
         <v>20</v>
       </c>
       <c r="W35" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="36" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>915</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>429</v>
       </c>
       <c r="Z36" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="AD36" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="AE36" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="AD36" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="AE36" s="4" t="s">
-        <v>650</v>
-      </c>
       <c r="AI36" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AK36" s="4">
         <v>1855</v>
       </c>
       <c r="AL36" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="37" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>514</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>177</v>
@@ -5520,27 +5523,27 @@
         <v>807</v>
       </c>
       <c r="Q37" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="R37" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="38" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>177</v>
@@ -5561,7 +5564,7 @@
         <v>807</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="R38" s="1" t="s">
         <v>49</v>
@@ -5569,16 +5572,16 @@
     </row>
     <row r="39" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>520</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>177</v>
@@ -5599,7 +5602,7 @@
         <v>807</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="R39" s="1" t="s">
         <v>49</v>
@@ -5607,37 +5610,37 @@
     </row>
     <row r="40" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>830</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>831</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>170</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>429</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V40" s="1">
         <v>44</v>
@@ -5646,68 +5649,68 @@
         <v>53</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="41" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>560</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>429</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="U41" s="1">
         <v>12</v>
       </c>
       <c r="W41" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="X41" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="X41" s="1" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="42" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>662</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>663</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>665</v>
-      </c>
       <c r="G42" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>669</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>670</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>429</v>
@@ -5719,18 +5722,18 @@
         <v>5</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="43" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>908</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>909</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>264</v>
@@ -5742,16 +5745,16 @@
         <v>264</v>
       </c>
       <c r="AA43" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="AD43" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="AE43" s="4" t="s">
         <v>910</v>
       </c>
-      <c r="AD43" s="4" t="s">
-        <v>908</v>
-      </c>
-      <c r="AE43" s="4" t="s">
+      <c r="AI43" s="4" t="s">
         <v>911</v>
-      </c>
-      <c r="AI43" s="4" t="s">
-        <v>912</v>
       </c>
       <c r="AK43" s="4">
         <v>1846</v>
@@ -5759,13 +5762,13 @@
     </row>
     <row r="44" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>882</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>883</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>32</v>
@@ -5777,33 +5780,33 @@
         <v>16</v>
       </c>
       <c r="N44" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="O44" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="O44" s="7" t="s">
-        <v>611</v>
-      </c>
       <c r="P44" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="45" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>886</v>
-      </c>
       <c r="D45" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>115</v>
@@ -5812,36 +5815,36 @@
         <v>16</v>
       </c>
       <c r="N45" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="O45" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>611</v>
-      </c>
       <c r="P45" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="R45" s="1" t="s">
         <v>890</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="46" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>1143</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>1145</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>1144</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>429</v>
@@ -5850,7 +5853,7 @@
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
       <c r="T46" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="U46" s="1">
         <v>18</v>
@@ -5859,24 +5862,24 @@
         <v>3</v>
       </c>
       <c r="W46" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="X46" s="1" t="s">
         <v>1147</v>
-      </c>
-      <c r="X46" s="1" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="47" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>1192</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>1193</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>429</v>
@@ -5891,211 +5894,211 @@
         <v>12</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="48" spans="1:38" ht="187" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>899</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>900</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AB48" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="AC48" s="4" t="s">
         <v>902</v>
       </c>
-      <c r="AC48" s="4" t="s">
+      <c r="AD48" s="4" t="s">
         <v>903</v>
-      </c>
-      <c r="AD48" s="4" t="s">
-        <v>904</v>
       </c>
       <c r="AE48" s="4" t="s">
         <v>64</v>
       </c>
       <c r="AI48" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AK48" s="4">
         <v>1905</v>
       </c>
       <c r="AL48" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="49" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>677</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>678</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AD49" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AE49" s="4" t="s">
         <v>64</v>
       </c>
       <c r="AI49" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK49" s="4">
         <v>1904</v>
       </c>
       <c r="AL49" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="50" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>677</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>678</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AD50" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AE50" s="4" t="s">
         <v>64</v>
       </c>
       <c r="AI50" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK50" s="4">
         <v>1904</v>
       </c>
       <c r="AL50" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="51" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>677</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>678</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AD51" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AE51" s="4" t="s">
         <v>64</v>
       </c>
       <c r="AI51" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK51" s="4">
         <v>1904</v>
       </c>
       <c r="AL51" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="52" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>677</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>678</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AD52" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AE52" s="4" t="s">
         <v>64</v>
       </c>
       <c r="AI52" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AK52" s="4">
         <v>1904</v>
       </c>
       <c r="AL52" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="53" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>823</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>824</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>170</v>
@@ -6107,51 +6110,51 @@
         <v>16</v>
       </c>
       <c r="N53" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="O53" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="O53" s="7" t="s">
-        <v>611</v>
-      </c>
       <c r="P53" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="Q53" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="R53" s="1" t="s">
         <v>825</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="54" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>1159</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="J54" s="1" t="s">
         <v>1162</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>1163</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>429</v>
@@ -6166,27 +6169,27 @@
         <v>5</v>
       </c>
       <c r="X54" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="55" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>1152</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>1153</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>429</v>
@@ -6198,24 +6201,24 @@
         <v>76</v>
       </c>
       <c r="W55" s="5" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="X55" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="56" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>1019</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>1020</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>115</v>
@@ -6224,19 +6227,19 @@
         <v>16</v>
       </c>
       <c r="N56" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O56" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="O56" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="P56" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="Q56" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="Q56" s="1" t="s">
+      <c r="R56" s="1" t="s">
         <v>1022</v>
-      </c>
-      <c r="R56" s="1" t="s">
-        <v>1023</v>
       </c>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
@@ -6254,16 +6257,16 @@
     </row>
     <row r="57" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>1026</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>1027</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>115</v>
@@ -6272,19 +6275,19 @@
         <v>16</v>
       </c>
       <c r="N57" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O57" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="O57" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="P57" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="Q57" s="1" t="s">
         <v>1028</v>
       </c>
-      <c r="Q57" s="1" t="s">
+      <c r="R57" s="1" t="s">
         <v>1029</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>1030</v>
       </c>
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
@@ -6302,16 +6305,16 @@
     </row>
     <row r="58" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>1033</v>
-      </c>
       <c r="D58" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>115</v>
@@ -6320,19 +6323,19 @@
         <v>16</v>
       </c>
       <c r="N58" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O58" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="O58" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="P58" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="Q58" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="Q58" s="1" t="s">
+      <c r="R58" s="1" t="s">
         <v>1035</v>
-      </c>
-      <c r="R58" s="1" t="s">
-        <v>1036</v>
       </c>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
@@ -6350,16 +6353,16 @@
     </row>
     <row r="59" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>1037</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>1038</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>115</v>
@@ -6368,19 +6371,19 @@
         <v>16</v>
       </c>
       <c r="N59" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O59" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="O59" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="P59" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Q59" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="Q59" s="1" t="s">
+      <c r="R59" s="1" t="s">
         <v>1040</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>1041</v>
       </c>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
@@ -6398,16 +6401,16 @@
     </row>
     <row r="60" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>1044</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>1045</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>115</v>
@@ -6416,19 +6419,19 @@
         <v>16</v>
       </c>
       <c r="N60" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O60" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="O60" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="P60" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="Q60" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="Q60" s="1" t="s">
-        <v>1047</v>
-      </c>
       <c r="R60" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
@@ -6446,16 +6449,16 @@
     </row>
     <row r="61" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>1050</v>
-      </c>
       <c r="D61" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>115</v>
@@ -6464,19 +6467,19 @@
         <v>16</v>
       </c>
       <c r="N61" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O61" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="O61" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="P61" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="Q61" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="Q61" s="1" t="s">
+      <c r="R61" s="1" t="s">
         <v>1052</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>1053</v>
       </c>
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
@@ -6494,16 +6497,16 @@
     </row>
     <row r="62" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>1056</v>
-      </c>
       <c r="D62" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>115</v>
@@ -6512,19 +6515,19 @@
         <v>16</v>
       </c>
       <c r="N62" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O62" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="O62" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="P62" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="Q62" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="Q62" s="1" t="s">
+      <c r="R62" s="1" t="s">
         <v>1058</v>
-      </c>
-      <c r="R62" s="1" t="s">
-        <v>1059</v>
       </c>
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
@@ -6542,16 +6545,16 @@
     </row>
     <row r="63" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>1062</v>
-      </c>
       <c r="D63" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>115</v>
@@ -6560,16 +6563,16 @@
         <v>16</v>
       </c>
       <c r="N63" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O63" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="O63" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="P63" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="Q63" s="1" t="s">
         <v>1063</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>1064</v>
       </c>
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
@@ -6587,16 +6590,16 @@
     </row>
     <row r="64" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>1066</v>
-      </c>
       <c r="D64" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>115</v>
@@ -6605,16 +6608,16 @@
         <v>16</v>
       </c>
       <c r="N64" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O64" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="O64" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="P64" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="Q64" s="1" t="s">
         <v>1067</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>1068</v>
       </c>
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
@@ -6632,16 +6635,16 @@
     </row>
     <row r="65" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>1070</v>
-      </c>
       <c r="D65" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>115</v>
@@ -6650,19 +6653,19 @@
         <v>16</v>
       </c>
       <c r="N65" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O65" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="O65" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="P65" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
@@ -6680,16 +6683,16 @@
     </row>
     <row r="66" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>1074</v>
-      </c>
       <c r="D66" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>115</v>
@@ -6698,16 +6701,16 @@
         <v>16</v>
       </c>
       <c r="N66" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O66" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="O66" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="P66" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
@@ -6725,16 +6728,16 @@
     </row>
     <row r="67" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>1077</v>
-      </c>
       <c r="D67" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>115</v>
@@ -6743,19 +6746,19 @@
         <v>16</v>
       </c>
       <c r="N67" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O67" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="O67" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="P67" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="Q67" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="Q67" s="1" t="s">
+      <c r="R67" s="1" t="s">
         <v>1079</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>1080</v>
       </c>
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
@@ -6773,16 +6776,16 @@
     </row>
     <row r="68" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>1082</v>
-      </c>
       <c r="D68" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>115</v>
@@ -6791,19 +6794,19 @@
         <v>16</v>
       </c>
       <c r="N68" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O68" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="O68" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="P68" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="Q68" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="Q68" s="1" t="s">
+      <c r="R68" s="1" t="s">
         <v>1084</v>
-      </c>
-      <c r="R68" s="1" t="s">
-        <v>1085</v>
       </c>
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
@@ -6821,16 +6824,16 @@
     </row>
     <row r="69" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>1088</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>1089</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>115</v>
@@ -6839,19 +6842,19 @@
         <v>16</v>
       </c>
       <c r="N69" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O69" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="O69" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="P69" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="Q69" s="5" t="s">
         <v>1090</v>
       </c>
-      <c r="Q69" s="5" t="s">
+      <c r="R69" s="1" t="s">
         <v>1091</v>
-      </c>
-      <c r="R69" s="1" t="s">
-        <v>1092</v>
       </c>
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
@@ -6869,16 +6872,16 @@
     </row>
     <row r="70" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>1094</v>
-      </c>
       <c r="D70" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>115</v>
@@ -6887,19 +6890,19 @@
         <v>16</v>
       </c>
       <c r="N70" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O70" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="O70" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="P70" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="Q70" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="Q70" s="1" t="s">
+      <c r="R70" s="1" t="s">
         <v>1096</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>1097</v>
       </c>
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
@@ -6917,16 +6920,16 @@
     </row>
     <row r="71" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>1099</v>
-      </c>
       <c r="D71" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>115</v>
@@ -6935,19 +6938,19 @@
         <v>16</v>
       </c>
       <c r="N71" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O71" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="O71" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="P71" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="Q71" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="Q71" s="1" t="s">
+      <c r="R71" s="1" t="s">
         <v>1101</v>
-      </c>
-      <c r="R71" s="1" t="s">
-        <v>1102</v>
       </c>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
@@ -6965,16 +6968,16 @@
     </row>
     <row r="72" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>1105</v>
-      </c>
       <c r="D72" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>115</v>
@@ -6983,19 +6986,19 @@
         <v>16</v>
       </c>
       <c r="N72" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O72" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="O72" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="P72" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="Q72" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="Q72" s="1" t="s">
+      <c r="R72" s="1" t="s">
         <v>1107</v>
-      </c>
-      <c r="R72" s="1" t="s">
-        <v>1108</v>
       </c>
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
@@ -7013,16 +7016,16 @@
     </row>
     <row r="73" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>1110</v>
-      </c>
       <c r="D73" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>115</v>
@@ -7031,19 +7034,19 @@
         <v>16</v>
       </c>
       <c r="N73" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O73" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="O73" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="P73" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="Q73" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="Q73" s="1" t="s">
+      <c r="R73" s="1" t="s">
         <v>1112</v>
-      </c>
-      <c r="R73" s="1" t="s">
-        <v>1113</v>
       </c>
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
@@ -7061,16 +7064,16 @@
     </row>
     <row r="74" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>1115</v>
-      </c>
       <c r="D74" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>115</v>
@@ -7079,19 +7082,19 @@
         <v>16</v>
       </c>
       <c r="N74" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O74" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="O74" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="P74" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="Q74" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="Q74" s="1" t="s">
-        <v>1117</v>
-      </c>
       <c r="R74" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
@@ -7109,16 +7112,16 @@
     </row>
     <row r="75" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>1119</v>
-      </c>
       <c r="D75" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>115</v>
@@ -7127,19 +7130,19 @@
         <v>16</v>
       </c>
       <c r="N75" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O75" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="O75" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="P75" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="Q75" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="Q75" s="1" t="s">
-        <v>1121</v>
-      </c>
       <c r="R75" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
@@ -7157,16 +7160,16 @@
     </row>
     <row r="76" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>1123</v>
-      </c>
       <c r="D76" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>115</v>
@@ -7175,19 +7178,19 @@
         <v>16</v>
       </c>
       <c r="N76" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O76" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="O76" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="P76" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="Q76" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="R76" s="1" t="s">
         <v>1096</v>
-      </c>
-      <c r="R76" s="1" t="s">
-        <v>1097</v>
       </c>
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
@@ -7205,16 +7208,16 @@
     </row>
     <row r="77" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>1135</v>
-      </c>
       <c r="D77" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>115</v>
@@ -7223,19 +7226,19 @@
         <v>16</v>
       </c>
       <c r="N77" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O77" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="O77" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="P77" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
@@ -7253,16 +7256,16 @@
     </row>
     <row r="78" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>1138</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>1139</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>115</v>
@@ -7271,16 +7274,16 @@
         <v>16</v>
       </c>
       <c r="N78" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O78" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="O78" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="P78" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
@@ -7342,10 +7345,10 @@
   <sheetData>
     <row r="1" spans="1:39" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>299</v>
@@ -7550,7 +7553,7 @@
     </row>
     <row r="6" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="C6" s="11" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>103</v>
@@ -7582,7 +7585,7 @@
     </row>
     <row r="7" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="C7" s="11" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>103</v>
@@ -8868,19 +8871,19 @@
         <v>308</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G38" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="H38" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="H38" s="11" t="s">
-        <v>483</v>
-      </c>
       <c r="I38" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>117</v>
@@ -8889,39 +8892,39 @@
         <v>16</v>
       </c>
       <c r="P38" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="Q38" s="7" t="s">
-        <v>473</v>
-      </c>
       <c r="R38" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="S38" s="7">
         <v>1874</v>
       </c>
       <c r="T38" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="39" spans="3:34" ht="136" x14ac:dyDescent="0.2">
       <c r="C39" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G39" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="H39" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="I39" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>117</v>
@@ -8930,33 +8933,33 @@
         <v>16</v>
       </c>
       <c r="P39" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="Q39" s="7" t="s">
-        <v>473</v>
-      </c>
       <c r="R39" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S39" s="7">
         <v>1874</v>
       </c>
       <c r="T39" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="40" spans="3:34" ht="51" x14ac:dyDescent="0.2">
       <c r="C40" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G40" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="H40" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>489</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>170</v>
@@ -8965,40 +8968,40 @@
         <v>117</v>
       </c>
       <c r="V40" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="X40" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="X40" s="7" t="s">
+      <c r="Y40" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="Y40" s="7" t="s">
+      <c r="AC40" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="AC40" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="AG40" s="7">
         <v>1917</v>
       </c>
       <c r="AH40" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="41" spans="3:34" ht="85" x14ac:dyDescent="0.2">
       <c r="C41" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D41" s="11"/>
       <c r="F41" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G41" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="H41" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="H41" s="7" t="s">
-        <v>508</v>
-      </c>
       <c r="I41" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L41" s="7" t="s">
         <v>115</v>
@@ -9007,22 +9010,22 @@
         <v>116</v>
       </c>
       <c r="V41" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="X41" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="X41" s="7" t="s">
+      <c r="Y41" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="Y41" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="Z41" s="7" t="s">
         <v>204</v>
       </c>
       <c r="AC41" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="AG41" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="AG41" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="AH41" s="7" t="s">
         <v>385</v>
@@ -9030,16 +9033,16 @@
     </row>
     <row r="42" spans="3:34" ht="85" x14ac:dyDescent="0.2">
       <c r="C42" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G42" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="H42" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>170</v>
@@ -9054,19 +9057,19 @@
         <v>116</v>
       </c>
       <c r="V42" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="X42" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="X42" s="7" t="s">
+      <c r="Y42" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="Y42" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="Z42" s="7" t="s">
         <v>204</v>
       </c>
       <c r="AC42" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AG42" s="7">
         <v>1899</v>
@@ -9077,22 +9080,22 @@
     </row>
     <row r="43" spans="3:34" ht="102" x14ac:dyDescent="0.2">
       <c r="C43" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>505</v>
-      </c>
       <c r="H43" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>170</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>117</v>
@@ -9101,10 +9104,10 @@
         <v>116</v>
       </c>
       <c r="V43" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="X43" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Y43" s="7" t="s">
         <v>204</v>
@@ -9113,7 +9116,7 @@
         <v>64</v>
       </c>
       <c r="AC43" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AG43" s="7">
         <v>1902</v>
@@ -9124,19 +9127,19 @@
     </row>
     <row r="44" spans="3:34" ht="187" x14ac:dyDescent="0.2">
       <c r="C44" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F44" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="H44" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="H44" s="7" t="s">
-        <v>533</v>
-      </c>
       <c r="I44" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>117</v>
@@ -9160,27 +9163,27 @@
         <v>1874</v>
       </c>
       <c r="T44" s="14" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="45" spans="3:34" ht="68" x14ac:dyDescent="0.2">
       <c r="C45" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G45" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="H45" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="H45" s="7" t="s">
-        <v>577</v>
-      </c>
       <c r="I45" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>44</v>
@@ -9189,36 +9192,36 @@
         <v>45</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="R45" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S45" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="T45" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="T45" s="7" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="46" spans="3:34" ht="68" x14ac:dyDescent="0.2">
       <c r="C46" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="I46" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="F46" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>575</v>
-      </c>
       <c r="L46" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O46" s="7" t="s">
         <v>44</v>
@@ -9227,33 +9230,33 @@
         <v>45</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="R46" s="7" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="S46" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="T46" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="T46" s="7" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="47" spans="3:34" ht="68" x14ac:dyDescent="0.2">
       <c r="C47" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F47" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="H47" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="I47" s="7" t="s">
         <v>608</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>609</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>32</v>
@@ -9265,39 +9268,39 @@
         <v>16</v>
       </c>
       <c r="P47" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="Q47" s="7" t="s">
-        <v>611</v>
-      </c>
       <c r="R47" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="S47" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="T47" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="48" spans="3:34" ht="51" x14ac:dyDescent="0.2">
       <c r="C48" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>170</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>16</v>
@@ -9309,30 +9312,30 @@
         <v>152</v>
       </c>
       <c r="R48" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="S48" s="7" t="s">
         <v>368</v>
       </c>
       <c r="T48" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="49" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="C49" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>117</v>
@@ -9341,36 +9344,36 @@
         <v>16</v>
       </c>
       <c r="P49" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="R49" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="S49" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="Q49" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="R49" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="S49" s="7" t="s">
-        <v>634</v>
-      </c>
       <c r="T49" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="50" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="C50" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H50" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="I50" s="7" t="s">
         <v>643</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>644</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>117</v>
@@ -9379,36 +9382,36 @@
         <v>16</v>
       </c>
       <c r="P50" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="R50" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="S50" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="Q50" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="R50" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="S50" s="7" t="s">
+      <c r="T50" s="7" t="s">
         <v>634</v>
-      </c>
-      <c r="T50" s="7" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="51" spans="1:34" ht="153" x14ac:dyDescent="0.2">
       <c r="C51" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F51" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="H51" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="I51" s="7" t="s">
         <v>687</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>688</v>
       </c>
       <c r="L51" s="7" t="s">
         <v>117</v>
@@ -9426,25 +9429,25 @@
         <v>152</v>
       </c>
       <c r="R51" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="S51" s="7" t="s">
         <v>368</v>
       </c>
       <c r="T51" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="V51" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="X51" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="V51" s="10" t="s">
-        <v>688</v>
-      </c>
-      <c r="X51" s="7" t="s">
+      <c r="Y51" s="7" t="s">
         <v>691</v>
       </c>
-      <c r="Y51" s="7" t="s">
+      <c r="AC51" s="7" t="s">
         <v>692</v>
-      </c>
-      <c r="AC51" s="7" t="s">
-        <v>693</v>
       </c>
       <c r="AG51" s="7">
         <v>1913</v>
@@ -9455,10 +9458,10 @@
     </row>
     <row r="52" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="C52" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>134</v>
@@ -9488,27 +9491,27 @@
         <v>22</v>
       </c>
       <c r="T52" s="7" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="53" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F53" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="G53" s="7" t="s">
-        <v>699</v>
-      </c>
       <c r="H53" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>170</v>
@@ -9523,36 +9526,36 @@
         <v>45</v>
       </c>
       <c r="Q53" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="R53" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="S53" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="T53" s="7" t="s">
         <v>701</v>
-      </c>
-      <c r="R53" s="7" t="s">
-        <v>714</v>
-      </c>
-      <c r="S53" s="7" t="s">
-        <v>758</v>
-      </c>
-      <c r="T53" s="7" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="54" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>704</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="C54" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>705</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>754</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>706</v>
-      </c>
       <c r="G54" s="7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>170</v>
@@ -9567,39 +9570,39 @@
         <v>45</v>
       </c>
       <c r="Q54" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="R54" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="S54" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="T54" s="7" t="s">
         <v>701</v>
-      </c>
-      <c r="R54" s="7" t="s">
-        <v>713</v>
-      </c>
-      <c r="S54" s="7" t="s">
-        <v>757</v>
-      </c>
-      <c r="T54" s="7" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="55" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>710</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>708</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>711</v>
-      </c>
       <c r="H55" s="7" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>117</v>
@@ -9611,39 +9614,39 @@
         <v>45</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="R55" s="17" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="S55" s="16" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="T55" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="56" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="C56" s="7" t="s">
+      <c r="F56" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="F56" s="7" t="s">
-        <v>718</v>
-      </c>
       <c r="G56" s="7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="L56" s="7" t="s">
         <v>117</v>
@@ -9655,45 +9658,45 @@
         <v>45</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="R56" s="17" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="S56" s="16" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="T56" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="57" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>723</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>828</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>829</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>829</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>724</v>
-      </c>
       <c r="G57" s="7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>117</v>
@@ -9705,39 +9708,39 @@
         <v>45</v>
       </c>
       <c r="Q57" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="R57" s="17" t="s">
+        <v>728</v>
+      </c>
+      <c r="S57" s="16" t="s">
+        <v>727</v>
+      </c>
+      <c r="T57" s="7" t="s">
         <v>701</v>
-      </c>
-      <c r="R57" s="17" t="s">
-        <v>729</v>
-      </c>
-      <c r="S57" s="16" t="s">
-        <v>728</v>
-      </c>
-      <c r="T57" s="7" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="58" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="C58" s="7" t="s">
+      <c r="F58" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="F58" s="7" t="s">
-        <v>725</v>
-      </c>
-      <c r="G58" s="7" t="s">
+      <c r="H58" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="H58" s="7" t="s">
-        <v>733</v>
-      </c>
       <c r="I58" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>117</v>
@@ -9749,39 +9752,39 @@
         <v>45</v>
       </c>
       <c r="Q58" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="R58" s="17" t="s">
+        <v>733</v>
+      </c>
+      <c r="S58" s="16" t="s">
+        <v>761</v>
+      </c>
+      <c r="T58" s="7" t="s">
         <v>701</v>
-      </c>
-      <c r="R58" s="17" t="s">
-        <v>734</v>
-      </c>
-      <c r="S58" s="16" t="s">
-        <v>762</v>
-      </c>
-      <c r="T58" s="7" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="59" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>739</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>726</v>
-      </c>
-      <c r="G59" s="7" t="s">
+      <c r="H59" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="H59" s="7" t="s">
-        <v>737</v>
-      </c>
       <c r="I59" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="L59" s="7" t="s">
         <v>117</v>
@@ -9793,39 +9796,39 @@
         <v>45</v>
       </c>
       <c r="Q59" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="R59" s="17" t="s">
+        <v>737</v>
+      </c>
+      <c r="S59" s="16" t="s">
+        <v>762</v>
+      </c>
+      <c r="T59" s="7" t="s">
         <v>701</v>
-      </c>
-      <c r="R59" s="17" t="s">
-        <v>738</v>
-      </c>
-      <c r="S59" s="16" t="s">
-        <v>763</v>
-      </c>
-      <c r="T59" s="7" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="60" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C60" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="F60" s="7" t="s">
         <v>740</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>741</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>200</v>
       </c>
       <c r="H60" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="I60" s="7" t="s">
         <v>744</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>745</v>
       </c>
       <c r="L60" s="7" t="s">
         <v>117</v>
@@ -9837,27 +9840,27 @@
         <v>45</v>
       </c>
       <c r="Q60" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="R60" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="S60" s="16" t="s">
+        <v>751</v>
+      </c>
+      <c r="T60" s="7" t="s">
         <v>701</v>
-      </c>
-      <c r="R60" s="17" t="s">
-        <v>746</v>
-      </c>
-      <c r="S60" s="16" t="s">
-        <v>752</v>
-      </c>
-      <c r="T60" s="7" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="61" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="B61" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>747</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>753</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>748</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>154</v>
@@ -9872,39 +9875,39 @@
         <v>117</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="S61" s="7" t="s">
         <v>155</v>
       </c>
       <c r="T61" s="7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="62" spans="1:34" ht="119" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="F62" s="7" t="s">
         <v>765</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>764</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>778</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>766</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>200</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>170</v>
@@ -9919,22 +9922,22 @@
         <v>204</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="R62" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="S62" s="7" t="s">
         <v>768</v>
       </c>
-      <c r="S62" s="7" t="s">
+      <c r="T62" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="V62" s="10" t="s">
+        <v>857</v>
+      </c>
+      <c r="X62" s="7" t="s">
         <v>769</v>
-      </c>
-      <c r="T62" s="7" t="s">
-        <v>702</v>
-      </c>
-      <c r="V62" s="10" t="s">
-        <v>858</v>
-      </c>
-      <c r="X62" s="7" t="s">
-        <v>770</v>
       </c>
       <c r="Y62" s="7" t="s">
         <v>64</v>
@@ -9946,30 +9949,30 @@
         <v>1906</v>
       </c>
       <c r="AH62" s="16" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="63" spans="1:34" ht="119" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>779</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>773</v>
-      </c>
-      <c r="G63" s="7" t="s">
+      <c r="H63" s="7" t="s">
         <v>775</v>
       </c>
-      <c r="H63" s="7" t="s">
-        <v>776</v>
-      </c>
       <c r="I63" s="7" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="L63" s="7" t="s">
         <v>117</v>
@@ -9981,28 +9984,28 @@
         <v>204</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="R63" s="7" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="S63" s="7">
         <v>1910</v>
       </c>
       <c r="T63" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="V63" s="10" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="X63" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="Y63" s="7" t="s">
         <v>64</v>
       </c>
       <c r="AC63" s="7" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AG63" s="7">
         <v>1910</v>
@@ -10013,22 +10016,22 @@
     </row>
     <row r="64" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>784</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>772</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>796</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>785</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>386</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>170</v>
@@ -10043,36 +10046,36 @@
         <v>204</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="R64" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="S64" s="7" t="s">
         <v>368</v>
       </c>
       <c r="T64" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="65" spans="1:34" ht="119" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>789</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>779</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>797</v>
-      </c>
-      <c r="F65" s="7" t="s">
+      <c r="G65" s="7" t="s">
         <v>790</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="H65" s="7" t="s">
         <v>791</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>792</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>170</v>
@@ -10087,28 +10090,28 @@
         <v>204</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="R65" s="7" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="S65" s="7">
         <v>1923</v>
       </c>
       <c r="T65" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="V65" s="10" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="X65" s="7" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="Y65" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AC65" s="7" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="AG65" s="7">
         <v>1923</v>
@@ -10119,22 +10122,22 @@
     </row>
     <row r="66" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>798</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>772</v>
-      </c>
-      <c r="C66" s="7" t="s">
+      <c r="F66" s="7" t="s">
         <v>799</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="G66" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="H66" s="7" t="s">
         <v>800</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>791</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>801</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>170</v>
@@ -10149,36 +10152,36 @@
         <v>204</v>
       </c>
       <c r="Q66" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="R66" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="R66" s="7" t="s">
+      <c r="S66" s="7" t="s">
         <v>803</v>
       </c>
-      <c r="S66" s="7" t="s">
-        <v>804</v>
-      </c>
       <c r="T66" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="67" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G67" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="H67" s="7" t="s">
         <v>805</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>806</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>170</v>
@@ -10187,7 +10190,7 @@
         <v>117</v>
       </c>
       <c r="M67" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="O67" s="7" t="s">
         <v>44</v>
@@ -10196,36 +10199,36 @@
         <v>204</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="R67" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="S67" s="7">
         <v>1903</v>
       </c>
       <c r="T67" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="68" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G68" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="H68" s="7" t="s">
         <v>811</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>812</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>170</v>
@@ -10240,51 +10243,51 @@
         <v>204</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="R68" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="S68" s="7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="T68" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="V68" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="X68" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AG68" s="7">
         <v>1903</v>
       </c>
       <c r="AH68" s="7" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="69" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="L69" s="7" t="s">
         <v>117</v>
@@ -10293,16 +10296,16 @@
         <v>44</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Q69" s="17" t="s">
+        <v>860</v>
+      </c>
+      <c r="R69" s="17" t="s">
         <v>861</v>
       </c>
-      <c r="R69" s="17" t="s">
-        <v>862</v>
-      </c>
       <c r="S69" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="T69" s="17" t="s">
         <v>44</v>
@@ -10310,25 +10313,25 @@
     </row>
     <row r="70" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A70" s="17" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G70" s="17" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I70" s="17" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="L70" s="7" t="s">
         <v>117</v>
@@ -10337,39 +10340,39 @@
         <v>44</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Q70" s="17" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="R70" s="17" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="S70" s="7" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="T70" s="17" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="71" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A71" s="17" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="I71" s="17" t="s">
         <v>170</v>
@@ -10378,22 +10381,22 @@
         <v>117</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="Q71" s="17"/>
       <c r="R71" s="17"/>
       <c r="T71" s="17"/>
       <c r="V71" s="10" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="X71" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="Y71" s="7" t="s">
         <v>33</v>
       </c>
       <c r="AC71" s="7" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="AG71" s="7">
         <v>1894</v>
@@ -10404,25 +10407,25 @@
     </row>
     <row r="72" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" s="17" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I72" s="17" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="L72" s="7" t="s">
         <v>117</v>
@@ -10431,42 +10434,42 @@
         <v>44</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Q72" s="17" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="R72" s="17" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="S72" s="7" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="T72" s="17" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="73" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="17" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="I73" s="17" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>117</v>
@@ -10475,39 +10478,39 @@
         <v>44</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Q73" s="17" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="R73" s="17" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="S73" s="7" t="s">
         <v>368</v>
       </c>
       <c r="T73" s="17" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="74" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>918</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="C74" s="7" t="s">
+      <c r="F74" s="7" t="s">
         <v>919</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="G74" s="7" t="s">
         <v>920</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="H74" s="7" t="s">
         <v>921</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>922</v>
       </c>
       <c r="I74" s="17" t="s">
         <v>170</v>
@@ -10519,10 +10522,10 @@
         <v>116</v>
       </c>
       <c r="V74" s="10" t="s">
+        <v>922</v>
+      </c>
+      <c r="X74" s="7" t="s">
         <v>923</v>
-      </c>
-      <c r="X74" s="7" t="s">
-        <v>924</v>
       </c>
       <c r="Y74" s="7" t="s">
         <v>33</v>
@@ -10531,22 +10534,22 @@
         <v>64</v>
       </c>
       <c r="AA74" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="AB74" s="7" t="s">
         <v>925</v>
       </c>
-      <c r="AB74" s="7" t="s">
+      <c r="AC74" s="7" t="s">
         <v>926</v>
       </c>
-      <c r="AC74" s="7" t="s">
+      <c r="AD74" s="7" t="s">
         <v>927</v>
       </c>
-      <c r="AD74" s="7" t="s">
+      <c r="AE74" s="7" t="s">
         <v>928</v>
       </c>
-      <c r="AE74" s="7" t="s">
+      <c r="AF74" s="7" t="s">
         <v>929</v>
-      </c>
-      <c r="AF74" s="7" t="s">
-        <v>930</v>
       </c>
       <c r="AG74" s="7">
         <v>1877</v>
@@ -10557,22 +10560,22 @@
     </row>
     <row r="75" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A75" s="17" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G75" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="H75" s="7" t="s">
         <v>1000</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>1001</v>
       </c>
       <c r="I75" s="18" t="s">
         <v>170</v>
@@ -10581,19 +10584,19 @@
         <v>117</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="T75" s="17" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="X75" s="17"/>
       <c r="AB75" s="1"/>
@@ -10601,22 +10604,22 @@
     </row>
     <row r="76" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="I76" s="18" t="s">
         <v>170</v>
@@ -10630,10 +10633,10 @@
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
       <c r="V76" s="10" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="X76" s="17" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="Y76" s="17" t="s">
         <v>64</v>
@@ -10642,7 +10645,7 @@
         <v>204</v>
       </c>
       <c r="AC76" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AG76" s="1">
         <v>1996</v>
@@ -10653,44 +10656,44 @@
     </row>
     <row r="77" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A77" s="17" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="I77" s="18" t="s">
         <v>170</v>
       </c>
       <c r="L77" s="17" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="O77" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="P77" s="7" t="s">
         <v>990</v>
       </c>
-      <c r="P77" s="7" t="s">
-        <v>991</v>
-      </c>
       <c r="Q77" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="R77" s="1"/>
       <c r="S77" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="T77" s="17" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="X77" s="17"/>
       <c r="AC77" s="1"/>
@@ -10698,22 +10701,22 @@
     </row>
     <row r="78" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A78" s="17" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="I78" s="18" t="s">
         <v>170</v>
@@ -10722,20 +10725,20 @@
         <v>117</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="R78" s="1"/>
       <c r="S78" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="T78" s="17" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="X78" s="17"/>
       <c r="AC78" s="1"/>
@@ -10743,44 +10746,44 @@
     </row>
     <row r="79" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="17" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I79" s="17" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="L79" s="17" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="P79" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="Q79" s="1" t="s">
         <v>994</v>
-      </c>
-      <c r="Q79" s="1" t="s">
-        <v>995</v>
       </c>
       <c r="R79" s="1"/>
       <c r="S79" s="1">
         <v>1905</v>
       </c>
       <c r="T79" s="17" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="X79" s="17"/>
       <c r="AC79" s="1"/>
@@ -10788,25 +10791,25 @@
     </row>
     <row r="80" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A80" s="17" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G80" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H80" s="7" t="s">
         <v>1011</v>
       </c>
-      <c r="H80" s="7" t="s">
-        <v>1012</v>
-      </c>
       <c r="I80" s="17" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="L80" s="7" t="s">
         <v>117</v>
@@ -10817,45 +10820,45 @@
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
       <c r="V80" s="17" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="X80" s="17" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Y80" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AC80" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="AG80" s="1">
         <v>1910</v>
       </c>
       <c r="AH80" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="81" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A81" s="17" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C81" s="17" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H81" s="7" t="s">
         <v>1008</v>
       </c>
-      <c r="F81" s="7" t="s">
-        <v>937</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>1007</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>1009</v>
-      </c>
       <c r="I81" s="17" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="L81" s="7" t="s">
         <v>117</v>
@@ -10867,16 +10870,16 @@
         <v>64</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="T81" s="17" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="X81" s="17"/>
       <c r="AC81" s="1"/>
@@ -10884,37 +10887,37 @@
     </row>
     <row r="82" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A82" s="17" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="I82" s="17" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="L82" s="7" t="s">
         <v>117</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="R82" s="1">
         <v>909.01310000000001</v>
@@ -10923,7 +10926,7 @@
         <v>1894</v>
       </c>
       <c r="T82" s="17" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="X82" s="17"/>
       <c r="AC82" s="1"/>
@@ -10931,25 +10934,25 @@
     </row>
     <row r="83" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A83" s="17" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="G83" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H83" s="7" t="s">
         <v>1014</v>
       </c>
-      <c r="H83" s="7" t="s">
-        <v>1015</v>
-      </c>
       <c r="I83" s="17" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="L83" s="7" t="s">
         <v>117</v>
@@ -10959,42 +10962,42 @@
       </c>
       <c r="Q83" s="1"/>
       <c r="V83" s="17" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="X83" s="17" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="Y83" s="17" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="AC83" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AG83" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="AH83" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="84" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="C84" s="7" t="s">
         <v>1126</v>
       </c>
-      <c r="B84" s="17" t="s">
-        <v>705</v>
-      </c>
-      <c r="C84" s="7" t="s">
+      <c r="F84" s="7" t="s">
         <v>1127</v>
       </c>
-      <c r="F84" s="7" t="s">
-        <v>1128</v>
-      </c>
       <c r="G84" s="7" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H84" s="7" t="s">
         <v>1132</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>1133</v>
       </c>
       <c r="I84" s="7" t="s">
         <v>170</v>
@@ -11006,16 +11009,16 @@
         <v>116</v>
       </c>
       <c r="V84" s="10" t="s">
+        <v>1128</v>
+      </c>
+      <c r="X84" s="7" t="s">
         <v>1129</v>
-      </c>
-      <c r="X84" s="7" t="s">
-        <v>1130</v>
       </c>
       <c r="Y84" s="7" t="s">
         <v>64</v>
       </c>
       <c r="AC84" s="7" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="AG84" s="7">
         <v>1912</v>
@@ -11026,128 +11029,128 @@
     </row>
     <row r="85" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>1164</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="F85" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>1180</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>1181</v>
+      </c>
+      <c r="I85" s="7" t="s">
         <v>1171</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>1165</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>1166</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>1181</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>1182</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>1172</v>
       </c>
       <c r="L85" s="7" t="s">
         <v>117</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="P85" s="7" t="s">
         <v>64</v>
       </c>
       <c r="Q85" s="7" t="s">
+        <v>1174</v>
+      </c>
+      <c r="R85" s="7" t="s">
         <v>1175</v>
-      </c>
-      <c r="R85" s="7" t="s">
-        <v>1176</v>
       </c>
       <c r="S85" s="7">
         <v>1890</v>
       </c>
       <c r="T85" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="86" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="B86" s="7" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C86" s="7" t="s">
         <v>1169</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>1170</v>
-      </c>
       <c r="F86" s="7" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="G86" s="7" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H86" s="7" t="s">
         <v>1187</v>
       </c>
-      <c r="H86" s="7" t="s">
-        <v>1188</v>
-      </c>
       <c r="I86" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L86" s="7" t="s">
         <v>117</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="P86" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="Q86" s="7" t="s">
         <v>1173</v>
       </c>
-      <c r="Q86" s="7" t="s">
-        <v>1174</v>
-      </c>
       <c r="R86" s="7" t="s">
+        <v>1176</v>
+      </c>
+      <c r="S86" s="7" t="s">
         <v>1177</v>
       </c>
-      <c r="S86" s="7" t="s">
-        <v>1178</v>
-      </c>
       <c r="T86" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="87" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="B87" s="7" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="L87" s="7" t="s">
         <v>117</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="P87" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="Q87" s="7" t="s">
         <v>1173</v>
       </c>
-      <c r="Q87" s="7" t="s">
-        <v>1174</v>
-      </c>
       <c r="R87" s="7" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="S87" s="7" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="T87" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -11470,10 +11473,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G12" t="str">
         <f>E12&amp;" "&amp;F12</f>
@@ -11482,10 +11485,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F13" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ref="G13:G18" si="1">E13&amp;" "&amp;F13</f>
@@ -11494,10 +11497,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F14" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
@@ -11506,10 +11509,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F15" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
@@ -11518,10 +11521,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
@@ -11530,10 +11533,10 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
@@ -11542,10 +11545,10 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F18" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
@@ -11554,19 +11557,19 @@
     </row>
     <row r="21" spans="1:32" s="7" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>539</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="9"/>
@@ -11577,16 +11580,16 @@
         <v>45</v>
       </c>
       <c r="L21" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="N21" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="M21" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="N21" s="7" t="s">
+      <c r="O21" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>542</v>
       </c>
       <c r="P21" s="9"/>
       <c r="Q21" s="10"/>
@@ -11594,24 +11597,24 @@
       <c r="Z21" s="9"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="22" spans="1:32" s="7" customFormat="1" ht="238" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D22" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>539</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="9"/>
@@ -11622,16 +11625,16 @@
         <v>45</v>
       </c>
       <c r="L22" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="N22" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="M22" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="N22" s="7" t="s">
+      <c r="O22" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>542</v>
       </c>
       <c r="P22" s="9"/>
       <c r="Q22" s="10"/>
@@ -11639,7 +11642,7 @@
       <c r="Z22" s="9"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FB678F-6A52-7A4B-BD9F-70AC9DCDD86D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8A4836-D0E4-7F47-B356-8E6E1BB4A804}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="1196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="1239">
   <si>
     <t>liv_000017</t>
   </si>
@@ -3634,6 +3634,135 @@
   </si>
   <si>
     <t>Moffat, John Smith, 1835-1918</t>
+  </si>
+  <si>
+    <t>liv_021084</t>
+  </si>
+  <si>
+    <t>liv_021085</t>
+  </si>
+  <si>
+    <t>liv_021086</t>
+  </si>
+  <si>
+    <t>liv_021087</t>
+  </si>
+  <si>
+    <t>liv_021088</t>
+  </si>
+  <si>
+    <t>liv_021089</t>
+  </si>
+  <si>
+    <t>Images courtesy of Yale Divinity Library Special Collection, Yale University Library.</t>
+  </si>
+  <si>
+    <t>New Haven</t>
+  </si>
+  <si>
+    <t>Yale University. Divinity School. Library</t>
+  </si>
+  <si>
+    <t>Record Group 30, Box 454, Folder 4</t>
+  </si>
+  <si>
+    <t>Record Group 30, Box 454, Folder 10</t>
+  </si>
+  <si>
+    <t>Record Group 72, Box 2, Folder 25</t>
+  </si>
+  <si>
+    <t>Record Group 72, Box 2, Folder 24</t>
+  </si>
+  <si>
+    <t>https://archives.yale.edu/repositories/4/archival_objects/2140324</t>
+  </si>
+  <si>
+    <t>https://archives.yale.edu/repositories/4/archival_objects/2140330</t>
+  </si>
+  <si>
+    <t>https://archives.yale.edu/repositories/4/resources/288</t>
+  </si>
+  <si>
+    <t>https://archives.yale.edu/repositories/4/archival_objects/109254</t>
+  </si>
+  <si>
+    <t>James Chuma and Abdullah Susi</t>
+  </si>
+  <si>
+    <t>James Chuma and Abdullah Susi, 1874</t>
+  </si>
+  <si>
+    <t>Maull &amp; Co.</t>
+  </si>
+  <si>
+    <t>[1874?]</t>
+  </si>
+  <si>
+    <t>James Chuma and Abdulla Susi, in traditional clothing, with weapons, against a backdrop of rocks.</t>
+  </si>
+  <si>
+    <t>Verso of image, with printed attribution to “Maull &amp; Co.” and pencilled archival annotations.</t>
+  </si>
+  <si>
+    <t>Jacob Wainwright standing with head bowed before a coffin which is partly covered by a British flag.</t>
+  </si>
+  <si>
+    <t>Verso of image, with printed attribution to “Elliott &amp; Fry” and pencilled archival annotations.</t>
+  </si>
+  <si>
+    <t>Goodyear, Henry Charles, 1859-1889</t>
+  </si>
+  <si>
+    <t>“The Industrial House”</t>
+  </si>
+  <si>
+    <t>“The Industrial House,” [late nineteenth century]</t>
+  </si>
+  <si>
+    <t>[Zanzibar]</t>
+  </si>
+  <si>
+    <t>[c.1885-1887]</t>
+  </si>
+  <si>
+    <t>“Panangani” [Pangani]</t>
+  </si>
+  <si>
+    <t>Sayed Salehe</t>
+  </si>
+  <si>
+    <t>Letter to Charles Smythies</t>
+  </si>
+  <si>
+    <t>Letter to Charles Smythies, [c.1885-1887]</t>
+  </si>
+  <si>
+    <t>“H.C.G., Gill, Susi, Feragi”</t>
+  </si>
+  <si>
+    <t>“H.C.G., Gill, Susi, Feragi,” [late nineteenth century]</t>
+  </si>
+  <si>
+    <t>“David [Abdullah] Susi, Servant to Dr. Livingstone”</t>
+  </si>
+  <si>
+    <t>“David [Abdullah] Susi, Servant to Dr. Livingstone,” [late nineteenth century]</t>
+  </si>
+  <si>
+    <t>Manuscript in Arabic with English language description below and “For Herbert” written at right.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stamped enveloped to “Mr. Herbert Goodyear” and noted as coming “From Bishop Smythies.” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdullah Susi, Henry Charles Goodyear, [?] Gill, and Feragi posed near decorated doorway. </t>
+  </si>
+  <si>
+    <t>Abdullah Susi in traditional East African clothing, standing with body turned right and facing forward.</t>
+  </si>
+  <si>
+    <t>Group of individuals, mostly men, standing and seated, in front of an open doorway.</t>
   </si>
 </sst>
 </file>
@@ -4123,7 +4252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97A9DD5-2802-8C46-B4DE-35FF576EF7FC}">
   <dimension ref="A1:AL78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
@@ -7311,11 +7440,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ87"/>
+  <dimension ref="A1:AQ93"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H86" sqref="H86"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11151,6 +11280,279 @@
       </c>
       <c r="T87" s="7" t="s">
         <v>635</v>
+      </c>
+    </row>
+    <row r="88" spans="1:34" ht="51" x14ac:dyDescent="0.2">
+      <c r="A88" s="7" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>1229</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>1227</v>
+      </c>
+      <c r="L88" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O88" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P88" s="7" t="s">
+        <v>1203</v>
+      </c>
+      <c r="Q88" s="7" t="s">
+        <v>1204</v>
+      </c>
+      <c r="R88" s="7" t="s">
+        <v>1205</v>
+      </c>
+      <c r="S88" s="7" t="s">
+        <v>1225</v>
+      </c>
+      <c r="T88" s="7" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="89" spans="1:34" ht="51" x14ac:dyDescent="0.2">
+      <c r="A89" s="7" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="L89" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O89" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P89" s="7" t="s">
+        <v>1203</v>
+      </c>
+      <c r="Q89" s="7" t="s">
+        <v>1204</v>
+      </c>
+      <c r="R89" s="7" t="s">
+        <v>1206</v>
+      </c>
+      <c r="S89" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="T89" s="7" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="90" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+      <c r="A90" s="7" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>1233</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="L90" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O90" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P90" s="7" t="s">
+        <v>1203</v>
+      </c>
+      <c r="Q90" s="7" t="s">
+        <v>1204</v>
+      </c>
+      <c r="R90" s="7" t="s">
+        <v>1206</v>
+      </c>
+      <c r="S90" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="T90" s="7" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="91" spans="1:34" ht="51" x14ac:dyDescent="0.2">
+      <c r="A91" s="7" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>1223</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="L91" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O91" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P91" s="7" t="s">
+        <v>1203</v>
+      </c>
+      <c r="Q91" s="7" t="s">
+        <v>1204</v>
+      </c>
+      <c r="R91" s="7" t="s">
+        <v>1206</v>
+      </c>
+      <c r="S91" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="T91" s="7" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="92" spans="1:34" ht="51" x14ac:dyDescent="0.2">
+      <c r="A92" s="7" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L92" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O92" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P92" s="7" t="s">
+        <v>1203</v>
+      </c>
+      <c r="Q92" s="7" t="s">
+        <v>1204</v>
+      </c>
+      <c r="R92" s="7" t="s">
+        <v>1208</v>
+      </c>
+      <c r="S92" s="7">
+        <v>1874</v>
+      </c>
+      <c r="T92" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="1:34" ht="51" x14ac:dyDescent="0.2">
+      <c r="A93" s="7" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>1214</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>1215</v>
+      </c>
+      <c r="L93" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O93" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P93" s="7" t="s">
+        <v>1203</v>
+      </c>
+      <c r="Q93" s="7" t="s">
+        <v>1204</v>
+      </c>
+      <c r="R93" s="7" t="s">
+        <v>1207</v>
+      </c>
+      <c r="S93" s="7" t="s">
+        <v>1216</v>
+      </c>
+      <c r="T93" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8A4836-D0E4-7F47-B356-8E6E1BB4A804}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF300E0-5A13-7144-A35D-080ADE515144}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="1239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="1241">
   <si>
     <t>liv_000017</t>
   </si>
@@ -3717,52 +3717,58 @@
     <t>“The Industrial House”</t>
   </si>
   <si>
+    <t>[Zanzibar]</t>
+  </si>
+  <si>
+    <t>[c.1885-1887]</t>
+  </si>
+  <si>
+    <t>“Panangani” [Pangani]</t>
+  </si>
+  <si>
+    <t>Sayed Salehe</t>
+  </si>
+  <si>
+    <t>Letter to Charles Smythies</t>
+  </si>
+  <si>
+    <t>Letter to Charles Smythies, [c.1885-1887]</t>
+  </si>
+  <si>
+    <t>“H.C.G., Gill, Susi, Feragi”</t>
+  </si>
+  <si>
+    <t>“David [Abdullah] Susi, Servant to Dr. Livingstone”</t>
+  </si>
+  <si>
+    <t>Manuscript in Arabic with English language description below and “For Herbert” written at right.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stamped enveloped to “Mr. Herbert Goodyear” and noted as coming “From Bishop Smythies.” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdullah Susi, Henry Charles Goodyear, [?] Gill, and Feragi posed near decorated doorway. </t>
+  </si>
+  <si>
+    <t>Abdullah Susi in traditional East African clothing, standing with body turned right and facing forward.</t>
+  </si>
+  <si>
+    <t>Group of individuals, mostly men, standing and seated, in front of an open doorway.</t>
+  </si>
+  <si>
+    <t>“David [Abdullah] Susi, Servant to Dr. Livingstone,” 24 August 1886</t>
+  </si>
+  <si>
+    <t>24 August 1886</t>
+  </si>
+  <si>
+    <t>[24 August 1886]</t>
+  </si>
+  <si>
+    <t>“H.C.G., Gill, Susi, Feragi,” [24 August 1886]</t>
+  </si>
+  <si>
     <t>“The Industrial House,” [late nineteenth century]</t>
-  </si>
-  <si>
-    <t>[Zanzibar]</t>
-  </si>
-  <si>
-    <t>[c.1885-1887]</t>
-  </si>
-  <si>
-    <t>“Panangani” [Pangani]</t>
-  </si>
-  <si>
-    <t>Sayed Salehe</t>
-  </si>
-  <si>
-    <t>Letter to Charles Smythies</t>
-  </si>
-  <si>
-    <t>Letter to Charles Smythies, [c.1885-1887]</t>
-  </si>
-  <si>
-    <t>“H.C.G., Gill, Susi, Feragi”</t>
-  </si>
-  <si>
-    <t>“H.C.G., Gill, Susi, Feragi,” [late nineteenth century]</t>
-  </si>
-  <si>
-    <t>“David [Abdullah] Susi, Servant to Dr. Livingstone”</t>
-  </si>
-  <si>
-    <t>“David [Abdullah] Susi, Servant to Dr. Livingstone,” [late nineteenth century]</t>
-  </si>
-  <si>
-    <t>Manuscript in Arabic with English language description below and “For Herbert” written at right.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stamped enveloped to “Mr. Herbert Goodyear” and noted as coming “From Bishop Smythies.” </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abdullah Susi, Henry Charles Goodyear, [?] Gill, and Feragi posed near decorated doorway. </t>
-  </si>
-  <si>
-    <t>Abdullah Susi in traditional East African clothing, standing with body turned right and facing forward.</t>
-  </si>
-  <si>
-    <t>Group of individuals, mostly men, standing and seated, in front of an open doorway.</t>
   </si>
 </sst>
 </file>
@@ -7442,9 +7448,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F91" sqref="F91"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11290,22 +11296,25 @@
         <v>1202</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>1196</v>
       </c>
       <c r="G88" s="7" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H88" s="7" t="s">
         <v>1228</v>
       </c>
-      <c r="H88" s="7" t="s">
-        <v>1229</v>
-      </c>
       <c r="I88" s="7" t="s">
-        <v>1227</v>
+        <v>1226</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="L88" s="7" t="s">
         <v>117</v>
@@ -11323,10 +11332,10 @@
         <v>1205</v>
       </c>
       <c r="S88" s="7" t="s">
+        <v>1224</v>
+      </c>
+      <c r="T88" s="7" t="s">
         <v>1225</v>
-      </c>
-      <c r="T88" s="7" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="89" spans="1:34" ht="51" x14ac:dyDescent="0.2">
@@ -11337,16 +11346,16 @@
         <v>1202</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>1197</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>1231</v>
+        <v>1239</v>
       </c>
       <c r="I89" s="7" t="s">
         <v>1221</v>
@@ -11367,10 +11376,10 @@
         <v>1206</v>
       </c>
       <c r="S89" s="7" t="s">
-        <v>1003</v>
+        <v>1238</v>
       </c>
       <c r="T89" s="7" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="90" spans="1:34" ht="68" x14ac:dyDescent="0.2">
@@ -11381,16 +11390,16 @@
         <v>1202</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>1198</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="I90" s="7" t="s">
         <v>1221</v>
@@ -11411,10 +11420,10 @@
         <v>1206</v>
       </c>
       <c r="S90" s="7" t="s">
-        <v>1003</v>
+        <v>1237</v>
       </c>
       <c r="T90" s="7" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="91" spans="1:34" ht="51" x14ac:dyDescent="0.2">
@@ -11425,7 +11434,7 @@
         <v>1202</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>1199</v>
@@ -11434,7 +11443,7 @@
         <v>1222</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>1223</v>
+        <v>1240</v>
       </c>
       <c r="I91" s="7" t="s">
         <v>1221</v>
@@ -11458,7 +11467,7 @@
         <v>1003</v>
       </c>
       <c r="T91" s="7" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="92" spans="1:34" ht="51" x14ac:dyDescent="0.2">

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF300E0-5A13-7144-A35D-080ADE515144}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F5A9AD-C649-764C-94A0-D028BE1D3B24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="1241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="1242">
   <si>
     <t>liv_000017</t>
   </si>
@@ -3769,6 +3769,9 @@
   </si>
   <si>
     <t>“The Industrial House,” [late nineteenth century]</t>
+  </si>
+  <si>
+    <t>liv_021004</t>
   </si>
 </sst>
 </file>
@@ -7449,8 +7452,8 @@
   <dimension ref="A1:AQ93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H91" sqref="H91"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7723,7 +7726,7 @@
         <v>529</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>103</v>
+        <v>1241</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>77</v>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F5A9AD-C649-764C-94A0-D028BE1D3B24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB667BC5-90DB-B24E-BF0E-8E97365C74F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2182" uniqueCount="1242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="1252">
   <si>
     <t>liv_000017</t>
   </si>
@@ -3772,6 +3772,36 @@
   </si>
   <si>
     <t>liv_021004</t>
+  </si>
+  <si>
+    <t>liv_020025</t>
+  </si>
+  <si>
+    <t>liv_020026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWM/LMS/South Africa/Incoming Correspondence/Box 16A/Folder 2/Jacket A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CWM/LMS/South Africa/Incoming Correspondence/Box 21/Folder 3/Jacket B </t>
+  </si>
+  <si>
+    <t>1 September 1838</t>
+  </si>
+  <si>
+    <t>King Williams Town</t>
+  </si>
+  <si>
+    <t>8 October 1845</t>
+  </si>
+  <si>
+    <t>Letter to Directors of the London Missionary Society, 1 September 1838</t>
+  </si>
+  <si>
+    <t>Letter to Directors of the London Missionary Society, 8 October 1845</t>
+  </si>
+  <si>
+    <t>Letter to Directors of the London Missionary Society</t>
   </si>
 </sst>
 </file>
@@ -4259,11 +4289,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97A9DD5-2802-8C46-B4DE-35FF576EF7FC}">
-  <dimension ref="A1:AL78"/>
+  <dimension ref="A1:AL80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7437,9 +7467,79 @@
       <c r="AK78" s="1"/>
       <c r="AL78" s="1"/>
     </row>
+    <row r="79" spans="1:38" ht="68" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="80" spans="1:38" ht="68" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL53">
-    <sortCondition ref="A2:A53"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL78">
+    <sortCondition ref="A2:A78"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7451,7 +7551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB667BC5-90DB-B24E-BF0E-8E97365C74F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD489933-8E61-4141-82FE-A70B3E4E9AE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="7500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="1252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="1268">
   <si>
     <t>liv_000017</t>
   </si>
@@ -3657,9 +3657,6 @@
     <t>Images courtesy of Yale Divinity Library Special Collection, Yale University Library.</t>
   </si>
   <si>
-    <t>New Haven</t>
-  </si>
-  <si>
     <t>Yale University. Divinity School. Library</t>
   </si>
   <si>
@@ -3802,6 +3799,57 @@
   </si>
   <si>
     <t>Letter to Directors of the London Missionary Society</t>
+  </si>
+  <si>
+    <t>liv_021090</t>
+  </si>
+  <si>
+    <t>liv_021091</t>
+  </si>
+  <si>
+    <t>Head and shoulders portrait of Ranavalona I in regal attire, facing to her left.</t>
+  </si>
+  <si>
+    <t>http://digitallibrary.usc.edu/cdm/ref/collection/p15799coll123/id/60331</t>
+  </si>
+  <si>
+    <t>Défap - Service Protestant de Mission (Département Évangélique Français d’Action Apostolique)</t>
+  </si>
+  <si>
+    <t>Ranavalona I, [nineteenth century?]</t>
+  </si>
+  <si>
+    <t>University of Southern California. Libraries</t>
+  </si>
+  <si>
+    <t>International Mission Photography Archive, ca.1860-ca.1960, impa-m75377</t>
+  </si>
+  <si>
+    <t>[nineteenth century?]</t>
+  </si>
+  <si>
+    <t>New Haven, CT</t>
+  </si>
+  <si>
+    <t>Los Angeles, CA</t>
+  </si>
+  <si>
+    <t>drawings</t>
+  </si>
+  <si>
+    <t>Tippu Tip, 1890</t>
+  </si>
+  <si>
+    <t>Coutinho Brothers</t>
+  </si>
+  <si>
+    <t>Full-body portrait of Tippu Tip, seated, facing forward, and holding a long, sheathed sword.</t>
+  </si>
+  <si>
+    <t>Wikimedia Commons</t>
+  </si>
+  <si>
+    <t>[Zanzibar?]</t>
   </si>
 </sst>
 </file>
@@ -4291,7 +4339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97A9DD5-2802-8C46-B4DE-35FF576EF7FC}">
   <dimension ref="A1:AL80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
@@ -7469,13 +7517,13 @@
     </row>
     <row r="79" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>658</v>
@@ -7493,24 +7541,24 @@
         <v>65</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Q79" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="R79" s="1" t="s">
         <v>1246</v>
-      </c>
-      <c r="R79" s="1" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="80" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>658</v>
@@ -7528,10 +7576,10 @@
         <v>65</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="R80" s="1" t="s">
         <v>156</v>
@@ -7549,11 +7597,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ93"/>
+  <dimension ref="A1:AQ95"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T95" sqref="T95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7826,7 +7874,7 @@
         <v>529</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>77</v>
@@ -11393,28 +11441,28 @@
     </row>
     <row r="88" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="C88" s="7" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>1231</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>1232</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>1196</v>
       </c>
       <c r="G88" s="7" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H88" s="7" t="s">
         <v>1227</v>
       </c>
-      <c r="H88" s="7" t="s">
-        <v>1228</v>
-      </c>
       <c r="I88" s="7" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="J88" s="7" t="s">
         <v>170</v>
@@ -11426,42 +11474,42 @@
         <v>44</v>
       </c>
       <c r="P88" s="7" t="s">
+        <v>1260</v>
+      </c>
+      <c r="Q88" s="7" t="s">
         <v>1203</v>
       </c>
-      <c r="Q88" s="7" t="s">
+      <c r="R88" s="7" t="s">
         <v>1204</v>
       </c>
-      <c r="R88" s="7" t="s">
-        <v>1205</v>
-      </c>
       <c r="S88" s="7" t="s">
+        <v>1223</v>
+      </c>
+      <c r="T88" s="7" t="s">
         <v>1224</v>
-      </c>
-      <c r="T88" s="7" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="89" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>1197</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="L89" s="7" t="s">
         <v>117</v>
@@ -11470,42 +11518,42 @@
         <v>44</v>
       </c>
       <c r="P89" s="7" t="s">
+        <v>1260</v>
+      </c>
+      <c r="Q89" s="7" t="s">
         <v>1203</v>
       </c>
-      <c r="Q89" s="7" t="s">
-        <v>1204</v>
-      </c>
       <c r="R89" s="7" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="S89" s="7" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="T89" s="7" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="90" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>1198</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="L90" s="7" t="s">
         <v>117</v>
@@ -11514,42 +11562,42 @@
         <v>44</v>
       </c>
       <c r="P90" s="7" t="s">
+        <v>1260</v>
+      </c>
+      <c r="Q90" s="7" t="s">
         <v>1203</v>
       </c>
-      <c r="Q90" s="7" t="s">
-        <v>1204</v>
-      </c>
       <c r="R90" s="7" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="S90" s="7" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="T90" s="7" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="91" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>1199</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="L91" s="7" t="s">
         <v>117</v>
@@ -11558,33 +11606,33 @@
         <v>44</v>
       </c>
       <c r="P91" s="7" t="s">
+        <v>1260</v>
+      </c>
+      <c r="Q91" s="7" t="s">
         <v>1203</v>
       </c>
-      <c r="Q91" s="7" t="s">
-        <v>1204</v>
-      </c>
       <c r="R91" s="7" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="S91" s="7" t="s">
         <v>1003</v>
       </c>
       <c r="T91" s="7" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="92" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="C92" s="11" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>1219</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>1220</v>
       </c>
       <c r="F92" s="7" t="s">
         <v>1200</v>
@@ -11605,13 +11653,13 @@
         <v>44</v>
       </c>
       <c r="P92" s="7" t="s">
+        <v>1260</v>
+      </c>
+      <c r="Q92" s="7" t="s">
         <v>1203</v>
       </c>
-      <c r="Q92" s="7" t="s">
-        <v>1204</v>
-      </c>
       <c r="R92" s="7" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="S92" s="7">
         <v>1874</v>
@@ -11622,28 +11670,28 @@
     </row>
     <row r="93" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>1202</v>
       </c>
       <c r="C93" s="7" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>1217</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>1218</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>1201</v>
       </c>
       <c r="G93" s="7" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H93" s="7" t="s">
         <v>1213</v>
       </c>
-      <c r="H93" s="7" t="s">
+      <c r="I93" s="7" t="s">
         <v>1214</v>
-      </c>
-      <c r="I93" s="7" t="s">
-        <v>1215</v>
       </c>
       <c r="L93" s="7" t="s">
         <v>117</v>
@@ -11652,19 +11700,95 @@
         <v>44</v>
       </c>
       <c r="P93" s="7" t="s">
+        <v>1260</v>
+      </c>
+      <c r="Q93" s="7" t="s">
         <v>1203</v>
       </c>
-      <c r="Q93" s="7" t="s">
-        <v>1204</v>
-      </c>
       <c r="R93" s="7" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="S93" s="7" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="T93" s="7" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+      <c r="A94" s="7" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>1251</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>1256</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L94" s="7" t="s">
+        <v>1262</v>
+      </c>
+      <c r="O94" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P94" s="7" t="s">
+        <v>1261</v>
+      </c>
+      <c r="Q94" s="7" t="s">
+        <v>1257</v>
+      </c>
+      <c r="R94" s="7" t="s">
+        <v>1258</v>
+      </c>
+      <c r="S94" s="7" t="s">
+        <v>1259</v>
+      </c>
+      <c r="T94" s="7" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="95" spans="1:34" ht="51" x14ac:dyDescent="0.2">
+      <c r="B95" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>1263</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>1264</v>
+      </c>
+      <c r="L95" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="R95" s="7" t="s">
+        <v>1266</v>
+      </c>
+      <c r="S95" s="7">
+        <v>1890</v>
+      </c>
+      <c r="T95" s="7" t="s">
+        <v>1267</v>
       </c>
     </row>
   </sheetData>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD489933-8E61-4141-82FE-A70B3E4E9AE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99184DB4-C0DF-C542-81BF-DE4A4A254217}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="7500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
@@ -2044,9 +2044,6 @@
     <t>22 January 1856; 5 October 1855</t>
   </si>
   <si>
-    <t>Nehemiah</t>
-  </si>
-  <si>
     <t>Arbousset, Thomas, 1810-1887</t>
   </si>
   <si>
@@ -3850,6 +3847,9 @@
   </si>
   <si>
     <t>[Zanzibar?]</t>
+  </si>
+  <si>
+    <t>Nehemiah Sekhonyana Moshoeshoe, 1824-1906</t>
   </si>
 </sst>
 </file>
@@ -4339,9 +4339,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97A9DD5-2802-8C46-B4DE-35FF576EF7FC}">
   <dimension ref="A1:AL80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4445,10 +4445,10 @@
         <v>247</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="AD1" s="2" t="s">
         <v>246</v>
@@ -5304,7 +5304,7 @@
         <v>447</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>115</v>
@@ -5458,7 +5458,7 @@
         <v>452</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>464</v>
@@ -5467,7 +5467,7 @@
         <v>178</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>115</v>
@@ -5674,13 +5674,13 @@
     </row>
     <row r="36" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>913</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>914</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>648</v>
@@ -5698,13 +5698,13 @@
         <v>649</v>
       </c>
       <c r="AI36" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AK36" s="4">
         <v>1855</v>
       </c>
       <c r="AL36" s="4" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="37" spans="1:38" ht="102" x14ac:dyDescent="0.2">
@@ -5829,16 +5829,16 @@
         <v>548</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>829</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>830</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>170</v>
@@ -5847,7 +5847,7 @@
         <v>557</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>429</v>
@@ -5900,7 +5900,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>660</v>
       </c>
@@ -5920,13 +5920,13 @@
         <v>664</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>668</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>669</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>429</v>
@@ -5943,13 +5943,13 @@
     </row>
     <row r="43" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>907</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>908</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>264</v>
@@ -5961,16 +5961,16 @@
         <v>264</v>
       </c>
       <c r="AA43" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="AD43" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="AE43" s="4" t="s">
         <v>909</v>
       </c>
-      <c r="AD43" s="4" t="s">
-        <v>907</v>
-      </c>
-      <c r="AE43" s="4" t="s">
+      <c r="AI43" s="4" t="s">
         <v>910</v>
-      </c>
-      <c r="AI43" s="4" t="s">
-        <v>911</v>
       </c>
       <c r="AK43" s="4">
         <v>1846</v>
@@ -5978,13 +5978,13 @@
     </row>
     <row r="44" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>881</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>882</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>32</v>
@@ -6002,27 +6002,27 @@
         <v>610</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="Q44" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="45" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>885</v>
-      </c>
       <c r="D45" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>115</v>
@@ -6037,30 +6037,30 @@
         <v>610</v>
       </c>
       <c r="P45" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="R45" s="1" t="s">
         <v>889</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="R45" s="1" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="46" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>1142</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>1143</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>429</v>
@@ -6069,7 +6069,7 @@
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
       <c r="T46" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="U46" s="1">
         <v>18</v>
@@ -6078,24 +6078,24 @@
         <v>3</v>
       </c>
       <c r="W46" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="X46" s="1" t="s">
         <v>1146</v>
-      </c>
-      <c r="X46" s="1" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="47" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>1191</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>1192</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>429</v>
@@ -6110,211 +6110,211 @@
         <v>12</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="48" spans="1:38" ht="187" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>898</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>899</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AB48" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="AC48" s="4" t="s">
         <v>901</v>
       </c>
-      <c r="AC48" s="4" t="s">
+      <c r="AD48" s="4" t="s">
         <v>902</v>
-      </c>
-      <c r="AD48" s="4" t="s">
-        <v>903</v>
       </c>
       <c r="AE48" s="4" t="s">
         <v>64</v>
       </c>
       <c r="AI48" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AK48" s="4">
         <v>1905</v>
       </c>
       <c r="AL48" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="49" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>677</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AD49" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AE49" s="4" t="s">
         <v>64</v>
       </c>
       <c r="AI49" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AK49" s="4">
         <v>1904</v>
       </c>
       <c r="AL49" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="50" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>677</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AD50" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AE50" s="4" t="s">
         <v>64</v>
       </c>
       <c r="AI50" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AK50" s="4">
         <v>1904</v>
       </c>
       <c r="AL50" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="51" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>677</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AD51" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AE51" s="4" t="s">
         <v>64</v>
       </c>
       <c r="AI51" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AK51" s="4">
         <v>1904</v>
       </c>
       <c r="AL51" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="52" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>677</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AD52" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AE52" s="4" t="s">
         <v>64</v>
       </c>
       <c r="AI52" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AK52" s="4">
         <v>1904</v>
       </c>
       <c r="AL52" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="53" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>822</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>823</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>170</v>
@@ -6332,45 +6332,45 @@
         <v>610</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="Q53" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="R53" s="1" t="s">
         <v>824</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="54" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>1159</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="J54" s="1" t="s">
         <v>1161</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>1162</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>429</v>
@@ -6385,24 +6385,24 @@
         <v>5</v>
       </c>
       <c r="X54" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="55" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>1151</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>1152</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>664</v>
@@ -6417,24 +6417,24 @@
         <v>76</v>
       </c>
       <c r="W55" s="5" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="X55" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="56" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>1018</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>1019</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>115</v>
@@ -6449,13 +6449,13 @@
         <v>472</v>
       </c>
       <c r="P56" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="Q56" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="Q56" s="1" t="s">
+      <c r="R56" s="1" t="s">
         <v>1021</v>
-      </c>
-      <c r="R56" s="1" t="s">
-        <v>1022</v>
       </c>
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
@@ -6473,16 +6473,16 @@
     </row>
     <row r="57" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>1025</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>1026</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>115</v>
@@ -6497,13 +6497,13 @@
         <v>472</v>
       </c>
       <c r="P57" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="Q57" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="Q57" s="1" t="s">
+      <c r="R57" s="1" t="s">
         <v>1028</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>1029</v>
       </c>
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
@@ -6521,16 +6521,16 @@
     </row>
     <row r="58" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>1032</v>
-      </c>
       <c r="D58" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>115</v>
@@ -6545,13 +6545,13 @@
         <v>472</v>
       </c>
       <c r="P58" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="Q58" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="Q58" s="1" t="s">
+      <c r="R58" s="1" t="s">
         <v>1034</v>
-      </c>
-      <c r="R58" s="1" t="s">
-        <v>1035</v>
       </c>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
@@ -6569,16 +6569,16 @@
     </row>
     <row r="59" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>1036</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>1037</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>115</v>
@@ -6593,13 +6593,13 @@
         <v>472</v>
       </c>
       <c r="P59" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="Q59" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="Q59" s="1" t="s">
+      <c r="R59" s="1" t="s">
         <v>1039</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>1040</v>
       </c>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
@@ -6617,16 +6617,16 @@
     </row>
     <row r="60" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>1043</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>1044</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>115</v>
@@ -6641,13 +6641,13 @@
         <v>472</v>
       </c>
       <c r="P60" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="Q60" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="Q60" s="1" t="s">
-        <v>1046</v>
-      </c>
       <c r="R60" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
@@ -6665,16 +6665,16 @@
     </row>
     <row r="61" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>1049</v>
-      </c>
       <c r="D61" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>115</v>
@@ -6689,13 +6689,13 @@
         <v>472</v>
       </c>
       <c r="P61" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="Q61" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="Q61" s="1" t="s">
+      <c r="R61" s="1" t="s">
         <v>1051</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>1052</v>
       </c>
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
@@ -6713,16 +6713,16 @@
     </row>
     <row r="62" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>1055</v>
-      </c>
       <c r="D62" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>115</v>
@@ -6737,13 +6737,13 @@
         <v>472</v>
       </c>
       <c r="P62" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="Q62" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="Q62" s="1" t="s">
+      <c r="R62" s="1" t="s">
         <v>1057</v>
-      </c>
-      <c r="R62" s="1" t="s">
-        <v>1058</v>
       </c>
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
@@ -6761,16 +6761,16 @@
     </row>
     <row r="63" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>1061</v>
-      </c>
       <c r="D63" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>115</v>
@@ -6785,10 +6785,10 @@
         <v>472</v>
       </c>
       <c r="P63" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="Q63" s="1" t="s">
         <v>1062</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>1063</v>
       </c>
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
@@ -6806,16 +6806,16 @@
     </row>
     <row r="64" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>1064</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>1065</v>
-      </c>
       <c r="D64" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>115</v>
@@ -6830,10 +6830,10 @@
         <v>472</v>
       </c>
       <c r="P64" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="Q64" s="1" t="s">
         <v>1066</v>
-      </c>
-      <c r="Q64" s="1" t="s">
-        <v>1067</v>
       </c>
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
@@ -6851,16 +6851,16 @@
     </row>
     <row r="65" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>1069</v>
-      </c>
       <c r="D65" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>115</v>
@@ -6875,13 +6875,13 @@
         <v>472</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
@@ -6899,16 +6899,16 @@
     </row>
     <row r="66" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>1073</v>
-      </c>
       <c r="D66" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>115</v>
@@ -6923,10 +6923,10 @@
         <v>472</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
@@ -6944,16 +6944,16 @@
     </row>
     <row r="67" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>1076</v>
-      </c>
       <c r="D67" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>115</v>
@@ -6968,13 +6968,13 @@
         <v>472</v>
       </c>
       <c r="P67" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="Q67" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="Q67" s="1" t="s">
+      <c r="R67" s="1" t="s">
         <v>1078</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>1079</v>
       </c>
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
@@ -6992,16 +6992,16 @@
     </row>
     <row r="68" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>1081</v>
-      </c>
       <c r="D68" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>115</v>
@@ -7016,13 +7016,13 @@
         <v>472</v>
       </c>
       <c r="P68" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="Q68" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="Q68" s="1" t="s">
+      <c r="R68" s="1" t="s">
         <v>1083</v>
-      </c>
-      <c r="R68" s="1" t="s">
-        <v>1084</v>
       </c>
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
@@ -7040,16 +7040,16 @@
     </row>
     <row r="69" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>1087</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>1088</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>115</v>
@@ -7064,13 +7064,13 @@
         <v>472</v>
       </c>
       <c r="P69" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="Q69" s="5" t="s">
         <v>1089</v>
       </c>
-      <c r="Q69" s="5" t="s">
+      <c r="R69" s="1" t="s">
         <v>1090</v>
-      </c>
-      <c r="R69" s="1" t="s">
-        <v>1091</v>
       </c>
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
@@ -7088,16 +7088,16 @@
     </row>
     <row r="70" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>1093</v>
-      </c>
       <c r="D70" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>115</v>
@@ -7112,13 +7112,13 @@
         <v>472</v>
       </c>
       <c r="P70" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="Q70" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="Q70" s="1" t="s">
+      <c r="R70" s="1" t="s">
         <v>1095</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>1096</v>
       </c>
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
@@ -7136,16 +7136,16 @@
     </row>
     <row r="71" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>1098</v>
-      </c>
       <c r="D71" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>115</v>
@@ -7160,13 +7160,13 @@
         <v>472</v>
       </c>
       <c r="P71" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="Q71" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="Q71" s="1" t="s">
+      <c r="R71" s="1" t="s">
         <v>1100</v>
-      </c>
-      <c r="R71" s="1" t="s">
-        <v>1101</v>
       </c>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
@@ -7184,16 +7184,16 @@
     </row>
     <row r="72" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>1104</v>
-      </c>
       <c r="D72" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>115</v>
@@ -7208,13 +7208,13 @@
         <v>472</v>
       </c>
       <c r="P72" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="Q72" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="Q72" s="1" t="s">
+      <c r="R72" s="1" t="s">
         <v>1106</v>
-      </c>
-      <c r="R72" s="1" t="s">
-        <v>1107</v>
       </c>
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
@@ -7232,16 +7232,16 @@
     </row>
     <row r="73" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>1109</v>
-      </c>
       <c r="D73" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>115</v>
@@ -7256,13 +7256,13 @@
         <v>472</v>
       </c>
       <c r="P73" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="Q73" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="Q73" s="1" t="s">
+      <c r="R73" s="1" t="s">
         <v>1111</v>
-      </c>
-      <c r="R73" s="1" t="s">
-        <v>1112</v>
       </c>
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
@@ -7280,16 +7280,16 @@
     </row>
     <row r="74" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>1114</v>
-      </c>
       <c r="D74" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>115</v>
@@ -7304,13 +7304,13 @@
         <v>472</v>
       </c>
       <c r="P74" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="Q74" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="Q74" s="1" t="s">
-        <v>1116</v>
-      </c>
       <c r="R74" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
@@ -7328,16 +7328,16 @@
     </row>
     <row r="75" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>1118</v>
-      </c>
       <c r="D75" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>115</v>
@@ -7352,13 +7352,13 @@
         <v>472</v>
       </c>
       <c r="P75" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="Q75" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="Q75" s="1" t="s">
-        <v>1120</v>
-      </c>
       <c r="R75" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
@@ -7376,16 +7376,16 @@
     </row>
     <row r="76" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>1122</v>
-      </c>
       <c r="D76" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>115</v>
@@ -7400,13 +7400,13 @@
         <v>472</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="Q76" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="R76" s="1" t="s">
         <v>1095</v>
-      </c>
-      <c r="R76" s="1" t="s">
-        <v>1096</v>
       </c>
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
@@ -7424,16 +7424,16 @@
     </row>
     <row r="77" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>1134</v>
-      </c>
       <c r="D77" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>115</v>
@@ -7448,13 +7448,13 @@
         <v>472</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
@@ -7472,16 +7472,16 @@
     </row>
     <row r="78" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>1137</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>1138</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>115</v>
@@ -7496,10 +7496,10 @@
         <v>472</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
@@ -7517,13 +7517,13 @@
     </row>
     <row r="79" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>658</v>
@@ -7541,24 +7541,24 @@
         <v>65</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="Q79" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="R79" s="1" t="s">
         <v>1245</v>
-      </c>
-      <c r="R79" s="1" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="80" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>658</v>
@@ -7576,10 +7576,10 @@
         <v>65</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="R80" s="1" t="s">
         <v>156</v>
@@ -7599,7 +7599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="T95" sqref="T95"/>
     </sheetView>
@@ -7631,10 +7631,10 @@
   <sheetData>
     <row r="1" spans="1:39" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>299</v>
@@ -7874,7 +7874,7 @@
         <v>529</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>77</v>
@@ -9685,19 +9685,19 @@
     </row>
     <row r="51" spans="1:34" ht="153" x14ac:dyDescent="0.2">
       <c r="C51" s="7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F51" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>684</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="H51" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="I51" s="7" t="s">
         <v>686</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>687</v>
       </c>
       <c r="L51" s="7" t="s">
         <v>117</v>
@@ -9715,25 +9715,25 @@
         <v>152</v>
       </c>
       <c r="R51" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="S51" s="7" t="s">
         <v>368</v>
       </c>
       <c r="T51" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="V51" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="X51" s="7" t="s">
         <v>689</v>
       </c>
-      <c r="V51" s="10" t="s">
-        <v>687</v>
-      </c>
-      <c r="X51" s="7" t="s">
+      <c r="Y51" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="Y51" s="7" t="s">
+      <c r="AC51" s="7" t="s">
         <v>691</v>
-      </c>
-      <c r="AC51" s="7" t="s">
-        <v>692</v>
       </c>
       <c r="AG51" s="7">
         <v>1913</v>
@@ -9744,10 +9744,10 @@
     </row>
     <row r="52" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="C52" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>134</v>
@@ -9777,27 +9777,27 @@
         <v>22</v>
       </c>
       <c r="T52" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="53" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F53" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>697</v>
       </c>
-      <c r="G53" s="7" t="s">
-        <v>698</v>
-      </c>
       <c r="H53" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>170</v>
@@ -9812,36 +9812,36 @@
         <v>45</v>
       </c>
       <c r="Q53" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="R53" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="S53" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="T53" s="7" t="s">
         <v>700</v>
-      </c>
-      <c r="R53" s="7" t="s">
-        <v>713</v>
-      </c>
-      <c r="S53" s="7" t="s">
-        <v>757</v>
-      </c>
-      <c r="T53" s="7" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="54" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>703</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="C54" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>704</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>753</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>705</v>
-      </c>
       <c r="G54" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>170</v>
@@ -9856,39 +9856,39 @@
         <v>45</v>
       </c>
       <c r="Q54" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="R54" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="S54" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="T54" s="7" t="s">
         <v>700</v>
-      </c>
-      <c r="R54" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="S54" s="7" t="s">
-        <v>756</v>
-      </c>
-      <c r="T54" s="7" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="55" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>709</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>708</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>710</v>
-      </c>
       <c r="H55" s="7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>117</v>
@@ -9900,39 +9900,39 @@
         <v>45</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="R55" s="17" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="S55" s="16" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="T55" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="56" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>715</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>708</v>
-      </c>
-      <c r="C56" s="7" t="s">
+      <c r="F56" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="F56" s="7" t="s">
-        <v>717</v>
-      </c>
       <c r="G56" s="7" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="L56" s="7" t="s">
         <v>117</v>
@@ -9944,45 +9944,45 @@
         <v>45</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="R56" s="17" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="S56" s="16" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="T56" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="57" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>708</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>827</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>828</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>828</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>723</v>
-      </c>
       <c r="G57" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>117</v>
@@ -9994,39 +9994,39 @@
         <v>45</v>
       </c>
       <c r="Q57" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="R57" s="17" t="s">
+        <v>727</v>
+      </c>
+      <c r="S57" s="16" t="s">
+        <v>726</v>
+      </c>
+      <c r="T57" s="7" t="s">
         <v>700</v>
-      </c>
-      <c r="R57" s="17" t="s">
-        <v>728</v>
-      </c>
-      <c r="S57" s="16" t="s">
-        <v>727</v>
-      </c>
-      <c r="T57" s="7" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="58" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>729</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>708</v>
-      </c>
-      <c r="C58" s="7" t="s">
+      <c r="F58" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="F58" s="7" t="s">
-        <v>724</v>
-      </c>
-      <c r="G58" s="7" t="s">
+      <c r="H58" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="H58" s="7" t="s">
-        <v>732</v>
-      </c>
       <c r="I58" s="7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>117</v>
@@ -10038,39 +10038,39 @@
         <v>45</v>
       </c>
       <c r="Q58" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="R58" s="17" t="s">
+        <v>732</v>
+      </c>
+      <c r="S58" s="16" t="s">
+        <v>760</v>
+      </c>
+      <c r="T58" s="7" t="s">
         <v>700</v>
-      </c>
-      <c r="R58" s="17" t="s">
-        <v>733</v>
-      </c>
-      <c r="S58" s="16" t="s">
-        <v>761</v>
-      </c>
-      <c r="T58" s="7" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="59" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>734</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>708</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>738</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>725</v>
-      </c>
-      <c r="G59" s="7" t="s">
+      <c r="H59" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="H59" s="7" t="s">
-        <v>736</v>
-      </c>
       <c r="I59" s="7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="L59" s="7" t="s">
         <v>117</v>
@@ -10082,39 +10082,39 @@
         <v>45</v>
       </c>
       <c r="Q59" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="R59" s="17" t="s">
+        <v>736</v>
+      </c>
+      <c r="S59" s="16" t="s">
+        <v>761</v>
+      </c>
+      <c r="T59" s="7" t="s">
         <v>700</v>
-      </c>
-      <c r="R59" s="17" t="s">
-        <v>737</v>
-      </c>
-      <c r="S59" s="16" t="s">
-        <v>762</v>
-      </c>
-      <c r="T59" s="7" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="60" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C60" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="F60" s="7" t="s">
         <v>739</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>740</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>200</v>
       </c>
       <c r="H60" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="I60" s="7" t="s">
         <v>743</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>744</v>
       </c>
       <c r="L60" s="7" t="s">
         <v>117</v>
@@ -10126,27 +10126,27 @@
         <v>45</v>
       </c>
       <c r="Q60" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="R60" s="17" t="s">
+        <v>744</v>
+      </c>
+      <c r="S60" s="16" t="s">
+        <v>750</v>
+      </c>
+      <c r="T60" s="7" t="s">
         <v>700</v>
-      </c>
-      <c r="R60" s="17" t="s">
-        <v>745</v>
-      </c>
-      <c r="S60" s="16" t="s">
-        <v>751</v>
-      </c>
-      <c r="T60" s="7" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="61" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="B61" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>746</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>752</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>747</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>154</v>
@@ -10161,39 +10161,39 @@
         <v>117</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="S61" s="7" t="s">
         <v>155</v>
       </c>
       <c r="T61" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="62" spans="1:34" ht="119" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="F62" s="7" t="s">
         <v>764</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>763</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>765</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>200</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>170</v>
@@ -10208,22 +10208,22 @@
         <v>204</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="R62" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="S62" s="7" t="s">
         <v>767</v>
       </c>
-      <c r="S62" s="7" t="s">
+      <c r="T62" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="V62" s="10" t="s">
+        <v>856</v>
+      </c>
+      <c r="X62" s="7" t="s">
         <v>768</v>
-      </c>
-      <c r="T62" s="7" t="s">
-        <v>701</v>
-      </c>
-      <c r="V62" s="10" t="s">
-        <v>857</v>
-      </c>
-      <c r="X62" s="7" t="s">
-        <v>769</v>
       </c>
       <c r="Y62" s="7" t="s">
         <v>64</v>
@@ -10235,30 +10235,30 @@
         <v>1906</v>
       </c>
       <c r="AH62" s="16" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="63" spans="1:34" ht="119" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>778</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>776</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>772</v>
-      </c>
-      <c r="G63" s="7" t="s">
+      <c r="H63" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="H63" s="7" t="s">
-        <v>775</v>
-      </c>
       <c r="I63" s="7" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="L63" s="7" t="s">
         <v>117</v>
@@ -10270,28 +10270,28 @@
         <v>204</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="R63" s="7" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="S63" s="7">
         <v>1910</v>
       </c>
       <c r="T63" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="V63" s="10" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="X63" s="7" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="Y63" s="7" t="s">
         <v>64</v>
       </c>
       <c r="AC63" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AG63" s="7">
         <v>1910</v>
@@ -10302,22 +10302,22 @@
     </row>
     <row r="64" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>783</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>795</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>784</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>386</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>170</v>
@@ -10332,36 +10332,36 @@
         <v>204</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="R64" s="7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="S64" s="7" t="s">
         <v>368</v>
       </c>
       <c r="T64" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="65" spans="1:34" ht="119" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>788</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>778</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>796</v>
-      </c>
-      <c r="F65" s="7" t="s">
+      <c r="G65" s="7" t="s">
         <v>789</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="H65" s="7" t="s">
         <v>790</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>791</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>170</v>
@@ -10376,28 +10376,28 @@
         <v>204</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="R65" s="7" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="S65" s="7">
         <v>1923</v>
       </c>
       <c r="T65" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="V65" s="10" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="X65" s="7" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="Y65" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AC65" s="7" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AG65" s="7">
         <v>1923</v>
@@ -10408,22 +10408,22 @@
     </row>
     <row r="66" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>797</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="C66" s="7" t="s">
+      <c r="F66" s="7" t="s">
         <v>798</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="G66" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="H66" s="7" t="s">
         <v>799</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>790</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>800</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>170</v>
@@ -10438,36 +10438,36 @@
         <v>204</v>
       </c>
       <c r="Q66" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="R66" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="R66" s="7" t="s">
+      <c r="S66" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="S66" s="7" t="s">
-        <v>803</v>
-      </c>
       <c r="T66" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="67" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G67" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="H67" s="7" t="s">
         <v>804</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>805</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>170</v>
@@ -10476,7 +10476,7 @@
         <v>117</v>
       </c>
       <c r="M67" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="O67" s="7" t="s">
         <v>44</v>
@@ -10485,36 +10485,36 @@
         <v>204</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="R67" s="7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="S67" s="7">
         <v>1903</v>
       </c>
       <c r="T67" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="68" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G68" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="H68" s="7" t="s">
         <v>810</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>811</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>170</v>
@@ -10529,51 +10529,51 @@
         <v>204</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="R68" s="7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="S68" s="7" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="T68" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="V68" s="7" t="s">
         <v>495</v>
       </c>
       <c r="X68" s="7" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AG68" s="7">
         <v>1903</v>
       </c>
       <c r="AH68" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="69" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L69" s="7" t="s">
         <v>117</v>
@@ -10585,13 +10585,13 @@
         <v>497</v>
       </c>
       <c r="Q69" s="17" t="s">
+        <v>859</v>
+      </c>
+      <c r="R69" s="17" t="s">
         <v>860</v>
       </c>
-      <c r="R69" s="17" t="s">
-        <v>861</v>
-      </c>
       <c r="S69" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="T69" s="17" t="s">
         <v>44</v>
@@ -10599,25 +10599,25 @@
     </row>
     <row r="70" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A70" s="17" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G70" s="17" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="I70" s="17" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="L70" s="7" t="s">
         <v>117</v>
@@ -10629,36 +10629,36 @@
         <v>497</v>
       </c>
       <c r="Q70" s="17" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="R70" s="17" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="S70" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="T70" s="17" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="71" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A71" s="17" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="I71" s="17" t="s">
         <v>170</v>
@@ -10667,22 +10667,22 @@
         <v>117</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="Q71" s="17"/>
       <c r="R71" s="17"/>
       <c r="T71" s="17"/>
       <c r="V71" s="10" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="X71" s="7" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="Y71" s="7" t="s">
         <v>33</v>
       </c>
       <c r="AC71" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AG71" s="7">
         <v>1894</v>
@@ -10693,25 +10693,25 @@
     </row>
     <row r="72" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" s="17" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I72" s="17" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="L72" s="7" t="s">
         <v>117</v>
@@ -10723,39 +10723,39 @@
         <v>497</v>
       </c>
       <c r="Q72" s="17" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="R72" s="17" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="S72" s="7" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="T72" s="17" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="73" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="17" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I73" s="17" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>117</v>
@@ -10767,36 +10767,36 @@
         <v>497</v>
       </c>
       <c r="Q73" s="17" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="R73" s="17" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="S73" s="7" t="s">
         <v>368</v>
       </c>
       <c r="T73" s="17" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="74" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>917</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="C74" s="7" t="s">
+      <c r="F74" s="7" t="s">
         <v>918</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="G74" s="7" t="s">
         <v>919</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="H74" s="7" t="s">
         <v>920</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>921</v>
       </c>
       <c r="I74" s="17" t="s">
         <v>170</v>
@@ -10808,10 +10808,10 @@
         <v>116</v>
       </c>
       <c r="V74" s="10" t="s">
+        <v>921</v>
+      </c>
+      <c r="X74" s="7" t="s">
         <v>922</v>
-      </c>
-      <c r="X74" s="7" t="s">
-        <v>923</v>
       </c>
       <c r="Y74" s="7" t="s">
         <v>33</v>
@@ -10820,22 +10820,22 @@
         <v>64</v>
       </c>
       <c r="AA74" s="7" t="s">
+        <v>923</v>
+      </c>
+      <c r="AB74" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="AB74" s="7" t="s">
+      <c r="AC74" s="7" t="s">
         <v>925</v>
       </c>
-      <c r="AC74" s="7" t="s">
+      <c r="AD74" s="7" t="s">
         <v>926</v>
       </c>
-      <c r="AD74" s="7" t="s">
+      <c r="AE74" s="7" t="s">
         <v>927</v>
       </c>
-      <c r="AE74" s="7" t="s">
+      <c r="AF74" s="7" t="s">
         <v>928</v>
-      </c>
-      <c r="AF74" s="7" t="s">
-        <v>929</v>
       </c>
       <c r="AG74" s="7">
         <v>1877</v>
@@ -10846,22 +10846,22 @@
     </row>
     <row r="75" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A75" s="17" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="G75" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="H75" s="7" t="s">
         <v>999</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>1000</v>
       </c>
       <c r="I75" s="18" t="s">
         <v>170</v>
@@ -10870,19 +10870,19 @@
         <v>117</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="T75" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="X75" s="17"/>
       <c r="AB75" s="1"/>
@@ -10890,22 +10890,22 @@
     </row>
     <row r="76" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="I76" s="18" t="s">
         <v>170</v>
@@ -10919,10 +10919,10 @@
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
       <c r="V76" s="10" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="X76" s="17" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="Y76" s="17" t="s">
         <v>64</v>
@@ -10931,7 +10931,7 @@
         <v>204</v>
       </c>
       <c r="AC76" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="AG76" s="1">
         <v>1996</v>
@@ -10942,44 +10942,44 @@
     </row>
     <row r="77" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A77" s="17" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I77" s="18" t="s">
         <v>170</v>
       </c>
       <c r="L77" s="17" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="O77" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="P77" s="7" t="s">
         <v>989</v>
       </c>
-      <c r="P77" s="7" t="s">
-        <v>990</v>
-      </c>
       <c r="Q77" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="R77" s="1"/>
       <c r="S77" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="T77" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="X77" s="17"/>
       <c r="AC77" s="1"/>
@@ -10987,22 +10987,22 @@
     </row>
     <row r="78" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A78" s="17" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I78" s="18" t="s">
         <v>170</v>
@@ -11011,20 +11011,20 @@
         <v>117</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="R78" s="1"/>
       <c r="S78" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="T78" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="X78" s="17"/>
       <c r="AC78" s="1"/>
@@ -11032,44 +11032,44 @@
     </row>
     <row r="79" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="17" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I79" s="17" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="L79" s="17" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="P79" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="Q79" s="1" t="s">
         <v>993</v>
-      </c>
-      <c r="Q79" s="1" t="s">
-        <v>994</v>
       </c>
       <c r="R79" s="1"/>
       <c r="S79" s="1">
         <v>1905</v>
       </c>
       <c r="T79" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="X79" s="17"/>
       <c r="AC79" s="1"/>
@@ -11077,25 +11077,25 @@
     </row>
     <row r="80" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A80" s="17" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="G80" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H80" s="7" t="s">
         <v>1010</v>
       </c>
-      <c r="H80" s="7" t="s">
-        <v>1011</v>
-      </c>
       <c r="I80" s="17" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="L80" s="7" t="s">
         <v>117</v>
@@ -11106,45 +11106,45 @@
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
       <c r="V80" s="17" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="X80" s="17" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="Y80" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AC80" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AG80" s="1">
         <v>1910</v>
       </c>
       <c r="AH80" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="81" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A81" s="17" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C81" s="17" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H81" s="7" t="s">
         <v>1007</v>
       </c>
-      <c r="F81" s="7" t="s">
-        <v>936</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>1008</v>
-      </c>
       <c r="I81" s="17" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="L81" s="7" t="s">
         <v>117</v>
@@ -11156,16 +11156,16 @@
         <v>64</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="T81" s="17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="X81" s="17"/>
       <c r="AC81" s="1"/>
@@ -11173,37 +11173,37 @@
     </row>
     <row r="82" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A82" s="17" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I82" s="17" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="L82" s="7" t="s">
         <v>117</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="R82" s="1">
         <v>909.01310000000001</v>
@@ -11212,7 +11212,7 @@
         <v>1894</v>
       </c>
       <c r="T82" s="17" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="X82" s="17"/>
       <c r="AC82" s="1"/>
@@ -11220,25 +11220,25 @@
     </row>
     <row r="83" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A83" s="17" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="G83" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H83" s="7" t="s">
         <v>1013</v>
       </c>
-      <c r="H83" s="7" t="s">
-        <v>1014</v>
-      </c>
       <c r="I83" s="17" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="L83" s="7" t="s">
         <v>117</v>
@@ -11248,42 +11248,42 @@
       </c>
       <c r="Q83" s="1"/>
       <c r="V83" s="17" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="X83" s="17" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Y83" s="17" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="AC83" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="AG83" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="AH83" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="84" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>703</v>
+      </c>
+      <c r="C84" s="7" t="s">
         <v>1125</v>
       </c>
-      <c r="B84" s="17" t="s">
-        <v>704</v>
-      </c>
-      <c r="C84" s="7" t="s">
+      <c r="F84" s="7" t="s">
         <v>1126</v>
       </c>
-      <c r="F84" s="7" t="s">
-        <v>1127</v>
-      </c>
       <c r="G84" s="7" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H84" s="7" t="s">
         <v>1131</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>1132</v>
       </c>
       <c r="I84" s="7" t="s">
         <v>170</v>
@@ -11295,16 +11295,16 @@
         <v>116</v>
       </c>
       <c r="V84" s="10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="X84" s="7" t="s">
         <v>1128</v>
-      </c>
-      <c r="X84" s="7" t="s">
-        <v>1129</v>
       </c>
       <c r="Y84" s="7" t="s">
         <v>64</v>
       </c>
       <c r="AC84" s="7" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="AG84" s="7">
         <v>1912</v>
@@ -11315,25 +11315,25 @@
     </row>
     <row r="85" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>1163</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="F85" s="7" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>1180</v>
+      </c>
+      <c r="I85" s="7" t="s">
         <v>1170</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>1164</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>1165</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>1180</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>1181</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>1171</v>
       </c>
       <c r="L85" s="7" t="s">
         <v>117</v>
@@ -11345,10 +11345,10 @@
         <v>64</v>
       </c>
       <c r="Q85" s="7" t="s">
+        <v>1173</v>
+      </c>
+      <c r="R85" s="7" t="s">
         <v>1174</v>
-      </c>
-      <c r="R85" s="7" t="s">
-        <v>1175</v>
       </c>
       <c r="S85" s="7">
         <v>1890</v>
@@ -11359,19 +11359,19 @@
     </row>
     <row r="86" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="B86" s="7" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C86" s="7" t="s">
         <v>1168</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>1169</v>
-      </c>
       <c r="F86" s="7" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G86" s="7" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H86" s="7" t="s">
         <v>1186</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>1187</v>
       </c>
       <c r="I86" s="7" t="s">
         <v>643</v>
@@ -11383,16 +11383,16 @@
         <v>612</v>
       </c>
       <c r="P86" s="7" t="s">
+        <v>1171</v>
+      </c>
+      <c r="Q86" s="7" t="s">
         <v>1172</v>
       </c>
-      <c r="Q86" s="7" t="s">
-        <v>1173</v>
-      </c>
       <c r="R86" s="7" t="s">
+        <v>1175</v>
+      </c>
+      <c r="S86" s="7" t="s">
         <v>1176</v>
-      </c>
-      <c r="S86" s="7" t="s">
-        <v>1177</v>
       </c>
       <c r="T86" s="7" t="s">
         <v>635</v>
@@ -11400,19 +11400,19 @@
     </row>
     <row r="87" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="B87" s="7" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="I87" s="7" t="s">
         <v>643</v>
@@ -11424,16 +11424,16 @@
         <v>612</v>
       </c>
       <c r="P87" s="7" t="s">
+        <v>1171</v>
+      </c>
+      <c r="Q87" s="7" t="s">
         <v>1172</v>
       </c>
-      <c r="Q87" s="7" t="s">
-        <v>1173</v>
-      </c>
       <c r="R87" s="7" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="S87" s="7" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="T87" s="7" t="s">
         <v>635</v>
@@ -11441,28 +11441,28 @@
     </row>
     <row r="88" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C88" s="7" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>1230</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>1231</v>
-      </c>
       <c r="F88" s="7" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="G88" s="7" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H88" s="7" t="s">
         <v>1226</v>
       </c>
-      <c r="H88" s="7" t="s">
-        <v>1227</v>
-      </c>
       <c r="I88" s="7" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="J88" s="7" t="s">
         <v>170</v>
@@ -11474,42 +11474,42 @@
         <v>44</v>
       </c>
       <c r="P88" s="7" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q88" s="7" t="s">
+        <v>1202</v>
+      </c>
+      <c r="R88" s="7" t="s">
         <v>1203</v>
       </c>
-      <c r="R88" s="7" t="s">
-        <v>1204</v>
-      </c>
       <c r="S88" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="T88" s="7" t="s">
         <v>1223</v>
-      </c>
-      <c r="T88" s="7" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="89" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="L89" s="7" t="s">
         <v>117</v>
@@ -11518,42 +11518,42 @@
         <v>44</v>
       </c>
       <c r="P89" s="7" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="R89" s="7" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="S89" s="7" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="T89" s="7" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="90" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="L90" s="7" t="s">
         <v>117</v>
@@ -11562,42 +11562,42 @@
         <v>44</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="R90" s="7" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="S90" s="7" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="T90" s="7" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="91" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="L91" s="7" t="s">
         <v>117</v>
@@ -11606,36 +11606,36 @@
         <v>44</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="R91" s="7" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="S91" s="7" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="T91" s="7" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="92" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C92" s="11" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>1218</v>
       </c>
-      <c r="D92" s="7" t="s">
-        <v>1219</v>
-      </c>
       <c r="F92" s="7" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>101</v>
@@ -11653,13 +11653,13 @@
         <v>44</v>
       </c>
       <c r="P92" s="7" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="R92" s="7" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="S92" s="7">
         <v>1874</v>
@@ -11670,28 +11670,28 @@
     </row>
     <row r="93" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C93" s="7" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>1216</v>
       </c>
-      <c r="D93" s="7" t="s">
-        <v>1217</v>
-      </c>
       <c r="F93" s="7" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="G93" s="7" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H93" s="7" t="s">
         <v>1212</v>
       </c>
-      <c r="H93" s="7" t="s">
+      <c r="I93" s="7" t="s">
         <v>1213</v>
-      </c>
-      <c r="I93" s="7" t="s">
-        <v>1214</v>
       </c>
       <c r="L93" s="7" t="s">
         <v>117</v>
@@ -11700,16 +11700,16 @@
         <v>44</v>
       </c>
       <c r="P93" s="7" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="Q93" s="7" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="R93" s="7" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="S93" s="7" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="T93" s="7" t="s">
         <v>64</v>
@@ -11717,78 +11717,78 @@
     </row>
     <row r="94" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B94" s="7" t="s">
         <v>1254</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="C94" s="7" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>962</v>
+      </c>
+      <c r="H94" s="7" t="s">
         <v>1255</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>1253</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>1251</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>963</v>
-      </c>
-      <c r="H94" s="7" t="s">
-        <v>1256</v>
       </c>
       <c r="I94" s="7" t="s">
         <v>170</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="O94" s="7" t="s">
         <v>44</v>
       </c>
       <c r="P94" s="7" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="Q94" s="7" t="s">
+        <v>1256</v>
+      </c>
+      <c r="R94" s="7" t="s">
         <v>1257</v>
       </c>
-      <c r="R94" s="7" t="s">
+      <c r="S94" s="7" t="s">
         <v>1258</v>
       </c>
-      <c r="S94" s="7" t="s">
-        <v>1259</v>
-      </c>
       <c r="T94" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="95" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="B95" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H95" s="7" t="s">
+        <v>1262</v>
+      </c>
+      <c r="I95" s="7" t="s">
         <v>1263</v>
-      </c>
-      <c r="I95" s="7" t="s">
-        <v>1264</v>
       </c>
       <c r="L95" s="7" t="s">
         <v>117</v>
       </c>
       <c r="R95" s="7" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="S95" s="7">
         <v>1890</v>
       </c>
       <c r="T95" s="7" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
   </sheetData>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99184DB4-C0DF-C542-81BF-DE4A4A254217}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB386C3A-C71A-5D49-9D7F-AD51B7DA91A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="8800" windowWidth="25020" windowHeight="7920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="1268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="1302">
   <si>
     <t>liv_000017</t>
   </si>
@@ -3850,6 +3850,108 @@
   </si>
   <si>
     <t>Nehemiah Sekhonyana Moshoeshoe, 1824-1906</t>
+  </si>
+  <si>
+    <t>liv_021092</t>
+  </si>
+  <si>
+    <t>liv_021093</t>
+  </si>
+  <si>
+    <t>liv_021094</t>
+  </si>
+  <si>
+    <t>liv_021095</t>
+  </si>
+  <si>
+    <t>liv_021096</t>
+  </si>
+  <si>
+    <t>https://www.liverpoolmuseums.org.uk/artifact/hat</t>
+  </si>
+  <si>
+    <t>https://www.liverpoolmuseums.org.uk/artifact/mat-1</t>
+  </si>
+  <si>
+    <t>https://www.liverpoolmuseums.org.uk/artifact/mat-2</t>
+  </si>
+  <si>
+    <t>https://www.liverpoolmuseums.org.uk/artifact/gourd-bowl</t>
+  </si>
+  <si>
+    <t>https://www.liverpoolmuseums.org.uk/artifact/robe-riga</t>
+  </si>
+  <si>
+    <t>Large plaited palm leaf mat in plain and ochre-red, decorated with six broad, zig-zag bands in ochre-red colour running horizontally.</t>
+  </si>
+  <si>
+    <t>Anonymous Hausa Artist</t>
+  </si>
+  <si>
+    <t>household objects</t>
+  </si>
+  <si>
+    <t>Before 1860</t>
+  </si>
+  <si>
+    <t>20.11.60.5</t>
+  </si>
+  <si>
+    <t>20.11.60.4</t>
+  </si>
+  <si>
+    <t>Large plaited palm leaf travelling mat, plain and undyed except for black, red-ochre, and plain decorative boarder strip running round the edges of the mat.</t>
+  </si>
+  <si>
+    <t>Northern Nigeria</t>
+  </si>
+  <si>
+    <t>containers</t>
+  </si>
+  <si>
+    <t>Anonymous Nupe Artist</t>
+  </si>
+  <si>
+    <t>Tabarme [Country Mat], Collected by Selim Aga</t>
+  </si>
+  <si>
+    <t>Bowl made from half a gourd, decorated with engraved linear motifs and geometric designs on the exterior that appear originally to have been whitened with clay.</t>
+  </si>
+  <si>
+    <t>textiles</t>
+  </si>
+  <si>
+    <t>20.11.60.2</t>
+  </si>
+  <si>
+    <t>20.11.60.3</t>
+  </si>
+  <si>
+    <t>Bida, Northern Nigeria</t>
+  </si>
+  <si>
+    <t>Gray robe with multiple embroidery designs at its center.</t>
+  </si>
+  <si>
+    <t>Tabarme [Country Mat] (Collected by Selim Aga)</t>
+  </si>
+  <si>
+    <t>K'warya [Circular Calabash] (Collected by Selim Aga)</t>
+  </si>
+  <si>
+    <t>Habega [Country Robe]  (Collected by Selim Aga)</t>
+  </si>
+  <si>
+    <t>Ilorin, Kwara State, Nigeria</t>
+  </si>
+  <si>
+    <t>20.11.60.1</t>
+  </si>
+  <si>
+    <t>Malfa [Straw Hat] (Collected by Selim Aga)</t>
+  </si>
+  <si>
+    <t>Brown-gray hat with beige rim made of vegetal fibre and leather.</t>
   </si>
 </sst>
 </file>
@@ -4339,7 +4441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97A9DD5-2802-8C46-B4DE-35FF576EF7FC}">
   <dimension ref="A1:AL80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
@@ -7597,11 +7699,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ95"/>
+  <dimension ref="A1:AQ100"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T95" sqref="T95"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11791,9 +11893,229 @@
         <v>1266</v>
       </c>
     </row>
+    <row r="96" spans="1:34" ht="85" x14ac:dyDescent="0.2">
+      <c r="A96" s="7" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>1279</v>
+      </c>
+      <c r="L96" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M96" s="11" t="s">
+        <v>1290</v>
+      </c>
+      <c r="O96" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="P96" s="7" t="s">
+        <v>1171</v>
+      </c>
+      <c r="Q96" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="R96" s="7" t="s">
+        <v>1299</v>
+      </c>
+      <c r="S96" s="7" t="s">
+        <v>1281</v>
+      </c>
+      <c r="T96" s="7" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" ht="85" x14ac:dyDescent="0.2">
+      <c r="A97" s="7" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>1287</v>
+      </c>
+      <c r="L97" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M97" s="11" t="s">
+        <v>1290</v>
+      </c>
+      <c r="O97" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="P97" s="7" t="s">
+        <v>1171</v>
+      </c>
+      <c r="Q97" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="R97" s="7" t="s">
+        <v>1291</v>
+      </c>
+      <c r="S97" s="7" t="s">
+        <v>1281</v>
+      </c>
+      <c r="T97" s="7" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" ht="85" x14ac:dyDescent="0.2">
+      <c r="A98" s="7" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>1287</v>
+      </c>
+      <c r="L98" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M98" s="11" t="s">
+        <v>1286</v>
+      </c>
+      <c r="O98" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="P98" s="7" t="s">
+        <v>1171</v>
+      </c>
+      <c r="Q98" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="R98" s="7" t="s">
+        <v>1292</v>
+      </c>
+      <c r="S98" s="7" t="s">
+        <v>1281</v>
+      </c>
+      <c r="T98" s="7" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" ht="85" x14ac:dyDescent="0.2">
+      <c r="A99" s="7" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>1279</v>
+      </c>
+      <c r="L99" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M99" s="11" t="s">
+        <v>1280</v>
+      </c>
+      <c r="O99" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="P99" s="7" t="s">
+        <v>1171</v>
+      </c>
+      <c r="Q99" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="R99" s="7" t="s">
+        <v>1283</v>
+      </c>
+      <c r="S99" s="7" t="s">
+        <v>1281</v>
+      </c>
+      <c r="T99" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" ht="85" x14ac:dyDescent="0.2">
+      <c r="A100" s="7" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>1279</v>
+      </c>
+      <c r="L100" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M100" s="11" t="s">
+        <v>1280</v>
+      </c>
+      <c r="O100" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="P100" s="7" t="s">
+        <v>1171</v>
+      </c>
+      <c r="Q100" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="R100" s="7" t="s">
+        <v>1282</v>
+      </c>
+      <c r="S100" s="7" t="s">
+        <v>1281</v>
+      </c>
+      <c r="T100" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:AQ36">
-    <sortCondition ref="F2:F36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A96:AQ100">
+    <sortCondition descending="1" ref="F96:F100"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB386C3A-C71A-5D49-9D7F-AD51B7DA91A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB6D974-5D7A-F645-AE50-0C9C74292560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="8800" windowWidth="25020" windowHeight="7920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="9200" windowWidth="25020" windowHeight="6800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="1302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="1309">
   <si>
     <t>liv_000017</t>
   </si>
@@ -3939,9 +3939,6 @@
     <t>K'warya [Circular Calabash] (Collected by Selim Aga)</t>
   </si>
   <si>
-    <t>Habega [Country Robe]  (Collected by Selim Aga)</t>
-  </si>
-  <si>
     <t>Ilorin, Kwara State, Nigeria</t>
   </si>
   <si>
@@ -3952,6 +3949,30 @@
   </si>
   <si>
     <t>Brown-gray hat with beige rim made of vegetal fibre and leather.</t>
+  </si>
+  <si>
+    <t>World Museum, National Museums Liverpool</t>
+  </si>
+  <si>
+    <t>Used by permission. Rights reserved. Contact the Photography Department, National Museums Liverpool (https://www.liverpoolmuseums.org.uk/contact) for permission to reuse this image.</t>
+  </si>
+  <si>
+    <t>Malfa [Straw Hat] (Collected by Selim Aga), Before 1860</t>
+  </si>
+  <si>
+    <t>Habega [Country Robe]  (Collected by Selim Aga), Before 1860</t>
+  </si>
+  <si>
+    <t>K'warya [Circular Calabash] (Collected by Selim Aga), Before 1860</t>
+  </si>
+  <si>
+    <t>Tabarme [Country Mat] (Collected by Selim Aga), Before 1860</t>
+  </si>
+  <si>
+    <t>Tabarme [Country Mat], Collected by Selim Aga, Before 1860</t>
+  </si>
+  <si>
+    <t>Habega [Country Robe] (Collected by Selim Aga)</t>
   </si>
 </sst>
 </file>
@@ -7701,9 +7722,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H100" sqref="H100"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11898,18 +11919,21 @@
         <v>1273</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>1167</v>
+        <v>1302</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="F96" s="7" t="s">
         <v>1268</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H96" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="I96" s="7" t="s">
         <v>1279</v>
       </c>
       <c r="L96" s="7" t="s">
@@ -11925,16 +11949,16 @@
         <v>1171</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>1172</v>
+        <v>1301</v>
       </c>
       <c r="R96" s="7" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="S96" s="7" t="s">
         <v>1281</v>
       </c>
       <c r="T96" s="7" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="97" spans="1:20" ht="85" x14ac:dyDescent="0.2">
@@ -11942,7 +11966,7 @@
         <v>1277</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>1167</v>
+        <v>1302</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>1294</v>
@@ -11951,9 +11975,12 @@
         <v>1269</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>1297</v>
+        <v>1308</v>
       </c>
       <c r="H97" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I97" s="7" t="s">
         <v>1287</v>
       </c>
       <c r="L97" s="7" t="s">
@@ -11969,7 +11996,7 @@
         <v>1171</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>1172</v>
+        <v>1301</v>
       </c>
       <c r="R97" s="7" t="s">
         <v>1291</v>
@@ -11986,7 +12013,7 @@
         <v>1276</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>1167</v>
+        <v>1302</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>1289</v>
@@ -11998,6 +12025,9 @@
         <v>1296</v>
       </c>
       <c r="H98" s="7" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I98" s="7" t="s">
         <v>1287</v>
       </c>
       <c r="L98" s="7" t="s">
@@ -12013,7 +12043,7 @@
         <v>1171</v>
       </c>
       <c r="Q98" s="7" t="s">
-        <v>1172</v>
+        <v>1301</v>
       </c>
       <c r="R98" s="7" t="s">
         <v>1292</v>
@@ -12030,7 +12060,7 @@
         <v>1275</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>1167</v>
+        <v>1302</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>1284</v>
@@ -12042,6 +12072,9 @@
         <v>1295</v>
       </c>
       <c r="H99" s="7" t="s">
+        <v>1306</v>
+      </c>
+      <c r="I99" s="7" t="s">
         <v>1279</v>
       </c>
       <c r="L99" s="7" t="s">
@@ -12057,7 +12090,7 @@
         <v>1171</v>
       </c>
       <c r="Q99" s="7" t="s">
-        <v>1172</v>
+        <v>1301</v>
       </c>
       <c r="R99" s="7" t="s">
         <v>1283</v>
@@ -12074,7 +12107,7 @@
         <v>1274</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>1167</v>
+        <v>1302</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>1278</v>
@@ -12086,6 +12119,9 @@
         <v>1288</v>
       </c>
       <c r="H100" s="7" t="s">
+        <v>1307</v>
+      </c>
+      <c r="I100" s="7" t="s">
         <v>1279</v>
       </c>
       <c r="L100" s="7" t="s">
@@ -12101,7 +12137,7 @@
         <v>1171</v>
       </c>
       <c r="Q100" s="7" t="s">
-        <v>1172</v>
+        <v>1301</v>
       </c>
       <c r="R100" s="7" t="s">
         <v>1282</v>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB6D974-5D7A-F645-AE50-0C9C74292560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51D0D9B-CA11-1746-83E0-6D787D24B08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="9200" windowWidth="25020" windowHeight="6800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
@@ -3303,16 +3303,10 @@
     <t>liv_020084</t>
   </si>
   <si>
-    <t>Letter to Frederick William Chesson, 31 August</t>
-  </si>
-  <si>
     <t>Nichol, Elizabeth Pease, 1807-1897</t>
   </si>
   <si>
     <t>MSS. Brit. Emp. S. 18, C129/131</t>
-  </si>
-  <si>
-    <t>31 August</t>
   </si>
   <si>
     <t>Huntly Lodge Edinburgh</t>
@@ -3973,6 +3967,12 @@
   </si>
   <si>
     <t>Habega [Country Robe] (Collected by Selim Aga)</t>
+  </si>
+  <si>
+    <t>Letter to Frederick William Chesson, 31 August [1882?]</t>
+  </si>
+  <si>
+    <t>31 August [1882?]</t>
   </si>
 </sst>
 </file>
@@ -4462,9 +4462,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97A9DD5-2802-8C46-B4DE-35FF576EF7FC}">
   <dimension ref="A1:AL80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q69" sqref="Q69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5427,7 +5427,7 @@
         <v>447</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>115</v>
@@ -5581,7 +5581,7 @@
         <v>452</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>464</v>
@@ -5590,7 +5590,7 @@
         <v>178</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>115</v>
@@ -6043,7 +6043,7 @@
         <v>664</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>667</v>
@@ -6171,19 +6171,19 @@
     </row>
     <row r="46" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="D46" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>1140</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>1142</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>429</v>
@@ -6192,7 +6192,7 @@
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
       <c r="T46" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="U46" s="1">
         <v>18</v>
@@ -6201,24 +6201,24 @@
         <v>3</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="X46" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="47" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>1189</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>1190</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>1191</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>429</v>
@@ -6233,7 +6233,7 @@
         <v>12</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="48" spans="1:38" ht="187" x14ac:dyDescent="0.2">
@@ -6466,34 +6466,34 @@
     </row>
     <row r="54" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>1149</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="J54" s="1" t="s">
         <v>1159</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>1161</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>429</v>
@@ -6508,24 +6508,24 @@
         <v>5</v>
       </c>
       <c r="X54" s="1" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="55" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>1150</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>664</v>
@@ -6540,10 +6540,10 @@
         <v>76</v>
       </c>
       <c r="W55" s="5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="X55" s="1" t="s">
         <v>1153</v>
-      </c>
-      <c r="X55" s="1" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="56" spans="1:38" ht="51" x14ac:dyDescent="0.2">
@@ -6695,10 +6695,10 @@
         <v>1035</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>1036</v>
@@ -7169,10 +7169,10 @@
         <v>1047</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>1086</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>1087</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>115</v>
@@ -7187,13 +7187,13 @@
         <v>472</v>
       </c>
       <c r="P69" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="Q69" s="5" t="s">
+        <v>1308</v>
+      </c>
+      <c r="R69" s="1" t="s">
         <v>1088</v>
-      </c>
-      <c r="Q69" s="5" t="s">
-        <v>1089</v>
-      </c>
-      <c r="R69" s="1" t="s">
-        <v>1090</v>
       </c>
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
@@ -7211,13 +7211,13 @@
     </row>
     <row r="70" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>1047</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>1043</v>
@@ -7235,13 +7235,13 @@
         <v>472</v>
       </c>
       <c r="P70" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="R70" s="1" t="s">
         <v>1093</v>
-      </c>
-      <c r="Q70" s="1" t="s">
-        <v>1094</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>1095</v>
       </c>
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
@@ -7259,13 +7259,13 @@
     </row>
     <row r="71" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>1047</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>1043</v>
@@ -7283,13 +7283,13 @@
         <v>472</v>
       </c>
       <c r="P71" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="R71" s="1" t="s">
         <v>1098</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>1099</v>
-      </c>
-      <c r="R71" s="1" t="s">
-        <v>1100</v>
       </c>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
@@ -7307,16 +7307,16 @@
     </row>
     <row r="72" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>1103</v>
-      </c>
       <c r="D72" s="1" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>115</v>
@@ -7331,13 +7331,13 @@
         <v>472</v>
       </c>
       <c r="P72" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="R72" s="1" t="s">
         <v>1104</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>1105</v>
-      </c>
-      <c r="R72" s="1" t="s">
-        <v>1106</v>
       </c>
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
@@ -7355,13 +7355,13 @@
     </row>
     <row r="73" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>1053</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>1025</v>
@@ -7379,13 +7379,13 @@
         <v>472</v>
       </c>
       <c r="P73" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="R73" s="1" t="s">
         <v>1109</v>
-      </c>
-      <c r="Q73" s="1" t="s">
-        <v>1110</v>
-      </c>
-      <c r="R73" s="1" t="s">
-        <v>1111</v>
       </c>
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
@@ -7403,13 +7403,13 @@
     </row>
     <row r="74" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>1053</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>1043</v>
@@ -7427,10 +7427,10 @@
         <v>472</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="R74" s="1" t="s">
         <v>1083</v>
@@ -7451,13 +7451,13 @@
     </row>
     <row r="75" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>1053</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>1043</v>
@@ -7475,13 +7475,13 @@
         <v>472</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
@@ -7499,13 +7499,13 @@
     </row>
     <row r="76" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>1053</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>1043</v>
@@ -7523,13 +7523,13 @@
         <v>472</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
@@ -7547,13 +7547,13 @@
     </row>
     <row r="77" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>1023</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>1043</v>
@@ -7574,7 +7574,7 @@
         <v>1084</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="R77" s="1" t="s">
         <v>1083</v>
@@ -7595,16 +7595,16 @@
     </row>
     <row r="78" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>1023</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>115</v>
@@ -7622,7 +7622,7 @@
         <v>1084</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
@@ -7640,13 +7640,13 @@
     </row>
     <row r="79" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>658</v>
@@ -7664,24 +7664,24 @@
         <v>65</v>
       </c>
       <c r="P79" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="Q79" s="1" t="s">
         <v>1242</v>
       </c>
-      <c r="Q79" s="1" t="s">
-        <v>1244</v>
-      </c>
       <c r="R79" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="80" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>658</v>
@@ -7699,10 +7699,10 @@
         <v>65</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="R80" s="1" t="s">
         <v>156</v>
@@ -7722,9 +7722,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F97" sqref="F97"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7997,7 +7997,7 @@
         <v>529</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>77</v>
@@ -11391,22 +11391,22 @@
     </row>
     <row r="84" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B84" s="17" t="s">
         <v>703</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="I84" s="7" t="s">
         <v>170</v>
@@ -11418,16 +11418,16 @@
         <v>116</v>
       </c>
       <c r="V84" s="10" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="X84" s="7" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="Y84" s="7" t="s">
         <v>64</v>
       </c>
       <c r="AC84" s="7" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="AG84" s="7">
         <v>1912</v>
@@ -11438,25 +11438,25 @@
     </row>
     <row r="85" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F85" s="7" t="s">
         <v>1162</v>
       </c>
-      <c r="B85" s="7" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>1163</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>1164</v>
-      </c>
       <c r="G85" s="7" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="L85" s="7" t="s">
         <v>117</v>
@@ -11468,10 +11468,10 @@
         <v>64</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="R85" s="7" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="S85" s="7">
         <v>1890</v>
@@ -11482,19 +11482,19 @@
     </row>
     <row r="86" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="B86" s="7" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="I86" s="7" t="s">
         <v>643</v>
@@ -11506,16 +11506,16 @@
         <v>612</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="R86" s="7" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="S86" s="7" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="T86" s="7" t="s">
         <v>635</v>
@@ -11523,19 +11523,19 @@
     </row>
     <row r="87" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="B87" s="7" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="I87" s="7" t="s">
         <v>643</v>
@@ -11547,16 +11547,16 @@
         <v>612</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="R87" s="7" t="s">
+        <v>1173</v>
+      </c>
+      <c r="S87" s="7" t="s">
         <v>1175</v>
-      </c>
-      <c r="S87" s="7" t="s">
-        <v>1177</v>
       </c>
       <c r="T87" s="7" t="s">
         <v>635</v>
@@ -11564,28 +11564,28 @@
     </row>
     <row r="88" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="J88" s="7" t="s">
         <v>170</v>
@@ -11597,42 +11597,42 @@
         <v>44</v>
       </c>
       <c r="P88" s="7" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="R88" s="7" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="S88" s="7" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="T88" s="7" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="89" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="L89" s="7" t="s">
         <v>117</v>
@@ -11641,42 +11641,42 @@
         <v>44</v>
       </c>
       <c r="P89" s="7" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="Q89" s="7" t="s">
+        <v>1200</v>
+      </c>
+      <c r="R89" s="7" t="s">
         <v>1202</v>
       </c>
-      <c r="R89" s="7" t="s">
-        <v>1204</v>
-      </c>
       <c r="S89" s="7" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="T89" s="7" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="90" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C90" s="7" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H90" s="7" t="s">
         <v>1232</v>
       </c>
-      <c r="F90" s="7" t="s">
-        <v>1197</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>1228</v>
-      </c>
-      <c r="H90" s="7" t="s">
-        <v>1234</v>
-      </c>
       <c r="I90" s="7" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="L90" s="7" t="s">
         <v>117</v>
@@ -11685,42 +11685,42 @@
         <v>44</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="Q90" s="7" t="s">
+        <v>1200</v>
+      </c>
+      <c r="R90" s="7" t="s">
         <v>1202</v>
       </c>
-      <c r="R90" s="7" t="s">
-        <v>1204</v>
-      </c>
       <c r="S90" s="7" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="T90" s="7" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="91" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="L91" s="7" t="s">
         <v>117</v>
@@ -11729,36 +11729,36 @@
         <v>44</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="Q91" s="7" t="s">
+        <v>1200</v>
+      </c>
+      <c r="R91" s="7" t="s">
         <v>1202</v>
-      </c>
-      <c r="R91" s="7" t="s">
-        <v>1204</v>
       </c>
       <c r="S91" s="7" t="s">
         <v>1002</v>
       </c>
       <c r="T91" s="7" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="92" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>101</v>
@@ -11776,13 +11776,13 @@
         <v>44</v>
       </c>
       <c r="P92" s="7" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="R92" s="7" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="S92" s="7">
         <v>1874</v>
@@ -11793,28 +11793,28 @@
     </row>
     <row r="93" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G93" s="7" t="s">
         <v>1209</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>1216</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>1200</v>
-      </c>
-      <c r="G93" s="7" t="s">
+      <c r="H93" s="7" t="s">
+        <v>1210</v>
+      </c>
+      <c r="I93" s="7" t="s">
         <v>1211</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>1212</v>
-      </c>
-      <c r="I93" s="7" t="s">
-        <v>1213</v>
       </c>
       <c r="L93" s="7" t="s">
         <v>117</v>
@@ -11823,16 +11823,16 @@
         <v>44</v>
       </c>
       <c r="P93" s="7" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="Q93" s="7" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="R93" s="7" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="S93" s="7" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="T93" s="7" t="s">
         <v>64</v>
@@ -11840,43 +11840,43 @@
     </row>
     <row r="94" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>962</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="I94" s="7" t="s">
         <v>170</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="O94" s="7" t="s">
         <v>44</v>
       </c>
       <c r="P94" s="7" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="Q94" s="7" t="s">
+        <v>1254</v>
+      </c>
+      <c r="R94" s="7" t="s">
+        <v>1255</v>
+      </c>
+      <c r="S94" s="7" t="s">
         <v>1256</v>
-      </c>
-      <c r="R94" s="7" t="s">
-        <v>1257</v>
-      </c>
-      <c r="S94" s="7" t="s">
-        <v>1258</v>
       </c>
       <c r="T94" s="7" t="s">
         <v>700</v>
@@ -11887,216 +11887,216 @@
         <v>703</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>1005</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="L95" s="7" t="s">
         <v>117</v>
       </c>
       <c r="R95" s="7" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="S95" s="7">
         <v>1890</v>
       </c>
       <c r="T95" s="7" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="96" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="L96" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M96" s="11" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="O96" s="7" t="s">
         <v>612</v>
       </c>
       <c r="P96" s="7" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="R96" s="7" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="S96" s="7" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="T96" s="7" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="97" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B97" s="7" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>1306</v>
+      </c>
+      <c r="H97" s="7" t="s">
         <v>1302</v>
       </c>
-      <c r="C97" s="7" t="s">
-        <v>1294</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>1269</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>1308</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>1304</v>
-      </c>
       <c r="I97" s="7" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="L97" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M97" s="11" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="O97" s="7" t="s">
         <v>612</v>
       </c>
       <c r="P97" s="7" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="R97" s="7" t="s">
+        <v>1289</v>
+      </c>
+      <c r="S97" s="7" t="s">
+        <v>1279</v>
+      </c>
+      <c r="T97" s="7" t="s">
         <v>1291</v>
-      </c>
-      <c r="S97" s="7" t="s">
-        <v>1281</v>
-      </c>
-      <c r="T97" s="7" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="L98" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M98" s="11" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="O98" s="7" t="s">
         <v>612</v>
       </c>
       <c r="P98" s="7" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="Q98" s="7" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="R98" s="7" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="S98" s="7" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="T98" s="7" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="99" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="L99" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M99" s="11" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="O99" s="7" t="s">
         <v>612</v>
       </c>
       <c r="P99" s="7" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="Q99" s="7" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="R99" s="7" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="S99" s="7" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="T99" s="7" t="s">
         <v>635</v>
@@ -12104,46 +12104,46 @@
     </row>
     <row r="100" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="L100" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M100" s="11" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="O100" s="7" t="s">
         <v>612</v>
       </c>
       <c r="P100" s="7" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="Q100" s="7" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="R100" s="7" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="S100" s="7" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="T100" s="7" t="s">
         <v>635</v>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51D0D9B-CA11-1746-83E0-6D787D24B08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669277B5-5CA2-E84C-B8D9-262B013B1039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
@@ -4462,9 +4462,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97A9DD5-2802-8C46-B4DE-35FF576EF7FC}">
   <dimension ref="A1:AL80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q69" sqref="Q69"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E70" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5518,149 +5518,149 @@
         <v>276</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" ht="68" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="T28" s="1" t="s">
+      <c r="T30" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="W30" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="X28" s="1" t="s">
+      <c r="X30" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="31" spans="1:38" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W29" s="1">
-        <v>5</v>
-      </c>
-      <c r="X29" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="30" spans="1:38" ht="68" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="31" spans="1:38" ht="119" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>648</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="Z31" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="AD31" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="AE31" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="AI31" s="4" t="s">
-        <v>650</v>
-      </c>
-      <c r="AK31" s="4">
-        <v>1855</v>
-      </c>
-      <c r="AL31" s="4" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="32" spans="1:38" ht="34" x14ac:dyDescent="0.2">
+      <c r="T31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W31" s="1">
+        <v>5</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>593</v>
+        <v>452</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>595</v>
+        <v>1191</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>596</v>
+        <v>464</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>599</v>
+        <v>178</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>1192</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>115</v>
@@ -5669,258 +5669,249 @@
         <v>16</v>
       </c>
       <c r="N32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" ht="119" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="AD33" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="AE33" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="AI33" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="AK33" s="4">
+        <v>1855</v>
+      </c>
+      <c r="AL33" s="4" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N34" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="O34" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="P32" s="1" t="s">
+      <c r="P34" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="Q32" s="1" t="s">
+      <c r="Q34" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="R32" s="1" t="s">
+      <c r="R34" s="1" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+    <row r="35" spans="1:38" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="N35" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="O35" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="P35" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="Q33" s="1" t="s">
+      <c r="Q35" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="R33" s="1" t="s">
+      <c r="R35" s="1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="36" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="T34" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="U34" s="1">
-        <v>3</v>
-      </c>
-      <c r="V34" s="1">
-        <v>25</v>
-      </c>
-      <c r="W34" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="X34" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="35" spans="1:38" ht="51" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="U35" s="1">
-        <v>2</v>
-      </c>
-      <c r="V35" s="1">
-        <v>20</v>
-      </c>
-      <c r="W35" s="5" t="s">
-        <v>665</v>
-      </c>
-      <c r="X35" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="36" spans="1:38" ht="119" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>912</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>648</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="Z36" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="AD36" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="AE36" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="AI36" s="4" t="s">
-        <v>915</v>
-      </c>
-      <c r="AK36" s="4">
-        <v>1855</v>
-      </c>
-      <c r="AL36" s="4" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="37" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+      <c r="T36" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="U36" s="1">
+        <v>3</v>
+      </c>
+      <c r="V36" s="1">
+        <v>25</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>512</v>
+        <v>654</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>563</v>
+        <v>653</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>564</v>
+        <v>655</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>513</v>
+        <v>170</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>177</v>
+        <v>656</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>658</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P37" s="1">
-        <v>807</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>515</v>
+        <v>429</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="U37" s="1">
+        <v>2</v>
+      </c>
+      <c r="V37" s="1">
+        <v>20</v>
+      </c>
+      <c r="W37" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="38" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>516</v>
+        <v>911</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>520</v>
+        <v>912</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>528</v>
+        <v>913</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>177</v>
+        <v>648</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P38" s="1">
-        <v>807</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:38" ht="85" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="AD38" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="AE38" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="AI38" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="AK38" s="4">
+        <v>1855</v>
+      </c>
+      <c r="AL38" s="4" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>547</v>
+        <v>512</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>518</v>
+        <v>563</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>519</v>
+        <v>564</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>556</v>
+        <v>513</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>177</v>
@@ -5941,424 +5932,433 @@
         <v>807</v>
       </c>
       <c r="Q39" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38" ht="119" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P40" s="1">
+        <v>807</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38" ht="85" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P41" s="1">
+        <v>807</v>
+      </c>
+      <c r="Q41" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="R39" s="1" t="s">
+      <c r="R41" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="85" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+    <row r="42" spans="1:38" ht="85" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>829</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="T40" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="U40" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="V40" s="1">
-        <v>44</v>
-      </c>
-      <c r="W40" s="1">
-        <v>53</v>
-      </c>
-      <c r="X40" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="41" spans="1:38" ht="68" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="T41" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="U41" s="1">
-        <v>12</v>
-      </c>
-      <c r="W41" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="X41" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="42" spans="1:38" ht="51" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>662</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>663</v>
+        <v>830</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>664</v>
+        <v>170</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>1265</v>
+        <v>557</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>668</v>
+        <v>831</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>429</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>76</v>
+        <v>549</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="V42" s="1">
+        <v>44</v>
       </c>
       <c r="W42" s="1">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>666</v>
+        <v>550</v>
       </c>
     </row>
     <row r="43" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>905</v>
+        <v>558</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>906</v>
+        <v>565</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>907</v>
+        <v>566</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>264</v>
+        <v>567</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>559</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="Z43" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="AA43" s="4" t="s">
-        <v>908</v>
-      </c>
-      <c r="AD43" s="4" t="s">
-        <v>906</v>
-      </c>
-      <c r="AE43" s="4" t="s">
-        <v>909</v>
-      </c>
-      <c r="AI43" s="4" t="s">
-        <v>910</v>
-      </c>
-      <c r="AK43" s="4">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="44" spans="1:38" ht="68" x14ac:dyDescent="0.2">
+      <c r="T43" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="U43" s="1">
+        <v>12</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>878</v>
+        <v>660</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>880</v>
+        <v>661</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>881</v>
+        <v>662</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>32</v>
+        <v>170</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>668</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M44" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N44" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>890</v>
+        <v>429</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W44" s="1">
+        <v>5</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="45" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="Z45" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA45" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="AD45" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="AE45" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="AI45" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="AK45" s="4">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" ht="68" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N46" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" ht="68" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="K47" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M45" s="7" t="s">
+      <c r="M47" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N45" s="7" t="s">
+      <c r="N47" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="O45" s="7" t="s">
+      <c r="O47" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="P45" s="1" t="s">
+      <c r="P47" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="Q47" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="R45" s="1" t="s">
+      <c r="R47" s="1" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="85" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+    <row r="48" spans="1:38" ht="85" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>1140</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="T46" s="1" t="s">
-        <v>1142</v>
-      </c>
-      <c r="U46" s="1">
-        <v>18</v>
-      </c>
-      <c r="V46" s="1">
-        <v>3</v>
-      </c>
-      <c r="W46" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="X46" s="1" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:38" ht="51" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>1189</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="T47" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W47" s="1">
-        <v>12</v>
-      </c>
-      <c r="X47" s="1" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="48" spans="1:38" ht="187" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>898</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="AB48" s="4" t="s">
-        <v>900</v>
-      </c>
-      <c r="AC48" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="AD48" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="AE48" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI48" s="4" t="s">
-        <v>903</v>
-      </c>
-      <c r="AK48" s="4">
-        <v>1905</v>
-      </c>
-      <c r="AL48" s="4" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="49" spans="1:38" ht="68" x14ac:dyDescent="0.2">
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="T48" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="U48" s="1">
+        <v>18</v>
+      </c>
+      <c r="V48" s="1">
+        <v>3</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="X48" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>669</v>
+        <v>1186</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>673</v>
+        <v>1187</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>674</v>
+        <v>1188</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>676</v>
+        <v>1189</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="AD49" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="AE49" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI49" s="4" t="s">
-        <v>677</v>
-      </c>
-      <c r="AK49" s="4">
-        <v>1904</v>
-      </c>
-      <c r="AL49" s="4" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="50" spans="1:38" ht="68" x14ac:dyDescent="0.2">
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="T49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W49" s="1">
+        <v>12</v>
+      </c>
+      <c r="X49" s="1" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:38" ht="187" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>670</v>
+        <v>891</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>673</v>
+        <v>892</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>674</v>
+        <v>893</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>675</v>
+        <v>894</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>676</v>
+        <v>895</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>898</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>429</v>
       </c>
+      <c r="AB50" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="AC50" s="4" t="s">
+        <v>901</v>
+      </c>
       <c r="AD50" s="4" t="s">
-        <v>678</v>
+        <v>902</v>
       </c>
       <c r="AE50" s="4" t="s">
         <v>64</v>
       </c>
       <c r="AI50" s="4" t="s">
-        <v>677</v>
+        <v>903</v>
       </c>
       <c r="AK50" s="4">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="AL50" s="4" t="s">
-        <v>680</v>
+        <v>904</v>
       </c>
     </row>
     <row r="51" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>673</v>
@@ -6388,12 +6388,12 @@
         <v>1904</v>
       </c>
       <c r="AL51" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="52" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>673</v>
@@ -6423,234 +6423,208 @@
         <v>1904</v>
       </c>
       <c r="AL52" s="4" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="53" spans="1:38" ht="85" x14ac:dyDescent="0.2">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="53" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>819</v>
+        <v>671</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>820</v>
+        <v>673</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>821</v>
+        <v>674</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>822</v>
+        <v>675</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>170</v>
+        <v>676</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M53" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N53" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="O53" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="54" spans="1:38" ht="34" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+      <c r="AD53" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="AE53" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI53" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="AK53" s="4">
+        <v>1904</v>
+      </c>
+      <c r="AL53" s="4" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="54" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>1145</v>
+        <v>672</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1147</v>
+        <v>673</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1150</v>
+        <v>674</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>170</v>
+        <v>675</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1154</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>1155</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>1157</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>1158</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>1159</v>
+        <v>676</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="T54" s="1" t="s">
+      <c r="AD54" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="AE54" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI54" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="AK54" s="4">
+        <v>1904</v>
+      </c>
+      <c r="AL54" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38" ht="85" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N55" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="56" spans="1:38" ht="34" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="T56" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="W54" s="1">
+      <c r="W56" s="1">
         <v>5</v>
       </c>
-      <c r="X54" s="1" t="s">
+      <c r="X56" s="1" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="55" spans="1:38" ht="51" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+    <row r="57" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="K55" s="1" t="s">
+      <c r="K57" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="T55" s="1" t="s">
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="T57" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="W55" s="5" t="s">
+      <c r="W57" s="5" t="s">
         <v>1151</v>
       </c>
-      <c r="X55" s="1" t="s">
+      <c r="X57" s="1" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="56" spans="1:38" ht="51" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+    <row r="58" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>1017</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="R56" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="Z56" s="1"/>
-      <c r="AA56" s="1"/>
-      <c r="AB56" s="1"/>
-      <c r="AC56" s="1"/>
-      <c r="AD56" s="1"/>
-      <c r="AE56" s="1"/>
-      <c r="AF56" s="1"/>
-      <c r="AG56" s="1"/>
-      <c r="AH56" s="1"/>
-      <c r="AI56" s="1"/>
-      <c r="AJ56" s="1"/>
-      <c r="AK56" s="1"/>
-      <c r="AL56" s="1"/>
-    </row>
-    <row r="57" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="Q57" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="R57" s="1" t="s">
-        <v>1028</v>
-      </c>
-      <c r="Z57" s="1"/>
-      <c r="AA57" s="1"/>
-      <c r="AB57" s="1"/>
-      <c r="AC57" s="1"/>
-      <c r="AD57" s="1"/>
-      <c r="AE57" s="1"/>
-      <c r="AF57" s="1"/>
-      <c r="AG57" s="1"/>
-      <c r="AH57" s="1"/>
-      <c r="AI57" s="1"/>
-      <c r="AJ57" s="1"/>
-      <c r="AK57" s="1"/>
-      <c r="AL57" s="1"/>
-    </row>
-    <row r="58" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>1031</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>1018</v>
@@ -6668,13 +6642,13 @@
         <v>472</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>1033</v>
+        <v>1020</v>
       </c>
       <c r="R58" s="1" t="s">
-        <v>1034</v>
+        <v>1021</v>
       </c>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
@@ -6692,16 +6666,16 @@
     </row>
     <row r="59" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1181</v>
+        <v>1023</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1182</v>
+        <v>1024</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>115</v>
@@ -6716,13 +6690,13 @@
         <v>472</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>1037</v>
+        <v>1026</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>1038</v>
+        <v>1027</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>1039</v>
+        <v>1028</v>
       </c>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
@@ -6738,18 +6712,18 @@
       <c r="AK59" s="1"/>
       <c r="AL59" s="1"/>
     </row>
-    <row r="60" spans="1:38" ht="68" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1042</v>
+        <v>1031</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1043</v>
+        <v>1018</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>115</v>
@@ -6764,10 +6738,10 @@
         <v>472</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="R60" s="1" t="s">
         <v>1034</v>
@@ -6786,18 +6760,18 @@
       <c r="AK60" s="1"/>
       <c r="AL60" s="1"/>
     </row>
-    <row r="61" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>1046</v>
+        <v>1035</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1047</v>
+        <v>1181</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1048</v>
+        <v>1182</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>115</v>
@@ -6812,13 +6786,13 @@
         <v>472</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>1049</v>
+        <v>1037</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>1050</v>
+        <v>1038</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
@@ -6834,15 +6808,15 @@
       <c r="AK61" s="1"/>
       <c r="AL61" s="1"/>
     </row>
-    <row r="62" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>1052</v>
+        <v>1040</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1054</v>
+        <v>1042</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>1043</v>
@@ -6860,13 +6834,13 @@
         <v>472</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>1055</v>
+        <v>1044</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>1056</v>
+        <v>1045</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>1057</v>
+        <v>1034</v>
       </c>
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
@@ -6884,13 +6858,13 @@
     </row>
     <row r="63" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>1058</v>
+        <v>1046</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1059</v>
+        <v>1047</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1060</v>
+        <v>1048</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>1043</v>
@@ -6908,10 +6882,13 @@
         <v>472</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>1061</v>
+        <v>1049</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>1062</v>
+        <v>1050</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>1051</v>
       </c>
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
@@ -6929,13 +6906,13 @@
     </row>
     <row r="64" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>1063</v>
+        <v>1052</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>1043</v>
@@ -6953,10 +6930,13 @@
         <v>472</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>1066</v>
+        <v>1056</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>1057</v>
       </c>
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
@@ -6974,13 +6954,13 @@
     </row>
     <row r="65" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>1067</v>
+        <v>1058</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1047</v>
+        <v>1059</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>1043</v>
@@ -6998,13 +6978,10 @@
         <v>472</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>1066</v>
-      </c>
-      <c r="R65" s="1" t="s">
-        <v>1051</v>
+        <v>1062</v>
       </c>
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
@@ -7022,13 +6999,13 @@
     </row>
     <row r="66" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1071</v>
+        <v>1047</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>1043</v>
@@ -7046,7 +7023,7 @@
         <v>472</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
       <c r="Q66" s="1" t="s">
         <v>1066</v>
@@ -7067,13 +7044,13 @@
     </row>
     <row r="67" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>1047</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>1043</v>
@@ -7091,13 +7068,13 @@
         <v>472</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>1077</v>
+        <v>1066</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>1078</v>
+        <v>1051</v>
       </c>
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
@@ -7113,15 +7090,15 @@
       <c r="AK67" s="1"/>
       <c r="AL67" s="1"/>
     </row>
-    <row r="68" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>1079</v>
+        <v>1070</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1047</v>
+        <v>1071</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>1043</v>
@@ -7139,13 +7116,10 @@
         <v>472</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>1082</v>
-      </c>
-      <c r="R68" s="1" t="s">
-        <v>1083</v>
+        <v>1066</v>
       </c>
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
@@ -7163,16 +7137,16 @@
     </row>
     <row r="69" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>1085</v>
+        <v>1074</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>1047</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1307</v>
+        <v>1075</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1086</v>
+        <v>1043</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>115</v>
@@ -7187,13 +7161,13 @@
         <v>472</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="Q69" s="5" t="s">
-        <v>1308</v>
+        <v>1076</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>1077</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
@@ -7209,15 +7183,15 @@
       <c r="AK69" s="1"/>
       <c r="AL69" s="1"/>
     </row>
-    <row r="70" spans="1:38" ht="119" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>1047</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>1043</v>
@@ -7235,13 +7209,13 @@
         <v>472</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
@@ -7259,16 +7233,16 @@
     </row>
     <row r="71" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>1047</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1095</v>
+        <v>1307</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1043</v>
+        <v>1086</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>115</v>
@@ -7283,13 +7257,13 @@
         <v>472</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>1097</v>
+        <v>1087</v>
+      </c>
+      <c r="Q71" s="5" t="s">
+        <v>1308</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
@@ -7305,18 +7279,18 @@
       <c r="AK71" s="1"/>
       <c r="AL71" s="1"/>
     </row>
-    <row r="72" spans="1:38" ht="34" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1100</v>
+        <v>1047</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1101</v>
+        <v>1090</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1121</v>
+        <v>1043</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>115</v>
@@ -7331,13 +7305,13 @@
         <v>472</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>1102</v>
+        <v>1091</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>1103</v>
+        <v>1092</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>1104</v>
+        <v>1093</v>
       </c>
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
@@ -7355,16 +7329,16 @@
     </row>
     <row r="73" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>1105</v>
+        <v>1094</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1106</v>
+        <v>1095</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1025</v>
+        <v>1043</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>115</v>
@@ -7379,13 +7353,13 @@
         <v>472</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>1107</v>
+        <v>1096</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>1108</v>
+        <v>1097</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>1109</v>
+        <v>1098</v>
       </c>
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
@@ -7401,18 +7375,18 @@
       <c r="AK73" s="1"/>
       <c r="AL73" s="1"/>
     </row>
-    <row r="74" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>1110</v>
+        <v>1099</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1053</v>
+        <v>1100</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1043</v>
+        <v>1121</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>115</v>
@@ -7427,13 +7401,13 @@
         <v>472</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>1083</v>
+        <v>1104</v>
       </c>
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
@@ -7449,18 +7423,18 @@
       <c r="AK74" s="1"/>
       <c r="AL74" s="1"/>
     </row>
-    <row r="75" spans="1:38" ht="119" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>1053</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1115</v>
+        <v>1106</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1043</v>
+        <v>1025</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>115</v>
@@ -7475,13 +7449,13 @@
         <v>472</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>1093</v>
+        <v>1109</v>
       </c>
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
@@ -7497,15 +7471,15 @@
       <c r="AK75" s="1"/>
       <c r="AL75" s="1"/>
     </row>
-    <row r="76" spans="1:38" ht="119" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>1118</v>
+        <v>1110</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>1053</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1119</v>
+        <v>1111</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>1043</v>
@@ -7523,13 +7497,13 @@
         <v>472</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>1092</v>
+        <v>1113</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
@@ -7545,15 +7519,15 @@
       <c r="AK76" s="1"/>
       <c r="AL76" s="1"/>
     </row>
-    <row r="77" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>1130</v>
+        <v>1114</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1023</v>
+        <v>1053</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1131</v>
+        <v>1115</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>1043</v>
@@ -7571,13 +7545,13 @@
         <v>472</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>1084</v>
+        <v>1116</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>1132</v>
+        <v>1117</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
@@ -7593,18 +7567,18 @@
       <c r="AK77" s="1"/>
       <c r="AL77" s="1"/>
     </row>
-    <row r="78" spans="1:38" ht="34" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>1133</v>
+        <v>1118</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1023</v>
+        <v>1053</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1134</v>
+        <v>1119</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1135</v>
+        <v>1043</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>115</v>
@@ -7619,10 +7593,13 @@
         <v>472</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>1084</v>
+        <v>1120</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>1136</v>
+        <v>1092</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>1093</v>
       </c>
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
@@ -7638,18 +7615,18 @@
       <c r="AK78" s="1"/>
       <c r="AL78" s="1"/>
     </row>
-    <row r="79" spans="1:38" ht="68" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>1238</v>
+        <v>1130</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1247</v>
+        <v>1023</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1245</v>
+        <v>1131</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>658</v>
+        <v>1043</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>115</v>
@@ -7658,33 +7635,46 @@
         <v>16</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>64</v>
+        <v>471</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>65</v>
+        <v>472</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>1240</v>
+        <v>1084</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>1242</v>
+        <v>1132</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="80" spans="1:38" ht="68" x14ac:dyDescent="0.2">
+        <v>1083</v>
+      </c>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="1"/>
+      <c r="AF79" s="1"/>
+      <c r="AG79" s="1"/>
+      <c r="AH79" s="1"/>
+      <c r="AI79" s="1"/>
+      <c r="AJ79" s="1"/>
+      <c r="AK79" s="1"/>
+      <c r="AL79" s="1"/>
+    </row>
+    <row r="80" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>1239</v>
+        <v>1133</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1247</v>
+        <v>1023</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1246</v>
+        <v>1134</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>658</v>
+        <v>1135</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>115</v>
@@ -7693,24 +7683,34 @@
         <v>16</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>64</v>
+        <v>471</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>65</v>
+        <v>472</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>1241</v>
+        <v>1084</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>1244</v>
-      </c>
-      <c r="R80" s="1" t="s">
-        <v>156</v>
-      </c>
+        <v>1136</v>
+      </c>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
+      <c r="AD80" s="1"/>
+      <c r="AE80" s="1"/>
+      <c r="AF80" s="1"/>
+      <c r="AG80" s="1"/>
+      <c r="AH80" s="1"/>
+      <c r="AI80" s="1"/>
+      <c r="AJ80" s="1"/>
+      <c r="AK80" s="1"/>
+      <c r="AL80" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL78">
-    <sortCondition ref="A2:A78"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL80">
+    <sortCondition ref="A2:A80"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7722,9 +7722,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ100"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I88" sqref="I88"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7887,59 +7887,62 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="102" x14ac:dyDescent="0.2">
-      <c r="C4" s="11" t="s">
-        <v>304</v>
+    <row r="4" spans="1:39" ht="187" x14ac:dyDescent="0.2">
+      <c r="C4" s="7" t="s">
+        <v>572</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>104</v>
+        <v>530</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>105</v>
+        <v>531</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>106</v>
+        <v>532</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>107</v>
+        <v>480</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>117</v>
       </c>
+      <c r="M4" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="S4" s="7">
         <v>1874</v>
       </c>
-      <c r="T4" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" ht="68" x14ac:dyDescent="0.2">
+      <c r="T4" s="14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="C5" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>117</v>
@@ -7948,30 +7951,33 @@
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>130</v>
+        <v>92</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="S5" s="7">
         <v>1874</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39" ht="51" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="C6" s="11" t="s">
-        <v>505</v>
+        <v>305</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>99</v>
@@ -7982,11 +7988,14 @@
       <c r="O6" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="P6" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="Q6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>90</v>
+        <v>130</v>
+      </c>
+      <c r="S6" s="7">
+        <v>1874</v>
       </c>
       <c r="T6" s="7" t="s">
         <v>132</v>
@@ -7994,10 +8003,10 @@
     </row>
     <row r="7" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="C7" s="11" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>1237</v>
+        <v>103</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>77</v>
@@ -8014,11 +8023,8 @@
       <c r="O7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="S7" s="7" t="s">
         <v>90</v>
@@ -8027,21 +8033,21 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="C8" s="11" t="s">
-        <v>306</v>
+        <v>529</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>91</v>
+        <v>1237</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>265</v>
+        <v>98</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>117</v>
@@ -8050,13 +8056,10 @@
         <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="S8" s="7" t="s">
         <v>90</v>
@@ -8065,18 +8068,18 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="C9" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>94</v>
+        <v>266</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>95</v>
+        <v>265</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>170</v>
@@ -8094,30 +8097,30 @@
         <v>92</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="T9" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="119" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="C10" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>117</v>
@@ -8126,39 +8129,36 @@
         <v>16</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="S10" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="T10" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" ht="119" x14ac:dyDescent="0.2">
       <c r="C11" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>117</v>
@@ -8170,13 +8170,13 @@
         <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>157</v>
+        <v>89</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="T11" s="7" t="s">
         <v>132</v>
@@ -8184,16 +8184,19 @@
     </row>
     <row r="12" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="C12" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>310</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>249</v>
+        <v>95</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>170</v>
@@ -8211,27 +8214,27 @@
         <v>152</v>
       </c>
       <c r="R12" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" ht="102" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" ht="51" x14ac:dyDescent="0.2">
       <c r="C13" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>170</v>
@@ -8249,30 +8252,27 @@
         <v>152</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="T13" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" ht="136" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" ht="102" x14ac:dyDescent="0.2">
       <c r="C14" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>170</v>
@@ -8280,43 +8280,40 @@
       <c r="L14" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="M14" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="V14" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="W14" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="X14" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z14" s="7" t="s">
+      <c r="O14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AD14" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG14" s="7">
-        <v>1904</v>
-      </c>
-      <c r="AH14" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" ht="68" x14ac:dyDescent="0.2">
+      <c r="Q14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" ht="136" x14ac:dyDescent="0.2">
       <c r="C15" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>314</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>170</v>
@@ -8328,42 +8325,39 @@
         <v>116</v>
       </c>
       <c r="V15" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
+      </c>
+      <c r="W15" s="10" t="s">
+        <v>193</v>
       </c>
       <c r="X15" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Y15" s="7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="Z15" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="AC15" s="7" t="s">
-        <v>205</v>
+        <v>64</v>
       </c>
       <c r="AD15" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="AG15" s="7">
-        <v>1920</v>
+        <v>1904</v>
       </c>
       <c r="AH15" s="7" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:39" ht="68" x14ac:dyDescent="0.2">
       <c r="C16" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>170</v>
@@ -8375,25 +8369,25 @@
         <v>116</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="X16" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="Y16" s="7" t="s">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="Z16" s="7" t="s">
         <v>204</v>
       </c>
       <c r="AC16" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="AD16" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AG16" s="7">
-        <v>1912</v>
+        <v>1920</v>
       </c>
       <c r="AH16" s="7" t="s">
         <v>207</v>
@@ -8401,16 +8395,16 @@
     </row>
     <row r="17" spans="3:34" ht="68" x14ac:dyDescent="0.2">
       <c r="C17" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>170</v>
@@ -8422,39 +8416,45 @@
         <v>116</v>
       </c>
       <c r="V17" s="10" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="X17" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="Y17" s="7" t="s">
-        <v>216</v>
+        <v>64</v>
+      </c>
+      <c r="Z17" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="AC17" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
+      </c>
+      <c r="AD17" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="AG17" s="7">
-        <v>1901</v>
+        <v>1912</v>
       </c>
       <c r="AH17" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="3:34" ht="85" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:34" ht="68" x14ac:dyDescent="0.2">
       <c r="C18" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>244</v>
+        <v>170</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>117</v>
@@ -8463,16 +8463,16 @@
         <v>116</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="X18" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Y18" s="7" t="s">
-        <v>64</v>
+        <v>216</v>
       </c>
       <c r="AC18" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AG18" s="7">
         <v>1901</v>
@@ -8481,21 +8481,21 @@
         <v>207</v>
       </c>
     </row>
-    <row r="19" spans="3:34" ht="68" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:34" ht="85" x14ac:dyDescent="0.2">
       <c r="C19" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>117</v>
@@ -8504,36 +8504,39 @@
         <v>116</v>
       </c>
       <c r="V19" s="10" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="X19" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Y19" s="7" t="s">
         <v>64</v>
       </c>
       <c r="AC19" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG19" s="7">
-        <v>1904</v>
+        <v>1901</v>
       </c>
       <c r="AH19" s="7" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="20" spans="3:34" ht="68" x14ac:dyDescent="0.2">
+      <c r="C20" s="11" t="s">
+        <v>319</v>
+      </c>
       <c r="F20" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>117</v>
@@ -8541,58 +8544,37 @@
       <c r="M20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="V20" s="7" t="s">
+      <c r="V20" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="X20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC20" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG20" s="7">
+        <v>1904</v>
+      </c>
+      <c r="AH20" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="3:34" ht="68" x14ac:dyDescent="0.2">
+      <c r="F21" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="X20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Y20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="AG20" s="7">
-        <v>1912</v>
-      </c>
-      <c r="AH20" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="3:34" ht="153" x14ac:dyDescent="0.2">
-      <c r="C21" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>117</v>
@@ -8600,46 +8582,58 @@
       <c r="M21" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="V21" s="12" t="s">
+      <c r="V21" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="X21" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y21" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC21" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD21" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG21" s="7">
+        <v>1912</v>
+      </c>
+      <c r="AH21" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="3:34" ht="153" x14ac:dyDescent="0.2">
+      <c r="C22" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="X21" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y21" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Z21" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="AC21" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="AD21" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="AG21" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="AH21" s="7" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="22" spans="3:34" ht="85" x14ac:dyDescent="0.2">
-      <c r="C22" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>289</v>
+      <c r="J22" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>233</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>117</v>
@@ -8647,40 +8641,46 @@
       <c r="M22" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="V22" s="10" t="s">
-        <v>290</v>
+      <c r="V22" s="12" t="s">
+        <v>231</v>
       </c>
       <c r="X22" s="7" t="s">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="Y22" s="7" t="s">
-        <v>292</v>
+        <v>235</v>
+      </c>
+      <c r="Z22" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="AC22" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="AG22" s="7">
-        <v>1887</v>
+        <v>261</v>
+      </c>
+      <c r="AD22" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG22" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="AH22" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" spans="3:34" ht="51" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="23" spans="3:34" ht="85" x14ac:dyDescent="0.2">
       <c r="C23" s="11" t="s">
         <v>323</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>170</v>
+        <v>289</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>117</v>
@@ -8691,40 +8691,34 @@
       <c r="V23" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="W23" s="10" t="s">
-        <v>296</v>
-      </c>
       <c r="X23" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="Y23" s="7" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="AC23" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="AG23" s="7">
-        <v>1903</v>
+        <v>1887</v>
       </c>
       <c r="AH23" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="24" spans="3:34" ht="153" x14ac:dyDescent="0.2">
-      <c r="C24" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>354</v>
+    <row r="24" spans="3:34" ht="51" x14ac:dyDescent="0.2">
+      <c r="C24" s="11" t="s">
+        <v>323</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>337</v>
+        <v>295</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>170</v>
@@ -8732,43 +8726,49 @@
       <c r="L24" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="R24" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="S24" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="T24" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="25" spans="3:34" ht="51" x14ac:dyDescent="0.2">
+      <c r="M24" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="V24" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="W24" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="X24" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y24" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC24" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AG24" s="7">
+        <v>1903</v>
+      </c>
+      <c r="AH24" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="3:34" ht="153" x14ac:dyDescent="0.2">
       <c r="C25" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>353</v>
+        <v>355</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>354</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>333</v>
+        <v>170</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>117</v>
@@ -8783,7 +8783,7 @@
         <v>152</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="S25" s="7" t="s">
         <v>331</v>
@@ -8792,24 +8792,24 @@
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="3:34" ht="136" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:34" ht="51" x14ac:dyDescent="0.2">
       <c r="C26" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>353</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>170</v>
+        <v>333</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>117</v>
@@ -8824,30 +8824,30 @@
         <v>152</v>
       </c>
       <c r="R26" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="S26" s="7" t="s">
         <v>331</v>
       </c>
       <c r="T26" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="27" spans="3:34" ht="68" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="27" spans="3:34" ht="136" x14ac:dyDescent="0.2">
       <c r="C27" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>170</v>
@@ -8865,33 +8865,33 @@
         <v>152</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="S27" s="7">
-        <v>1911</v>
+        <v>340</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="T27" s="7" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="28" spans="3:34" ht="68" x14ac:dyDescent="0.2">
-      <c r="C28" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>349</v>
+      <c r="C28" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>350</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>346</v>
+        <v>170</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>117</v>
@@ -8906,30 +8906,33 @@
         <v>152</v>
       </c>
       <c r="R28" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="S28" s="7" t="s">
-        <v>331</v>
+        <v>342</v>
+      </c>
+      <c r="S28" s="7">
+        <v>1911</v>
       </c>
       <c r="T28" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="29" spans="3:34" ht="51" x14ac:dyDescent="0.2">
-      <c r="C29" s="13" t="s">
-        <v>377</v>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="29" spans="3:34" ht="68" x14ac:dyDescent="0.2">
+      <c r="C29" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>349</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>376</v>
+        <v>348</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>170</v>
+        <v>346</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>117</v>
@@ -8944,33 +8947,30 @@
         <v>152</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="30" spans="3:34" ht="68" x14ac:dyDescent="0.2">
-      <c r="C30" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>379</v>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="30" spans="3:34" ht="51" x14ac:dyDescent="0.2">
+      <c r="C30" s="13" t="s">
+        <v>377</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>374</v>
+        <v>294</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>373</v>
+        <v>170</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>117</v>
@@ -8985,75 +8985,75 @@
         <v>152</v>
       </c>
       <c r="R30" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="S30" s="7" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="T30" s="7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="31" spans="3:34" ht="51" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="31" spans="3:34" ht="68" x14ac:dyDescent="0.2">
       <c r="C31" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>379</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>170</v>
+        <v>373</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="V31" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="X31" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="Y31" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="AC31" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="AG31" s="7">
-        <v>1913</v>
-      </c>
-      <c r="AH31" s="7" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="32" spans="3:34" ht="68" x14ac:dyDescent="0.2">
+      <c r="O31" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="R31" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="32" spans="3:34" ht="51" x14ac:dyDescent="0.2">
       <c r="C32" s="7" t="s">
-        <v>425</v>
+        <v>380</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>424</v>
+        <v>386</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>381</v>
+        <v>387</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="M32" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="V32" s="10" t="s">
         <v>381</v>
       </c>
@@ -9075,48 +9075,51 @@
     </row>
     <row r="33" spans="3:34" ht="68" x14ac:dyDescent="0.2">
       <c r="C33" s="7" t="s">
-        <v>396</v>
+        <v>425</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>170</v>
+        <v>423</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>381</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>117</v>
       </c>
+      <c r="M33" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="V33" s="10" t="s">
         <v>381</v>
       </c>
       <c r="X33" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="Y33" s="7" t="s">
         <v>383</v>
       </c>
       <c r="AC33" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AG33" s="7">
         <v>1913</v>
       </c>
       <c r="AH33" s="7" t="s">
-        <v>207</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" spans="3:34" ht="68" x14ac:dyDescent="0.2">
       <c r="C34" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>390</v>
@@ -9134,13 +9137,13 @@
         <v>381</v>
       </c>
       <c r="X34" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="Y34" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="AC34" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="AG34" s="7">
         <v>1913</v>
@@ -9149,18 +9152,18 @@
         <v>207</v>
       </c>
     </row>
-    <row r="35" spans="3:34" ht="51" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:34" ht="68" x14ac:dyDescent="0.2">
       <c r="C35" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>170</v>
@@ -9172,13 +9175,13 @@
         <v>381</v>
       </c>
       <c r="X35" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="Y35" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="AC35" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="AG35" s="7">
         <v>1913</v>
@@ -9187,34 +9190,22 @@
         <v>207</v>
       </c>
     </row>
-    <row r="36" spans="3:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:34" ht="51" x14ac:dyDescent="0.2">
       <c r="C36" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="J36" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>405</v>
-      </c>
       <c r="L36" s="7" t="s">
         <v>117</v>
       </c>
@@ -9234,25 +9225,37 @@
         <v>1913</v>
       </c>
       <c r="AH36" s="7" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="37" spans="3:34" ht="51" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="3:34" ht="102" x14ac:dyDescent="0.2">
       <c r="C37" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>408</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>170</v>
       </c>
+      <c r="J37" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>405</v>
+      </c>
       <c r="L37" s="7" t="s">
         <v>117</v>
       </c>
@@ -9260,77 +9263,74 @@
         <v>381</v>
       </c>
       <c r="X37" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="Y37" s="7" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="AC37" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AG37" s="7">
-        <v>1908</v>
-      </c>
-      <c r="AH37" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="3:34" ht="102" x14ac:dyDescent="0.2">
-      <c r="C38" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>477</v>
+        <v>1913</v>
+      </c>
+      <c r="AH37" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="38" spans="3:34" ht="51" x14ac:dyDescent="0.2">
+      <c r="C38" s="7" t="s">
+        <v>395</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>482</v>
+        <v>367</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>387</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>480</v>
+        <v>170</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="O38" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="R38" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="S38" s="7">
-        <v>1874</v>
-      </c>
-      <c r="T38" s="7" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="39" spans="3:34" ht="136" x14ac:dyDescent="0.2">
-      <c r="C39" s="7" t="s">
-        <v>470</v>
+      <c r="V38" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="X38" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y38" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="AC38" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="AG38" s="7">
+        <v>1908</v>
+      </c>
+      <c r="AH38" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:34" ht="102" x14ac:dyDescent="0.2">
+      <c r="C39" s="11" t="s">
+        <v>308</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>479</v>
+        <v>468</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>482</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>480</v>
@@ -9348,7 +9348,7 @@
         <v>472</v>
       </c>
       <c r="R39" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="S39" s="7">
         <v>1874</v>
@@ -9357,110 +9357,104 @@
         <v>473</v>
       </c>
     </row>
-    <row r="40" spans="3:34" ht="51" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:34" ht="136" x14ac:dyDescent="0.2">
       <c r="C40" s="7" t="s">
-        <v>494</v>
+        <v>470</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>476</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>170</v>
+        <v>480</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="V40" s="10" t="s">
+      <c r="O40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="R40" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="S40" s="7">
+        <v>1874</v>
+      </c>
+      <c r="T40" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="41" spans="3:34" ht="51" x14ac:dyDescent="0.2">
+      <c r="C41" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="V41" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="X40" s="7" t="s">
+      <c r="X41" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="Y40" s="7" t="s">
+      <c r="Y41" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="AC40" s="7" t="s">
+      <c r="AC41" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="AG40" s="7">
+      <c r="AG41" s="7">
         <v>1917</v>
       </c>
-      <c r="AH40" s="7" t="s">
+      <c r="AH41" s="7" t="s">
         <v>493</v>
-      </c>
-    </row>
-    <row r="41" spans="3:34" ht="85" x14ac:dyDescent="0.2">
-      <c r="C41" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="D41" s="11"/>
-      <c r="F41" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M41" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="V41" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="X41" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="Y41" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="Z41" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="AC41" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="AG41" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="AH41" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="42" spans="3:34" ht="85" x14ac:dyDescent="0.2">
       <c r="C42" s="7" t="s">
-        <v>500</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="D42" s="11"/>
       <c r="F42" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>170</v>
+        <v>495</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M42" s="7" t="s">
         <v>116</v>
@@ -9480,31 +9474,31 @@
       <c r="AC42" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="AG42" s="7">
-        <v>1899</v>
+      <c r="AG42" s="7" t="s">
+        <v>499</v>
       </c>
       <c r="AH42" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="43" spans="3:34" ht="102" x14ac:dyDescent="0.2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="43" spans="3:34" ht="85" x14ac:dyDescent="0.2">
       <c r="C43" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>170</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>495</v>
+        <v>170</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>117</v>
@@ -9516,39 +9510,42 @@
         <v>495</v>
       </c>
       <c r="X43" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="Y43" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="Z43" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="Z43" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="AC43" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="AG43" s="7">
-        <v>1902</v>
+        <v>1899</v>
       </c>
       <c r="AH43" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="44" spans="3:34" ht="187" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:34" ht="102" x14ac:dyDescent="0.2">
       <c r="C44" s="7" t="s">
-        <v>572</v>
+        <v>503</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>530</v>
+        <v>486</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>480</v>
+        <v>170</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>495</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>117</v>
@@ -9556,23 +9553,26 @@
       <c r="M44" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="O44" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P44" s="7" t="s">
+      <c r="V44" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="X44" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="Y44" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z44" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="Q44" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="R44" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="S44" s="7">
-        <v>1874</v>
-      </c>
-      <c r="T44" s="14" t="s">
-        <v>473</v>
+      <c r="AC44" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="AG44" s="7">
+        <v>1902</v>
+      </c>
+      <c r="AH44" s="7" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="3:34" ht="68" x14ac:dyDescent="0.2">
@@ -12150,8 +12150,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A96:AQ100">
-    <sortCondition descending="1" ref="F96:F100"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AQ101">
+    <sortCondition ref="F2:F101"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -12183,7 +12183,7 @@
       </c>
       <c r="B1" t="str">
         <f>'Visual Materials'!I29</f>
-        <v>Anonymous</v>
+        <v>Gilbert, [?]</v>
       </c>
       <c r="C1" t="s">
         <v>411</v>
@@ -12193,21 +12193,21 @@
       </c>
       <c r="E1" t="str">
         <f>'Visual Materials'!G29</f>
-        <v>Pandita Ramabai Sarasvati</v>
+        <v>Tshekedi and Semane Khama</v>
       </c>
       <c r="F1" t="s">
         <v>412</v>
       </c>
       <c r="G1" t="str">
         <f>'Visual Materials'!S29</f>
-        <v>[Late nineteenth century]</v>
+        <v>[Early twentieth century]</v>
       </c>
       <c r="H1" t="s">
         <v>414</v>
       </c>
       <c r="I1" s="15" t="str">
         <f>A1&amp;B1&amp;C1&amp;D1&amp;E1&amp;F1&amp;G1&amp;H1</f>
-        <v>&lt;li&gt;Anonymous. &lt;a href="transcriptions/liv_021026_ART.html"&gt;Pandita Ramabai Sarasvati&lt;/a&gt;. [Late nineteenth century].&lt;/li&gt;</v>
+        <v>&lt;li&gt;Gilbert, [?]. &lt;a href="transcriptions/liv_021026_ART.html"&gt;Tshekedi and Semane Khama&lt;/a&gt;. [Early twentieth century].&lt;/li&gt;</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -12216,7 +12216,7 @@
       </c>
       <c r="B2" t="str">
         <f>'Visual Materials'!I30</f>
-        <v>J. Paul</v>
+        <v>Anonymous</v>
       </c>
       <c r="C2" t="s">
         <v>411</v>
@@ -12226,21 +12226,21 @@
       </c>
       <c r="E2" t="str">
         <f>'Visual Materials'!G30</f>
-        <v>“Pandita Ramabai &amp; Her Gifted Daughter Manoramabai”</v>
+        <v>Pandita Ramabai Sarasvati</v>
       </c>
       <c r="F2" t="s">
         <v>412</v>
       </c>
       <c r="G2" t="str">
         <f>'Visual Materials'!S30</f>
-        <v>[Early twentieth century]</v>
+        <v>[Late nineteenth century]</v>
       </c>
       <c r="H2" t="s">
         <v>414</v>
       </c>
       <c r="I2" s="15" t="str">
         <f t="shared" ref="I2:I9" si="0">A2&amp;B2&amp;C2&amp;D2&amp;E2&amp;F2&amp;G2&amp;H2</f>
-        <v>&lt;li&gt;J. Paul. &lt;a href="transcriptions/liv_021027_ART.html"&gt;“Pandita Ramabai &amp; Her Gifted Daughter Manoramabai”&lt;/a&gt;. [Early twentieth century].&lt;/li&gt;</v>
+        <v>&lt;li&gt;Anonymous. &lt;a href="transcriptions/liv_021027_ART.html"&gt;Pandita Ramabai Sarasvati&lt;/a&gt;. [Late nineteenth century].&lt;/li&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="B3" t="str">
         <f>'Visual Materials'!I31</f>
-        <v>Anonymous</v>
+        <v>J. Paul</v>
       </c>
       <c r="C3" t="s">
         <v>411</v>
@@ -12259,7 +12259,7 @@
       </c>
       <c r="E3" t="str">
         <f>'Visual Materials'!G31</f>
-        <v>E. Pauline Johnson</v>
+        <v>“Pandita Ramabai &amp; Her Gifted Daughter Manoramabai”</v>
       </c>
       <c r="F3" t="s">
         <v>412</v>
@@ -12272,7 +12272,7 @@
       </c>
       <c r="I3" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;Anonymous. &lt;a href="transcriptions/liv_021028_ART.html"&gt;E. Pauline Johnson&lt;/a&gt;. [Early twentieth century].&lt;/li&gt;</v>
+        <v>&lt;li&gt;J. Paul. &lt;a href="transcriptions/liv_021028_ART.html"&gt;“Pandita Ramabai &amp; Her Gifted Daughter Manoramabai”&lt;/a&gt;. [Early twentieth century].&lt;/li&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -12281,7 +12281,7 @@
       </c>
       <c r="B4" t="str">
         <f>'Visual Materials'!I32</f>
-        <v>Johnson, E. Pauline, 1861-1913</v>
+        <v>Anonymous</v>
       </c>
       <c r="C4" t="s">
         <v>411</v>
@@ -12291,7 +12291,7 @@
       </c>
       <c r="E4" t="str">
         <f>'Visual Materials'!G32</f>
-        <v>“And He Said ‘Fight On’” (Manuscript Facsimile)</v>
+        <v>E. Pauline Johnson</v>
       </c>
       <c r="F4" t="s">
         <v>412</v>
@@ -12304,7 +12304,7 @@
       </c>
       <c r="I4" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;Johnson, E. Pauline, 1861-1913. &lt;a href="transcriptions/liv_021029_ART.html"&gt;“And He Said ‘Fight On’” (Manuscript Facsimile)&lt;/a&gt;. [Early twentieth century].&lt;/li&gt;</v>
+        <v>&lt;li&gt;Anonymous. &lt;a href="transcriptions/liv_021029_ART.html"&gt;E. Pauline Johnson&lt;/a&gt;. [Early twentieth century].&lt;/li&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -12313,7 +12313,7 @@
       </c>
       <c r="B5" t="str">
         <f>'Visual Materials'!I33</f>
-        <v>Anonymous</v>
+        <v>Johnson, E. Pauline, 1861-1913</v>
       </c>
       <c r="C5" t="s">
         <v>411</v>
@@ -12323,7 +12323,7 @@
       </c>
       <c r="E5" t="str">
         <f>'Visual Materials'!G33</f>
-        <v>E. Pauline Johnson (with Facsimile Signature)</v>
+        <v>“And He Said ‘Fight On’” (Manuscript Facsimile)</v>
       </c>
       <c r="F5" t="s">
         <v>412</v>
@@ -12336,7 +12336,7 @@
       </c>
       <c r="I5" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;Anonymous. &lt;a href="transcriptions/liv_021030_ART.html"&gt;E. Pauline Johnson (with Facsimile Signature)&lt;/a&gt;. [Early twentieth century].&lt;/li&gt;</v>
+        <v>&lt;li&gt;Johnson, E. Pauline, 1861-1913. &lt;a href="transcriptions/liv_021030_ART.html"&gt;“And He Said ‘Fight On’” (Manuscript Facsimile)&lt;/a&gt;. [Early twentieth century].&lt;/li&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -12387,7 +12387,7 @@
       </c>
       <c r="E7" t="str">
         <f>'Visual Materials'!G35</f>
-        <v>E. Pauline Johnson</v>
+        <v>E. Pauline Johnson (with Facsimile Signature)</v>
       </c>
       <c r="F7" t="s">
         <v>412</v>
@@ -12400,7 +12400,7 @@
       </c>
       <c r="I7" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;Anonymous. &lt;a href="transcriptions/liv_021032_ART.html"&gt;E. Pauline Johnson&lt;/a&gt;. 1904.&lt;/li&gt;</v>
+        <v>&lt;li&gt;Anonymous. &lt;a href="transcriptions/liv_021032_ART.html"&gt;E. Pauline Johnson (with Facsimile Signature)&lt;/a&gt;. 1904.&lt;/li&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -12419,7 +12419,7 @@
       </c>
       <c r="E8" t="str">
         <f>'Visual Materials'!G36</f>
-        <v xml:space="preserve">“The Grave of Pauline Johnson in Stanley Park, Near Siwash Rock”; “Siwash Rock”; “The Spirit of Siwash Rock” </v>
+        <v>E. Pauline Johnson</v>
       </c>
       <c r="F8" t="s">
         <v>412</v>
@@ -12432,7 +12432,7 @@
       </c>
       <c r="I8" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;Anonymous. &lt;a href="transcriptions/liv_021033_ART.html"&gt;“The Grave of Pauline Johnson in Stanley Park, Near Siwash Rock”; “Siwash Rock”; “The Spirit of Siwash Rock” &lt;/a&gt;. [Early twentieth century].&lt;/li&gt;</v>
+        <v>&lt;li&gt;Anonymous. &lt;a href="transcriptions/liv_021033_ART.html"&gt;E. Pauline Johnson&lt;/a&gt;. [Early twentieth century].&lt;/li&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
@@ -12451,7 +12451,7 @@
       </c>
       <c r="E9" t="str">
         <f>'Visual Materials'!G37</f>
-        <v>E. Pauline Johnson</v>
+        <v xml:space="preserve">“The Grave of Pauline Johnson in Stanley Park, Near Siwash Rock”; “Siwash Rock”; “The Spirit of Siwash Rock” </v>
       </c>
       <c r="F9" t="s">
         <v>412</v>
@@ -12464,7 +12464,7 @@
       </c>
       <c r="I9" s="15" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;Anonymous. &lt;a href="transcriptions/liv_021034_ART.html"&gt;E. Pauline Johnson&lt;/a&gt;. [Early twentieth century].&lt;/li&gt;</v>
+        <v>&lt;li&gt;Anonymous. &lt;a href="transcriptions/liv_021034_ART.html"&gt;“The Grave of Pauline Johnson in Stanley Park, Near Siwash Rock”; “Siwash Rock”; “The Spirit of Siwash Rock” &lt;/a&gt;. [Early twentieth century].&lt;/li&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669277B5-5CA2-E84C-B8D9-262B013B1039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC672B91-3E20-9243-83D4-24F97E4EA2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="1308">
   <si>
     <t>liv_000017</t>
   </si>
@@ -3379,13 +3379,7 @@
     <t>liv_020089</t>
   </si>
   <si>
-    <t>Letter to Elizabeth Pease Nichol, 22 December 1881</t>
-  </si>
-  <si>
     <t>MSS. Brit. Emp. S. 18, C156/137</t>
-  </si>
-  <si>
-    <t>22 December 1881</t>
   </si>
   <si>
     <t>liv_020090</t>
@@ -3973,6 +3967,9 @@
   </si>
   <si>
     <t>31 August [1882?]</t>
+  </si>
+  <si>
+    <t>Letter to Elizabeth Pease Nichol, 23 December 1881</t>
   </si>
 </sst>
 </file>
@@ -4462,9 +4459,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97A9DD5-2802-8C46-B4DE-35FF576EF7FC}">
   <dimension ref="A1:AL80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E70" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q76" sqref="Q76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5427,7 +5424,7 @@
         <v>447</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>115</v>
@@ -5520,13 +5517,13 @@
     </row>
     <row r="28" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>658</v>
@@ -5544,24 +5541,24 @@
         <v>65</v>
       </c>
       <c r="P28" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="Q28" s="1" t="s">
         <v>1240</v>
       </c>
-      <c r="Q28" s="1" t="s">
-        <v>1242</v>
-      </c>
       <c r="R28" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="29" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>658</v>
@@ -5579,10 +5576,10 @@
         <v>65</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>156</v>
@@ -5651,7 +5648,7 @@
         <v>452</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>464</v>
@@ -5660,7 +5657,7 @@
         <v>178</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>115</v>
@@ -6113,7 +6110,7 @@
         <v>664</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>667</v>
@@ -6241,19 +6238,19 @@
     </row>
     <row r="48" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="D48" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>1138</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>1141</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>1140</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>429</v>
@@ -6262,7 +6259,7 @@
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
       <c r="T48" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="U48" s="1">
         <v>18</v>
@@ -6271,24 +6268,24 @@
         <v>3</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="49" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>1187</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>1189</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>429</v>
@@ -6303,7 +6300,7 @@
         <v>12</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="50" spans="1:38" ht="187" x14ac:dyDescent="0.2">
@@ -6536,34 +6533,34 @@
     </row>
     <row r="56" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>1147</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>1154</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>1157</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>1158</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>1159</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>429</v>
@@ -6578,24 +6575,24 @@
         <v>5</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="57" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>1146</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>1148</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>664</v>
@@ -6610,10 +6607,10 @@
         <v>76</v>
       </c>
       <c r="W57" s="5" t="s">
+        <v>1149</v>
+      </c>
+      <c r="X57" s="1" t="s">
         <v>1151</v>
-      </c>
-      <c r="X57" s="1" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="58" spans="1:38" ht="51" x14ac:dyDescent="0.2">
@@ -6765,10 +6762,10 @@
         <v>1035</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>1036</v>
@@ -7239,7 +7236,7 @@
         <v>1047</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>1086</v>
@@ -7260,7 +7257,7 @@
         <v>1087</v>
       </c>
       <c r="Q71" s="5" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="R71" s="1" t="s">
         <v>1088</v>
@@ -7386,7 +7383,7 @@
         <v>1101</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>115</v>
@@ -7479,7 +7476,7 @@
         <v>1053</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1111</v>
+        <v>1307</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>1043</v>
@@ -7497,10 +7494,10 @@
         <v>472</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>1113</v>
+        <v>1082</v>
       </c>
       <c r="R76" s="1" t="s">
         <v>1083</v>
@@ -7521,13 +7518,13 @@
     </row>
     <row r="77" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>1053</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>1043</v>
@@ -7545,10 +7542,10 @@
         <v>472</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="R77" s="1" t="s">
         <v>1093</v>
@@ -7569,13 +7566,13 @@
     </row>
     <row r="78" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>1053</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>1043</v>
@@ -7593,7 +7590,7 @@
         <v>472</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="Q78" s="1" t="s">
         <v>1092</v>
@@ -7617,13 +7614,13 @@
     </row>
     <row r="79" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>1023</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>1043</v>
@@ -7644,7 +7641,7 @@
         <v>1084</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="R79" s="1" t="s">
         <v>1083</v>
@@ -7665,16 +7662,16 @@
     </row>
     <row r="80" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>1023</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>115</v>
@@ -7692,7 +7689,7 @@
         <v>1084</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
@@ -7722,7 +7719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="A1:XFD1048576"/>
     </sheetView>
@@ -8038,7 +8035,7 @@
         <v>529</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>77</v>
@@ -11391,22 +11388,22 @@
     </row>
     <row r="84" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B84" s="17" t="s">
         <v>703</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="I84" s="7" t="s">
         <v>170</v>
@@ -11418,16 +11415,16 @@
         <v>116</v>
       </c>
       <c r="V84" s="10" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="X84" s="7" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="Y84" s="7" t="s">
         <v>64</v>
       </c>
       <c r="AC84" s="7" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="AG84" s="7">
         <v>1912</v>
@@ -11438,25 +11435,25 @@
     </row>
     <row r="85" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F85" s="7" t="s">
         <v>1160</v>
       </c>
-      <c r="B85" s="7" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>1161</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>1162</v>
-      </c>
       <c r="G85" s="7" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="L85" s="7" t="s">
         <v>117</v>
@@ -11468,10 +11465,10 @@
         <v>64</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="R85" s="7" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="S85" s="7">
         <v>1890</v>
@@ -11482,19 +11479,19 @@
     </row>
     <row r="86" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="B86" s="7" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="I86" s="7" t="s">
         <v>643</v>
@@ -11506,16 +11503,16 @@
         <v>612</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="R86" s="7" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="S86" s="7" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="T86" s="7" t="s">
         <v>635</v>
@@ -11523,19 +11520,19 @@
     </row>
     <row r="87" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="B87" s="7" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="I87" s="7" t="s">
         <v>643</v>
@@ -11547,16 +11544,16 @@
         <v>612</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="R87" s="7" t="s">
+        <v>1171</v>
+      </c>
+      <c r="S87" s="7" t="s">
         <v>1173</v>
-      </c>
-      <c r="S87" s="7" t="s">
-        <v>1175</v>
       </c>
       <c r="T87" s="7" t="s">
         <v>635</v>
@@ -11564,28 +11561,28 @@
     </row>
     <row r="88" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="J88" s="7" t="s">
         <v>170</v>
@@ -11597,42 +11594,42 @@
         <v>44</v>
       </c>
       <c r="P88" s="7" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="R88" s="7" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="S88" s="7" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="T88" s="7" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="89" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="L89" s="7" t="s">
         <v>117</v>
@@ -11641,42 +11638,42 @@
         <v>44</v>
       </c>
       <c r="P89" s="7" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="Q89" s="7" t="s">
+        <v>1198</v>
+      </c>
+      <c r="R89" s="7" t="s">
         <v>1200</v>
       </c>
-      <c r="R89" s="7" t="s">
-        <v>1202</v>
-      </c>
       <c r="S89" s="7" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="T89" s="7" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="90" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C90" s="7" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H90" s="7" t="s">
         <v>1230</v>
       </c>
-      <c r="F90" s="7" t="s">
-        <v>1195</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>1226</v>
-      </c>
-      <c r="H90" s="7" t="s">
-        <v>1232</v>
-      </c>
       <c r="I90" s="7" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="L90" s="7" t="s">
         <v>117</v>
@@ -11685,42 +11682,42 @@
         <v>44</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="Q90" s="7" t="s">
+        <v>1198</v>
+      </c>
+      <c r="R90" s="7" t="s">
         <v>1200</v>
       </c>
-      <c r="R90" s="7" t="s">
-        <v>1202</v>
-      </c>
       <c r="S90" s="7" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="T90" s="7" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="91" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="L91" s="7" t="s">
         <v>117</v>
@@ -11729,36 +11726,36 @@
         <v>44</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="Q91" s="7" t="s">
+        <v>1198</v>
+      </c>
+      <c r="R91" s="7" t="s">
         <v>1200</v>
-      </c>
-      <c r="R91" s="7" t="s">
-        <v>1202</v>
       </c>
       <c r="S91" s="7" t="s">
         <v>1002</v>
       </c>
       <c r="T91" s="7" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="92" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>101</v>
@@ -11776,13 +11773,13 @@
         <v>44</v>
       </c>
       <c r="P92" s="7" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="R92" s="7" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="S92" s="7">
         <v>1874</v>
@@ -11793,28 +11790,28 @@
     </row>
     <row r="93" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G93" s="7" t="s">
         <v>1207</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>1214</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G93" s="7" t="s">
+      <c r="H93" s="7" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I93" s="7" t="s">
         <v>1209</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>1210</v>
-      </c>
-      <c r="I93" s="7" t="s">
-        <v>1211</v>
       </c>
       <c r="L93" s="7" t="s">
         <v>117</v>
@@ -11823,16 +11820,16 @@
         <v>44</v>
       </c>
       <c r="P93" s="7" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="Q93" s="7" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="R93" s="7" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="S93" s="7" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="T93" s="7" t="s">
         <v>64</v>
@@ -11840,43 +11837,43 @@
     </row>
     <row r="94" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>962</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="I94" s="7" t="s">
         <v>170</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="O94" s="7" t="s">
         <v>44</v>
       </c>
       <c r="P94" s="7" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="Q94" s="7" t="s">
+        <v>1252</v>
+      </c>
+      <c r="R94" s="7" t="s">
+        <v>1253</v>
+      </c>
+      <c r="S94" s="7" t="s">
         <v>1254</v>
-      </c>
-      <c r="R94" s="7" t="s">
-        <v>1255</v>
-      </c>
-      <c r="S94" s="7" t="s">
-        <v>1256</v>
       </c>
       <c r="T94" s="7" t="s">
         <v>700</v>
@@ -11887,216 +11884,216 @@
         <v>703</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>1005</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="L95" s="7" t="s">
         <v>117</v>
       </c>
       <c r="R95" s="7" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="S95" s="7">
         <v>1890</v>
       </c>
       <c r="T95" s="7" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="96" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="L96" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M96" s="11" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="O96" s="7" t="s">
         <v>612</v>
       </c>
       <c r="P96" s="7" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="R96" s="7" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="S96" s="7" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="T96" s="7" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="97" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="B97" s="7" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H97" s="7" t="s">
         <v>1300</v>
       </c>
-      <c r="C97" s="7" t="s">
-        <v>1292</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>1267</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>1306</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>1302</v>
-      </c>
       <c r="I97" s="7" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="L97" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M97" s="11" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="O97" s="7" t="s">
         <v>612</v>
       </c>
       <c r="P97" s="7" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="R97" s="7" t="s">
+        <v>1287</v>
+      </c>
+      <c r="S97" s="7" t="s">
+        <v>1277</v>
+      </c>
+      <c r="T97" s="7" t="s">
         <v>1289</v>
-      </c>
-      <c r="S97" s="7" t="s">
-        <v>1279</v>
-      </c>
-      <c r="T97" s="7" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="L98" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M98" s="11" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="O98" s="7" t="s">
         <v>612</v>
       </c>
       <c r="P98" s="7" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="Q98" s="7" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="R98" s="7" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="S98" s="7" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="T98" s="7" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="99" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="L99" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M99" s="11" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="O99" s="7" t="s">
         <v>612</v>
       </c>
       <c r="P99" s="7" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="Q99" s="7" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="R99" s="7" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="S99" s="7" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="T99" s="7" t="s">
         <v>635</v>
@@ -12104,46 +12101,46 @@
     </row>
     <row r="100" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="L100" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M100" s="11" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="O100" s="7" t="s">
         <v>612</v>
       </c>
       <c r="P100" s="7" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="Q100" s="7" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="R100" s="7" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="S100" s="7" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="T100" s="7" t="s">
         <v>635</v>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC672B91-3E20-9243-83D4-24F97E4EA2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FF18DF-EE39-8648-B83D-4011F9AE068E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3433,16 +3433,10 @@
     <t>liv_020092</t>
   </si>
   <si>
-    <t>Letter to [Unknown], 25 August 1881</t>
-  </si>
-  <si>
     <t>25 August 1881</t>
   </si>
   <si>
     <t>liv_020093</t>
-  </si>
-  <si>
-    <t>Letter to [Unknown], 27 August 1881</t>
   </si>
   <si>
     <t>Chesson, Frederick William, 1833-1888</t>
@@ -3970,6 +3964,12 @@
   </si>
   <si>
     <t>Letter to Elizabeth Pease Nichol, 23 December 1881</t>
+  </si>
+  <si>
+    <t>Letter to [Frederick William Chesson?], 25 August 1881</t>
+  </si>
+  <si>
+    <t>Letter to [William Ivens Craft?], 27 August 1881</t>
   </si>
 </sst>
 </file>
@@ -4459,9 +4459,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97A9DD5-2802-8C46-B4DE-35FF576EF7FC}">
   <dimension ref="A1:AL80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q76" sqref="Q76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5424,7 +5424,7 @@
         <v>447</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>115</v>
@@ -5517,13 +5517,13 @@
     </row>
     <row r="28" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>658</v>
@@ -5541,24 +5541,24 @@
         <v>65</v>
       </c>
       <c r="P28" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="Q28" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="Q28" s="1" t="s">
-        <v>1240</v>
-      </c>
       <c r="R28" s="1" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="29" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>658</v>
@@ -5576,10 +5576,10 @@
         <v>65</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>156</v>
@@ -5648,7 +5648,7 @@
         <v>452</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>464</v>
@@ -5657,7 +5657,7 @@
         <v>178</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>115</v>
@@ -6110,7 +6110,7 @@
         <v>664</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>667</v>
@@ -6238,19 +6238,19 @@
     </row>
     <row r="48" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="D48" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>1136</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>1138</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>429</v>
@@ -6259,7 +6259,7 @@
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
       <c r="T48" s="1" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="U48" s="1">
         <v>18</v>
@@ -6268,24 +6268,24 @@
         <v>3</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="49" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>1185</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>1187</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>429</v>
@@ -6300,7 +6300,7 @@
         <v>12</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="50" spans="1:38" ht="187" x14ac:dyDescent="0.2">
@@ -6533,34 +6533,34 @@
     </row>
     <row r="56" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>1145</v>
-      </c>
       <c r="C56" s="1" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>1154</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>1155</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>1157</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>429</v>
@@ -6575,24 +6575,24 @@
         <v>5</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="57" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>1146</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>664</v>
@@ -6607,10 +6607,10 @@
         <v>76</v>
       </c>
       <c r="W57" s="5" t="s">
+        <v>1147</v>
+      </c>
+      <c r="X57" s="1" t="s">
         <v>1149</v>
-      </c>
-      <c r="X57" s="1" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="58" spans="1:38" ht="51" x14ac:dyDescent="0.2">
@@ -6762,10 +6762,10 @@
         <v>1035</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>1036</v>
@@ -7236,7 +7236,7 @@
         <v>1047</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>1086</v>
@@ -7257,7 +7257,7 @@
         <v>1087</v>
       </c>
       <c r="Q71" s="5" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="R71" s="1" t="s">
         <v>1088</v>
@@ -7476,7 +7476,7 @@
         <v>1053</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>1043</v>
@@ -7620,7 +7620,7 @@
         <v>1023</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1129</v>
+        <v>1306</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>1043</v>
@@ -7641,7 +7641,7 @@
         <v>1084</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="R79" s="1" t="s">
         <v>1083</v>
@@ -7662,16 +7662,16 @@
     </row>
     <row r="80" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>1023</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1132</v>
+        <v>1307</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>115</v>
@@ -7689,7 +7689,7 @@
         <v>1084</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
@@ -8035,7 +8035,7 @@
         <v>529</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>77</v>
@@ -11435,25 +11435,25 @@
     </row>
     <row r="85" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F85" s="7" t="s">
         <v>1158</v>
       </c>
-      <c r="B85" s="7" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>1159</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>1160</v>
-      </c>
       <c r="G85" s="7" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="L85" s="7" t="s">
         <v>117</v>
@@ -11465,10 +11465,10 @@
         <v>64</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="R85" s="7" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="S85" s="7">
         <v>1890</v>
@@ -11479,19 +11479,19 @@
     </row>
     <row r="86" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="B86" s="7" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="I86" s="7" t="s">
         <v>643</v>
@@ -11503,16 +11503,16 @@
         <v>612</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="R86" s="7" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="S86" s="7" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="T86" s="7" t="s">
         <v>635</v>
@@ -11520,19 +11520,19 @@
     </row>
     <row r="87" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="B87" s="7" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="I87" s="7" t="s">
         <v>643</v>
@@ -11544,16 +11544,16 @@
         <v>612</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="R87" s="7" t="s">
+        <v>1169</v>
+      </c>
+      <c r="S87" s="7" t="s">
         <v>1171</v>
-      </c>
-      <c r="S87" s="7" t="s">
-        <v>1173</v>
       </c>
       <c r="T87" s="7" t="s">
         <v>635</v>
@@ -11561,28 +11561,28 @@
     </row>
     <row r="88" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="J88" s="7" t="s">
         <v>170</v>
@@ -11594,42 +11594,42 @@
         <v>44</v>
       </c>
       <c r="P88" s="7" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="R88" s="7" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="S88" s="7" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="T88" s="7" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="89" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="L89" s="7" t="s">
         <v>117</v>
@@ -11638,42 +11638,42 @@
         <v>44</v>
       </c>
       <c r="P89" s="7" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="Q89" s="7" t="s">
+        <v>1196</v>
+      </c>
+      <c r="R89" s="7" t="s">
         <v>1198</v>
       </c>
-      <c r="R89" s="7" t="s">
-        <v>1200</v>
-      </c>
       <c r="S89" s="7" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="T89" s="7" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="90" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C90" s="7" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="H90" s="7" t="s">
         <v>1228</v>
       </c>
-      <c r="F90" s="7" t="s">
-        <v>1193</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>1224</v>
-      </c>
-      <c r="H90" s="7" t="s">
-        <v>1230</v>
-      </c>
       <c r="I90" s="7" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="L90" s="7" t="s">
         <v>117</v>
@@ -11682,42 +11682,42 @@
         <v>44</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="Q90" s="7" t="s">
+        <v>1196</v>
+      </c>
+      <c r="R90" s="7" t="s">
         <v>1198</v>
       </c>
-      <c r="R90" s="7" t="s">
-        <v>1200</v>
-      </c>
       <c r="S90" s="7" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="T90" s="7" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="91" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="L91" s="7" t="s">
         <v>117</v>
@@ -11726,36 +11726,36 @@
         <v>44</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="Q91" s="7" t="s">
+        <v>1196</v>
+      </c>
+      <c r="R91" s="7" t="s">
         <v>1198</v>
-      </c>
-      <c r="R91" s="7" t="s">
-        <v>1200</v>
       </c>
       <c r="S91" s="7" t="s">
         <v>1002</v>
       </c>
       <c r="T91" s="7" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="92" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>101</v>
@@ -11773,13 +11773,13 @@
         <v>44</v>
       </c>
       <c r="P92" s="7" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="R92" s="7" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="S92" s="7">
         <v>1874</v>
@@ -11790,28 +11790,28 @@
     </row>
     <row r="93" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G93" s="7" t="s">
         <v>1205</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>1212</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>1196</v>
-      </c>
-      <c r="G93" s="7" t="s">
+      <c r="H93" s="7" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I93" s="7" t="s">
         <v>1207</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>1208</v>
-      </c>
-      <c r="I93" s="7" t="s">
-        <v>1209</v>
       </c>
       <c r="L93" s="7" t="s">
         <v>117</v>
@@ -11820,16 +11820,16 @@
         <v>44</v>
       </c>
       <c r="P93" s="7" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="Q93" s="7" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="R93" s="7" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="S93" s="7" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="T93" s="7" t="s">
         <v>64</v>
@@ -11837,43 +11837,43 @@
     </row>
     <row r="94" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>962</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="I94" s="7" t="s">
         <v>170</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="O94" s="7" t="s">
         <v>44</v>
       </c>
       <c r="P94" s="7" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="Q94" s="7" t="s">
+        <v>1250</v>
+      </c>
+      <c r="R94" s="7" t="s">
+        <v>1251</v>
+      </c>
+      <c r="S94" s="7" t="s">
         <v>1252</v>
-      </c>
-      <c r="R94" s="7" t="s">
-        <v>1253</v>
-      </c>
-      <c r="S94" s="7" t="s">
-        <v>1254</v>
       </c>
       <c r="T94" s="7" t="s">
         <v>700</v>
@@ -11884,216 +11884,216 @@
         <v>703</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>1005</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="L95" s="7" t="s">
         <v>117</v>
       </c>
       <c r="R95" s="7" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="S95" s="7">
         <v>1890</v>
       </c>
       <c r="T95" s="7" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="96" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="L96" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M96" s="11" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="O96" s="7" t="s">
         <v>612</v>
       </c>
       <c r="P96" s="7" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="R96" s="7" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="S96" s="7" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="T96" s="7" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="97" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="B97" s="7" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H97" s="7" t="s">
         <v>1298</v>
       </c>
-      <c r="C97" s="7" t="s">
-        <v>1290</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>1265</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>1304</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>1300</v>
-      </c>
       <c r="I97" s="7" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="L97" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M97" s="11" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="O97" s="7" t="s">
         <v>612</v>
       </c>
       <c r="P97" s="7" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="R97" s="7" t="s">
+        <v>1285</v>
+      </c>
+      <c r="S97" s="7" t="s">
+        <v>1275</v>
+      </c>
+      <c r="T97" s="7" t="s">
         <v>1287</v>
-      </c>
-      <c r="S97" s="7" t="s">
-        <v>1277</v>
-      </c>
-      <c r="T97" s="7" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="L98" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M98" s="11" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="O98" s="7" t="s">
         <v>612</v>
       </c>
       <c r="P98" s="7" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="Q98" s="7" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="R98" s="7" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="S98" s="7" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="T98" s="7" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="99" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="L99" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M99" s="11" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="O99" s="7" t="s">
         <v>612</v>
       </c>
       <c r="P99" s="7" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="Q99" s="7" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="R99" s="7" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="S99" s="7" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="T99" s="7" t="s">
         <v>635</v>
@@ -12101,46 +12101,46 @@
     </row>
     <row r="100" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="I100" s="7" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="L100" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M100" s="11" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="O100" s="7" t="s">
         <v>612</v>
       </c>
       <c r="P100" s="7" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="Q100" s="7" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="R100" s="7" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="S100" s="7" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="T100" s="7" t="s">
         <v>635</v>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FF18DF-EE39-8648-B83D-4011F9AE068E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E322EC-9573-F243-9BE9-5E988DA40E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="1308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="1310">
   <si>
     <t>liv_000017</t>
   </si>
@@ -3970,6 +3970,12 @@
   </si>
   <si>
     <t>Letter to [William Ivens Craft?], 27 August 1881</t>
+  </si>
+  <si>
+    <t>Letter to [Frederick William Chesson?]</t>
+  </si>
+  <si>
+    <t>Letter to [William Ivens Craft?]</t>
   </si>
 </sst>
 </file>
@@ -4460,8 +4466,8 @@
   <dimension ref="A1:AL80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7617,7 +7623,7 @@
         <v>1128</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1023</v>
+        <v>1308</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>1306</v>
@@ -7665,7 +7671,7 @@
         <v>1130</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1023</v>
+        <v>1309</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>1307</v>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E322EC-9573-F243-9BE9-5E988DA40E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83FC405-A919-8E42-BD80-EE37CBAE56AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
     <sheet name="Visual Materials" sheetId="1" r:id="rId2"/>
     <sheet name="dev" sheetId="3" r:id="rId3"/>
+    <sheet name="tippu tip sandals" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="1310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="1378">
   <si>
     <t>liv_000017</t>
   </si>
@@ -3976,6 +3977,210 @@
   </si>
   <si>
     <t>Letter to [William Ivens Craft?]</t>
+  </si>
+  <si>
+    <t>liv_021097</t>
+  </si>
+  <si>
+    <t>[see separate tab]</t>
+  </si>
+  <si>
+    <t>Used by permission. E323366, Department of Anthropology, Smithsonian Institution.</t>
+  </si>
+  <si>
+    <t>https://collections.si.edu/search/detail/edanmdm:nmnhanthropology_8393171?q=tippu+tip&amp;fq=-online_media_type%3A%22Scanned+books%22&amp;fq=-object_type%3A%22Books%22&amp;fq=-object_type%3A%22Articles%22&amp;record=6&amp;hlterm=tippu%2Btip</t>
+  </si>
+  <si>
+    <t>Inscribed Sandals Gifted to Herbert Ward</t>
+  </si>
+  <si>
+    <t>Inscribed Sandals Gifted to Herbert Ward, c.1890</t>
+  </si>
+  <si>
+    <t>sandals</t>
+  </si>
+  <si>
+    <t>Smithsonian Institution. National Museum of Natural History. Anthropology Department</t>
+  </si>
+  <si>
+    <t>E323366</t>
+  </si>
+  <si>
+    <t>OMV name</t>
+  </si>
+  <si>
+    <t>original name</t>
+  </si>
+  <si>
+    <t>NHB2017-00003.tif</t>
+  </si>
+  <si>
+    <t>NHB2017-00004.tif</t>
+  </si>
+  <si>
+    <t>NHB2017-00005.tif</t>
+  </si>
+  <si>
+    <t>NHB2017-00006.tif</t>
+  </si>
+  <si>
+    <t>E323366_mnh-2451.tif</t>
+  </si>
+  <si>
+    <t>E323366_mnh-2451-A.tif</t>
+  </si>
+  <si>
+    <t>E323366_mnh-2451-B.tif</t>
+  </si>
+  <si>
+    <t>E323366-0_ANT-01-201006.tif</t>
+  </si>
+  <si>
+    <t>E323366-0_ANT-02-201006.tif</t>
+  </si>
+  <si>
+    <t>E323366-0_ANT_1of2-01-201006.tif</t>
+  </si>
+  <si>
+    <t>E323366-0_ANT_1of2-02-201006.tif</t>
+  </si>
+  <si>
+    <t>E323366-0_ANT_1of2-03-201006.tif</t>
+  </si>
+  <si>
+    <t>E323366-0_ANT_1of2-04-201006.tif</t>
+  </si>
+  <si>
+    <t>E323366-0_ANT_1of2-06-201006.tif</t>
+  </si>
+  <si>
+    <t>E323366-0_ANT_2of2-01-201006.tif</t>
+  </si>
+  <si>
+    <t>E323366-0_ANT_2of2-02-201006.tif</t>
+  </si>
+  <si>
+    <t>E323366-0_ANT_2of2-03-201006.tif</t>
+  </si>
+  <si>
+    <t>E323366-0_ANT_2of2-04-201006.tif</t>
+  </si>
+  <si>
+    <t>E323366-0_ANT_2of2-05-201006.tif</t>
+  </si>
+  <si>
+    <t>alt text</t>
+  </si>
+  <si>
+    <t>liv_021097_0001</t>
+  </si>
+  <si>
+    <t>liv_021097_0002</t>
+  </si>
+  <si>
+    <t>liv_021097_0003</t>
+  </si>
+  <si>
+    <t>liv_021097_0004</t>
+  </si>
+  <si>
+    <t>liv_021097_0005</t>
+  </si>
+  <si>
+    <t>liv_021097_0006</t>
+  </si>
+  <si>
+    <t>liv_021097_0007</t>
+  </si>
+  <si>
+    <t>liv_021097_0008</t>
+  </si>
+  <si>
+    <t>liv_021097_0009</t>
+  </si>
+  <si>
+    <t>liv_021097_0010</t>
+  </si>
+  <si>
+    <t>liv_021097_0011</t>
+  </si>
+  <si>
+    <t>liv_021097_0012</t>
+  </si>
+  <si>
+    <t>liv_021097_0013</t>
+  </si>
+  <si>
+    <t>liv_021097_0014</t>
+  </si>
+  <si>
+    <t>liv_021097_0015</t>
+  </si>
+  <si>
+    <t>liv_021097_0016</t>
+  </si>
+  <si>
+    <t>liv_021097_0017</t>
+  </si>
+  <si>
+    <t>liv_021097_0018</t>
+  </si>
+  <si>
+    <t>liv_021097_0019</t>
+  </si>
+  <si>
+    <t>Tippu Tip's inscribed sandals, one placed on its side, the other with its heel on the first.</t>
+  </si>
+  <si>
+    <t>Top view of Arabic inscription on Tippu Tip's left sandal.</t>
+  </si>
+  <si>
+    <t>Top view of Arabic inscription on Tippu Tip's right sandal.</t>
+  </si>
+  <si>
+    <t>Tippu Tip's inscribed sandals side by side, as viewed from the top with Arabic inscriptions showing.</t>
+  </si>
+  <si>
+    <t>Tippu Tip's inscribed sandals side by side, rotated at 30 degree angle to viewer's right.</t>
+  </si>
+  <si>
+    <t>Tippu Tip's inscribed sandals side by side, rotated at 330 degree angle to viewer's right.</t>
+  </si>
+  <si>
+    <t>Tippu Tip's sandals shown lengthwise, with one on left, the other on right.</t>
+  </si>
+  <si>
+    <t>Close up of Arabic inscription on Tippu Tip's right sandal.</t>
+  </si>
+  <si>
+    <t>Tippu Tip's left sandal, as shown from the front.</t>
+  </si>
+  <si>
+    <t>Tippu Tip's left sandal, as shown from the side, with front to the right.</t>
+  </si>
+  <si>
+    <t>Tippu Tip's left sandal, as shown from the side, with front to the left.</t>
+  </si>
+  <si>
+    <t>Tippu Tip's left sandal, as shown from the back.</t>
+  </si>
+  <si>
+    <t>Tippu Tip's right sandal, as shown from the side, with front to the right.</t>
+  </si>
+  <si>
+    <t>Tippu Tip's right sandal, as shown from the back.</t>
+  </si>
+  <si>
+    <t>Tippu Tip's right sandal, as shown from the side, with front to the left.</t>
+  </si>
+  <si>
+    <t>Tippu Tip's right sandal, as shown from the front.</t>
+  </si>
+  <si>
+    <t>Tippu Tip's left sandal, as shown from the bottom, with front to the right.</t>
+  </si>
+  <si>
+    <t>Tippu Tip's right sandal, as shown from the bottom, with front to the left.</t>
   </si>
 </sst>
 </file>
@@ -4039,7 +4244,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4061,6 +4266,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4093,7 +4304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4148,6 +4359,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4465,9 +4678,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97A9DD5-2802-8C46-B4DE-35FF576EF7FC}">
   <dimension ref="A1:AL80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7723,11 +7936,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ100"/>
+  <dimension ref="A1:AQ101"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12152,9 +12365,56 @@
         <v>635</v>
       </c>
     </row>
+    <row r="101" spans="1:20" ht="204" x14ac:dyDescent="0.2">
+      <c r="A101" s="7" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>1310</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>1314</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>1315</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L101" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M101" s="11" t="s">
+        <v>1316</v>
+      </c>
+      <c r="O101" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P101" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q101" s="7" t="s">
+        <v>1317</v>
+      </c>
+      <c r="R101" s="7" t="s">
+        <v>1318</v>
+      </c>
+      <c r="S101" s="7" t="s">
+        <v>980</v>
+      </c>
+      <c r="T101" s="7" t="s">
+        <v>851</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AQ101">
-    <sortCondition ref="F2:F101"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AQ100">
+    <sortCondition ref="F2:F100"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -12650,4 +12910,245 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67283B58-74C1-144E-AF5A-6B74CC9DD89C}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83FC405-A919-8E42-BD80-EE37CBAE56AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F155363-50DD-504E-981B-F9F746968664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="8820" windowWidth="25020" windowHeight="7180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
@@ -4012,63 +4012,6 @@
     <t>original name</t>
   </si>
   <si>
-    <t>NHB2017-00003.tif</t>
-  </si>
-  <si>
-    <t>NHB2017-00004.tif</t>
-  </si>
-  <si>
-    <t>NHB2017-00005.tif</t>
-  </si>
-  <si>
-    <t>NHB2017-00006.tif</t>
-  </si>
-  <si>
-    <t>E323366_mnh-2451.tif</t>
-  </si>
-  <si>
-    <t>E323366_mnh-2451-A.tif</t>
-  </si>
-  <si>
-    <t>E323366_mnh-2451-B.tif</t>
-  </si>
-  <si>
-    <t>E323366-0_ANT-01-201006.tif</t>
-  </si>
-  <si>
-    <t>E323366-0_ANT-02-201006.tif</t>
-  </si>
-  <si>
-    <t>E323366-0_ANT_1of2-01-201006.tif</t>
-  </si>
-  <si>
-    <t>E323366-0_ANT_1of2-02-201006.tif</t>
-  </si>
-  <si>
-    <t>E323366-0_ANT_1of2-03-201006.tif</t>
-  </si>
-  <si>
-    <t>E323366-0_ANT_1of2-04-201006.tif</t>
-  </si>
-  <si>
-    <t>E323366-0_ANT_1of2-06-201006.tif</t>
-  </si>
-  <si>
-    <t>E323366-0_ANT_2of2-01-201006.tif</t>
-  </si>
-  <si>
-    <t>E323366-0_ANT_2of2-02-201006.tif</t>
-  </si>
-  <si>
-    <t>E323366-0_ANT_2of2-03-201006.tif</t>
-  </si>
-  <si>
-    <t>E323366-0_ANT_2of2-04-201006.tif</t>
-  </si>
-  <si>
-    <t>E323366-0_ANT_2of2-05-201006.tif</t>
-  </si>
-  <si>
     <t>alt text</t>
   </si>
   <si>
@@ -4181,6 +4124,63 @@
   </si>
   <si>
     <t>Tippu Tip's right sandal, as shown from the bottom, with front to the left.</t>
+  </si>
+  <si>
+    <t>NHB2017-00003</t>
+  </si>
+  <si>
+    <t>NHB2017-00004</t>
+  </si>
+  <si>
+    <t>NHB2017-00005</t>
+  </si>
+  <si>
+    <t>NHB2017-00006</t>
+  </si>
+  <si>
+    <t>E323366_mnh-2451-B</t>
+  </si>
+  <si>
+    <t>E323366_mnh-2451-A</t>
+  </si>
+  <si>
+    <t>E323366_mnh-2451</t>
+  </si>
+  <si>
+    <t>E323366-0_ANT-01-201006</t>
+  </si>
+  <si>
+    <t>E323366-0_ANT-02-201006</t>
+  </si>
+  <si>
+    <t>E323366-0_ANT_1of2-01-201006</t>
+  </si>
+  <si>
+    <t>E323366-0_ANT_1of2-02-201006</t>
+  </si>
+  <si>
+    <t>E323366-0_ANT_1of2-03-201006</t>
+  </si>
+  <si>
+    <t>E323366-0_ANT_1of2-04-201006</t>
+  </si>
+  <si>
+    <t>E323366-0_ANT_1of2-06-201006</t>
+  </si>
+  <si>
+    <t>E323366-0_ANT_2of2-01-201006</t>
+  </si>
+  <si>
+    <t>E323366-0_ANT_2of2-04-201006</t>
+  </si>
+  <si>
+    <t>E323366-0_ANT_2of2-03-201006</t>
+  </si>
+  <si>
+    <t>E323366-0_ANT_2of2-02-201006</t>
+  </si>
+  <si>
+    <t>E323366-0_ANT_2of2-05-201006</t>
   </si>
 </sst>
 </file>
@@ -7938,9 +7938,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ101"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12916,8 +12916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67283B58-74C1-144E-AF5A-6B74CC9DD89C}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:C20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12935,220 +12935,221 @@
         <v>1320</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>1340</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>1341</v>
+        <v>1322</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1321</v>
+        <v>1359</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>1364</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>1342</v>
+        <v>1323</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1322</v>
+        <v>1360</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>1360</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>1343</v>
+        <v>1324</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1323</v>
+        <v>1361</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>1361</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>1344</v>
+        <v>1325</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1324</v>
+        <v>1362</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>1362</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>1345</v>
+        <v>1326</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1327</v>
+        <v>1363</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>1365</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>1346</v>
+        <v>1327</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1326</v>
+        <v>1364</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>1366</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>1347</v>
+        <v>1328</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>1325</v>
+        <v>1365</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>1363</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>1348</v>
+        <v>1329</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>1328</v>
+        <v>1366</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>1363</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>1349</v>
+        <v>1330</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>1329</v>
+        <v>1367</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>1367</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>1350</v>
+        <v>1331</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>1330</v>
+        <v>1368</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>1370</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>1351</v>
+        <v>1332</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1331</v>
+        <v>1369</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>1368</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>1352</v>
+        <v>1333</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1332</v>
+        <v>1370</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>1369</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>1353</v>
+        <v>1334</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>1333</v>
+        <v>1371</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>1371</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>1354</v>
+        <v>1335</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>1334</v>
+        <v>1372</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>1376</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>1355</v>
+        <v>1336</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>1335</v>
+        <v>1373</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>1372</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>1356</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>1357</v>
+        <v>1338</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1337</v>
+        <v>1375</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>1374</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>1358</v>
+        <v>1339</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>1336</v>
+        <v>1376</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>1373</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>1359</v>
+        <v>1340</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>1339</v>
+        <v>1377</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>1377</v>
+        <v>1358</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F155363-50DD-504E-981B-F9F746968664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C8F04E-2214-4840-9D28-6103C750228D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="8820" windowWidth="25020" windowHeight="7180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="1378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="1377">
   <si>
     <t>liv_000017</t>
   </si>
@@ -3150,9 +3150,6 @@
   </si>
   <si>
     <t>liv_020073</t>
-  </si>
-  <si>
-    <t>Craft, Alice Isabella Ellen, 1866-1917</t>
   </si>
   <si>
     <t>MSS. Brit. Emp. S. 18, C39/91</t>
@@ -3958,12 +3955,6 @@
     <t>Habega [Country Robe] (Collected by Selim Aga)</t>
   </si>
   <si>
-    <t>Letter to Frederick William Chesson, 31 August [1882?]</t>
-  </si>
-  <si>
-    <t>31 August [1882?]</t>
-  </si>
-  <si>
     <t>Letter to Elizabeth Pease Nichol, 23 December 1881</t>
   </si>
   <si>
@@ -4181,6 +4172,12 @@
   </si>
   <si>
     <t>E323366-0_ANT_2of2-05-201006</t>
+  </si>
+  <si>
+    <t>Letter to Frederick William Chesson, 31 August [1881?]</t>
+  </si>
+  <si>
+    <t>31 August [1881?]</t>
   </si>
 </sst>
 </file>
@@ -4678,9 +4675,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97A9DD5-2802-8C46-B4DE-35FF576EF7FC}">
   <dimension ref="A1:AL80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q71" sqref="Q71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5643,7 +5640,7 @@
         <v>447</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>115</v>
@@ -5736,13 +5733,13 @@
     </row>
     <row r="28" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>658</v>
@@ -5760,24 +5757,24 @@
         <v>65</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q28" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="R28" s="1" t="s">
         <v>1238</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="29" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>658</v>
@@ -5795,10 +5792,10 @@
         <v>65</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>156</v>
@@ -5867,7 +5864,7 @@
         <v>452</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>464</v>
@@ -5876,7 +5873,7 @@
         <v>178</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>115</v>
@@ -6329,7 +6326,7 @@
         <v>664</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>667</v>
@@ -6457,19 +6454,19 @@
     </row>
     <row r="48" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>1135</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>1136</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>429</v>
@@ -6478,7 +6475,7 @@
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
       <c r="T48" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="U48" s="1">
         <v>18</v>
@@ -6487,24 +6484,24 @@
         <v>3</v>
       </c>
       <c r="W48" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="X48" s="1" t="s">
         <v>1139</v>
-      </c>
-      <c r="X48" s="1" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="49" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>1184</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>1185</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>429</v>
@@ -6519,7 +6516,7 @@
         <v>12</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="50" spans="1:38" ht="187" x14ac:dyDescent="0.2">
@@ -6752,34 +6749,34 @@
     </row>
     <row r="56" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>1154</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>1155</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>429</v>
@@ -6794,24 +6791,24 @@
         <v>5</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="57" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>1144</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>1145</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>664</v>
@@ -6826,10 +6823,10 @@
         <v>76</v>
       </c>
       <c r="W57" s="5" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="58" spans="1:38" ht="51" x14ac:dyDescent="0.2">
@@ -6981,13 +6978,13 @@
         <v>1035</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>1177</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>1178</v>
-      </c>
       <c r="D61" s="1" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>115</v>
@@ -7002,13 +6999,13 @@
         <v>472</v>
       </c>
       <c r="P61" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="Q61" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="Q61" s="1" t="s">
+      <c r="R61" s="1" t="s">
         <v>1038</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>1039</v>
       </c>
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
@@ -7026,16 +7023,16 @@
     </row>
     <row r="62" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>1042</v>
-      </c>
       <c r="D62" s="1" t="s">
-        <v>1043</v>
+        <v>1018</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>115</v>
@@ -7050,10 +7047,10 @@
         <v>472</v>
       </c>
       <c r="P62" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="Q62" s="1" t="s">
         <v>1044</v>
-      </c>
-      <c r="Q62" s="1" t="s">
-        <v>1045</v>
       </c>
       <c r="R62" s="1" t="s">
         <v>1034</v>
@@ -7074,16 +7071,16 @@
     </row>
     <row r="63" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>1048</v>
-      </c>
       <c r="D63" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>115</v>
@@ -7098,13 +7095,13 @@
         <v>472</v>
       </c>
       <c r="P63" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="Q63" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="Q63" s="1" t="s">
+      <c r="R63" s="1" t="s">
         <v>1050</v>
-      </c>
-      <c r="R63" s="1" t="s">
-        <v>1051</v>
       </c>
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
@@ -7122,16 +7119,16 @@
     </row>
     <row r="64" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>1054</v>
-      </c>
       <c r="D64" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>115</v>
@@ -7146,13 +7143,13 @@
         <v>472</v>
       </c>
       <c r="P64" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="Q64" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="Q64" s="1" t="s">
+      <c r="R64" s="1" t="s">
         <v>1056</v>
-      </c>
-      <c r="R64" s="1" t="s">
-        <v>1057</v>
       </c>
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
@@ -7170,16 +7167,16 @@
     </row>
     <row r="65" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>1060</v>
-      </c>
       <c r="D65" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>115</v>
@@ -7194,10 +7191,10 @@
         <v>472</v>
       </c>
       <c r="P65" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="Q65" s="1" t="s">
         <v>1061</v>
-      </c>
-      <c r="Q65" s="1" t="s">
-        <v>1062</v>
       </c>
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
@@ -7215,16 +7212,16 @@
     </row>
     <row r="66" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>1064</v>
-      </c>
       <c r="D66" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>115</v>
@@ -7239,10 +7236,10 @@
         <v>472</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
@@ -7260,16 +7257,16 @@
     </row>
     <row r="67" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>1068</v>
-      </c>
       <c r="D67" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>115</v>
@@ -7284,13 +7281,13 @@
         <v>472</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
@@ -7308,16 +7305,16 @@
     </row>
     <row r="68" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>1072</v>
-      </c>
       <c r="D68" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>115</v>
@@ -7332,10 +7329,10 @@
         <v>472</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
@@ -7353,16 +7350,16 @@
     </row>
     <row r="69" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>1075</v>
-      </c>
       <c r="D69" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>115</v>
@@ -7377,13 +7374,13 @@
         <v>472</v>
       </c>
       <c r="P69" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="Q69" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="Q69" s="1" t="s">
+      <c r="R69" s="1" t="s">
         <v>1077</v>
-      </c>
-      <c r="R69" s="1" t="s">
-        <v>1078</v>
       </c>
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
@@ -7401,16 +7398,16 @@
     </row>
     <row r="70" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>1080</v>
-      </c>
       <c r="D70" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>115</v>
@@ -7425,13 +7422,13 @@
         <v>472</v>
       </c>
       <c r="P70" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="Q70" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="Q70" s="1" t="s">
+      <c r="R70" s="1" t="s">
         <v>1082</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>1083</v>
       </c>
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
@@ -7449,16 +7446,16 @@
     </row>
     <row r="71" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>1085</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>1303</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>1086</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>115</v>
@@ -7473,13 +7470,13 @@
         <v>472</v>
       </c>
       <c r="P71" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="Q71" s="5" t="s">
+        <v>1376</v>
+      </c>
+      <c r="R71" s="1" t="s">
         <v>1087</v>
-      </c>
-      <c r="Q71" s="5" t="s">
-        <v>1304</v>
-      </c>
-      <c r="R71" s="1" t="s">
-        <v>1088</v>
       </c>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
@@ -7497,16 +7494,16 @@
     </row>
     <row r="72" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>1090</v>
-      </c>
       <c r="D72" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>115</v>
@@ -7521,13 +7518,13 @@
         <v>472</v>
       </c>
       <c r="P72" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="Q72" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="Q72" s="1" t="s">
+      <c r="R72" s="1" t="s">
         <v>1092</v>
-      </c>
-      <c r="R72" s="1" t="s">
-        <v>1093</v>
       </c>
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
@@ -7545,16 +7542,16 @@
     </row>
     <row r="73" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>1095</v>
-      </c>
       <c r="D73" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>115</v>
@@ -7569,13 +7566,13 @@
         <v>472</v>
       </c>
       <c r="P73" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="Q73" s="1" t="s">
         <v>1096</v>
       </c>
-      <c r="Q73" s="1" t="s">
+      <c r="R73" s="1" t="s">
         <v>1097</v>
-      </c>
-      <c r="R73" s="1" t="s">
-        <v>1098</v>
       </c>
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
@@ -7593,16 +7590,16 @@
     </row>
     <row r="74" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>1101</v>
-      </c>
       <c r="D74" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>115</v>
@@ -7617,13 +7614,13 @@
         <v>472</v>
       </c>
       <c r="P74" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="Q74" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="Q74" s="1" t="s">
+      <c r="R74" s="1" t="s">
         <v>1103</v>
-      </c>
-      <c r="R74" s="1" t="s">
-        <v>1104</v>
       </c>
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
@@ -7641,13 +7638,13 @@
     </row>
     <row r="75" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>1105</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>1106</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>1025</v>
@@ -7665,13 +7662,13 @@
         <v>472</v>
       </c>
       <c r="P75" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="Q75" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="Q75" s="1" t="s">
+      <c r="R75" s="1" t="s">
         <v>1108</v>
-      </c>
-      <c r="R75" s="1" t="s">
-        <v>1109</v>
       </c>
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
@@ -7689,16 +7686,16 @@
     </row>
     <row r="76" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>115</v>
@@ -7713,13 +7710,13 @@
         <v>472</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="Q76" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="R76" s="1" t="s">
         <v>1082</v>
-      </c>
-      <c r="R76" s="1" t="s">
-        <v>1083</v>
       </c>
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
@@ -7737,16 +7734,16 @@
     </row>
     <row r="77" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>1113</v>
-      </c>
       <c r="D77" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>115</v>
@@ -7761,13 +7758,13 @@
         <v>472</v>
       </c>
       <c r="P77" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="Q77" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="Q77" s="1" t="s">
-        <v>1115</v>
-      </c>
       <c r="R77" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
@@ -7785,16 +7782,16 @@
     </row>
     <row r="78" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>1117</v>
-      </c>
       <c r="D78" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>115</v>
@@ -7809,13 +7806,13 @@
         <v>472</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="Q78" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="R78" s="1" t="s">
         <v>1092</v>
-      </c>
-      <c r="R78" s="1" t="s">
-        <v>1093</v>
       </c>
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
@@ -7833,16 +7830,16 @@
     </row>
     <row r="79" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>115</v>
@@ -7857,13 +7854,13 @@
         <v>472</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
@@ -7881,16 +7878,16 @@
     </row>
     <row r="80" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>1130</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>1307</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>1131</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>115</v>
@@ -7905,10 +7902,10 @@
         <v>472</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
@@ -8254,7 +8251,7 @@
         <v>529</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>77</v>
@@ -11607,22 +11604,22 @@
     </row>
     <row r="84" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B84" s="17" t="s">
         <v>703</v>
       </c>
       <c r="C84" s="7" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F84" s="7" t="s">
         <v>1121</v>
       </c>
-      <c r="F84" s="7" t="s">
-        <v>1122</v>
-      </c>
       <c r="G84" s="7" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H84" s="7" t="s">
         <v>1126</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>1127</v>
       </c>
       <c r="I84" s="7" t="s">
         <v>170</v>
@@ -11634,16 +11631,16 @@
         <v>116</v>
       </c>
       <c r="V84" s="10" t="s">
+        <v>1122</v>
+      </c>
+      <c r="X84" s="7" t="s">
         <v>1123</v>
-      </c>
-      <c r="X84" s="7" t="s">
-        <v>1124</v>
       </c>
       <c r="Y84" s="7" t="s">
         <v>64</v>
       </c>
       <c r="AC84" s="7" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="AG84" s="7">
         <v>1912</v>
@@ -11654,25 +11651,25 @@
     </row>
     <row r="85" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>1156</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="F85" s="7" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>1173</v>
+      </c>
+      <c r="I85" s="7" t="s">
         <v>1163</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>1157</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>1158</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>1173</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>1174</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>1164</v>
       </c>
       <c r="L85" s="7" t="s">
         <v>117</v>
@@ -11684,10 +11681,10 @@
         <v>64</v>
       </c>
       <c r="Q85" s="7" t="s">
+        <v>1166</v>
+      </c>
+      <c r="R85" s="7" t="s">
         <v>1167</v>
-      </c>
-      <c r="R85" s="7" t="s">
-        <v>1168</v>
       </c>
       <c r="S85" s="7">
         <v>1890</v>
@@ -11698,19 +11695,19 @@
     </row>
     <row r="86" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="B86" s="7" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C86" s="7" t="s">
         <v>1161</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>1162</v>
-      </c>
       <c r="F86" s="7" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G86" s="7" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H86" s="7" t="s">
         <v>1179</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>1180</v>
       </c>
       <c r="I86" s="7" t="s">
         <v>643</v>
@@ -11722,16 +11719,16 @@
         <v>612</v>
       </c>
       <c r="P86" s="7" t="s">
+        <v>1164</v>
+      </c>
+      <c r="Q86" s="7" t="s">
         <v>1165</v>
       </c>
-      <c r="Q86" s="7" t="s">
-        <v>1166</v>
-      </c>
       <c r="R86" s="7" t="s">
+        <v>1168</v>
+      </c>
+      <c r="S86" s="7" t="s">
         <v>1169</v>
-      </c>
-      <c r="S86" s="7" t="s">
-        <v>1170</v>
       </c>
       <c r="T86" s="7" t="s">
         <v>635</v>
@@ -11739,19 +11736,19 @@
     </row>
     <row r="87" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="B87" s="7" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="I87" s="7" t="s">
         <v>643</v>
@@ -11763,16 +11760,16 @@
         <v>612</v>
       </c>
       <c r="P87" s="7" t="s">
+        <v>1164</v>
+      </c>
+      <c r="Q87" s="7" t="s">
         <v>1165</v>
       </c>
-      <c r="Q87" s="7" t="s">
-        <v>1166</v>
-      </c>
       <c r="R87" s="7" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="S87" s="7" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="T87" s="7" t="s">
         <v>635</v>
@@ -11780,28 +11777,28 @@
     </row>
     <row r="88" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C88" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>1223</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>1224</v>
-      </c>
       <c r="F88" s="7" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G88" s="7" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H88" s="7" t="s">
         <v>1219</v>
       </c>
-      <c r="H88" s="7" t="s">
-        <v>1220</v>
-      </c>
       <c r="I88" s="7" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J88" s="7" t="s">
         <v>170</v>
@@ -11813,42 +11810,42 @@
         <v>44</v>
       </c>
       <c r="P88" s="7" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="Q88" s="7" t="s">
+        <v>1195</v>
+      </c>
+      <c r="R88" s="7" t="s">
         <v>1196</v>
       </c>
-      <c r="R88" s="7" t="s">
-        <v>1197</v>
-      </c>
       <c r="S88" s="7" t="s">
+        <v>1215</v>
+      </c>
+      <c r="T88" s="7" t="s">
         <v>1216</v>
-      </c>
-      <c r="T88" s="7" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="89" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="L89" s="7" t="s">
         <v>117</v>
@@ -11857,42 +11854,42 @@
         <v>44</v>
       </c>
       <c r="P89" s="7" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="R89" s="7" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="S89" s="7" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="T89" s="7" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="90" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="L90" s="7" t="s">
         <v>117</v>
@@ -11901,42 +11898,42 @@
         <v>44</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="R90" s="7" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="S90" s="7" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="T90" s="7" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="91" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="L91" s="7" t="s">
         <v>117</v>
@@ -11945,36 +11942,36 @@
         <v>44</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="R91" s="7" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="S91" s="7" t="s">
         <v>1002</v>
       </c>
       <c r="T91" s="7" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="92" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C92" s="11" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>1211</v>
       </c>
-      <c r="D92" s="7" t="s">
-        <v>1212</v>
-      </c>
       <c r="F92" s="7" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>101</v>
@@ -11992,13 +11989,13 @@
         <v>44</v>
       </c>
       <c r="P92" s="7" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="R92" s="7" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="S92" s="7">
         <v>1874</v>
@@ -12009,28 +12006,28 @@
     </row>
     <row r="93" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C93" s="7" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>1209</v>
       </c>
-      <c r="D93" s="7" t="s">
-        <v>1210</v>
-      </c>
       <c r="F93" s="7" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="G93" s="7" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H93" s="7" t="s">
         <v>1205</v>
       </c>
-      <c r="H93" s="7" t="s">
+      <c r="I93" s="7" t="s">
         <v>1206</v>
-      </c>
-      <c r="I93" s="7" t="s">
-        <v>1207</v>
       </c>
       <c r="L93" s="7" t="s">
         <v>117</v>
@@ -12039,16 +12036,16 @@
         <v>44</v>
       </c>
       <c r="P93" s="7" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="Q93" s="7" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="R93" s="7" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="S93" s="7" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="T93" s="7" t="s">
         <v>64</v>
@@ -12056,43 +12053,43 @@
     </row>
     <row r="94" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B94" s="7" t="s">
         <v>1247</v>
       </c>
-      <c r="B94" s="7" t="s">
-        <v>1248</v>
-      </c>
       <c r="C94" s="7" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>962</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="I94" s="7" t="s">
         <v>170</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="O94" s="7" t="s">
         <v>44</v>
       </c>
       <c r="P94" s="7" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="Q94" s="7" t="s">
+        <v>1249</v>
+      </c>
+      <c r="R94" s="7" t="s">
         <v>1250</v>
       </c>
-      <c r="R94" s="7" t="s">
+      <c r="S94" s="7" t="s">
         <v>1251</v>
-      </c>
-      <c r="S94" s="7" t="s">
-        <v>1252</v>
       </c>
       <c r="T94" s="7" t="s">
         <v>700</v>
@@ -12103,216 +12100,216 @@
         <v>703</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>1005</v>
       </c>
       <c r="H95" s="7" t="s">
+        <v>1255</v>
+      </c>
+      <c r="I95" s="7" t="s">
         <v>1256</v>
-      </c>
-      <c r="I95" s="7" t="s">
-        <v>1257</v>
       </c>
       <c r="L95" s="7" t="s">
         <v>117</v>
       </c>
       <c r="R95" s="7" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="S95" s="7">
         <v>1890</v>
       </c>
       <c r="T95" s="7" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="96" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B96" s="7" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>1292</v>
+      </c>
+      <c r="H96" s="7" t="s">
         <v>1296</v>
       </c>
-      <c r="C96" s="7" t="s">
-        <v>1294</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>1262</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>1293</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>1297</v>
-      </c>
       <c r="I96" s="7" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="L96" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M96" s="11" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="O96" s="7" t="s">
         <v>612</v>
       </c>
       <c r="P96" s="7" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="R96" s="7" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="S96" s="7" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="T96" s="7" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="97" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="L97" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M97" s="11" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="O97" s="7" t="s">
         <v>612</v>
       </c>
       <c r="P97" s="7" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="R97" s="7" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="S97" s="7" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="T97" s="7" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="L98" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M98" s="11" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="O98" s="7" t="s">
         <v>612</v>
       </c>
       <c r="P98" s="7" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="Q98" s="7" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="R98" s="7" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="S98" s="7" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="T98" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="99" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="L99" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M99" s="11" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="O99" s="7" t="s">
         <v>612</v>
       </c>
       <c r="P99" s="7" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="Q99" s="7" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="R99" s="7" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="S99" s="7" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="T99" s="7" t="s">
         <v>635</v>
@@ -12320,46 +12317,46 @@
     </row>
     <row r="100" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C100" s="7" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I100" s="7" t="s">
         <v>1272</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>1266</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>1282</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>1301</v>
-      </c>
-      <c r="I100" s="7" t="s">
-        <v>1273</v>
       </c>
       <c r="L100" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M100" s="11" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="O100" s="7" t="s">
         <v>612</v>
       </c>
       <c r="P100" s="7" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="Q100" s="7" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="R100" s="7" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="S100" s="7" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="T100" s="7" t="s">
         <v>635</v>
@@ -12367,22 +12364,22 @@
     </row>
     <row r="101" spans="1:20" ht="204" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="B101" s="7" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>1307</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H101" s="7" t="s">
         <v>1312</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>1311</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>1310</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>1314</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>1315</v>
       </c>
       <c r="I101" s="7" t="s">
         <v>443</v>
@@ -12391,7 +12388,7 @@
         <v>117</v>
       </c>
       <c r="M101" s="11" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="O101" s="7" t="s">
         <v>44</v>
@@ -12400,10 +12397,10 @@
         <v>45</v>
       </c>
       <c r="Q101" s="7" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="R101" s="7" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="S101" s="7" t="s">
         <v>980</v>
@@ -12916,7 +12913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67283B58-74C1-144E-AF5A-6B74CC9DD89C}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -12929,222 +12926,222 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
     </row>
   </sheetData>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C8F04E-2214-4840-9D28-6103C750228D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFB90BB-CAD1-6247-B5A7-0A334A7415EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2377" uniqueCount="1377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="1385">
   <si>
     <t>liv_000017</t>
   </si>
@@ -4178,6 +4178,30 @@
   </si>
   <si>
     <t>31 August [1881?]</t>
+  </si>
+  <si>
+    <t>liv_020064</t>
+  </si>
+  <si>
+    <t>The Missionary Magazine and Chronicle, Relating Chiefly to the Missions of the London Missionary Society</t>
+  </si>
+  <si>
+    <t>54-68</t>
+  </si>
+  <si>
+    <t>10 August 1836; September 1836</t>
+  </si>
+  <si>
+    <t>Hankey, William Alers, 1771/2-1859</t>
+  </si>
+  <si>
+    <t>Stoffles, Andries, late 1770s-1837</t>
+  </si>
+  <si>
+    <t>“Special General Meeting of the London Missionary Society” (Excerpts)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Special General Meeting of the London Missionary Society” (Excerpts), September 1836 </t>
   </si>
 </sst>
 </file>
@@ -4673,11 +4697,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97A9DD5-2802-8C46-B4DE-35FF576EF7FC}">
-  <dimension ref="A1:AL80"/>
+  <dimension ref="A1:AL81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q71" sqref="Q71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6829,66 +6853,56 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="58" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:38" ht="136" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="T58" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="U58" s="1">
+        <v>1</v>
+      </c>
+      <c r="V58" s="1">
+        <v>4</v>
+      </c>
+      <c r="W58" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="X58" s="1" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="59" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>1018</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="Q58" s="1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="R58" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="Z58" s="1"/>
-      <c r="AA58" s="1"/>
-      <c r="AB58" s="1"/>
-      <c r="AC58" s="1"/>
-      <c r="AD58" s="1"/>
-      <c r="AE58" s="1"/>
-      <c r="AF58" s="1"/>
-      <c r="AG58" s="1"/>
-      <c r="AH58" s="1"/>
-      <c r="AI58" s="1"/>
-      <c r="AJ58" s="1"/>
-      <c r="AK58" s="1"/>
-      <c r="AL58" s="1"/>
-    </row>
-    <row r="59" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>1025</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>115</v>
@@ -6903,13 +6917,13 @@
         <v>472</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
@@ -6927,16 +6941,16 @@
     </row>
     <row r="60" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>115</v>
@@ -6951,13 +6965,13 @@
         <v>472</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
@@ -6975,16 +6989,16 @@
     </row>
     <row r="61" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1176</v>
+        <v>1030</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1177</v>
+        <v>1031</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>115</v>
@@ -6999,13 +7013,13 @@
         <v>472</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
@@ -7021,18 +7035,18 @@
       <c r="AK61" s="1"/>
       <c r="AL61" s="1"/>
     </row>
-    <row r="62" spans="1:38" ht="68" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1040</v>
+        <v>1176</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1041</v>
+        <v>1177</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>115</v>
@@ -7047,13 +7061,13 @@
         <v>472</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
@@ -7069,18 +7083,18 @@
       <c r="AK62" s="1"/>
       <c r="AL62" s="1"/>
     </row>
-    <row r="63" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1042</v>
+        <v>1018</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>115</v>
@@ -7095,13 +7109,13 @@
         <v>472</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>1050</v>
+        <v>1034</v>
       </c>
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
@@ -7119,13 +7133,13 @@
     </row>
     <row r="64" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>1042</v>
@@ -7143,13 +7157,13 @@
         <v>472</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
@@ -7167,13 +7181,13 @@
     </row>
     <row r="65" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>1042</v>
@@ -7191,10 +7205,13 @@
         <v>472</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>1061</v>
+        <v>1055</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>1056</v>
       </c>
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
@@ -7212,13 +7229,13 @@
     </row>
     <row r="66" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1046</v>
+        <v>1058</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>1042</v>
@@ -7236,7 +7253,7 @@
         <v>472</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="Q66" s="1" t="s">
         <v>1061</v>
@@ -7257,13 +7274,13 @@
     </row>
     <row r="67" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>1046</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>1042</v>
@@ -7281,13 +7298,10 @@
         <v>472</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>1050</v>
+        <v>1061</v>
       </c>
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
@@ -7305,13 +7319,13 @@
     </row>
     <row r="68" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1070</v>
+        <v>1046</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>1042</v>
@@ -7329,10 +7343,13 @@
         <v>472</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="Q68" s="1" t="s">
         <v>1065</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>1050</v>
       </c>
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
@@ -7350,13 +7367,13 @@
     </row>
     <row r="69" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1046</v>
+        <v>1070</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>1042</v>
@@ -7374,13 +7391,10 @@
         <v>472</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>1076</v>
-      </c>
-      <c r="R69" s="1" t="s">
-        <v>1077</v>
+        <v>1065</v>
       </c>
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
@@ -7396,15 +7410,15 @@
       <c r="AK69" s="1"/>
       <c r="AL69" s="1"/>
     </row>
-    <row r="70" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>1046</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>1042</v>
@@ -7422,13 +7436,13 @@
         <v>472</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
@@ -7444,18 +7458,18 @@
       <c r="AK70" s="1"/>
       <c r="AL70" s="1"/>
     </row>
-    <row r="71" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>1046</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1375</v>
+        <v>1079</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1085</v>
+        <v>1042</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>115</v>
@@ -7470,13 +7484,13 @@
         <v>472</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>1086</v>
-      </c>
-      <c r="Q71" s="5" t="s">
-        <v>1376</v>
+        <v>1080</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>1081</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
@@ -7492,18 +7506,18 @@
       <c r="AK71" s="1"/>
       <c r="AL71" s="1"/>
     </row>
-    <row r="72" spans="1:38" ht="119" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>1046</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1089</v>
+        <v>1375</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1042</v>
+        <v>1085</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>115</v>
@@ -7518,13 +7532,13 @@
         <v>472</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>1091</v>
+        <v>1086</v>
+      </c>
+      <c r="Q72" s="5" t="s">
+        <v>1376</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
@@ -7540,15 +7554,15 @@
       <c r="AK72" s="1"/>
       <c r="AL72" s="1"/>
     </row>
-    <row r="73" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>1046</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>1042</v>
@@ -7566,13 +7580,13 @@
         <v>472</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
@@ -7588,18 +7602,18 @@
       <c r="AK73" s="1"/>
       <c r="AL73" s="1"/>
     </row>
-    <row r="74" spans="1:38" ht="34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1099</v>
+        <v>1046</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1118</v>
+        <v>1042</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>115</v>
@@ -7614,13 +7628,13 @@
         <v>472</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
@@ -7636,18 +7650,18 @@
       <c r="AK74" s="1"/>
       <c r="AL74" s="1"/>
     </row>
-    <row r="75" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1052</v>
+        <v>1099</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1025</v>
+        <v>1118</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>115</v>
@@ -7662,13 +7676,13 @@
         <v>472</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
@@ -7684,18 +7698,18 @@
       <c r="AK75" s="1"/>
       <c r="AL75" s="1"/>
     </row>
-    <row r="76" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>1052</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1302</v>
+        <v>1105</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1042</v>
+        <v>1025</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>115</v>
@@ -7710,13 +7724,13 @@
         <v>472</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>1081</v>
+        <v>1107</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>1082</v>
+        <v>1108</v>
       </c>
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
@@ -7732,15 +7746,15 @@
       <c r="AK76" s="1"/>
       <c r="AL76" s="1"/>
     </row>
-    <row r="77" spans="1:38" ht="119" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>1052</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1112</v>
+        <v>1302</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>1042</v>
@@ -7758,13 +7772,13 @@
         <v>472</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>1114</v>
+        <v>1081</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
@@ -7782,13 +7796,13 @@
     </row>
     <row r="78" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>1052</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>1042</v>
@@ -7806,10 +7820,10 @@
         <v>472</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>1091</v>
+        <v>1114</v>
       </c>
       <c r="R78" s="1" t="s">
         <v>1092</v>
@@ -7828,15 +7842,15 @@
       <c r="AK78" s="1"/>
       <c r="AL78" s="1"/>
     </row>
-    <row r="79" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>1127</v>
+        <v>1115</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1305</v>
+        <v>1052</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1303</v>
+        <v>1116</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>1042</v>
@@ -7854,13 +7868,13 @@
         <v>472</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>1083</v>
+        <v>1117</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>1128</v>
+        <v>1091</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
@@ -7876,18 +7890,18 @@
       <c r="AK79" s="1"/>
       <c r="AL79" s="1"/>
     </row>
-    <row r="80" spans="1:38" ht="34" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1130</v>
+        <v>1042</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>115</v>
@@ -7905,7 +7919,10 @@
         <v>1083</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>1131</v>
+        <v>1128</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>1082</v>
       </c>
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
@@ -7921,9 +7938,54 @@
       <c r="AK80" s="1"/>
       <c r="AL80" s="1"/>
     </row>
+    <row r="81" spans="1:38" ht="34" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="Z81" s="1"/>
+      <c r="AA81" s="1"/>
+      <c r="AB81" s="1"/>
+      <c r="AC81" s="1"/>
+      <c r="AD81" s="1"/>
+      <c r="AE81" s="1"/>
+      <c r="AF81" s="1"/>
+      <c r="AG81" s="1"/>
+      <c r="AH81" s="1"/>
+      <c r="AI81" s="1"/>
+      <c r="AJ81" s="1"/>
+      <c r="AK81" s="1"/>
+      <c r="AL81" s="1"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL80">
-    <sortCondition ref="A2:A80"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL81">
+    <sortCondition ref="A2:A81"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFB90BB-CAD1-6247-B5A7-0A334A7415EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282322E0-5D8F-5949-A958-6290759F0680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="9980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2387" uniqueCount="1385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="1425">
   <si>
     <t>liv_000017</t>
   </si>
@@ -4202,6 +4202,127 @@
   </si>
   <si>
     <t xml:space="preserve">“Special General Meeting of the London Missionary Society” (Excerpts), September 1836 </t>
+  </si>
+  <si>
+    <t>liv_021098</t>
+  </si>
+  <si>
+    <t>liv_021099</t>
+  </si>
+  <si>
+    <t>liv_021100</t>
+  </si>
+  <si>
+    <t>liv_021101</t>
+  </si>
+  <si>
+    <t>liv_021102</t>
+  </si>
+  <si>
+    <t>liv_021103</t>
+  </si>
+  <si>
+    <t>liv_021104</t>
+  </si>
+  <si>
+    <t>Samuel Ajayi Crowther</t>
+  </si>
+  <si>
+    <t>Samuel Ajayi Crowther, 1864</t>
+  </si>
+  <si>
+    <t>Edwards, Ernest, 1837-1903</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> URL: https://commons.wikimedia.org/wiki/File:Bishop_Samuel_Ajayi_Crowther_B.png
+URL: https://commons.wikimedia.org/wiki/File:Bishop_Samuel_Ajayi_Crowther_A.png</t>
+  </si>
+  <si>
+    <t>Public domain.</t>
+  </si>
+  <si>
+    <t>Samuel Ajayi Crowther in half profile, seated, looking slightly down and to his right.</t>
+  </si>
+  <si>
+    <t>Samuel Ajayi Crowther, 1888</t>
+  </si>
+  <si>
+    <t>Lambeth</t>
+  </si>
+  <si>
+    <t>Samuel Ajayi Crowther in formal church attire, standing, facing forward, with right hand on a book.</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Bishop_Samuel_Ajayi_Crowther_1867.png</t>
+  </si>
+  <si>
+    <t>Samuel Ajayi Crowther and Dandeson Crowther</t>
+  </si>
+  <si>
+    <t>Samuel Ajayi Crowther and Dandeson Crowther, 1870</t>
+  </si>
+  <si>
+    <t>White, Sydney Victor, 1840-1913</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Bishop_Samuel_Ajayi_Crowther_and_son_Dandeson_1870.png</t>
+  </si>
+  <si>
+    <t>Samuel Ajayi Crowther at desk in half profile; Dandeson Crowther standing behind and facing forward.</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Bishop_Samuel_Ajayi_Crowther_and_missionaries.png</t>
+  </si>
+  <si>
+    <t>Missionaries of African and European descent beneath tree in various states of repose.</t>
+  </si>
+  <si>
+    <t>“Emancipation Oak at Holwood Park, with Group of Missionaries [Including Samuel Ajayi Crowther, Center]”</t>
+  </si>
+  <si>
+    <t>“Emancipation Oak at Holwood Park, with Group of Missionaries [Including Samuel Ajayi Crowther, Center],” 1873</t>
+  </si>
+  <si>
+    <t>Holwood Park, Keston, Kent</t>
+  </si>
+  <si>
+    <t>Samuel Ajayi Crowther in formal church attire, standing, facing forward with eyes right.</t>
+  </si>
+  <si>
+    <t>https://www.npg.org.uk/collections/search/portrait/mw70352/Samuel-Ajayi-Crowther</t>
+  </si>
+  <si>
+    <t>visiting cards</t>
+  </si>
+  <si>
+    <t>Photographs Collection, NPG Ax7481</t>
+  </si>
+  <si>
+    <t>Photographs Collection, NPG x132392</t>
+  </si>
+  <si>
+    <t>March 1890</t>
+  </si>
+  <si>
+    <t>Photographs Collection, NPG Ax38357</t>
+  </si>
+  <si>
+    <t>Walker, Samuel Alexander, 1841-1922</t>
+  </si>
+  <si>
+    <t>Samuel Ajayi Crowther, March 1890</t>
+  </si>
+  <si>
+    <t>https://www.npg.org.uk/collections/search/portrait/mw148732/Samuel-Ajayi-Crowther</t>
+  </si>
+  <si>
+    <t>https://www.npg.org.uk/collections/search/portrait/mw157974/Samuel-Adjai-Crowther</t>
+  </si>
+  <si>
+    <t>Samuel Ajayi Crowther in formal church attire, standing, facing forward.</t>
+  </si>
+  <si>
+    <t>Samuel Ajayi Crowther in formal church attire, standing, facing slightly right.</t>
   </si>
 </sst>
 </file>
@@ -4699,7 +4820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97A9DD5-2802-8C46-B4DE-35FF576EF7FC}">
   <dimension ref="A1:AL81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F79" sqref="F79"/>
     </sheetView>
@@ -7995,11 +8116,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ101"/>
+  <dimension ref="A1:AQ108"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H101" sqref="H101"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AM108" sqref="AM108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12179,7 +12300,7 @@
       <c r="L95" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="R95" s="7" t="s">
+      <c r="Q95" s="7" t="s">
         <v>1258</v>
       </c>
       <c r="S95" s="7">
@@ -12469,6 +12590,287 @@
       </c>
       <c r="T101" s="7" t="s">
         <v>851</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" ht="170" x14ac:dyDescent="0.2">
+      <c r="A102" s="7" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>1385</v>
+      </c>
+      <c r="G102" s="7" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>1393</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>1394</v>
+      </c>
+      <c r="L102" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q102" s="7" t="s">
+        <v>1258</v>
+      </c>
+      <c r="S102" s="7">
+        <v>1864</v>
+      </c>
+      <c r="T102" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" ht="68" x14ac:dyDescent="0.2">
+      <c r="A103" s="7" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>1398</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L103" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q103" s="7" t="s">
+        <v>1258</v>
+      </c>
+      <c r="S103" s="7">
+        <v>1888</v>
+      </c>
+      <c r="T103" s="7" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" ht="85" x14ac:dyDescent="0.2">
+      <c r="A104" s="7" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>1406</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>1387</v>
+      </c>
+      <c r="G104" s="7" t="s">
+        <v>1402</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>1403</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>1404</v>
+      </c>
+      <c r="L104" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q104" s="7" t="s">
+        <v>1258</v>
+      </c>
+      <c r="S104" s="7">
+        <v>1870</v>
+      </c>
+      <c r="T104" s="7" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" ht="102" x14ac:dyDescent="0.2">
+      <c r="A105" s="7" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>1409</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L105" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q105" s="7" t="s">
+        <v>1258</v>
+      </c>
+      <c r="S105" s="7">
+        <v>1873</v>
+      </c>
+      <c r="T105" s="7" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" ht="68" x14ac:dyDescent="0.2">
+      <c r="A106" s="7" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>1389</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>1393</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>1394</v>
+      </c>
+      <c r="L106" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M106" s="11" t="s">
+        <v>1414</v>
+      </c>
+      <c r="O106" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P106" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q106" s="7" t="s">
+        <v>1166</v>
+      </c>
+      <c r="R106" s="7" t="s">
+        <v>1415</v>
+      </c>
+      <c r="S106" s="7">
+        <v>1864</v>
+      </c>
+      <c r="T106" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" ht="68" x14ac:dyDescent="0.2">
+      <c r="A107" s="7" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>1393</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>1394</v>
+      </c>
+      <c r="L107" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M107" s="11" t="s">
+        <v>1414</v>
+      </c>
+      <c r="O107" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P107" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q107" s="7" t="s">
+        <v>1166</v>
+      </c>
+      <c r="R107" s="7" t="s">
+        <v>1416</v>
+      </c>
+      <c r="S107" s="7">
+        <v>1864</v>
+      </c>
+      <c r="T107" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" ht="68" x14ac:dyDescent="0.2">
+      <c r="A108" s="7" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>1391</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>1420</v>
+      </c>
+      <c r="I108" s="7" t="s">
+        <v>1419</v>
+      </c>
+      <c r="L108" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O108" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P108" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q108" s="7" t="s">
+        <v>1166</v>
+      </c>
+      <c r="R108" s="7" t="s">
+        <v>1418</v>
+      </c>
+      <c r="S108" s="7" t="s">
+        <v>1417</v>
+      </c>
+      <c r="T108" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282322E0-5D8F-5949-A958-6290759F0680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B734E6E5-0B88-EA45-ADB4-18E8A7286E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="9980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
@@ -4234,10 +4234,6 @@
     <t>Edwards, Ernest, 1837-1903</t>
   </si>
   <si>
-    <t xml:space="preserve"> URL: https://commons.wikimedia.org/wiki/File:Bishop_Samuel_Ajayi_Crowther_B.png
-URL: https://commons.wikimedia.org/wiki/File:Bishop_Samuel_Ajayi_Crowther_A.png</t>
-  </si>
-  <si>
     <t>Public domain.</t>
   </si>
   <si>
@@ -4323,6 +4319,10 @@
   </si>
   <si>
     <t>Samuel Ajayi Crowther in formal church attire, standing, facing slightly right.</t>
+  </si>
+  <si>
+    <t>https://commons.wikimedia.org/wiki/File:Bishop_Samuel_Ajayi_Crowther_B.png
+https://commons.wikimedia.org/wiki/File:Bishop_Samuel_Ajayi_Crowther_A.png</t>
   </si>
 </sst>
 </file>
@@ -8118,9 +8118,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AM108" sqref="AM108"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12592,18 +12592,18 @@
         <v>851</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="170" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:20" ht="136" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B102" s="7" t="s">
         <v>1395</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="C102" s="7" t="s">
         <v>1396</v>
       </c>
-      <c r="C102" s="7" t="s">
-        <v>1397</v>
-      </c>
       <c r="D102" s="7" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="F102" s="7" t="s">
         <v>1385</v>
@@ -12632,13 +12632,13 @@
     </row>
     <row r="103" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="F103" s="7" t="s">
         <v>1386</v>
@@ -12647,7 +12647,7 @@
         <v>1392</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="I103" s="7" t="s">
         <v>170</v>
@@ -12662,30 +12662,30 @@
         <v>1888</v>
       </c>
       <c r="T103" s="7" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="85" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C104" s="7" t="s">
         <v>1405</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>1406</v>
       </c>
       <c r="F104" s="7" t="s">
         <v>1387</v>
       </c>
       <c r="G104" s="7" t="s">
+        <v>1401</v>
+      </c>
+      <c r="H104" s="7" t="s">
         <v>1402</v>
       </c>
-      <c r="H104" s="7" t="s">
+      <c r="I104" s="7" t="s">
         <v>1403</v>
-      </c>
-      <c r="I104" s="7" t="s">
-        <v>1404</v>
       </c>
       <c r="L104" s="7" t="s">
         <v>117</v>
@@ -12702,22 +12702,22 @@
     </row>
     <row r="105" spans="1:20" ht="102" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C105" s="7" t="s">
         <v>1407</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>1408</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>1388</v>
       </c>
       <c r="G105" s="7" t="s">
+        <v>1408</v>
+      </c>
+      <c r="H105" s="7" t="s">
         <v>1409</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>1410</v>
       </c>
       <c r="I105" s="7" t="s">
         <v>170</v>
@@ -12732,18 +12732,18 @@
         <v>1873</v>
       </c>
       <c r="T105" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="106" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>1162</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>1389</v>
@@ -12761,7 +12761,7 @@
         <v>117</v>
       </c>
       <c r="M106" s="11" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="O106" s="7" t="s">
         <v>16</v>
@@ -12773,7 +12773,7 @@
         <v>1166</v>
       </c>
       <c r="R106" s="7" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="S106" s="7">
         <v>1864</v>
@@ -12784,13 +12784,13 @@
     </row>
     <row r="107" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>1162</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>1390</v>
@@ -12808,7 +12808,7 @@
         <v>117</v>
       </c>
       <c r="M107" s="11" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="O107" s="7" t="s">
         <v>16</v>
@@ -12820,7 +12820,7 @@
         <v>1166</v>
       </c>
       <c r="R107" s="7" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="S107" s="7">
         <v>1864</v>
@@ -12831,13 +12831,13 @@
     </row>
     <row r="108" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>1162</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="F108" s="7" t="s">
         <v>1391</v>
@@ -12846,10 +12846,10 @@
         <v>1392</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="L108" s="7" t="s">
         <v>117</v>
@@ -12864,10 +12864,10 @@
         <v>1166</v>
       </c>
       <c r="R108" s="7" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="S108" s="7" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="T108" s="7" t="s">
         <v>64</v>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B734E6E5-0B88-EA45-ADB4-18E8A7286E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB547EEB-4D17-8046-ACA1-F0FE41206321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB547EEB-4D17-8046-ACA1-F0FE41206321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDD8897-B5F0-204E-868B-DDD81A6181A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="8000" windowWidth="25020" windowHeight="7980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
@@ -4297,9 +4297,6 @@
     <t>Photographs Collection, NPG x132392</t>
   </si>
   <si>
-    <t>March 1890</t>
-  </si>
-  <si>
     <t>Photographs Collection, NPG Ax38357</t>
   </si>
   <si>
@@ -4323,6 +4320,9 @@
   <si>
     <t>https://commons.wikimedia.org/wiki/File:Bishop_Samuel_Ajayi_Crowther_B.png
 https://commons.wikimedia.org/wiki/File:Bishop_Samuel_Ajayi_Crowther_A.png</t>
+  </si>
+  <si>
+    <t>March 1890;  [1888]</t>
   </si>
 </sst>
 </file>
@@ -8118,9 +8118,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S108" sqref="S108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12594,7 +12594,7 @@
     </row>
     <row r="102" spans="1:20" ht="136" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>1395</v>
@@ -12650,7 +12650,7 @@
         <v>1397</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>170</v>
+        <v>1417</v>
       </c>
       <c r="L103" s="7" t="s">
         <v>117</v>
@@ -12784,13 +12784,13 @@
     </row>
     <row r="107" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>1162</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>1390</v>
@@ -12831,13 +12831,13 @@
     </row>
     <row r="108" spans="1:20" ht="68" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>1162</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F108" s="7" t="s">
         <v>1391</v>
@@ -12846,10 +12846,10 @@
         <v>1392</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="L108" s="7" t="s">
         <v>117</v>
@@ -12864,10 +12864,10 @@
         <v>1166</v>
       </c>
       <c r="R108" s="7" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="S108" s="7" t="s">
-        <v>1416</v>
+        <v>1424</v>
       </c>
       <c r="T108" s="7" t="s">
         <v>64</v>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDD8897-B5F0-204E-868B-DDD81A6181A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF436244-FA87-2D48-9EF8-34EF62FE4D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="8000" windowWidth="25020" windowHeight="7980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="1425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="1433">
   <si>
     <t>liv_000017</t>
   </si>
@@ -4323,6 +4323,30 @@
   </si>
   <si>
     <t>March 1890;  [1888]</t>
+  </si>
+  <si>
+    <t>liv_020055</t>
+  </si>
+  <si>
+    <t>Letter to Henry Venn; Letter to Samuel Crowther</t>
+  </si>
+  <si>
+    <t>Letter to Henry Venn; Letter to Samuel Crowther; 27 February 1867, 4 December 1866</t>
+  </si>
+  <si>
+    <t>Crowther, Samuel Ajayi, c.1809-1891</t>
+  </si>
+  <si>
+    <t>Dewring, J.R.</t>
+  </si>
+  <si>
+    <t>27 February 1867, 4 December 1866</t>
+  </si>
+  <si>
+    <t>Mission House, Bonny; Nun Station</t>
+  </si>
+  <si>
+    <t>CMS/B/OMS/C A3 O4/226</t>
   </si>
 </sst>
 </file>
@@ -4818,11 +4842,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97A9DD5-2802-8C46-B4DE-35FF576EF7FC}">
-  <dimension ref="A1:AL81"/>
+  <dimension ref="A1:AL82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R50" sqref="R50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6664,94 +6688,97 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="50" spans="1:38" ht="187" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N50" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="51" spans="1:38" ht="187" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>898</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="AB50" s="4" t="s">
-        <v>900</v>
-      </c>
-      <c r="AC50" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="AD50" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="AE50" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI50" s="4" t="s">
-        <v>903</v>
-      </c>
-      <c r="AK50" s="4">
-        <v>1905</v>
-      </c>
-      <c r="AL50" s="4" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="51" spans="1:38" ht="68" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>676</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>429</v>
       </c>
+      <c r="AB51" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="AC51" s="4" t="s">
+        <v>901</v>
+      </c>
       <c r="AD51" s="4" t="s">
-        <v>678</v>
+        <v>902</v>
       </c>
       <c r="AE51" s="4" t="s">
         <v>64</v>
       </c>
       <c r="AI51" s="4" t="s">
-        <v>677</v>
+        <v>903</v>
       </c>
       <c r="AK51" s="4">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="AL51" s="4" t="s">
-        <v>679</v>
+        <v>904</v>
       </c>
     </row>
     <row r="52" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>673</v>
@@ -6781,12 +6808,12 @@
         <v>1904</v>
       </c>
       <c r="AL52" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="53" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>673</v>
@@ -6816,12 +6843,12 @@
         <v>1904</v>
       </c>
       <c r="AL53" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="54" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>673</v>
@@ -6851,112 +6878,112 @@
         <v>1904</v>
       </c>
       <c r="AL54" s="4" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38" ht="68" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AD55" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="AE55" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI55" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="AK55" s="4">
+        <v>1904</v>
+      </c>
+      <c r="AL55" s="4" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="55" spans="1:38" ht="85" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+    <row r="56" spans="1:38" ht="85" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K55" s="1" t="s">
+      <c r="K56" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="M55" s="7" t="s">
+      <c r="M56" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N55" s="7" t="s">
+      <c r="N56" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="O55" s="7" t="s">
+      <c r="O56" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="P55" s="1" t="s">
+      <c r="P56" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="Q55" s="1" t="s">
+      <c r="Q56" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="R55" s="1" t="s">
+      <c r="R56" s="1" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="56" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+    <row r="57" spans="1:38" ht="34" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>1145</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>1149</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>1150</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>1151</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>1152</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>1153</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>1154</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
-      <c r="T56" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="W56" s="1">
-        <v>5</v>
-      </c>
-      <c r="X56" s="1" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:38" ht="51" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>1144</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="I57" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>664</v>
+      <c r="J57" s="1" t="s">
+        <v>1154</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>429</v>
@@ -6967,111 +6994,98 @@
       <c r="T57" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="W57" s="5" t="s">
-        <v>1146</v>
+      <c r="W57" s="1">
+        <v>5</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="58" spans="1:38" ht="136" x14ac:dyDescent="0.2">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>1377</v>
+        <v>1141</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1383</v>
+        <v>1143</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1384</v>
+        <v>1144</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1381</v>
+        <v>170</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>658</v>
+        <v>1153</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1382</v>
+        <v>664</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>429</v>
       </c>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
       <c r="T58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="W58" s="5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="X58" s="1" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:38" ht="136" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="T59" s="1" t="s">
         <v>1378</v>
       </c>
-      <c r="U58" s="1">
+      <c r="U59" s="1">
         <v>1</v>
       </c>
-      <c r="V58" s="1">
+      <c r="V59" s="1">
         <v>4</v>
       </c>
-      <c r="W58" s="1" t="s">
+      <c r="W59" s="1" t="s">
         <v>1379</v>
       </c>
-      <c r="X58" s="1" t="s">
+      <c r="X59" s="1" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="59" spans="1:38" ht="51" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>1018</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="Z59" s="1"/>
-      <c r="AA59" s="1"/>
-      <c r="AB59" s="1"/>
-      <c r="AC59" s="1"/>
-      <c r="AD59" s="1"/>
-      <c r="AE59" s="1"/>
-      <c r="AF59" s="1"/>
-      <c r="AG59" s="1"/>
-      <c r="AH59" s="1"/>
-      <c r="AI59" s="1"/>
-      <c r="AJ59" s="1"/>
-      <c r="AK59" s="1"/>
-      <c r="AL59" s="1"/>
-    </row>
-    <row r="60" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>1025</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>115</v>
@@ -7086,13 +7100,13 @@
         <v>472</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
@@ -7110,16 +7124,16 @@
     </row>
     <row r="61" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>115</v>
@@ -7134,13 +7148,13 @@
         <v>472</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
@@ -7158,16 +7172,16 @@
     </row>
     <row r="62" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1176</v>
+        <v>1030</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1177</v>
+        <v>1031</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>115</v>
@@ -7182,13 +7196,13 @@
         <v>472</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
@@ -7204,18 +7218,18 @@
       <c r="AK62" s="1"/>
       <c r="AL62" s="1"/>
     </row>
-    <row r="63" spans="1:38" ht="68" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1040</v>
+        <v>1176</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1041</v>
+        <v>1177</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>115</v>
@@ -7230,13 +7244,13 @@
         <v>472</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
@@ -7252,18 +7266,18 @@
       <c r="AK63" s="1"/>
       <c r="AL63" s="1"/>
     </row>
-    <row r="64" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1042</v>
+        <v>1018</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>115</v>
@@ -7278,13 +7292,13 @@
         <v>472</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>1050</v>
+        <v>1034</v>
       </c>
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
@@ -7302,13 +7316,13 @@
     </row>
     <row r="65" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>1042</v>
@@ -7326,13 +7340,13 @@
         <v>472</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
@@ -7350,13 +7364,13 @@
     </row>
     <row r="66" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>1042</v>
@@ -7374,10 +7388,13 @@
         <v>472</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>1061</v>
+        <v>1055</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>1056</v>
       </c>
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
@@ -7395,13 +7412,13 @@
     </row>
     <row r="67" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1046</v>
+        <v>1058</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>1042</v>
@@ -7419,7 +7436,7 @@
         <v>472</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="Q67" s="1" t="s">
         <v>1061</v>
@@ -7440,13 +7457,13 @@
     </row>
     <row r="68" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>1046</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>1042</v>
@@ -7464,13 +7481,10 @@
         <v>472</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="R68" s="1" t="s">
-        <v>1050</v>
+        <v>1061</v>
       </c>
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
@@ -7488,13 +7502,13 @@
     </row>
     <row r="69" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1070</v>
+        <v>1046</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>1042</v>
@@ -7512,10 +7526,13 @@
         <v>472</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="Q69" s="1" t="s">
         <v>1065</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>1050</v>
       </c>
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
@@ -7533,13 +7550,13 @@
     </row>
     <row r="70" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1046</v>
+        <v>1070</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>1042</v>
@@ -7557,13 +7574,10 @@
         <v>472</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>1076</v>
-      </c>
-      <c r="R70" s="1" t="s">
-        <v>1077</v>
+        <v>1065</v>
       </c>
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
@@ -7579,15 +7593,15 @@
       <c r="AK70" s="1"/>
       <c r="AL70" s="1"/>
     </row>
-    <row r="71" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>1046</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>1042</v>
@@ -7605,13 +7619,13 @@
         <v>472</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
@@ -7627,18 +7641,18 @@
       <c r="AK71" s="1"/>
       <c r="AL71" s="1"/>
     </row>
-    <row r="72" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>1046</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1375</v>
+        <v>1079</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1085</v>
+        <v>1042</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>115</v>
@@ -7653,13 +7667,13 @@
         <v>472</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>1086</v>
-      </c>
-      <c r="Q72" s="5" t="s">
-        <v>1376</v>
+        <v>1080</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>1081</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
@@ -7675,18 +7689,18 @@
       <c r="AK72" s="1"/>
       <c r="AL72" s="1"/>
     </row>
-    <row r="73" spans="1:38" ht="119" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>1046</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1089</v>
+        <v>1375</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1042</v>
+        <v>1085</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>115</v>
@@ -7701,13 +7715,13 @@
         <v>472</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="Q73" s="1" t="s">
-        <v>1091</v>
+        <v>1086</v>
+      </c>
+      <c r="Q73" s="5" t="s">
+        <v>1376</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
@@ -7723,15 +7737,15 @@
       <c r="AK73" s="1"/>
       <c r="AL73" s="1"/>
     </row>
-    <row r="74" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>1046</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>1042</v>
@@ -7749,13 +7763,13 @@
         <v>472</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
@@ -7771,18 +7785,18 @@
       <c r="AK74" s="1"/>
       <c r="AL74" s="1"/>
     </row>
-    <row r="75" spans="1:38" ht="34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1099</v>
+        <v>1046</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1118</v>
+        <v>1042</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>115</v>
@@ -7797,13 +7811,13 @@
         <v>472</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
@@ -7819,18 +7833,18 @@
       <c r="AK75" s="1"/>
       <c r="AL75" s="1"/>
     </row>
-    <row r="76" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1052</v>
+        <v>1099</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1025</v>
+        <v>1118</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>115</v>
@@ -7845,13 +7859,13 @@
         <v>472</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
@@ -7867,18 +7881,18 @@
       <c r="AK76" s="1"/>
       <c r="AL76" s="1"/>
     </row>
-    <row r="77" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>1052</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1302</v>
+        <v>1105</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>1042</v>
+        <v>1025</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>115</v>
@@ -7893,13 +7907,13 @@
         <v>472</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>1081</v>
+        <v>1107</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>1082</v>
+        <v>1108</v>
       </c>
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
@@ -7915,15 +7929,15 @@
       <c r="AK77" s="1"/>
       <c r="AL77" s="1"/>
     </row>
-    <row r="78" spans="1:38" ht="119" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>1052</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1112</v>
+        <v>1302</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>1042</v>
@@ -7941,13 +7955,13 @@
         <v>472</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>1114</v>
+        <v>1081</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
@@ -7965,13 +7979,13 @@
     </row>
     <row r="79" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>1052</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>1042</v>
@@ -7989,10 +8003,10 @@
         <v>472</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>1091</v>
+        <v>1114</v>
       </c>
       <c r="R79" s="1" t="s">
         <v>1092</v>
@@ -8011,15 +8025,15 @@
       <c r="AK79" s="1"/>
       <c r="AL79" s="1"/>
     </row>
-    <row r="80" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>1127</v>
+        <v>1115</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1305</v>
+        <v>1052</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1303</v>
+        <v>1116</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>1042</v>
@@ -8037,13 +8051,13 @@
         <v>472</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>1083</v>
+        <v>1117</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>1128</v>
+        <v>1091</v>
       </c>
       <c r="R80" s="1" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
@@ -8059,18 +8073,18 @@
       <c r="AK80" s="1"/>
       <c r="AL80" s="1"/>
     </row>
-    <row r="81" spans="1:38" ht="34" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1130</v>
+        <v>1042</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>115</v>
@@ -8088,7 +8102,10 @@
         <v>1083</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>1131</v>
+        <v>1128</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>1082</v>
       </c>
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
@@ -8104,9 +8121,54 @@
       <c r="AK81" s="1"/>
       <c r="AL81" s="1"/>
     </row>
+    <row r="82" spans="1:38" ht="34" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="Z82" s="1"/>
+      <c r="AA82" s="1"/>
+      <c r="AB82" s="1"/>
+      <c r="AC82" s="1"/>
+      <c r="AD82" s="1"/>
+      <c r="AE82" s="1"/>
+      <c r="AF82" s="1"/>
+      <c r="AG82" s="1"/>
+      <c r="AH82" s="1"/>
+      <c r="AI82" s="1"/>
+      <c r="AJ82" s="1"/>
+      <c r="AK82" s="1"/>
+      <c r="AL82" s="1"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL81">
-    <sortCondition ref="A2:A81"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL82">
+    <sortCondition ref="A2:A82"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8118,8 +8180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S108" sqref="S108"/>
     </sheetView>
   </sheetViews>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF436244-FA87-2D48-9EF8-34EF62FE4D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A0F6F5-FF6F-BD45-B59E-11F6DC864E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="1433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2573" uniqueCount="1474">
   <si>
     <t>liv_000017</t>
   </si>
@@ -4347,6 +4347,129 @@
   </si>
   <si>
     <t>CMS/B/OMS/C A3 O4/226</t>
+  </si>
+  <si>
+    <t>https://archive.org/details/lifelettersoftor00duttuoft</t>
+  </si>
+  <si>
+    <t>https://archive.org/details/lifelettersoftor00duttuoft/page/18/mode/2up</t>
+  </si>
+  <si>
+    <t>https://archive.org/details/lifelettersoftor00duttuoft/page/30/mode/2up</t>
+  </si>
+  <si>
+    <t>https://archive.org/details/lifelettersoftor00duttuoft/page/38/mode/2up</t>
+  </si>
+  <si>
+    <t>https://archive.org/details/lifelettersoftor00duttuoft/page/280/mode/2up</t>
+  </si>
+  <si>
+    <t>https://archive.org/details/lifelettersoftor00duttuoft/page/294/mode/2up</t>
+  </si>
+  <si>
+    <t>Toru Dutt standing in three-quarter profile to her right with hands on chair, but facing the viewer.</t>
+  </si>
+  <si>
+    <t>Toru, Abju, and Aru Dutt standing, facing forward, with arms around one another.</t>
+  </si>
+  <si>
+    <t>Letter in neatly-written Bengali script.</t>
+  </si>
+  <si>
+    <t>Aru Dutt seated, facing forward with Toru Dutt standing at her side, hands folded on Aru's shoulder.</t>
+  </si>
+  <si>
+    <t>Handwritten letter addressed to "My dear, dear Mary."</t>
+  </si>
+  <si>
+    <t>Handwritten poem titled the "Cedars of Lebanon."</t>
+  </si>
+  <si>
+    <t>liv_021105</t>
+  </si>
+  <si>
+    <t>liv_021106</t>
+  </si>
+  <si>
+    <t>liv_021107</t>
+  </si>
+  <si>
+    <t>liv_021108</t>
+  </si>
+  <si>
+    <t>liv_021109</t>
+  </si>
+  <si>
+    <t>liv_021110</t>
+  </si>
+  <si>
+    <t>Toru Dutt</t>
+  </si>
+  <si>
+    <t>Toru, Abju, and Aru Dutt</t>
+  </si>
+  <si>
+    <t>Facsimile of Toru's Bengali Letter</t>
+  </si>
+  <si>
+    <t>Aru and Toru Dutt</t>
+  </si>
+  <si>
+    <t>Facsimile of Toru's Last English Letter [Letter to Mary E.R. Martin. 30 July 1877]</t>
+  </si>
+  <si>
+    <t>From an Original MS ["The Cedars of Lebanon." 1 November 1876]</t>
+  </si>
+  <si>
+    <t>Toru Dutt, 1921</t>
+  </si>
+  <si>
+    <t>Toru, Abju, and Aru Dutt, 1921</t>
+  </si>
+  <si>
+    <t>Aru and Toru Dutt, 1921</t>
+  </si>
+  <si>
+    <t>“Facsimile of Toru's Bengali Letter,“ 1921</t>
+  </si>
+  <si>
+    <t>“Facsimile of Toru's Last English Letter” [Letter to Mary E.R. Martin. 30 July 1877], 1921</t>
+  </si>
+  <si>
+    <t>“From an Original MS” ["The Cedars of Lebanon." 1 November 1876], 1921</t>
+  </si>
+  <si>
+    <t>Dutt, Toru, 1856-1877</t>
+  </si>
+  <si>
+    <t>Das, Harihar, 1892-1950</t>
+  </si>
+  <si>
+    <t>Life and Letters of Toru Dutt</t>
+  </si>
+  <si>
+    <t>London; Edinburgh; Glasgow; Copenhagen; New York; Toronto; Melbourne; Cape Town; Bombay; Calcutta; Madras; Shanghai; Peking</t>
+  </si>
+  <si>
+    <t>Humphrey Milford; Oxford University Press</t>
+  </si>
+  <si>
+    <t>1921; 30 July 1877</t>
+  </si>
+  <si>
+    <t>1921; 1 November 1876</t>
+  </si>
+  <si>
+    <t>opposite 18</t>
+  </si>
+  <si>
+    <t>30-31</t>
+  </si>
+  <si>
+    <t>opposite 38</t>
+  </si>
+  <si>
+    <t>294-95</t>
   </si>
 </sst>
 </file>
@@ -4470,7 +4593,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4518,9 +4641,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4844,7 +4964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97A9DD5-2802-8C46-B4DE-35FF576EF7FC}">
   <dimension ref="A1:AL82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R50" sqref="R50"/>
     </sheetView>
@@ -8178,11 +8298,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ108"/>
+  <dimension ref="A1:AQ114"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S108" sqref="S108"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W110" sqref="W110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11444,7 +11564,7 @@
       <c r="H75" s="7" t="s">
         <v>999</v>
       </c>
-      <c r="I75" s="18" t="s">
+      <c r="I75" s="17" t="s">
         <v>170</v>
       </c>
       <c r="L75" s="7" t="s">
@@ -11470,7 +11590,7 @@
       <c r="AH75" s="1"/>
     </row>
     <row r="76" spans="1:34" ht="136" x14ac:dyDescent="0.2">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="18" t="s">
         <v>947</v>
       </c>
       <c r="B76" s="17" t="s">
@@ -11488,7 +11608,7 @@
       <c r="H76" s="7" t="s">
         <v>983</v>
       </c>
-      <c r="I76" s="18" t="s">
+      <c r="I76" s="17" t="s">
         <v>170</v>
       </c>
       <c r="L76" s="7" t="s">
@@ -11540,7 +11660,7 @@
       <c r="H77" s="7" t="s">
         <v>1001</v>
       </c>
-      <c r="I77" s="18" t="s">
+      <c r="I77" s="17" t="s">
         <v>170</v>
       </c>
       <c r="L77" s="17" t="s">
@@ -11585,7 +11705,7 @@
       <c r="H78" s="7" t="s">
         <v>1003</v>
       </c>
-      <c r="I78" s="18" t="s">
+      <c r="I78" s="17" t="s">
         <v>170</v>
       </c>
       <c r="L78" s="7" t="s">
@@ -12419,7 +12539,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="85" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>1270</v>
       </c>
@@ -12466,7 +12586,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="85" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>1269</v>
       </c>
@@ -12513,7 +12633,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="85" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>1268</v>
       </c>
@@ -12560,7 +12680,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="85" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>1267</v>
       </c>
@@ -12607,7 +12727,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="204" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:34" ht="204" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>1310</v>
       </c>
@@ -12654,7 +12774,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="136" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>1423</v>
       </c>
@@ -12692,7 +12812,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="68" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>1400</v>
       </c>
@@ -12727,7 +12847,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="85" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>1404</v>
       </c>
@@ -12762,7 +12882,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="102" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>1406</v>
       </c>
@@ -12797,7 +12917,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="68" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>1412</v>
       </c>
@@ -12844,7 +12964,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="68" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
         <v>1419</v>
       </c>
@@ -12891,7 +13011,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="68" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>1420</v>
       </c>
@@ -12933,6 +13053,306 @@
       </c>
       <c r="T108" s="7" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="109" spans="1:34" ht="170" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G109" s="14" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L109" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M109" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="V109" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="W109" s="10" t="s">
+        <v>1464</v>
+      </c>
+      <c r="X109" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="Y109" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="AC109" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="AG109" s="7">
+        <v>1921</v>
+      </c>
+      <c r="AH109" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="110" spans="1:34" ht="170" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G110" s="14" t="s">
+        <v>1452</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>1458</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L110" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M110" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="V110" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="W110" s="10" t="s">
+        <v>1464</v>
+      </c>
+      <c r="X110" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="Y110" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="AC110" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="AG110" s="7">
+        <v>1921</v>
+      </c>
+      <c r="AH110" s="1" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="111" spans="1:34" ht="170" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="G111" s="14" t="s">
+        <v>1453</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>1460</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="L111" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M111" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="V111" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="W111" s="10" t="s">
+        <v>1464</v>
+      </c>
+      <c r="X111" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="Y111" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="AC111" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="AG111" s="7">
+        <v>1921</v>
+      </c>
+      <c r="AH111" s="1" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="112" spans="1:34" ht="170" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G112" s="14" t="s">
+        <v>1454</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>1459</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L112" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M112" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="V112" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="W112" s="10" t="s">
+        <v>1464</v>
+      </c>
+      <c r="X112" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="Y112" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="AC112" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="AG112" s="7">
+        <v>1921</v>
+      </c>
+      <c r="AH112" s="1" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="113" spans="1:34" ht="170" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G113" s="14" t="s">
+        <v>1455</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="L113" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M113" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="V113" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="W113" s="10" t="s">
+        <v>1464</v>
+      </c>
+      <c r="X113" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="Y113" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="AC113" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="AG113" s="7" t="s">
+        <v>1468</v>
+      </c>
+      <c r="AH113" s="1">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="114" spans="1:34" ht="170" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="G114" s="14" t="s">
+        <v>1456</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="L114" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M114" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="V114" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="W114" s="10" t="s">
+        <v>1464</v>
+      </c>
+      <c r="X114" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="Y114" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="AC114" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="AG114" s="7" t="s">
+        <v>1469</v>
+      </c>
+      <c r="AH114" s="1" t="s">
+        <v>1473</v>
       </c>
     </row>
   </sheetData>
@@ -13451,13 +13871,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>1316</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>1317</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>1318</v>
       </c>
     </row>
@@ -13465,10 +13885,10 @@
       <c r="A2" s="7" t="s">
         <v>1319</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>1356</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>1342</v>
       </c>
     </row>
@@ -13476,10 +13896,10 @@
       <c r="A3" s="7" t="s">
         <v>1320</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>1357</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>1338</v>
       </c>
     </row>
@@ -13487,10 +13907,10 @@
       <c r="A4" s="7" t="s">
         <v>1321</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>1358</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>1339</v>
       </c>
     </row>
@@ -13498,10 +13918,10 @@
       <c r="A5" s="7" t="s">
         <v>1322</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>1359</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>1340</v>
       </c>
     </row>
@@ -13509,10 +13929,10 @@
       <c r="A6" s="7" t="s">
         <v>1323</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>1360</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>1343</v>
       </c>
     </row>
@@ -13520,10 +13940,10 @@
       <c r="A7" s="7" t="s">
         <v>1324</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>1361</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>1344</v>
       </c>
     </row>
@@ -13531,10 +13951,10 @@
       <c r="A8" s="7" t="s">
         <v>1325</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>1362</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>1341</v>
       </c>
     </row>
@@ -13542,10 +13962,10 @@
       <c r="A9" s="7" t="s">
         <v>1326</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>1363</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>1341</v>
       </c>
     </row>
@@ -13553,10 +13973,10 @@
       <c r="A10" s="7" t="s">
         <v>1327</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>1364</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>1345</v>
       </c>
     </row>
@@ -13564,10 +13984,10 @@
       <c r="A11" s="7" t="s">
         <v>1328</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>1365</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>1348</v>
       </c>
     </row>
@@ -13575,10 +13995,10 @@
       <c r="A12" s="7" t="s">
         <v>1329</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>1366</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>1346</v>
       </c>
     </row>
@@ -13586,10 +14006,10 @@
       <c r="A13" s="7" t="s">
         <v>1330</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>1367</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -13597,10 +14017,10 @@
       <c r="A14" s="7" t="s">
         <v>1331</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>1368</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>1349</v>
       </c>
     </row>
@@ -13608,10 +14028,10 @@
       <c r="A15" s="7" t="s">
         <v>1332</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>1369</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -13619,10 +14039,10 @@
       <c r="A16" s="7" t="s">
         <v>1333</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>1370</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>1350</v>
       </c>
     </row>
@@ -13630,10 +14050,10 @@
       <c r="A17" s="7" t="s">
         <v>1334</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>1371</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>1353</v>
       </c>
     </row>
@@ -13641,10 +14061,10 @@
       <c r="A18" s="7" t="s">
         <v>1335</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>1372</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>1352</v>
       </c>
     </row>
@@ -13652,10 +14072,10 @@
       <c r="A19" s="7" t="s">
         <v>1336</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>1373</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>1351</v>
       </c>
     </row>
@@ -13663,10 +14083,10 @@
       <c r="A20" s="7" t="s">
         <v>1337</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>1374</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>1355</v>
       </c>
     </row>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A0F6F5-FF6F-BD45-B59E-11F6DC864E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CBBB89-4352-9446-8DD1-66C8B5C72FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="9320" windowWidth="25020" windowHeight="6400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2573" uniqueCount="1474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="1476">
   <si>
     <t>liv_000017</t>
   </si>
@@ -4382,9 +4382,6 @@
     <t>Handwritten letter addressed to "My dear, dear Mary."</t>
   </si>
   <si>
-    <t>Handwritten poem titled the "Cedars of Lebanon."</t>
-  </si>
-  <si>
     <t>liv_021105</t>
   </si>
   <si>
@@ -4418,9 +4415,6 @@
     <t>Facsimile of Toru's Last English Letter [Letter to Mary E.R. Martin. 30 July 1877]</t>
   </si>
   <si>
-    <t>From an Original MS ["The Cedars of Lebanon." 1 November 1876]</t>
-  </si>
-  <si>
     <t>Toru Dutt, 1921</t>
   </si>
   <si>
@@ -4436,9 +4430,6 @@
     <t>“Facsimile of Toru's Last English Letter” [Letter to Mary E.R. Martin. 30 July 1877], 1921</t>
   </si>
   <si>
-    <t>“From an Original MS” ["The Cedars of Lebanon." 1 November 1876], 1921</t>
-  </si>
-  <si>
     <t>Dutt, Toru, 1856-1877</t>
   </si>
   <si>
@@ -4470,6 +4461,21 @@
   </si>
   <si>
     <t>294-95</t>
+  </si>
+  <si>
+    <t>1921; [late nineteenth century]</t>
+  </si>
+  <si>
+    <t>“From an Original MS” [“The Cedars of Lebanon.” 1 November 1876]</t>
+  </si>
+  <si>
+    <t>“From an Original MS” [“The Cedars of Lebanon.” 1 November 1876], 1921</t>
+  </si>
+  <si>
+    <t>Handwritten poem signed and dated by Toru Dutt.</t>
+  </si>
+  <si>
+    <t>Handwritten poem titled the “The Cedars of Lebanon.”</t>
   </si>
 </sst>
 </file>
@@ -8301,8 +8307,8 @@
   <dimension ref="A1:AQ114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W110" sqref="W110"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13066,13 +13072,13 @@
         <v>1439</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>170</v>
@@ -13084,22 +13090,22 @@
         <v>811</v>
       </c>
       <c r="V109" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="W109" s="10" t="s">
+        <v>1461</v>
+      </c>
+      <c r="X109" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Y109" s="1" t="s">
         <v>1463</v>
       </c>
-      <c r="W109" s="10" t="s">
+      <c r="AC109" s="1" t="s">
         <v>1464</v>
       </c>
-      <c r="X109" s="1" t="s">
-        <v>1465</v>
-      </c>
-      <c r="Y109" s="1" t="s">
-        <v>1466</v>
-      </c>
-      <c r="AC109" s="1" t="s">
-        <v>1467</v>
-      </c>
-      <c r="AG109" s="7">
-        <v>1921</v>
+      <c r="AG109" s="7" t="s">
+        <v>1471</v>
       </c>
       <c r="AH109" s="1" t="s">
         <v>207</v>
@@ -13116,13 +13122,13 @@
         <v>1440</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>170</v>
@@ -13134,25 +13140,25 @@
         <v>811</v>
       </c>
       <c r="V110" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="W110" s="10" t="s">
+        <v>1461</v>
+      </c>
+      <c r="X110" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Y110" s="1" t="s">
         <v>1463</v>
       </c>
-      <c r="W110" s="10" t="s">
+      <c r="AC110" s="1" t="s">
         <v>1464</v>
       </c>
-      <c r="X110" s="1" t="s">
-        <v>1465</v>
-      </c>
-      <c r="Y110" s="1" t="s">
-        <v>1466</v>
-      </c>
-      <c r="AC110" s="1" t="s">
+      <c r="AG110" s="7" t="s">
+        <v>1471</v>
+      </c>
+      <c r="AH110" s="1" t="s">
         <v>1467</v>
-      </c>
-      <c r="AG110" s="7">
-        <v>1921</v>
-      </c>
-      <c r="AH110" s="1" t="s">
-        <v>1470</v>
       </c>
     </row>
     <row r="111" spans="1:34" ht="170" x14ac:dyDescent="0.2">
@@ -13166,16 +13172,16 @@
         <v>1441</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="H111" s="7" t="s">
+        <v>1458</v>
+      </c>
+      <c r="I111" s="1" t="s">
         <v>1460</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>1463</v>
       </c>
       <c r="L111" s="7" t="s">
         <v>115</v>
@@ -13184,25 +13190,25 @@
         <v>811</v>
       </c>
       <c r="V111" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="W111" s="10" t="s">
+        <v>1461</v>
+      </c>
+      <c r="X111" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Y111" s="1" t="s">
         <v>1463</v>
       </c>
-      <c r="W111" s="10" t="s">
+      <c r="AC111" s="1" t="s">
         <v>1464</v>
       </c>
-      <c r="X111" s="1" t="s">
-        <v>1465</v>
-      </c>
-      <c r="Y111" s="1" t="s">
-        <v>1466</v>
-      </c>
-      <c r="AC111" s="1" t="s">
-        <v>1467</v>
-      </c>
-      <c r="AG111" s="7">
-        <v>1921</v>
+      <c r="AG111" s="7" t="s">
+        <v>1471</v>
       </c>
       <c r="AH111" s="1" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="112" spans="1:34" ht="170" x14ac:dyDescent="0.2">
@@ -13216,13 +13222,13 @@
         <v>1442</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>170</v>
@@ -13234,25 +13240,25 @@
         <v>811</v>
       </c>
       <c r="V112" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="W112" s="10" t="s">
+        <v>1461</v>
+      </c>
+      <c r="X112" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Y112" s="1" t="s">
         <v>1463</v>
       </c>
-      <c r="W112" s="10" t="s">
+      <c r="AC112" s="1" t="s">
         <v>1464</v>
       </c>
-      <c r="X112" s="1" t="s">
-        <v>1465</v>
-      </c>
-      <c r="Y112" s="1" t="s">
-        <v>1466</v>
-      </c>
-      <c r="AC112" s="1" t="s">
-        <v>1467</v>
-      </c>
-      <c r="AG112" s="7">
-        <v>1921</v>
+      <c r="AG112" s="7" t="s">
+        <v>1471</v>
       </c>
       <c r="AH112" s="1" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="113" spans="1:34" ht="170" x14ac:dyDescent="0.2">
@@ -13266,16 +13272,16 @@
         <v>1443</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="L113" s="7" t="s">
         <v>115</v>
@@ -13284,22 +13290,22 @@
         <v>811</v>
       </c>
       <c r="V113" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="W113" s="10" t="s">
+        <v>1461</v>
+      </c>
+      <c r="X113" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Y113" s="1" t="s">
         <v>1463</v>
       </c>
-      <c r="W113" s="10" t="s">
+      <c r="AC113" s="1" t="s">
         <v>1464</v>
       </c>
-      <c r="X113" s="1" t="s">
+      <c r="AG113" s="7" t="s">
         <v>1465</v>
-      </c>
-      <c r="Y113" s="1" t="s">
-        <v>1466</v>
-      </c>
-      <c r="AC113" s="1" t="s">
-        <v>1467</v>
-      </c>
-      <c r="AG113" s="7" t="s">
-        <v>1468</v>
       </c>
       <c r="AH113" s="1">
         <v>281</v>
@@ -13313,19 +13319,22 @@
         <v>1395</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1444</v>
+        <v>1475</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>1474</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>1456</v>
+        <v>1472</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>1462</v>
+        <v>1473</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="L114" s="7" t="s">
         <v>115</v>
@@ -13334,25 +13343,25 @@
         <v>811</v>
       </c>
       <c r="V114" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="W114" s="10" t="s">
+        <v>1461</v>
+      </c>
+      <c r="X114" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="Y114" s="1" t="s">
         <v>1463</v>
       </c>
-      <c r="W114" s="10" t="s">
+      <c r="AC114" s="1" t="s">
         <v>1464</v>
       </c>
-      <c r="X114" s="1" t="s">
-        <v>1465</v>
-      </c>
-      <c r="Y114" s="1" t="s">
+      <c r="AG114" s="7" t="s">
         <v>1466</v>
       </c>
-      <c r="AC114" s="1" t="s">
-        <v>1467</v>
-      </c>
-      <c r="AG114" s="7" t="s">
-        <v>1469</v>
-      </c>
       <c r="AH114" s="1" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
     </row>
   </sheetData>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CBBB89-4352-9446-8DD1-66C8B5C72FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496AF3C2-9415-DB45-833D-5194DDD74A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="9320" windowWidth="25020" windowHeight="6400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="720" windowWidth="25020" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
@@ -4412,9 +4412,6 @@
     <t>Aru and Toru Dutt</t>
   </si>
   <si>
-    <t>Facsimile of Toru's Last English Letter [Letter to Mary E.R. Martin. 30 July 1877]</t>
-  </si>
-  <si>
     <t>Toru Dutt, 1921</t>
   </si>
   <si>
@@ -4476,6 +4473,9 @@
   </si>
   <si>
     <t>Handwritten poem titled the “The Cedars of Lebanon.”</t>
+  </si>
+  <si>
+    <t>“Facsimile of Toru's Last English Letter” [Letter to Mary E.R. Martin. 30 July 1877]</t>
   </si>
 </sst>
 </file>
@@ -8306,9 +8306,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C114" sqref="C114"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13078,7 +13078,7 @@
         <v>1450</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>170</v>
@@ -13090,22 +13090,22 @@
         <v>811</v>
       </c>
       <c r="V109" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="W109" s="10" t="s">
         <v>1460</v>
       </c>
-      <c r="W109" s="10" t="s">
+      <c r="X109" s="1" t="s">
         <v>1461</v>
       </c>
-      <c r="X109" s="1" t="s">
+      <c r="Y109" s="1" t="s">
         <v>1462</v>
       </c>
-      <c r="Y109" s="1" t="s">
+      <c r="AC109" s="1" t="s">
         <v>1463</v>
       </c>
-      <c r="AC109" s="1" t="s">
-        <v>1464</v>
-      </c>
       <c r="AG109" s="7" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="AH109" s="1" t="s">
         <v>207</v>
@@ -13128,7 +13128,7 @@
         <v>1451</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>170</v>
@@ -13140,25 +13140,25 @@
         <v>811</v>
       </c>
       <c r="V110" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="W110" s="10" t="s">
         <v>1460</v>
       </c>
-      <c r="W110" s="10" t="s">
+      <c r="X110" s="1" t="s">
         <v>1461</v>
       </c>
-      <c r="X110" s="1" t="s">
+      <c r="Y110" s="1" t="s">
         <v>1462</v>
       </c>
-      <c r="Y110" s="1" t="s">
+      <c r="AC110" s="1" t="s">
         <v>1463</v>
       </c>
-      <c r="AC110" s="1" t="s">
-        <v>1464</v>
-      </c>
       <c r="AG110" s="7" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="AH110" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="111" spans="1:34" ht="170" x14ac:dyDescent="0.2">
@@ -13178,10 +13178,10 @@
         <v>1452</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="L111" s="7" t="s">
         <v>115</v>
@@ -13190,25 +13190,25 @@
         <v>811</v>
       </c>
       <c r="V111" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="W111" s="10" t="s">
         <v>1460</v>
       </c>
-      <c r="W111" s="10" t="s">
+      <c r="X111" s="1" t="s">
         <v>1461</v>
       </c>
-      <c r="X111" s="1" t="s">
+      <c r="Y111" s="1" t="s">
         <v>1462</v>
       </c>
-      <c r="Y111" s="1" t="s">
+      <c r="AC111" s="1" t="s">
         <v>1463</v>
       </c>
-      <c r="AC111" s="1" t="s">
-        <v>1464</v>
-      </c>
       <c r="AG111" s="7" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="AH111" s="1" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="112" spans="1:34" ht="170" x14ac:dyDescent="0.2">
@@ -13228,7 +13228,7 @@
         <v>1453</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>170</v>
@@ -13240,25 +13240,25 @@
         <v>811</v>
       </c>
       <c r="V112" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="W112" s="10" t="s">
         <v>1460</v>
       </c>
-      <c r="W112" s="10" t="s">
+      <c r="X112" s="1" t="s">
         <v>1461</v>
       </c>
-      <c r="X112" s="1" t="s">
+      <c r="Y112" s="1" t="s">
         <v>1462</v>
       </c>
-      <c r="Y112" s="1" t="s">
+      <c r="AC112" s="1" t="s">
         <v>1463</v>
       </c>
-      <c r="AC112" s="1" t="s">
-        <v>1464</v>
-      </c>
       <c r="AG112" s="7" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="AH112" s="1" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="113" spans="1:34" ht="170" x14ac:dyDescent="0.2">
@@ -13275,13 +13275,13 @@
         <v>1448</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>1454</v>
+        <v>1475</v>
       </c>
       <c r="H113" s="7" t="s">
+        <v>1458</v>
+      </c>
+      <c r="I113" s="1" t="s">
         <v>1459</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>1460</v>
       </c>
       <c r="L113" s="7" t="s">
         <v>115</v>
@@ -13290,22 +13290,22 @@
         <v>811</v>
       </c>
       <c r="V113" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="W113" s="10" t="s">
         <v>1460</v>
       </c>
-      <c r="W113" s="10" t="s">
+      <c r="X113" s="1" t="s">
         <v>1461</v>
       </c>
-      <c r="X113" s="1" t="s">
+      <c r="Y113" s="1" t="s">
         <v>1462</v>
       </c>
-      <c r="Y113" s="1" t="s">
+      <c r="AC113" s="1" t="s">
         <v>1463</v>
       </c>
-      <c r="AC113" s="1" t="s">
+      <c r="AG113" s="7" t="s">
         <v>1464</v>
-      </c>
-      <c r="AG113" s="7" t="s">
-        <v>1465</v>
       </c>
       <c r="AH113" s="1">
         <v>281</v>
@@ -13319,22 +13319,22 @@
         <v>1395</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>1449</v>
       </c>
       <c r="G114" s="14" t="s">
+        <v>1471</v>
+      </c>
+      <c r="H114" s="7" t="s">
         <v>1472</v>
       </c>
-      <c r="H114" s="7" t="s">
-        <v>1473</v>
-      </c>
       <c r="I114" s="1" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="L114" s="7" t="s">
         <v>115</v>
@@ -13343,25 +13343,25 @@
         <v>811</v>
       </c>
       <c r="V114" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="W114" s="10" t="s">
         <v>1460</v>
       </c>
-      <c r="W114" s="10" t="s">
+      <c r="X114" s="1" t="s">
         <v>1461</v>
       </c>
-      <c r="X114" s="1" t="s">
+      <c r="Y114" s="1" t="s">
         <v>1462</v>
       </c>
-      <c r="Y114" s="1" t="s">
+      <c r="AC114" s="1" t="s">
         <v>1463</v>
       </c>
-      <c r="AC114" s="1" t="s">
-        <v>1464</v>
-      </c>
       <c r="AG114" s="7" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="AH114" s="1" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
   </sheetData>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496AF3C2-9415-DB45-833D-5194DDD74A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1170D3-FAE3-0649-BB5B-536F59272F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="720" windowWidth="25020" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="1476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="1483">
   <si>
     <t>liv_000017</t>
   </si>
@@ -4476,6 +4476,27 @@
   </si>
   <si>
     <t>“Facsimile of Toru's Last English Letter” [Letter to Mary E.R. Martin. 30 July 1877]</t>
+  </si>
+  <si>
+    <t>https://churchmissionsociety.org/</t>
+  </si>
+  <si>
+    <t>Used by permission.</t>
+  </si>
+  <si>
+    <t>Samuel Ajayi Crowther, seated, in quarter profile turned to his left but facing forward.</t>
+  </si>
+  <si>
+    <t>liv_021111</t>
+  </si>
+  <si>
+    <t>Samuel Ajayi Crowther, 1880s</t>
+  </si>
+  <si>
+    <t>Church Mission Society Archives</t>
+  </si>
+  <si>
+    <t>1880s</t>
   </si>
 </sst>
 </file>
@@ -8304,11 +8325,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ114"/>
+  <dimension ref="A1:AQ115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G113" sqref="G113"/>
+      <selection pane="bottomLeft" activeCell="T115" sqref="T115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13362,6 +13383,47 @@
       </c>
       <c r="AH114" s="1" t="s">
         <v>1469</v>
+      </c>
+    </row>
+    <row r="115" spans="1:34" ht="51" x14ac:dyDescent="0.2">
+      <c r="A115" s="7" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>1480</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L115" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O115" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P115" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q115" s="7" t="s">
+        <v>1481</v>
+      </c>
+      <c r="S115" s="7" t="s">
+        <v>1482</v>
+      </c>
+      <c r="T115" s="7" t="s">
+        <v>700</v>
       </c>
     </row>
   </sheetData>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1170D3-FAE3-0649-BB5B-536F59272F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75466728-6075-4844-A220-05C7CC3F7836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="720" windowWidth="25020" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="9080" windowWidth="25020" windowHeight="6640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="1483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2604" uniqueCount="1491">
   <si>
     <t>liv_000017</t>
   </si>
@@ -1743,9 +1743,6 @@
   </si>
   <si>
     <t>“The Late Mr. James Cameron of Madagascar” (Excerpt), 1 March 1876</t>
-  </si>
-  <si>
-    <t>Ranavalona-Manjaka I, c.1788-1861</t>
   </si>
   <si>
     <t>Nosuthu, c.1805-1887</t>
@@ -4497,6 +4494,33 @@
   </si>
   <si>
     <t>1880s</t>
+  </si>
+  <si>
+    <t>liv_021112</t>
+  </si>
+  <si>
+    <t>Ranavalona II, 1829-1883</t>
+  </si>
+  <si>
+    <t>CWM/LMS/Home/Madagascar Pictures/7</t>
+  </si>
+  <si>
+    <t>Court of Ranavalona II, Antananarivo, Madagascar</t>
+  </si>
+  <si>
+    <t>Address to the Directors of the London Missionary Society, 1874</t>
+  </si>
+  <si>
+    <t>Address to the Directors of the London Missionary Society</t>
+  </si>
+  <si>
+    <t>https://digital.soas.ac.uk/CW00000004/00001?search=ranavalona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Images from the Council for World Mission Archive, SOAS Library, University of London. Used by permission for private study, educational or research purposes only. </t>
+  </si>
+  <si>
+    <t>Illuminated ms. in green, red, gold, and black to “the Directors of the London Missionary Society.”</t>
   </si>
 </sst>
 </file>
@@ -4991,9 +5015,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97A9DD5-2802-8C46-B4DE-35FF576EF7FC}">
   <dimension ref="A1:AL82"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R50" sqref="R50"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5097,10 +5121,10 @@
         <v>247</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AD1" s="2" t="s">
         <v>246</v>
@@ -5854,7 +5878,7 @@
         <v>170</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>429</v>
@@ -5956,7 +5980,7 @@
         <v>447</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>115</v>
@@ -6049,16 +6073,16 @@
     </row>
     <row r="28" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>115</v>
@@ -6073,27 +6097,27 @@
         <v>65</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="Q28" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="R28" s="1" t="s">
         <v>1237</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="29" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>115</v>
@@ -6108,10 +6132,10 @@
         <v>65</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>156</v>
@@ -6180,7 +6204,7 @@
         <v>452</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>464</v>
@@ -6189,7 +6213,7 @@
         <v>178</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>115</v>
@@ -6215,51 +6239,51 @@
     </row>
     <row r="33" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>648</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>429</v>
       </c>
       <c r="Z33" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="AD33" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="AE33" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="AD33" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="AE33" s="4" t="s">
+      <c r="AI33" s="4" t="s">
         <v>649</v>
-      </c>
-      <c r="AI33" s="4" t="s">
-        <v>650</v>
       </c>
       <c r="AK33" s="4">
         <v>1855</v>
       </c>
       <c r="AL33" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="34" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="D34" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>115</v>
@@ -6274,27 +6298,27 @@
         <v>472</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="35" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>598</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>599</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>115</v>
@@ -6309,24 +6333,24 @@
         <v>472</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="36" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>618</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>619</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>170</v>
@@ -6338,7 +6362,7 @@
         <v>429</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="U36" s="1">
         <v>3</v>
@@ -6347,39 +6371,39 @@
         <v>25</v>
       </c>
       <c r="W36" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="X36" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="X36" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="37" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>654</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>655</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>657</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>658</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>429</v>
       </c>
       <c r="T37" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="U37" s="1">
         <v>2</v>
@@ -6388,45 +6412,45 @@
         <v>20</v>
       </c>
       <c r="W37" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="38" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>913</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>429</v>
       </c>
       <c r="Z38" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="AD38" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="AE38" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="AD38" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="AE38" s="4" t="s">
-        <v>649</v>
-      </c>
       <c r="AI38" s="4" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AK38" s="4">
         <v>1855</v>
       </c>
       <c r="AL38" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="39" spans="1:38" ht="102" x14ac:dyDescent="0.2">
@@ -6551,16 +6575,16 @@
         <v>548</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>828</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>829</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>170</v>
@@ -6569,7 +6593,7 @@
         <v>557</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>429</v>
@@ -6601,7 +6625,7 @@
         <v>566</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>567</v>
+        <v>1483</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>559</v>
@@ -6624,31 +6648,31 @@
     </row>
     <row r="44" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>662</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E44" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>664</v>
-      </c>
       <c r="G44" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H44" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>667</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>668</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>429</v>
@@ -6660,18 +6684,18 @@
         <v>5</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="45" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>906</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>907</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>264</v>
@@ -6683,16 +6707,16 @@
         <v>264</v>
       </c>
       <c r="AA45" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="AD45" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="AE45" s="4" t="s">
         <v>908</v>
       </c>
-      <c r="AD45" s="4" t="s">
-        <v>906</v>
-      </c>
-      <c r="AE45" s="4" t="s">
+      <c r="AI45" s="4" t="s">
         <v>909</v>
-      </c>
-      <c r="AI45" s="4" t="s">
-        <v>910</v>
       </c>
       <c r="AK45" s="4">
         <v>1846</v>
@@ -6700,13 +6724,13 @@
     </row>
     <row r="46" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>880</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>881</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>32</v>
@@ -6718,33 +6742,33 @@
         <v>16</v>
       </c>
       <c r="N46" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="O46" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="O46" s="7" t="s">
-        <v>610</v>
-      </c>
       <c r="P46" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="47" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>884</v>
-      </c>
       <c r="D47" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>115</v>
@@ -6753,36 +6777,36 @@
         <v>16</v>
       </c>
       <c r="N47" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="O47" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="O47" s="7" t="s">
-        <v>610</v>
-      </c>
       <c r="P47" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="R47" s="1" t="s">
         <v>888</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="R47" s="1" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="48" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>1134</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>1135</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>429</v>
@@ -6791,7 +6815,7 @@
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
       <c r="T48" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="U48" s="1">
         <v>18</v>
@@ -6800,24 +6824,24 @@
         <v>3</v>
       </c>
       <c r="W48" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="X48" s="1" t="s">
         <v>1138</v>
-      </c>
-      <c r="X48" s="1" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="49" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>1183</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>1184</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>429</v>
@@ -6832,24 +6856,24 @@
         <v>12</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="50" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>1425</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>1426</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>1427</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>1428</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>1429</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>115</v>
@@ -6858,223 +6882,223 @@
         <v>16</v>
       </c>
       <c r="N50" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="O50" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="O50" s="7" t="s">
-        <v>610</v>
-      </c>
       <c r="P50" s="1" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="Q50" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="R50" s="1" t="s">
         <v>1430</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="51" spans="1:38" ht="187" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>897</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>898</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AB51" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="AC51" s="4" t="s">
         <v>900</v>
       </c>
-      <c r="AC51" s="4" t="s">
+      <c r="AD51" s="4" t="s">
         <v>901</v>
-      </c>
-      <c r="AD51" s="4" t="s">
-        <v>902</v>
       </c>
       <c r="AE51" s="4" t="s">
         <v>64</v>
       </c>
       <c r="AI51" s="4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AK51" s="4">
         <v>1905</v>
       </c>
       <c r="AL51" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="52" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>676</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AD52" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AE52" s="4" t="s">
         <v>64</v>
       </c>
       <c r="AI52" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AK52" s="4">
         <v>1904</v>
       </c>
       <c r="AL52" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="53" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>676</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AD53" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AE53" s="4" t="s">
         <v>64</v>
       </c>
       <c r="AI53" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AK53" s="4">
         <v>1904</v>
       </c>
       <c r="AL53" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="54" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>676</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AD54" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AE54" s="4" t="s">
         <v>64</v>
       </c>
       <c r="AI54" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AK54" s="4">
         <v>1904</v>
       </c>
       <c r="AL54" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="55" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>676</v>
       </c>
       <c r="K55" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AD55" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AE55" s="4" t="s">
         <v>64</v>
       </c>
       <c r="AI55" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AK55" s="4">
         <v>1904</v>
       </c>
       <c r="AL55" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="56" spans="1:38" ht="85" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>821</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>822</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>170</v>
@@ -7086,51 +7110,51 @@
         <v>16</v>
       </c>
       <c r="N56" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="O56" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="O56" s="7" t="s">
-        <v>610</v>
-      </c>
       <c r="P56" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="Q56" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="R56" s="1" t="s">
         <v>823</v>
-      </c>
-      <c r="R56" s="1" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="57" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="J57" s="1" t="s">
         <v>1153</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>1154</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>429</v>
@@ -7145,27 +7169,27 @@
         <v>5</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="58" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>1143</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>1144</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>429</v>
@@ -7177,36 +7201,36 @@
         <v>76</v>
       </c>
       <c r="W58" s="5" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="59" spans="1:38" ht="136" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>1383</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>1384</v>
-      </c>
       <c r="D59" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>1381</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>1382</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>429</v>
       </c>
       <c r="T59" s="1" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="U59" s="1">
         <v>1</v>
@@ -7215,24 +7239,24 @@
         <v>4</v>
       </c>
       <c r="W59" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="X59" s="1" t="s">
         <v>1379</v>
-      </c>
-      <c r="X59" s="1" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="60" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>1017</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>1018</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>115</v>
@@ -7247,13 +7271,13 @@
         <v>472</v>
       </c>
       <c r="P60" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Q60" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="Q60" s="1" t="s">
+      <c r="R60" s="1" t="s">
         <v>1020</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>1021</v>
       </c>
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
@@ -7271,16 +7295,16 @@
     </row>
     <row r="61" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>1024</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>1025</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>115</v>
@@ -7295,13 +7319,13 @@
         <v>472</v>
       </c>
       <c r="P61" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="Q61" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="Q61" s="1" t="s">
+      <c r="R61" s="1" t="s">
         <v>1027</v>
-      </c>
-      <c r="R61" s="1" t="s">
-        <v>1028</v>
       </c>
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
@@ -7319,16 +7343,16 @@
     </row>
     <row r="62" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>1031</v>
-      </c>
       <c r="D62" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>115</v>
@@ -7343,13 +7367,13 @@
         <v>472</v>
       </c>
       <c r="P62" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="Q62" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="Q62" s="1" t="s">
+      <c r="R62" s="1" t="s">
         <v>1033</v>
-      </c>
-      <c r="R62" s="1" t="s">
-        <v>1034</v>
       </c>
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
@@ -7367,16 +7391,16 @@
     </row>
     <row r="63" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>1177</v>
-      </c>
       <c r="D63" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>115</v>
@@ -7391,13 +7415,13 @@
         <v>472</v>
       </c>
       <c r="P63" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="Q63" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="Q63" s="1" t="s">
+      <c r="R63" s="1" t="s">
         <v>1037</v>
-      </c>
-      <c r="R63" s="1" t="s">
-        <v>1038</v>
       </c>
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
@@ -7415,16 +7439,16 @@
     </row>
     <row r="64" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>1041</v>
-      </c>
       <c r="D64" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>115</v>
@@ -7439,13 +7463,13 @@
         <v>472</v>
       </c>
       <c r="P64" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="Q64" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="Q64" s="1" t="s">
-        <v>1044</v>
-      </c>
       <c r="R64" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
@@ -7463,16 +7487,16 @@
     </row>
     <row r="65" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>1047</v>
-      </c>
       <c r="D65" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>115</v>
@@ -7487,13 +7511,13 @@
         <v>472</v>
       </c>
       <c r="P65" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="Q65" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="Q65" s="1" t="s">
+      <c r="R65" s="1" t="s">
         <v>1049</v>
-      </c>
-      <c r="R65" s="1" t="s">
-        <v>1050</v>
       </c>
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
@@ -7511,16 +7535,16 @@
     </row>
     <row r="66" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>1053</v>
-      </c>
       <c r="D66" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>115</v>
@@ -7535,13 +7559,13 @@
         <v>472</v>
       </c>
       <c r="P66" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="Q66" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="Q66" s="1" t="s">
+      <c r="R66" s="1" t="s">
         <v>1055</v>
-      </c>
-      <c r="R66" s="1" t="s">
-        <v>1056</v>
       </c>
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
@@ -7559,16 +7583,16 @@
     </row>
     <row r="67" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>1059</v>
-      </c>
       <c r="D67" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>115</v>
@@ -7583,10 +7607,10 @@
         <v>472</v>
       </c>
       <c r="P67" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="Q67" s="1" t="s">
         <v>1060</v>
-      </c>
-      <c r="Q67" s="1" t="s">
-        <v>1061</v>
       </c>
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
@@ -7604,16 +7628,16 @@
     </row>
     <row r="68" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>1063</v>
-      </c>
       <c r="D68" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>115</v>
@@ -7628,10 +7652,10 @@
         <v>472</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
@@ -7649,16 +7673,16 @@
     </row>
     <row r="69" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>1067</v>
-      </c>
       <c r="D69" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>115</v>
@@ -7673,13 +7697,13 @@
         <v>472</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
@@ -7697,16 +7721,16 @@
     </row>
     <row r="70" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>1071</v>
-      </c>
       <c r="D70" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>115</v>
@@ -7721,10 +7745,10 @@
         <v>472</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
@@ -7742,16 +7766,16 @@
     </row>
     <row r="71" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>1074</v>
-      </c>
       <c r="D71" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>115</v>
@@ -7766,13 +7790,13 @@
         <v>472</v>
       </c>
       <c r="P71" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="Q71" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="Q71" s="1" t="s">
+      <c r="R71" s="1" t="s">
         <v>1076</v>
-      </c>
-      <c r="R71" s="1" t="s">
-        <v>1077</v>
       </c>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
@@ -7790,16 +7814,16 @@
     </row>
     <row r="72" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>1079</v>
-      </c>
       <c r="D72" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>115</v>
@@ -7814,13 +7838,13 @@
         <v>472</v>
       </c>
       <c r="P72" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="Q72" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="Q72" s="1" t="s">
+      <c r="R72" s="1" t="s">
         <v>1081</v>
-      </c>
-      <c r="R72" s="1" t="s">
-        <v>1082</v>
       </c>
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
@@ -7838,16 +7862,16 @@
     </row>
     <row r="73" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>1084</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>1375</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>1085</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>115</v>
@@ -7862,13 +7886,13 @@
         <v>472</v>
       </c>
       <c r="P73" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="Q73" s="5" t="s">
+        <v>1375</v>
+      </c>
+      <c r="R73" s="1" t="s">
         <v>1086</v>
-      </c>
-      <c r="Q73" s="5" t="s">
-        <v>1376</v>
-      </c>
-      <c r="R73" s="1" t="s">
-        <v>1087</v>
       </c>
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
@@ -7886,16 +7910,16 @@
     </row>
     <row r="74" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>1089</v>
-      </c>
       <c r="D74" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>115</v>
@@ -7910,13 +7934,13 @@
         <v>472</v>
       </c>
       <c r="P74" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="Q74" s="1" t="s">
         <v>1090</v>
       </c>
-      <c r="Q74" s="1" t="s">
+      <c r="R74" s="1" t="s">
         <v>1091</v>
-      </c>
-      <c r="R74" s="1" t="s">
-        <v>1092</v>
       </c>
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
@@ -7934,16 +7958,16 @@
     </row>
     <row r="75" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>1094</v>
-      </c>
       <c r="D75" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>115</v>
@@ -7958,13 +7982,13 @@
         <v>472</v>
       </c>
       <c r="P75" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="Q75" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="Q75" s="1" t="s">
+      <c r="R75" s="1" t="s">
         <v>1096</v>
-      </c>
-      <c r="R75" s="1" t="s">
-        <v>1097</v>
       </c>
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
@@ -7982,16 +8006,16 @@
     </row>
     <row r="76" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>1100</v>
-      </c>
       <c r="D76" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>115</v>
@@ -8006,13 +8030,13 @@
         <v>472</v>
       </c>
       <c r="P76" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="Q76" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="Q76" s="1" t="s">
+      <c r="R76" s="1" t="s">
         <v>1102</v>
-      </c>
-      <c r="R76" s="1" t="s">
-        <v>1103</v>
       </c>
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
@@ -8030,16 +8054,16 @@
     </row>
     <row r="77" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>1105</v>
-      </c>
       <c r="D77" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>115</v>
@@ -8054,13 +8078,13 @@
         <v>472</v>
       </c>
       <c r="P77" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="Q77" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="Q77" s="1" t="s">
+      <c r="R77" s="1" t="s">
         <v>1107</v>
-      </c>
-      <c r="R77" s="1" t="s">
-        <v>1108</v>
       </c>
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
@@ -8078,16 +8102,16 @@
     </row>
     <row r="78" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>115</v>
@@ -8102,13 +8126,13 @@
         <v>472</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="Q78" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="R78" s="1" t="s">
         <v>1081</v>
-      </c>
-      <c r="R78" s="1" t="s">
-        <v>1082</v>
       </c>
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
@@ -8126,16 +8150,16 @@
     </row>
     <row r="79" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>1112</v>
-      </c>
       <c r="D79" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>115</v>
@@ -8150,13 +8174,13 @@
         <v>472</v>
       </c>
       <c r="P79" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="Q79" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="Q79" s="1" t="s">
-        <v>1114</v>
-      </c>
       <c r="R79" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
@@ -8174,16 +8198,16 @@
     </row>
     <row r="80" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>1116</v>
-      </c>
       <c r="D80" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>115</v>
@@ -8198,13 +8222,13 @@
         <v>472</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="Q80" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="R80" s="1" t="s">
         <v>1091</v>
-      </c>
-      <c r="R80" s="1" t="s">
-        <v>1092</v>
       </c>
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
@@ -8222,16 +8246,16 @@
     </row>
     <row r="81" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>115</v>
@@ -8246,13 +8270,13 @@
         <v>472</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
@@ -8270,16 +8294,16 @@
     </row>
     <row r="82" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>1129</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>1304</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>1130</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>115</v>
@@ -8294,10 +8318,10 @@
         <v>472</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
@@ -8325,11 +8349,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ115"/>
+  <dimension ref="A1:AQ116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T115" sqref="T115"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I116" sqref="I116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8359,10 +8383,10 @@
   <sheetData>
     <row r="1" spans="1:39" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>299</v>
@@ -8494,7 +8518,7 @@
     </row>
     <row r="4" spans="1:39" ht="187" x14ac:dyDescent="0.2">
       <c r="C4" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>530</v>
@@ -8643,7 +8667,7 @@
         <v>529</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>77</v>
@@ -10182,19 +10206,19 @@
     </row>
     <row r="45" spans="3:34" ht="68" x14ac:dyDescent="0.2">
       <c r="C45" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G45" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="H45" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="H45" s="7" t="s">
-        <v>576</v>
-      </c>
       <c r="I45" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>538</v>
@@ -10206,7 +10230,7 @@
         <v>45</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="R45" s="7" t="s">
         <v>543</v>
@@ -10220,19 +10244,19 @@
     </row>
     <row r="46" spans="3:34" ht="68" x14ac:dyDescent="0.2">
       <c r="C46" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="I46" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>578</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>538</v>
@@ -10244,7 +10268,7 @@
         <v>45</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="R46" s="7" t="s">
         <v>542</v>
@@ -10258,19 +10282,19 @@
     </row>
     <row r="47" spans="3:34" ht="68" x14ac:dyDescent="0.2">
       <c r="C47" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F47" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="H47" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="I47" s="7" t="s">
         <v>607</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>608</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>32</v>
@@ -10282,39 +10306,39 @@
         <v>16</v>
       </c>
       <c r="P47" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="Q47" s="7" t="s">
-        <v>610</v>
-      </c>
       <c r="R47" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="S47" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="T47" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="48" spans="3:34" ht="51" x14ac:dyDescent="0.2">
       <c r="C48" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>170</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>16</v>
@@ -10326,30 +10350,30 @@
         <v>152</v>
       </c>
       <c r="R48" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S48" s="7" t="s">
         <v>368</v>
       </c>
       <c r="T48" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="49" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="C49" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>117</v>
@@ -10358,36 +10382,36 @@
         <v>16</v>
       </c>
       <c r="P49" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="R49" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="S49" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="Q49" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="R49" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="S49" s="7" t="s">
-        <v>633</v>
-      </c>
       <c r="T49" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="50" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="C50" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H50" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="I50" s="7" t="s">
         <v>642</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>643</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>117</v>
@@ -10396,36 +10420,36 @@
         <v>16</v>
       </c>
       <c r="P50" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="R50" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="S50" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="Q50" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="R50" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="S50" s="7" t="s">
+      <c r="T50" s="7" t="s">
         <v>633</v>
-      </c>
-      <c r="T50" s="7" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="51" spans="1:34" ht="153" x14ac:dyDescent="0.2">
       <c r="C51" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F51" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="H51" s="7" t="s">
         <v>684</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="I51" s="7" t="s">
         <v>685</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>686</v>
       </c>
       <c r="L51" s="7" t="s">
         <v>117</v>
@@ -10443,25 +10467,25 @@
         <v>152</v>
       </c>
       <c r="R51" s="7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="S51" s="7" t="s">
         <v>368</v>
       </c>
       <c r="T51" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="V51" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="X51" s="7" t="s">
         <v>688</v>
       </c>
-      <c r="V51" s="10" t="s">
-        <v>686</v>
-      </c>
-      <c r="X51" s="7" t="s">
+      <c r="Y51" s="7" t="s">
         <v>689</v>
       </c>
-      <c r="Y51" s="7" t="s">
+      <c r="AC51" s="7" t="s">
         <v>690</v>
-      </c>
-      <c r="AC51" s="7" t="s">
-        <v>691</v>
       </c>
       <c r="AG51" s="7">
         <v>1913</v>
@@ -10472,10 +10496,10 @@
     </row>
     <row r="52" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="C52" s="7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>134</v>
@@ -10505,27 +10529,27 @@
         <v>22</v>
       </c>
       <c r="T52" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="53" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F53" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="G53" s="7" t="s">
-        <v>697</v>
-      </c>
       <c r="H53" s="7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>170</v>
@@ -10540,36 +10564,36 @@
         <v>45</v>
       </c>
       <c r="Q53" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="R53" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="S53" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="T53" s="7" t="s">
         <v>699</v>
-      </c>
-      <c r="R53" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="S53" s="7" t="s">
-        <v>756</v>
-      </c>
-      <c r="T53" s="7" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="54" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="C54" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>703</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>752</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>704</v>
-      </c>
       <c r="G54" s="7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>170</v>
@@ -10584,39 +10608,39 @@
         <v>45</v>
       </c>
       <c r="Q54" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="R54" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="S54" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="T54" s="7" t="s">
         <v>699</v>
-      </c>
-      <c r="R54" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="S54" s="7" t="s">
-        <v>755</v>
-      </c>
-      <c r="T54" s="7" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="55" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>709</v>
-      </c>
       <c r="H55" s="7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="L55" s="7" t="s">
         <v>117</v>
@@ -10628,39 +10652,39 @@
         <v>45</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="R55" s="17" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="S55" s="16" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="T55" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="56" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>714</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="C56" s="7" t="s">
+      <c r="F56" s="7" t="s">
         <v>715</v>
       </c>
-      <c r="F56" s="7" t="s">
-        <v>716</v>
-      </c>
       <c r="G56" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="L56" s="7" t="s">
         <v>117</v>
@@ -10672,45 +10696,45 @@
         <v>45</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="R56" s="17" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="S56" s="16" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="T56" s="7" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="57" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>826</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>827</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>827</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>722</v>
-      </c>
       <c r="G57" s="7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>117</v>
@@ -10722,39 +10746,39 @@
         <v>45</v>
       </c>
       <c r="Q57" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="R57" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="S57" s="16" t="s">
+        <v>725</v>
+      </c>
+      <c r="T57" s="7" t="s">
         <v>699</v>
-      </c>
-      <c r="R57" s="17" t="s">
-        <v>727</v>
-      </c>
-      <c r="S57" s="16" t="s">
-        <v>726</v>
-      </c>
-      <c r="T57" s="7" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="58" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="C58" s="7" t="s">
+      <c r="F58" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>729</v>
       </c>
-      <c r="F58" s="7" t="s">
-        <v>723</v>
-      </c>
-      <c r="G58" s="7" t="s">
+      <c r="H58" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="H58" s="7" t="s">
-        <v>731</v>
-      </c>
       <c r="I58" s="7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="L58" s="7" t="s">
         <v>117</v>
@@ -10766,39 +10790,39 @@
         <v>45</v>
       </c>
       <c r="Q58" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="R58" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="S58" s="16" t="s">
+        <v>759</v>
+      </c>
+      <c r="T58" s="7" t="s">
         <v>699</v>
-      </c>
-      <c r="R58" s="17" t="s">
-        <v>732</v>
-      </c>
-      <c r="S58" s="16" t="s">
-        <v>760</v>
-      </c>
-      <c r="T58" s="7" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="59" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>733</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>724</v>
-      </c>
-      <c r="G59" s="7" t="s">
+      <c r="H59" s="7" t="s">
         <v>734</v>
       </c>
-      <c r="H59" s="7" t="s">
-        <v>735</v>
-      </c>
       <c r="I59" s="7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="L59" s="7" t="s">
         <v>117</v>
@@ -10810,39 +10834,39 @@
         <v>45</v>
       </c>
       <c r="Q59" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="R59" s="17" t="s">
+        <v>735</v>
+      </c>
+      <c r="S59" s="16" t="s">
+        <v>760</v>
+      </c>
+      <c r="T59" s="7" t="s">
         <v>699</v>
-      </c>
-      <c r="R59" s="17" t="s">
-        <v>736</v>
-      </c>
-      <c r="S59" s="16" t="s">
-        <v>761</v>
-      </c>
-      <c r="T59" s="7" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="60" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C60" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="F60" s="7" t="s">
         <v>738</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>739</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>200</v>
       </c>
       <c r="H60" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="I60" s="7" t="s">
         <v>742</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>743</v>
       </c>
       <c r="L60" s="7" t="s">
         <v>117</v>
@@ -10854,27 +10878,27 @@
         <v>45</v>
       </c>
       <c r="Q60" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="R60" s="17" t="s">
+        <v>743</v>
+      </c>
+      <c r="S60" s="16" t="s">
+        <v>749</v>
+      </c>
+      <c r="T60" s="7" t="s">
         <v>699</v>
-      </c>
-      <c r="R60" s="17" t="s">
-        <v>744</v>
-      </c>
-      <c r="S60" s="16" t="s">
-        <v>750</v>
-      </c>
-      <c r="T60" s="7" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="61" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="B61" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>745</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>751</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>746</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>154</v>
@@ -10889,39 +10913,39 @@
         <v>117</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="S61" s="7" t="s">
         <v>155</v>
       </c>
       <c r="T61" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="62" spans="1:34" ht="119" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="F62" s="7" t="s">
         <v>763</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>762</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>776</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>764</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>200</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>170</v>
@@ -10936,22 +10960,22 @@
         <v>204</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="R62" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="S62" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="S62" s="7" t="s">
+      <c r="T62" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="V62" s="10" t="s">
+        <v>855</v>
+      </c>
+      <c r="X62" s="7" t="s">
         <v>767</v>
-      </c>
-      <c r="T62" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="V62" s="10" t="s">
-        <v>856</v>
-      </c>
-      <c r="X62" s="7" t="s">
-        <v>768</v>
       </c>
       <c r="Y62" s="7" t="s">
         <v>64</v>
@@ -10963,30 +10987,30 @@
         <v>1906</v>
       </c>
       <c r="AH62" s="16" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="63" spans="1:34" ht="119" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>772</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>775</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="G63" s="7" t="s">
+      <c r="H63" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="H63" s="7" t="s">
-        <v>774</v>
-      </c>
       <c r="I63" s="7" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="L63" s="7" t="s">
         <v>117</v>
@@ -10998,28 +11022,28 @@
         <v>204</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="R63" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="S63" s="7">
         <v>1910</v>
       </c>
       <c r="T63" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="V63" s="10" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="X63" s="7" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="Y63" s="7" t="s">
         <v>64</v>
       </c>
       <c r="AC63" s="7" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AG63" s="7">
         <v>1910</v>
@@ -11030,22 +11054,22 @@
     </row>
     <row r="64" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>782</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>770</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>794</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>783</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>386</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>170</v>
@@ -11060,36 +11084,36 @@
         <v>204</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="R64" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="S64" s="7" t="s">
         <v>368</v>
       </c>
       <c r="T64" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="65" spans="1:34" ht="119" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>787</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>795</v>
-      </c>
-      <c r="F65" s="7" t="s">
+      <c r="G65" s="7" t="s">
         <v>788</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="H65" s="7" t="s">
         <v>789</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>790</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>170</v>
@@ -11104,28 +11128,28 @@
         <v>204</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="R65" s="7" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="S65" s="7">
         <v>1923</v>
       </c>
       <c r="T65" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="V65" s="10" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="X65" s="7" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="Y65" s="7" t="s">
         <v>45</v>
       </c>
       <c r="AC65" s="7" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AG65" s="7">
         <v>1923</v>
@@ -11136,22 +11160,22 @@
     </row>
     <row r="66" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>796</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>770</v>
-      </c>
-      <c r="C66" s="7" t="s">
+      <c r="F66" s="7" t="s">
         <v>797</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="G66" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="H66" s="7" t="s">
         <v>798</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>789</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>799</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>170</v>
@@ -11166,36 +11190,36 @@
         <v>204</v>
       </c>
       <c r="Q66" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="R66" s="7" t="s">
         <v>800</v>
       </c>
-      <c r="R66" s="7" t="s">
+      <c r="S66" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="S66" s="7" t="s">
-        <v>802</v>
-      </c>
       <c r="T66" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="67" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G67" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="H67" s="7" t="s">
         <v>803</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>804</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>170</v>
@@ -11204,7 +11228,7 @@
         <v>117</v>
       </c>
       <c r="M67" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="O67" s="7" t="s">
         <v>44</v>
@@ -11213,36 +11237,36 @@
         <v>204</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="R67" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="S67" s="7">
         <v>1903</v>
       </c>
       <c r="T67" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="68" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G68" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="H68" s="7" t="s">
         <v>809</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>810</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>170</v>
@@ -11257,51 +11281,51 @@
         <v>204</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="R68" s="7" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="S68" s="7" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="T68" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="V68" s="7" t="s">
         <v>495</v>
       </c>
       <c r="X68" s="7" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AG68" s="7">
         <v>1903</v>
       </c>
       <c r="AH68" s="7" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="69" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I69" s="17" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="L69" s="7" t="s">
         <v>117</v>
@@ -11313,13 +11337,13 @@
         <v>497</v>
       </c>
       <c r="Q69" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="R69" s="17" t="s">
         <v>859</v>
       </c>
-      <c r="R69" s="17" t="s">
-        <v>860</v>
-      </c>
       <c r="S69" s="7" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="T69" s="17" t="s">
         <v>44</v>
@@ -11327,25 +11351,25 @@
     </row>
     <row r="70" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A70" s="17" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G70" s="17" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="I70" s="17" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="L70" s="7" t="s">
         <v>117</v>
@@ -11357,36 +11381,36 @@
         <v>497</v>
       </c>
       <c r="Q70" s="17" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="R70" s="17" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="S70" s="7" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="T70" s="17" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="71" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A71" s="17" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="I71" s="17" t="s">
         <v>170</v>
@@ -11395,22 +11419,22 @@
         <v>117</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="Q71" s="17"/>
       <c r="R71" s="17"/>
       <c r="T71" s="17"/>
       <c r="V71" s="10" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="X71" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="Y71" s="7" t="s">
         <v>33</v>
       </c>
       <c r="AC71" s="7" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AG71" s="7">
         <v>1894</v>
@@ -11421,25 +11445,25 @@
     </row>
     <row r="72" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" s="17" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="I72" s="17" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="L72" s="7" t="s">
         <v>117</v>
@@ -11451,39 +11475,39 @@
         <v>497</v>
       </c>
       <c r="Q72" s="17" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="R72" s="17" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="S72" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="T72" s="17" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="73" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A73" s="17" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G73" s="17" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="I73" s="17" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>117</v>
@@ -11495,36 +11519,36 @@
         <v>497</v>
       </c>
       <c r="Q73" s="17" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="R73" s="17" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="S73" s="7" t="s">
         <v>368</v>
       </c>
       <c r="T73" s="17" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="74" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>916</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="C74" s="7" t="s">
+      <c r="F74" s="7" t="s">
         <v>917</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="G74" s="7" t="s">
         <v>918</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="H74" s="7" t="s">
         <v>919</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>920</v>
       </c>
       <c r="I74" s="17" t="s">
         <v>170</v>
@@ -11536,10 +11560,10 @@
         <v>116</v>
       </c>
       <c r="V74" s="10" t="s">
+        <v>920</v>
+      </c>
+      <c r="X74" s="7" t="s">
         <v>921</v>
-      </c>
-      <c r="X74" s="7" t="s">
-        <v>922</v>
       </c>
       <c r="Y74" s="7" t="s">
         <v>33</v>
@@ -11548,22 +11572,22 @@
         <v>64</v>
       </c>
       <c r="AA74" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="AB74" s="7" t="s">
         <v>923</v>
       </c>
-      <c r="AB74" s="7" t="s">
+      <c r="AC74" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="AC74" s="7" t="s">
+      <c r="AD74" s="7" t="s">
         <v>925</v>
       </c>
-      <c r="AD74" s="7" t="s">
+      <c r="AE74" s="7" t="s">
         <v>926</v>
       </c>
-      <c r="AE74" s="7" t="s">
+      <c r="AF74" s="7" t="s">
         <v>927</v>
-      </c>
-      <c r="AF74" s="7" t="s">
-        <v>928</v>
       </c>
       <c r="AG74" s="7">
         <v>1877</v>
@@ -11574,22 +11598,22 @@
     </row>
     <row r="75" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A75" s="17" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="G75" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="H75" s="7" t="s">
         <v>998</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>999</v>
       </c>
       <c r="I75" s="17" t="s">
         <v>170</v>
@@ -11598,19 +11622,19 @@
         <v>117</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="T75" s="17" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="X75" s="17"/>
       <c r="AB75" s="1"/>
@@ -11618,22 +11642,22 @@
     </row>
     <row r="76" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A76" s="18" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="I76" s="17" t="s">
         <v>170</v>
@@ -11647,10 +11671,10 @@
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
       <c r="V76" s="10" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="X76" s="17" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="Y76" s="17" t="s">
         <v>64</v>
@@ -11659,7 +11683,7 @@
         <v>204</v>
       </c>
       <c r="AC76" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="AG76" s="1">
         <v>1996</v>
@@ -11670,44 +11694,44 @@
     </row>
     <row r="77" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A77" s="17" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="I77" s="17" t="s">
         <v>170</v>
       </c>
       <c r="L77" s="17" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="O77" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="P77" s="7" t="s">
         <v>988</v>
       </c>
-      <c r="P77" s="7" t="s">
-        <v>989</v>
-      </c>
       <c r="Q77" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="R77" s="1"/>
       <c r="S77" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="T77" s="17" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="X77" s="17"/>
       <c r="AC77" s="1"/>
@@ -11715,22 +11739,22 @@
     </row>
     <row r="78" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A78" s="17" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="I78" s="17" t="s">
         <v>170</v>
@@ -11739,20 +11763,20 @@
         <v>117</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="R78" s="1"/>
       <c r="S78" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="T78" s="17" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="X78" s="17"/>
       <c r="AC78" s="1"/>
@@ -11760,44 +11784,44 @@
     </row>
     <row r="79" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="17" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I79" s="17" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="L79" s="17" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="P79" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="Q79" s="1" t="s">
         <v>992</v>
-      </c>
-      <c r="Q79" s="1" t="s">
-        <v>993</v>
       </c>
       <c r="R79" s="1"/>
       <c r="S79" s="1">
         <v>1905</v>
       </c>
       <c r="T79" s="17" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="X79" s="17"/>
       <c r="AC79" s="1"/>
@@ -11805,25 +11829,25 @@
     </row>
     <row r="80" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A80" s="17" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G80" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H80" s="7" t="s">
         <v>1009</v>
       </c>
-      <c r="H80" s="7" t="s">
-        <v>1010</v>
-      </c>
       <c r="I80" s="17" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="L80" s="7" t="s">
         <v>117</v>
@@ -11834,45 +11858,45 @@
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
       <c r="V80" s="17" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="X80" s="17" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="Y80" s="17" t="s">
         <v>64</v>
       </c>
       <c r="AC80" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="AG80" s="1">
         <v>1910</v>
       </c>
       <c r="AH80" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="81" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A81" s="17" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C81" s="17" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>934</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H81" s="7" t="s">
         <v>1006</v>
       </c>
-      <c r="F81" s="7" t="s">
-        <v>935</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>1007</v>
-      </c>
       <c r="I81" s="17" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="L81" s="7" t="s">
         <v>117</v>
@@ -11884,16 +11908,16 @@
         <v>64</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="T81" s="17" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="X81" s="17"/>
       <c r="AC81" s="1"/>
@@ -11901,37 +11925,37 @@
     </row>
     <row r="82" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A82" s="17" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I82" s="17" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="L82" s="7" t="s">
         <v>117</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="R82" s="1">
         <v>909.01310000000001</v>
@@ -11940,7 +11964,7 @@
         <v>1894</v>
       </c>
       <c r="T82" s="17" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="X82" s="17"/>
       <c r="AC82" s="1"/>
@@ -11948,25 +11972,25 @@
     </row>
     <row r="83" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A83" s="17" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="G83" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H83" s="7" t="s">
         <v>1012</v>
       </c>
-      <c r="H83" s="7" t="s">
-        <v>1013</v>
-      </c>
       <c r="I83" s="17" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="L83" s="7" t="s">
         <v>117</v>
@@ -11976,42 +12000,42 @@
       </c>
       <c r="Q83" s="1"/>
       <c r="V83" s="17" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="X83" s="17" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="Y83" s="17" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AC83" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AG83" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="AH83" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="84" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="C84" s="7" t="s">
         <v>1119</v>
       </c>
-      <c r="B84" s="17" t="s">
-        <v>703</v>
-      </c>
-      <c r="C84" s="7" t="s">
+      <c r="F84" s="7" t="s">
         <v>1120</v>
       </c>
-      <c r="F84" s="7" t="s">
-        <v>1121</v>
-      </c>
       <c r="G84" s="7" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H84" s="7" t="s">
         <v>1125</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>1126</v>
       </c>
       <c r="I84" s="7" t="s">
         <v>170</v>
@@ -12023,16 +12047,16 @@
         <v>116</v>
       </c>
       <c r="V84" s="10" t="s">
+        <v>1121</v>
+      </c>
+      <c r="X84" s="7" t="s">
         <v>1122</v>
-      </c>
-      <c r="X84" s="7" t="s">
-        <v>1123</v>
       </c>
       <c r="Y84" s="7" t="s">
         <v>64</v>
       </c>
       <c r="AC84" s="7" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="AG84" s="7">
         <v>1912</v>
@@ -12043,154 +12067,154 @@
     </row>
     <row r="85" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>1155</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="F85" s="7" t="s">
+        <v>1156</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I85" s="7" t="s">
         <v>1162</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>1156</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>1157</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>1172</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>1173</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>1163</v>
       </c>
       <c r="L85" s="7" t="s">
         <v>117</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="P85" s="7" t="s">
         <v>64</v>
       </c>
       <c r="Q85" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="R85" s="7" t="s">
         <v>1166</v>
-      </c>
-      <c r="R85" s="7" t="s">
-        <v>1167</v>
       </c>
       <c r="S85" s="7">
         <v>1890</v>
       </c>
       <c r="T85" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="86" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="B86" s="7" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C86" s="7" t="s">
         <v>1160</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>1161</v>
-      </c>
       <c r="F86" s="7" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="G86" s="7" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H86" s="7" t="s">
         <v>1178</v>
       </c>
-      <c r="H86" s="7" t="s">
-        <v>1179</v>
-      </c>
       <c r="I86" s="7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L86" s="7" t="s">
         <v>117</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="P86" s="7" t="s">
+        <v>1163</v>
+      </c>
+      <c r="Q86" s="7" t="s">
         <v>1164</v>
       </c>
-      <c r="Q86" s="7" t="s">
-        <v>1165</v>
-      </c>
       <c r="R86" s="7" t="s">
+        <v>1167</v>
+      </c>
+      <c r="S86" s="7" t="s">
         <v>1168</v>
       </c>
-      <c r="S86" s="7" t="s">
-        <v>1169</v>
-      </c>
       <c r="T86" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="87" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="B87" s="7" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L87" s="7" t="s">
         <v>117</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="P87" s="7" t="s">
+        <v>1163</v>
+      </c>
+      <c r="Q87" s="7" t="s">
         <v>1164</v>
       </c>
-      <c r="Q87" s="7" t="s">
-        <v>1165</v>
-      </c>
       <c r="R87" s="7" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="S87" s="7" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="T87" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="88" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C88" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>1222</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>1223</v>
-      </c>
       <c r="F88" s="7" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="G88" s="7" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H88" s="7" t="s">
         <v>1218</v>
       </c>
-      <c r="H88" s="7" t="s">
-        <v>1219</v>
-      </c>
       <c r="I88" s="7" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="J88" s="7" t="s">
         <v>170</v>
@@ -12202,42 +12226,42 @@
         <v>44</v>
       </c>
       <c r="P88" s="7" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="Q88" s="7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="R88" s="7" t="s">
         <v>1195</v>
       </c>
-      <c r="R88" s="7" t="s">
-        <v>1196</v>
-      </c>
       <c r="S88" s="7" t="s">
+        <v>1214</v>
+      </c>
+      <c r="T88" s="7" t="s">
         <v>1215</v>
-      </c>
-      <c r="T88" s="7" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="89" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="L89" s="7" t="s">
         <v>117</v>
@@ -12246,42 +12270,42 @@
         <v>44</v>
       </c>
       <c r="P89" s="7" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="R89" s="7" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="S89" s="7" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="T89" s="7" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="90" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="L90" s="7" t="s">
         <v>117</v>
@@ -12290,42 +12314,42 @@
         <v>44</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="R90" s="7" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="S90" s="7" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="T90" s="7" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="91" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="L91" s="7" t="s">
         <v>117</v>
@@ -12334,36 +12358,36 @@
         <v>44</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="R91" s="7" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="S91" s="7" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="T91" s="7" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="92" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C92" s="11" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>1210</v>
       </c>
-      <c r="D92" s="7" t="s">
-        <v>1211</v>
-      </c>
       <c r="F92" s="7" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>101</v>
@@ -12381,13 +12405,13 @@
         <v>44</v>
       </c>
       <c r="P92" s="7" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="R92" s="7" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="S92" s="7">
         <v>1874</v>
@@ -12398,28 +12422,28 @@
     </row>
     <row r="93" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C93" s="7" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>1208</v>
       </c>
-      <c r="D93" s="7" t="s">
-        <v>1209</v>
-      </c>
       <c r="F93" s="7" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="G93" s="7" t="s">
+        <v>1203</v>
+      </c>
+      <c r="H93" s="7" t="s">
         <v>1204</v>
       </c>
-      <c r="H93" s="7" t="s">
+      <c r="I93" s="7" t="s">
         <v>1205</v>
-      </c>
-      <c r="I93" s="7" t="s">
-        <v>1206</v>
       </c>
       <c r="L93" s="7" t="s">
         <v>117</v>
@@ -12428,16 +12452,16 @@
         <v>44</v>
       </c>
       <c r="P93" s="7" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="Q93" s="7" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="R93" s="7" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="S93" s="7" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="T93" s="7" t="s">
         <v>64</v>
@@ -12445,333 +12469,333 @@
     </row>
     <row r="94" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B94" s="7" t="s">
         <v>1246</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="C94" s="7" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="H94" s="7" t="s">
         <v>1247</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>1245</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>1243</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>962</v>
-      </c>
-      <c r="H94" s="7" t="s">
-        <v>1248</v>
       </c>
       <c r="I94" s="7" t="s">
         <v>170</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="O94" s="7" t="s">
         <v>44</v>
       </c>
       <c r="P94" s="7" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="Q94" s="7" t="s">
+        <v>1248</v>
+      </c>
+      <c r="R94" s="7" t="s">
         <v>1249</v>
       </c>
-      <c r="R94" s="7" t="s">
+      <c r="S94" s="7" t="s">
         <v>1250</v>
       </c>
-      <c r="S94" s="7" t="s">
-        <v>1251</v>
-      </c>
       <c r="T94" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="95" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="B95" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="H95" s="7" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I95" s="7" t="s">
         <v>1255</v>
-      </c>
-      <c r="I95" s="7" t="s">
-        <v>1256</v>
       </c>
       <c r="L95" s="7" t="s">
         <v>117</v>
       </c>
       <c r="Q95" s="7" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="S95" s="7">
         <v>1890</v>
       </c>
       <c r="T95" s="7" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="96" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B96" s="7" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H96" s="7" t="s">
         <v>1295</v>
       </c>
-      <c r="C96" s="7" t="s">
-        <v>1293</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>1261</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>1292</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>1296</v>
-      </c>
       <c r="I96" s="7" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="L96" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M96" s="11" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="P96" s="7" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="R96" s="7" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="S96" s="7" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="T96" s="7" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="97" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="L97" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M97" s="11" t="s">
+        <v>1282</v>
+      </c>
+      <c r="O97" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="P97" s="7" t="s">
+        <v>1163</v>
+      </c>
+      <c r="Q97" s="7" t="s">
+        <v>1293</v>
+      </c>
+      <c r="R97" s="7" t="s">
         <v>1283</v>
       </c>
-      <c r="O97" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="P97" s="7" t="s">
-        <v>1164</v>
-      </c>
-      <c r="Q97" s="7" t="s">
-        <v>1294</v>
-      </c>
-      <c r="R97" s="7" t="s">
-        <v>1284</v>
-      </c>
       <c r="S97" s="7" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="T97" s="7" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="98" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="I98" s="7" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="L98" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M98" s="11" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="O98" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="P98" s="7" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="Q98" s="7" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="R98" s="7" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="S98" s="7" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="T98" s="7" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="99" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="L99" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M99" s="11" t="s">
+        <v>1272</v>
+      </c>
+      <c r="O99" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="P99" s="7" t="s">
+        <v>1163</v>
+      </c>
+      <c r="Q99" s="7" t="s">
+        <v>1293</v>
+      </c>
+      <c r="R99" s="7" t="s">
+        <v>1275</v>
+      </c>
+      <c r="S99" s="7" t="s">
         <v>1273</v>
       </c>
-      <c r="O99" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="P99" s="7" t="s">
-        <v>1164</v>
-      </c>
-      <c r="Q99" s="7" t="s">
-        <v>1294</v>
-      </c>
-      <c r="R99" s="7" t="s">
-        <v>1276</v>
-      </c>
-      <c r="S99" s="7" t="s">
-        <v>1274</v>
-      </c>
       <c r="T99" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="100" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C100" s="7" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>1299</v>
+      </c>
+      <c r="I100" s="7" t="s">
         <v>1271</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>1265</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>1281</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>1300</v>
-      </c>
-      <c r="I100" s="7" t="s">
-        <v>1272</v>
       </c>
       <c r="L100" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M100" s="11" t="s">
+        <v>1272</v>
+      </c>
+      <c r="O100" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="P100" s="7" t="s">
+        <v>1163</v>
+      </c>
+      <c r="Q100" s="7" t="s">
+        <v>1293</v>
+      </c>
+      <c r="R100" s="7" t="s">
+        <v>1274</v>
+      </c>
+      <c r="S100" s="7" t="s">
         <v>1273</v>
       </c>
-      <c r="O100" s="7" t="s">
-        <v>612</v>
-      </c>
-      <c r="P100" s="7" t="s">
-        <v>1164</v>
-      </c>
-      <c r="Q100" s="7" t="s">
-        <v>1294</v>
-      </c>
-      <c r="R100" s="7" t="s">
-        <v>1275</v>
-      </c>
-      <c r="S100" s="7" t="s">
-        <v>1274</v>
-      </c>
       <c r="T100" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="101" spans="1:34" ht="204" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G101" s="7" t="s">
         <v>1310</v>
       </c>
-      <c r="B101" s="7" t="s">
-        <v>1309</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>1308</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>1307</v>
-      </c>
-      <c r="G101" s="7" t="s">
+      <c r="H101" s="7" t="s">
         <v>1311</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>1312</v>
       </c>
       <c r="I101" s="7" t="s">
         <v>443</v>
@@ -12780,7 +12804,7 @@
         <v>117</v>
       </c>
       <c r="M101" s="11" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="O101" s="7" t="s">
         <v>44</v>
@@ -12789,48 +12813,48 @@
         <v>45</v>
       </c>
       <c r="Q101" s="7" t="s">
+        <v>1313</v>
+      </c>
+      <c r="R101" s="7" t="s">
         <v>1314</v>
       </c>
-      <c r="R101" s="7" t="s">
-        <v>1315</v>
-      </c>
       <c r="S101" s="7" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="T101" s="7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="102" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B102" s="7" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C102" s="7" t="s">
         <v>1395</v>
       </c>
-      <c r="C102" s="7" t="s">
-        <v>1396</v>
-      </c>
       <c r="D102" s="7" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="G102" s="7" t="s">
+        <v>1391</v>
+      </c>
+      <c r="H102" s="7" t="s">
         <v>1392</v>
       </c>
-      <c r="H102" s="7" t="s">
+      <c r="I102" s="7" t="s">
         <v>1393</v>
-      </c>
-      <c r="I102" s="7" t="s">
-        <v>1394</v>
       </c>
       <c r="L102" s="7" t="s">
         <v>117</v>
       </c>
       <c r="Q102" s="7" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="S102" s="7">
         <v>1864</v>
@@ -12841,92 +12865,92 @@
     </row>
     <row r="103" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="L103" s="7" t="s">
         <v>117</v>
       </c>
       <c r="Q103" s="7" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="S103" s="7">
         <v>1888</v>
       </c>
       <c r="T103" s="7" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="104" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C104" s="7" t="s">
         <v>1404</v>
       </c>
-      <c r="B104" s="7" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>1405</v>
-      </c>
       <c r="F104" s="7" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="G104" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H104" s="7" t="s">
         <v>1401</v>
       </c>
-      <c r="H104" s="7" t="s">
+      <c r="I104" s="7" t="s">
         <v>1402</v>
-      </c>
-      <c r="I104" s="7" t="s">
-        <v>1403</v>
       </c>
       <c r="L104" s="7" t="s">
         <v>117</v>
       </c>
       <c r="Q104" s="7" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="S104" s="7">
         <v>1870</v>
       </c>
       <c r="T104" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="105" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C105" s="7" t="s">
         <v>1406</v>
       </c>
-      <c r="B105" s="7" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C105" s="7" t="s">
+      <c r="F105" s="7" t="s">
+        <v>1387</v>
+      </c>
+      <c r="G105" s="7" t="s">
         <v>1407</v>
       </c>
-      <c r="F105" s="7" t="s">
-        <v>1388</v>
-      </c>
-      <c r="G105" s="7" t="s">
+      <c r="H105" s="7" t="s">
         <v>1408</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>1409</v>
       </c>
       <c r="I105" s="7" t="s">
         <v>170</v>
@@ -12935,42 +12959,42 @@
         <v>117</v>
       </c>
       <c r="Q105" s="7" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="S105" s="7">
         <v>1873</v>
       </c>
       <c r="T105" s="7" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="106" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="G106" s="7" t="s">
+        <v>1391</v>
+      </c>
+      <c r="H106" s="7" t="s">
         <v>1392</v>
       </c>
-      <c r="H106" s="7" t="s">
+      <c r="I106" s="7" t="s">
         <v>1393</v>
-      </c>
-      <c r="I106" s="7" t="s">
-        <v>1394</v>
       </c>
       <c r="L106" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M106" s="11" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="O106" s="7" t="s">
         <v>16</v>
@@ -12979,10 +13003,10 @@
         <v>64</v>
       </c>
       <c r="Q106" s="7" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="R106" s="7" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="S106" s="7">
         <v>1864</v>
@@ -12993,31 +13017,31 @@
     </row>
     <row r="107" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="G107" s="7" t="s">
+        <v>1391</v>
+      </c>
+      <c r="H107" s="7" t="s">
         <v>1392</v>
       </c>
-      <c r="H107" s="7" t="s">
+      <c r="I107" s="7" t="s">
         <v>1393</v>
-      </c>
-      <c r="I107" s="7" t="s">
-        <v>1394</v>
       </c>
       <c r="L107" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M107" s="11" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="O107" s="7" t="s">
         <v>16</v>
@@ -13026,10 +13050,10 @@
         <v>64</v>
       </c>
       <c r="Q107" s="7" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="R107" s="7" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="S107" s="7">
         <v>1864</v>
@@ -13040,25 +13064,25 @@
     </row>
     <row r="108" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C108" s="7" t="s">
         <v>1420</v>
       </c>
-      <c r="B108" s="7" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>1421</v>
-      </c>
       <c r="F108" s="7" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G108" s="7" t="s">
         <v>1391</v>
       </c>
-      <c r="G108" s="7" t="s">
-        <v>1392</v>
-      </c>
       <c r="H108" s="7" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="L108" s="7" t="s">
         <v>117</v>
@@ -13070,13 +13094,13 @@
         <v>64</v>
       </c>
       <c r="Q108" s="7" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="R108" s="7" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="S108" s="7" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="T108" s="7" t="s">
         <v>64</v>
@@ -13084,22 +13108,22 @@
     </row>
     <row r="109" spans="1:34" ht="170" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>170</v>
@@ -13108,25 +13132,25 @@
         <v>117</v>
       </c>
       <c r="M109" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="V109" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="W109" s="10" t="s">
         <v>1459</v>
       </c>
-      <c r="W109" s="10" t="s">
+      <c r="X109" s="1" t="s">
         <v>1460</v>
       </c>
-      <c r="X109" s="1" t="s">
+      <c r="Y109" s="1" t="s">
         <v>1461</v>
       </c>
-      <c r="Y109" s="1" t="s">
+      <c r="AC109" s="1" t="s">
         <v>1462</v>
       </c>
-      <c r="AC109" s="1" t="s">
-        <v>1463</v>
-      </c>
       <c r="AG109" s="7" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="AH109" s="1" t="s">
         <v>207</v>
@@ -13134,22 +13158,22 @@
     </row>
     <row r="110" spans="1:34" ht="170" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>170</v>
@@ -13158,98 +13182,98 @@
         <v>117</v>
       </c>
       <c r="M110" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="V110" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="W110" s="10" t="s">
         <v>1459</v>
       </c>
-      <c r="W110" s="10" t="s">
+      <c r="X110" s="1" t="s">
         <v>1460</v>
       </c>
-      <c r="X110" s="1" t="s">
+      <c r="Y110" s="1" t="s">
         <v>1461</v>
       </c>
-      <c r="Y110" s="1" t="s">
+      <c r="AC110" s="1" t="s">
         <v>1462</v>
       </c>
-      <c r="AC110" s="1" t="s">
-        <v>1463</v>
-      </c>
       <c r="AG110" s="7" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="AH110" s="1" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="111" spans="1:34" ht="170" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="L111" s="7" t="s">
         <v>115</v>
       </c>
       <c r="M111" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="V111" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="W111" s="10" t="s">
         <v>1459</v>
       </c>
-      <c r="W111" s="10" t="s">
+      <c r="X111" s="1" t="s">
         <v>1460</v>
       </c>
-      <c r="X111" s="1" t="s">
+      <c r="Y111" s="1" t="s">
         <v>1461</v>
       </c>
-      <c r="Y111" s="1" t="s">
+      <c r="AC111" s="1" t="s">
         <v>1462</v>
       </c>
-      <c r="AC111" s="1" t="s">
-        <v>1463</v>
-      </c>
       <c r="AG111" s="7" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="AH111" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="112" spans="1:34" ht="170" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>170</v>
@@ -13258,75 +13282,75 @@
         <v>117</v>
       </c>
       <c r="M112" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="V112" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="W112" s="10" t="s">
         <v>1459</v>
       </c>
-      <c r="W112" s="10" t="s">
+      <c r="X112" s="1" t="s">
         <v>1460</v>
       </c>
-      <c r="X112" s="1" t="s">
+      <c r="Y112" s="1" t="s">
         <v>1461</v>
       </c>
-      <c r="Y112" s="1" t="s">
+      <c r="AC112" s="1" t="s">
         <v>1462</v>
       </c>
-      <c r="AC112" s="1" t="s">
-        <v>1463</v>
-      </c>
       <c r="AG112" s="7" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="AH112" s="1" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="113" spans="1:34" ht="170" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="H113" s="7" t="s">
+        <v>1457</v>
+      </c>
+      <c r="I113" s="1" t="s">
         <v>1458</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>1459</v>
       </c>
       <c r="L113" s="7" t="s">
         <v>115</v>
       </c>
       <c r="M113" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="V113" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="W113" s="10" t="s">
         <v>1459</v>
       </c>
-      <c r="W113" s="10" t="s">
+      <c r="X113" s="1" t="s">
         <v>1460</v>
       </c>
-      <c r="X113" s="1" t="s">
+      <c r="Y113" s="1" t="s">
         <v>1461</v>
       </c>
-      <c r="Y113" s="1" t="s">
+      <c r="AC113" s="1" t="s">
         <v>1462</v>
       </c>
-      <c r="AC113" s="1" t="s">
+      <c r="AG113" s="7" t="s">
         <v>1463</v>
-      </c>
-      <c r="AG113" s="7" t="s">
-        <v>1464</v>
       </c>
       <c r="AH113" s="1">
         <v>281</v>
@@ -13334,75 +13358,75 @@
     </row>
     <row r="114" spans="1:34" ht="170" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="G114" s="14" t="s">
+        <v>1470</v>
+      </c>
+      <c r="H114" s="7" t="s">
         <v>1471</v>
       </c>
-      <c r="H114" s="7" t="s">
-        <v>1472</v>
-      </c>
       <c r="I114" s="1" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="L114" s="7" t="s">
         <v>115</v>
       </c>
       <c r="M114" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="V114" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="W114" s="10" t="s">
         <v>1459</v>
       </c>
-      <c r="W114" s="10" t="s">
+      <c r="X114" s="1" t="s">
         <v>1460</v>
       </c>
-      <c r="X114" s="1" t="s">
+      <c r="Y114" s="1" t="s">
         <v>1461</v>
       </c>
-      <c r="Y114" s="1" t="s">
+      <c r="AC114" s="1" t="s">
         <v>1462</v>
       </c>
-      <c r="AC114" s="1" t="s">
-        <v>1463</v>
-      </c>
       <c r="AG114" s="7" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="AH114" s="1" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="115" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B115" s="7" t="s">
         <v>1476</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="C115" s="7" t="s">
         <v>1477</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="F115" s="1" t="s">
         <v>1478</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="G115" s="7" t="s">
+        <v>1391</v>
+      </c>
+      <c r="H115" s="7" t="s">
         <v>1479</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>1392</v>
-      </c>
-      <c r="H115" s="7" t="s">
-        <v>1480</v>
       </c>
       <c r="I115" s="7" t="s">
         <v>170</v>
@@ -13417,13 +13441,57 @@
         <v>471</v>
       </c>
       <c r="Q115" s="7" t="s">
+        <v>1480</v>
+      </c>
+      <c r="S115" s="7" t="s">
         <v>1481</v>
       </c>
-      <c r="S115" s="7" t="s">
+      <c r="T115" s="7" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="116" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+      <c r="A116" s="7" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>1490</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>1482</v>
       </c>
-      <c r="T115" s="7" t="s">
-        <v>700</v>
+      <c r="G116" s="7" t="s">
+        <v>1487</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>1486</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="L116" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="O116" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P116" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q116" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="R116" s="7" t="s">
+        <v>1484</v>
+      </c>
+      <c r="S116" s="7">
+        <v>1874</v>
+      </c>
+      <c r="T116" s="7" t="s">
+        <v>1485</v>
       </c>
     </row>
   </sheetData>
@@ -13746,10 +13814,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G12" t="str">
         <f>E12&amp;" "&amp;F12</f>
@@ -13758,10 +13826,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ref="G13:G18" si="1">E13&amp;" "&amp;F13</f>
@@ -13770,10 +13838,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F14" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
@@ -13782,10 +13850,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F15" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
@@ -13794,10 +13862,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
@@ -13806,10 +13874,10 @@
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
@@ -13818,10 +13886,10 @@
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F18" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
@@ -13943,222 +14011,222 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>1316</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>1317</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
   </sheetData>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75466728-6075-4844-A220-05C7CC3F7836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F03D575-8F80-6A40-B649-431F0963709A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="9080" windowWidth="25020" windowHeight="6640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2604" uniqueCount="1491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="1504">
   <si>
     <t>liv_000017</t>
   </si>
@@ -4521,6 +4521,45 @@
   </si>
   <si>
     <t>Illuminated ms. in green, red, gold, and black to “the Directors of the London Missionary Society.”</t>
+  </si>
+  <si>
+    <t>liv_021113</t>
+  </si>
+  <si>
+    <t>“Autograph of Shaka”</t>
+  </si>
+  <si>
+    <t>“Autograph of Shaka,” 1938</t>
+  </si>
+  <si>
+    <t>Shaka kaSenzangakhona, 1787-1828</t>
+  </si>
+  <si>
+    <t>Farewell, Francis George, 1784–1829</t>
+  </si>
+  <si>
+    <t>Msebenzi</t>
+  </si>
+  <si>
+    <t>Hlongwane, Albert</t>
+  </si>
+  <si>
+    <t>History of Matiwane and the Amangwane Tribe: As Told by Msebenzi to His Kinsman Albert Hlongwane</t>
+  </si>
+  <si>
+    <t>Pretoria</t>
+  </si>
+  <si>
+    <t>The Government Printer, The Union of South Africa</t>
+  </si>
+  <si>
+    <t>1938; 10 September 1828</t>
+  </si>
+  <si>
+    <t>https://archive.org/details/historyofmatiwanmseb/page/18/mode/2up</t>
+  </si>
+  <si>
+    <t>Handwritten note concluded “Chaka's Mark written by him” followed by a signature in a separate hand.</t>
   </si>
 </sst>
 </file>
@@ -8349,11 +8388,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ116"/>
+  <dimension ref="A1:AQ117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I116" sqref="I116"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13492,6 +13531,59 @@
       </c>
       <c r="T116" s="7" t="s">
         <v>1485</v>
+      </c>
+    </row>
+    <row r="117" spans="1:34" ht="119" x14ac:dyDescent="0.2">
+      <c r="A117" s="7" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>1493</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J117" s="7" t="s">
+        <v>1495</v>
+      </c>
+      <c r="L117" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M117" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="V117" s="10" t="s">
+        <v>1496</v>
+      </c>
+      <c r="W117" s="10" t="s">
+        <v>1497</v>
+      </c>
+      <c r="X117" s="7" t="s">
+        <v>1498</v>
+      </c>
+      <c r="Y117" s="7" t="s">
+        <v>1499</v>
+      </c>
+      <c r="AC117" s="7" t="s">
+        <v>1500</v>
+      </c>
+      <c r="AG117" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="AH117" s="7" t="s">
+        <v>1465</v>
       </c>
     </row>
   </sheetData>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F03D575-8F80-6A40-B649-431F0963709A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2058CC8-F844-E940-A9E2-2C411746B603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="1504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="1538">
   <si>
     <t>liv_000017</t>
   </si>
@@ -4560,6 +4560,108 @@
   </si>
   <si>
     <t>Handwritten note concluded “Chaka's Mark written by him” followed by a signature in a separate hand.</t>
+  </si>
+  <si>
+    <t>liv_021114</t>
+  </si>
+  <si>
+    <t>liv_021115</t>
+  </si>
+  <si>
+    <t>liv_021116</t>
+  </si>
+  <si>
+    <t>liv_021117</t>
+  </si>
+  <si>
+    <t>liv_021118</t>
+  </si>
+  <si>
+    <t>https://digital.soas.ac.uk/AA00001551/00001/citation</t>
+  </si>
+  <si>
+    <t>https://digital.soas.ac.uk/AA00001552/00001/citation</t>
+  </si>
+  <si>
+    <t>https://digital.soas.ac.uk/AA00001553/00001/citation</t>
+  </si>
+  <si>
+    <t>https://digital.nls.uk/kirk/kirk6.html</t>
+  </si>
+  <si>
+    <t>https://sova.si.edu/details/EEPA.1993-012#ref671</t>
+  </si>
+  <si>
+    <t>Images from the Council for World Mission Archive, SOAS Library, University of London. Used by permission for private study, educational or research purposes only.</t>
+  </si>
+  <si>
+    <t>National Museum of African Art, Smithsonian Institution. Used by permission.</t>
+  </si>
+  <si>
+    <t>Creative Commons Share-alike 2.5 UK: Scotland (https://creativecommons.org/licenses/by-nc-sa/2.5/scotland/)</t>
+  </si>
+  <si>
+    <t>Ranavalona II in regal attire, standing, looking right, with an umbrella, beside a table and mirror.</t>
+  </si>
+  <si>
+    <t>Ranavalona II in regal attire, seated, looking right, beside a table and mirror with two children.</t>
+  </si>
+  <si>
+    <t>Ranavalona II in regal attire, seated, looking right, beside a table and mirror with three children.</t>
+  </si>
+  <si>
+    <t>Tippu Tip, seated, looking to the right, holding a thin long sword.</t>
+  </si>
+  <si>
+    <t>Four children of varying ages seated in front of the door of Tippu Tip's house.</t>
+  </si>
+  <si>
+    <t>Ranavalona II</t>
+  </si>
+  <si>
+    <t>Ranavalona II with Two Children</t>
+  </si>
+  <si>
+    <t>Ranavalona II with Three Children</t>
+  </si>
+  <si>
+    <t>Children in Front of Tippu Tip's House</t>
+  </si>
+  <si>
+    <t>Tippu Tip, [nineteenth century]</t>
+  </si>
+  <si>
+    <t>Ranavalona II with Three Children, [before 1883]</t>
+  </si>
+  <si>
+    <t>Ranavalona II with Two Children, [before 1883]</t>
+  </si>
+  <si>
+    <t>Ranavalona II, [before 1883]</t>
+  </si>
+  <si>
+    <t>Children in Front of Tippu Tip's House, 1981</t>
+  </si>
+  <si>
+    <t>Kirk, John, 1832-1922</t>
+  </si>
+  <si>
+    <t>Nooter, Robert</t>
+  </si>
+  <si>
+    <t>Smithsonian Institution, National Museum of African Art, Washington, D.C.</t>
+  </si>
+  <si>
+    <t>Eliot Elisofon Photographic Archives, Robert and Nancy Nooter Photographs, EEPA 1993-120126</t>
+  </si>
+  <si>
+    <t>[before 1883]</t>
+  </si>
+  <si>
+    <t>SOAS Digital Collections, London Missionary Society, Madagascar Collection, Council for World Mission Archive</t>
+  </si>
+  <si>
+    <t>Acc.9942</t>
   </si>
 </sst>
 </file>
@@ -8388,11 +8490,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ117"/>
+  <dimension ref="A1:AQ122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C117" sqref="C117"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U121" sqref="U121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13584,6 +13686,226 @@
       </c>
       <c r="AH117" s="7" t="s">
         <v>1465</v>
+      </c>
+    </row>
+    <row r="118" spans="1:34" ht="85" x14ac:dyDescent="0.2">
+      <c r="A118" s="7" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G118" s="7" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>1529</v>
+      </c>
+      <c r="I118" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L118" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O118" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P118" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q118" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="R118" s="7" t="s">
+        <v>1536</v>
+      </c>
+      <c r="S118" s="7" t="s">
+        <v>1535</v>
+      </c>
+      <c r="T118" s="7" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="119" spans="1:34" ht="85" x14ac:dyDescent="0.2">
+      <c r="A119" s="7" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>1523</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>1528</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L119" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O119" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P119" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q119" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="R119" s="7" t="s">
+        <v>1536</v>
+      </c>
+      <c r="S119" s="7" t="s">
+        <v>1535</v>
+      </c>
+      <c r="T119" s="7" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="120" spans="1:34" ht="85" x14ac:dyDescent="0.2">
+      <c r="A120" s="7" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>1524</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>1527</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L120" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O120" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P120" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q120" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="R120" s="7" t="s">
+        <v>1536</v>
+      </c>
+      <c r="S120" s="7" t="s">
+        <v>1535</v>
+      </c>
+      <c r="T120" s="7" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="121" spans="1:34" ht="51" x14ac:dyDescent="0.2">
+      <c r="A121" s="7" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>1526</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>1531</v>
+      </c>
+      <c r="L121" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O121" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P121" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q121" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R121" s="7" t="s">
+        <v>1537</v>
+      </c>
+      <c r="S121" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="T121" s="7" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="122" spans="1:34" ht="85" x14ac:dyDescent="0.2">
+      <c r="A122" s="7" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>1530</v>
+      </c>
+      <c r="I122" s="7" t="s">
+        <v>1532</v>
+      </c>
+      <c r="L122" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O122" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P122" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q122" s="7" t="s">
+        <v>1533</v>
+      </c>
+      <c r="R122" s="7" t="s">
+        <v>1534</v>
+      </c>
+      <c r="S122" s="7">
+        <v>1981</v>
+      </c>
+      <c r="T122" s="7" t="s">
+        <v>972</v>
       </c>
     </row>
   </sheetData>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2058CC8-F844-E940-A9E2-2C411746B603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201B4AA3-B3FE-A846-B892-B36CDEC7BFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4628,9 +4628,6 @@
     <t>Children in Front of Tippu Tip's House</t>
   </si>
   <si>
-    <t>Tippu Tip, [nineteenth century]</t>
-  </si>
-  <si>
     <t>Ranavalona II with Three Children, [before 1883]</t>
   </si>
   <si>
@@ -4662,6 +4659,9 @@
   </si>
   <si>
     <t>Acc.9942</t>
+  </si>
+  <si>
+    <t>Tippu Tip, [late nineteenth century]</t>
   </si>
 </sst>
 </file>
@@ -8493,8 +8493,8 @@
   <dimension ref="A1:AQ122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U121" sqref="U121"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S121" sqref="S121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13705,7 +13705,7 @@
         <v>1522</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="I118" s="7" t="s">
         <v>170</v>
@@ -13723,10 +13723,10 @@
         <v>152</v>
       </c>
       <c r="R118" s="7" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="S118" s="7" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="T118" s="7" t="s">
         <v>993</v>
@@ -13749,7 +13749,7 @@
         <v>1523</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="I119" s="7" t="s">
         <v>170</v>
@@ -13767,10 +13767,10 @@
         <v>152</v>
       </c>
       <c r="R119" s="7" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="S119" s="7" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="T119" s="7" t="s">
         <v>993</v>
@@ -13793,7 +13793,7 @@
         <v>1524</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="I120" s="7" t="s">
         <v>170</v>
@@ -13811,10 +13811,10 @@
         <v>152</v>
       </c>
       <c r="R120" s="7" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="S120" s="7" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="T120" s="7" t="s">
         <v>993</v>
@@ -13837,10 +13837,10 @@
         <v>1004</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>1526</v>
+        <v>1537</v>
       </c>
       <c r="I121" s="7" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="L121" s="7" t="s">
         <v>117</v>
@@ -13855,10 +13855,10 @@
         <v>34</v>
       </c>
       <c r="R121" s="7" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="S121" s="7" t="s">
-        <v>967</v>
+        <v>1001</v>
       </c>
       <c r="T121" s="7" t="s">
         <v>993</v>
@@ -13881,10 +13881,10 @@
         <v>1525</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="I122" s="7" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="L122" s="7" t="s">
         <v>117</v>
@@ -13896,10 +13896,10 @@
         <v>45</v>
       </c>
       <c r="Q122" s="7" t="s">
+        <v>1532</v>
+      </c>
+      <c r="R122" s="7" t="s">
         <v>1533</v>
-      </c>
-      <c r="R122" s="7" t="s">
-        <v>1534</v>
       </c>
       <c r="S122" s="7">
         <v>1981</v>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201B4AA3-B3FE-A846-B892-B36CDEC7BFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BD67B5-42F9-5042-ABD9-94DFC7335229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="460" windowWidth="25020" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="460" windowWidth="25000" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
@@ -4195,12 +4195,6 @@
     <t>Stoffles, Andries, late 1770s-1837</t>
   </si>
   <si>
-    <t>“Special General Meeting of the London Missionary Society” (Excerpts)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Special General Meeting of the London Missionary Society” (Excerpts), September 1836 </t>
-  </si>
-  <si>
     <t>liv_021098</t>
   </si>
   <si>
@@ -4662,6 +4656,12 @@
   </si>
   <si>
     <t>Tippu Tip, [late nineteenth century]</t>
+  </si>
+  <si>
+    <t>“Special General Meeting of the London Missionary Society” (Excerpt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Special General Meeting of the London Missionary Society” (Excerpt), September 1836 </t>
   </si>
 </sst>
 </file>
@@ -5156,9 +5156,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97A9DD5-2802-8C46-B4DE-35FF576EF7FC}">
   <dimension ref="A1:AL82"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC59" sqref="AC59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6766,7 +6766,7 @@
         <v>566</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>559</v>
@@ -7002,19 +7002,19 @@
     </row>
     <row r="50" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>1424</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>1425</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>1426</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>1427</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>1428</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>115</v>
@@ -7029,13 +7029,13 @@
         <v>609</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="51" spans="1:38" ht="187" x14ac:dyDescent="0.2">
@@ -7353,10 +7353,10 @@
         <v>1376</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1382</v>
+        <v>1536</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1383</v>
+        <v>1537</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>1380</v>
@@ -8492,7 +8492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S121" sqref="S121"/>
     </sheetView>
@@ -12968,28 +12968,28 @@
     </row>
     <row r="102" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="G102" s="7" t="s">
+        <v>1389</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>1390</v>
+      </c>
+      <c r="I102" s="7" t="s">
         <v>1391</v>
-      </c>
-      <c r="H102" s="7" t="s">
-        <v>1392</v>
-      </c>
-      <c r="I102" s="7" t="s">
-        <v>1393</v>
       </c>
       <c r="L102" s="7" t="s">
         <v>117</v>
@@ -13006,25 +13006,25 @@
     </row>
     <row r="103" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="B103" s="7" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>1389</v>
+      </c>
+      <c r="H103" s="7" t="s">
         <v>1394</v>
       </c>
-      <c r="C103" s="7" t="s">
-        <v>1398</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>1385</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>1391</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>1396</v>
-      </c>
       <c r="I103" s="7" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="L103" s="7" t="s">
         <v>117</v>
@@ -13036,30 +13036,30 @@
         <v>1888</v>
       </c>
       <c r="T103" s="7" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="104" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="G104" s="7" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I104" s="7" t="s">
         <v>1400</v>
-      </c>
-      <c r="H104" s="7" t="s">
-        <v>1401</v>
-      </c>
-      <c r="I104" s="7" t="s">
-        <v>1402</v>
       </c>
       <c r="L104" s="7" t="s">
         <v>117</v>
@@ -13076,22 +13076,22 @@
     </row>
     <row r="105" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>1385</v>
+      </c>
+      <c r="G105" s="7" t="s">
         <v>1405</v>
       </c>
-      <c r="B105" s="7" t="s">
-        <v>1394</v>
-      </c>
-      <c r="C105" s="7" t="s">
+      <c r="H105" s="7" t="s">
         <v>1406</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>1387</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>1407</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>1408</v>
       </c>
       <c r="I105" s="7" t="s">
         <v>170</v>
@@ -13106,36 +13106,36 @@
         <v>1873</v>
       </c>
       <c r="T105" s="7" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="106" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="G106" s="7" t="s">
+        <v>1389</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>1390</v>
+      </c>
+      <c r="I106" s="7" t="s">
         <v>1391</v>
-      </c>
-      <c r="H106" s="7" t="s">
-        <v>1392</v>
-      </c>
-      <c r="I106" s="7" t="s">
-        <v>1393</v>
       </c>
       <c r="L106" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M106" s="11" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="O106" s="7" t="s">
         <v>16</v>
@@ -13147,7 +13147,7 @@
         <v>1165</v>
       </c>
       <c r="R106" s="7" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="S106" s="7">
         <v>1864</v>
@@ -13158,31 +13158,31 @@
     </row>
     <row r="107" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="F107" s="7" t="s">
+        <v>1387</v>
+      </c>
+      <c r="G107" s="7" t="s">
         <v>1389</v>
       </c>
-      <c r="G107" s="7" t="s">
+      <c r="H107" s="7" t="s">
+        <v>1390</v>
+      </c>
+      <c r="I107" s="7" t="s">
         <v>1391</v>
-      </c>
-      <c r="H107" s="7" t="s">
-        <v>1392</v>
-      </c>
-      <c r="I107" s="7" t="s">
-        <v>1393</v>
       </c>
       <c r="L107" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M107" s="11" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="O107" s="7" t="s">
         <v>16</v>
@@ -13194,7 +13194,7 @@
         <v>1165</v>
       </c>
       <c r="R107" s="7" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="S107" s="7">
         <v>1864</v>
@@ -13205,25 +13205,25 @@
     </row>
     <row r="108" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="L108" s="7" t="s">
         <v>117</v>
@@ -13238,10 +13238,10 @@
         <v>1165</v>
       </c>
       <c r="R108" s="7" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="S108" s="7" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="T108" s="7" t="s">
         <v>64</v>
@@ -13249,22 +13249,22 @@
     </row>
     <row r="109" spans="1:34" ht="170" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>170</v>
@@ -13276,22 +13276,22 @@
         <v>810</v>
       </c>
       <c r="V109" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="W109" s="10" t="s">
+        <v>1457</v>
+      </c>
+      <c r="X109" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="W109" s="10" t="s">
+      <c r="Y109" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="X109" s="1" t="s">
+      <c r="AC109" s="1" t="s">
         <v>1460</v>
       </c>
-      <c r="Y109" s="1" t="s">
-        <v>1461</v>
-      </c>
-      <c r="AC109" s="1" t="s">
-        <v>1462</v>
-      </c>
       <c r="AG109" s="7" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="AH109" s="1" t="s">
         <v>207</v>
@@ -13299,22 +13299,22 @@
     </row>
     <row r="110" spans="1:34" ht="170" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>170</v>
@@ -13326,48 +13326,48 @@
         <v>810</v>
       </c>
       <c r="V110" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="W110" s="10" t="s">
+        <v>1457</v>
+      </c>
+      <c r="X110" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="W110" s="10" t="s">
+      <c r="Y110" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="X110" s="1" t="s">
+      <c r="AC110" s="1" t="s">
         <v>1460</v>
       </c>
-      <c r="Y110" s="1" t="s">
-        <v>1461</v>
-      </c>
-      <c r="AC110" s="1" t="s">
-        <v>1462</v>
-      </c>
       <c r="AG110" s="7" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="AH110" s="1" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="111" spans="1:34" ht="170" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="H111" s="7" t="s">
+        <v>1454</v>
+      </c>
+      <c r="I111" s="1" t="s">
         <v>1456</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>1458</v>
       </c>
       <c r="L111" s="7" t="s">
         <v>115</v>
@@ -13376,45 +13376,45 @@
         <v>810</v>
       </c>
       <c r="V111" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="W111" s="10" t="s">
+        <v>1457</v>
+      </c>
+      <c r="X111" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="W111" s="10" t="s">
+      <c r="Y111" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="X111" s="1" t="s">
+      <c r="AC111" s="1" t="s">
         <v>1460</v>
       </c>
-      <c r="Y111" s="1" t="s">
-        <v>1461</v>
-      </c>
-      <c r="AC111" s="1" t="s">
-        <v>1462</v>
-      </c>
       <c r="AG111" s="7" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="AH111" s="1" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="112" spans="1:34" ht="170" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>170</v>
@@ -13426,48 +13426,48 @@
         <v>810</v>
       </c>
       <c r="V112" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="W112" s="10" t="s">
+        <v>1457</v>
+      </c>
+      <c r="X112" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="W112" s="10" t="s">
+      <c r="Y112" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="X112" s="1" t="s">
+      <c r="AC112" s="1" t="s">
         <v>1460</v>
       </c>
-      <c r="Y112" s="1" t="s">
-        <v>1461</v>
-      </c>
-      <c r="AC112" s="1" t="s">
-        <v>1462</v>
-      </c>
       <c r="AG112" s="7" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="AH112" s="1" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="113" spans="1:34" ht="170" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="L113" s="7" t="s">
         <v>115</v>
@@ -13476,22 +13476,22 @@
         <v>810</v>
       </c>
       <c r="V113" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="W113" s="10" t="s">
+        <v>1457</v>
+      </c>
+      <c r="X113" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="W113" s="10" t="s">
+      <c r="Y113" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="X113" s="1" t="s">
+      <c r="AC113" s="1" t="s">
         <v>1460</v>
       </c>
-      <c r="Y113" s="1" t="s">
+      <c r="AG113" s="7" t="s">
         <v>1461</v>
-      </c>
-      <c r="AC113" s="1" t="s">
-        <v>1462</v>
-      </c>
-      <c r="AG113" s="7" t="s">
-        <v>1463</v>
       </c>
       <c r="AH113" s="1">
         <v>281</v>
@@ -13499,28 +13499,28 @@
     </row>
     <row r="114" spans="1:34" ht="170" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="G114" s="14" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="L114" s="7" t="s">
         <v>115</v>
@@ -13529,45 +13529,45 @@
         <v>810</v>
       </c>
       <c r="V114" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="W114" s="10" t="s">
+        <v>1457</v>
+      </c>
+      <c r="X114" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="W114" s="10" t="s">
+      <c r="Y114" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="X114" s="1" t="s">
+      <c r="AC114" s="1" t="s">
         <v>1460</v>
       </c>
-      <c r="Y114" s="1" t="s">
-        <v>1461</v>
-      </c>
-      <c r="AC114" s="1" t="s">
+      <c r="AG114" s="7" t="s">
         <v>1462</v>
       </c>
-      <c r="AG114" s="7" t="s">
-        <v>1464</v>
-      </c>
       <c r="AH114" s="1" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="115" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C115" s="7" t="s">
         <v>1475</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="F115" s="1" t="s">
         <v>1476</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="G115" s="7" t="s">
+        <v>1389</v>
+      </c>
+      <c r="H115" s="7" t="s">
         <v>1477</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>1478</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>1391</v>
-      </c>
-      <c r="H115" s="7" t="s">
-        <v>1479</v>
       </c>
       <c r="I115" s="7" t="s">
         <v>170</v>
@@ -13582,10 +13582,10 @@
         <v>471</v>
       </c>
       <c r="Q115" s="7" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="S115" s="7" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="T115" s="7" t="s">
         <v>699</v>
@@ -13593,25 +13593,25 @@
     </row>
     <row r="116" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C116" s="7" t="s">
         <v>1488</v>
       </c>
-      <c r="B116" s="7" t="s">
-        <v>1489</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>1490</v>
-      </c>
       <c r="F116" s="1" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="L116" s="7" t="s">
         <v>115</v>
@@ -13626,39 +13626,39 @@
         <v>65</v>
       </c>
       <c r="R116" s="7" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="S116" s="7">
         <v>1874</v>
       </c>
       <c r="T116" s="7" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="117" spans="1:34" ht="119" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="F117" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>1490</v>
+      </c>
+      <c r="H117" s="7" t="s">
         <v>1491</v>
       </c>
-      <c r="G117" s="7" t="s">
+      <c r="I117" s="7" t="s">
         <v>1492</v>
       </c>
-      <c r="H117" s="7" t="s">
+      <c r="J117" s="7" t="s">
         <v>1493</v>
-      </c>
-      <c r="I117" s="7" t="s">
-        <v>1494</v>
-      </c>
-      <c r="J117" s="7" t="s">
-        <v>1495</v>
       </c>
       <c r="L117" s="7" t="s">
         <v>115</v>
@@ -13667,45 +13667,45 @@
         <v>810</v>
       </c>
       <c r="V117" s="10" t="s">
+        <v>1494</v>
+      </c>
+      <c r="W117" s="10" t="s">
+        <v>1495</v>
+      </c>
+      <c r="X117" s="7" t="s">
         <v>1496</v>
       </c>
-      <c r="W117" s="10" t="s">
+      <c r="Y117" s="7" t="s">
         <v>1497</v>
       </c>
-      <c r="X117" s="7" t="s">
+      <c r="AC117" s="7" t="s">
         <v>1498</v>
       </c>
-      <c r="Y117" s="7" t="s">
+      <c r="AG117" s="7" t="s">
         <v>1499</v>
       </c>
-      <c r="AC117" s="7" t="s">
-        <v>1500</v>
-      </c>
-      <c r="AG117" s="7" t="s">
-        <v>1501</v>
-      </c>
       <c r="AH117" s="7" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="118" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="I118" s="7" t="s">
         <v>170</v>
@@ -13723,10 +13723,10 @@
         <v>152</v>
       </c>
       <c r="R118" s="7" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="S118" s="7" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="T118" s="7" t="s">
         <v>993</v>
@@ -13734,22 +13734,22 @@
     </row>
     <row r="119" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="I119" s="7" t="s">
         <v>170</v>
@@ -13767,10 +13767,10 @@
         <v>152</v>
       </c>
       <c r="R119" s="7" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="S119" s="7" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="T119" s="7" t="s">
         <v>993</v>
@@ -13778,22 +13778,22 @@
     </row>
     <row r="120" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="G120" s="7" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H120" s="7" t="s">
         <v>1524</v>
-      </c>
-      <c r="H120" s="7" t="s">
-        <v>1526</v>
       </c>
       <c r="I120" s="7" t="s">
         <v>170</v>
@@ -13811,10 +13811,10 @@
         <v>152</v>
       </c>
       <c r="R120" s="7" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="S120" s="7" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="T120" s="7" t="s">
         <v>993</v>
@@ -13822,25 +13822,25 @@
     </row>
     <row r="121" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="G121" s="7" t="s">
         <v>1004</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="I121" s="7" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="L121" s="7" t="s">
         <v>117</v>
@@ -13855,7 +13855,7 @@
         <v>34</v>
       </c>
       <c r="R121" s="7" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="S121" s="7" t="s">
         <v>1001</v>
@@ -13866,25 +13866,25 @@
     </row>
     <row r="122" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B122" s="7" t="s">
         <v>1513</v>
       </c>
-      <c r="B122" s="7" t="s">
-        <v>1515</v>
-      </c>
       <c r="C122" s="7" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="H122" s="7" t="s">
+        <v>1527</v>
+      </c>
+      <c r="I122" s="7" t="s">
         <v>1529</v>
-      </c>
-      <c r="I122" s="7" t="s">
-        <v>1531</v>
       </c>
       <c r="L122" s="7" t="s">
         <v>117</v>
@@ -13896,10 +13896,10 @@
         <v>45</v>
       </c>
       <c r="Q122" s="7" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="R122" s="7" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="S122" s="7">
         <v>1981</v>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BD67B5-42F9-5042-ABD9-94DFC7335229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7904644-5136-204F-93D1-4239164765FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="460" windowWidth="25000" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="24960" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="1538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2702" uniqueCount="1547">
   <si>
     <t>liv_000017</t>
   </si>
@@ -4192,9 +4192,6 @@
     <t>Hankey, William Alers, 1771/2-1859</t>
   </si>
   <si>
-    <t>Stoffles, Andries, late 1770s-1837</t>
-  </si>
-  <si>
     <t>liv_021098</t>
   </si>
   <si>
@@ -4662,6 +4659,36 @@
   </si>
   <si>
     <t xml:space="preserve">“Special General Meeting of the London Missionary Society” (Excerpt), September 1836 </t>
+  </si>
+  <si>
+    <t>liv_020065</t>
+  </si>
+  <si>
+    <t>Donkin, Rufane, 1772-1841</t>
+  </si>
+  <si>
+    <t>“Minutes of Evidence” (Excerpt)</t>
+  </si>
+  <si>
+    <t>“Minutes of Evidence” (Excerpt), 27 June 1836</t>
+  </si>
+  <si>
+    <t>Report from the Select Committee on the Aborigines (British Settlements;) Together with the Minutes of Evidence, Appendix and Index</t>
+  </si>
+  <si>
+    <t>[London]</t>
+  </si>
+  <si>
+    <t>Ordered, by the House of Commons</t>
+  </si>
+  <si>
+    <t>5 August 1836</t>
+  </si>
+  <si>
+    <t>583-89</t>
+  </si>
+  <si>
+    <t>Stoffels, Andries, late 1770s-1837</t>
   </si>
 </sst>
 </file>
@@ -5154,11 +5181,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97A9DD5-2802-8C46-B4DE-35FF576EF7FC}">
-  <dimension ref="A1:AL82"/>
+  <dimension ref="A1:AL83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC59" sqref="AC59"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AK60" sqref="AK60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6766,7 +6793,7 @@
         <v>566</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>559</v>
@@ -7002,19 +7029,19 @@
     </row>
     <row r="50" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>1422</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>1423</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>1424</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>1425</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>1426</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>115</v>
@@ -7029,13 +7056,13 @@
         <v>609</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="Q50" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="R50" s="1" t="s">
         <v>1427</v>
-      </c>
-      <c r="R50" s="1" t="s">
-        <v>1428</v>
       </c>
     </row>
     <row r="51" spans="1:38" ht="187" x14ac:dyDescent="0.2">
@@ -7353,10 +7380,10 @@
         <v>1376</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>1536</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>1537</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>1380</v>
@@ -7365,7 +7392,7 @@
         <v>657</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>1381</v>
+        <v>1546</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>429</v>
@@ -7386,66 +7413,56 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="60" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:38" ht="170" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AD60" s="4" t="s">
+        <v>1541</v>
+      </c>
+      <c r="AE60" s="4" t="s">
+        <v>1542</v>
+      </c>
+      <c r="AI60" s="4" t="s">
+        <v>1543</v>
+      </c>
+      <c r="AK60" s="4" t="s">
+        <v>1544</v>
+      </c>
+      <c r="AL60" s="4" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="61" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>1017</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="Q60" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="R60" s="1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="Z60" s="1"/>
-      <c r="AA60" s="1"/>
-      <c r="AB60" s="1"/>
-      <c r="AC60" s="1"/>
-      <c r="AD60" s="1"/>
-      <c r="AE60" s="1"/>
-      <c r="AF60" s="1"/>
-      <c r="AG60" s="1"/>
-      <c r="AH60" s="1"/>
-      <c r="AI60" s="1"/>
-      <c r="AJ60" s="1"/>
-      <c r="AK60" s="1"/>
-      <c r="AL60" s="1"/>
-    </row>
-    <row r="61" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>1024</v>
       </c>
       <c r="K61" s="1" t="s">
         <v>115</v>
@@ -7460,13 +7477,13 @@
         <v>472</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
@@ -7484,16 +7501,16 @@
     </row>
     <row r="62" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1017</v>
+        <v>1024</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>115</v>
@@ -7508,13 +7525,13 @@
         <v>472</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
@@ -7532,16 +7549,16 @@
     </row>
     <row r="63" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1175</v>
+        <v>1029</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1176</v>
+        <v>1030</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>115</v>
@@ -7556,13 +7573,13 @@
         <v>472</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
@@ -7578,18 +7595,18 @@
       <c r="AK63" s="1"/>
       <c r="AL63" s="1"/>
     </row>
-    <row r="64" spans="1:38" ht="68" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1039</v>
+        <v>1175</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1040</v>
+        <v>1176</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1017</v>
+        <v>1024</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>115</v>
@@ -7604,13 +7621,13 @@
         <v>472</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
@@ -7626,18 +7643,18 @@
       <c r="AK64" s="1"/>
       <c r="AL64" s="1"/>
     </row>
-    <row r="65" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:38" ht="68" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1041</v>
+        <v>1017</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>115</v>
@@ -7652,13 +7669,13 @@
         <v>472</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="R65" s="1" t="s">
-        <v>1049</v>
+        <v>1033</v>
       </c>
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
@@ -7676,13 +7693,13 @@
     </row>
     <row r="66" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>1041</v>
@@ -7700,13 +7717,13 @@
         <v>472</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
@@ -7724,13 +7741,13 @@
     </row>
     <row r="67" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>1041</v>
@@ -7748,10 +7765,13 @@
         <v>472</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>1060</v>
+        <v>1054</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>1055</v>
       </c>
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
@@ -7769,13 +7789,13 @@
     </row>
     <row r="68" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1045</v>
+        <v>1057</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>1041</v>
@@ -7793,7 +7813,7 @@
         <v>472</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="Q68" s="1" t="s">
         <v>1060</v>
@@ -7814,13 +7834,13 @@
     </row>
     <row r="69" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>1045</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>1041</v>
@@ -7838,13 +7858,10 @@
         <v>472</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="R69" s="1" t="s">
-        <v>1049</v>
+        <v>1060</v>
       </c>
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
@@ -7862,13 +7879,13 @@
     </row>
     <row r="70" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1069</v>
+        <v>1045</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>1041</v>
@@ -7886,10 +7903,13 @@
         <v>472</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="Q70" s="1" t="s">
         <v>1064</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>1049</v>
       </c>
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
@@ -7907,13 +7927,13 @@
     </row>
     <row r="71" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1045</v>
+        <v>1069</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>1041</v>
@@ -7931,13 +7951,10 @@
         <v>472</v>
       </c>
       <c r="P71" s="1" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>1075</v>
-      </c>
-      <c r="R71" s="1" t="s">
-        <v>1076</v>
+        <v>1064</v>
       </c>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
@@ -7953,15 +7970,15 @@
       <c r="AK71" s="1"/>
       <c r="AL71" s="1"/>
     </row>
-    <row r="72" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>1045</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>1041</v>
@@ -7979,13 +7996,13 @@
         <v>472</v>
       </c>
       <c r="P72" s="1" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
@@ -8001,18 +8018,18 @@
       <c r="AK72" s="1"/>
       <c r="AL72" s="1"/>
     </row>
-    <row r="73" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>1045</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1374</v>
+        <v>1078</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1084</v>
+        <v>1041</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>115</v>
@@ -8027,13 +8044,13 @@
         <v>472</v>
       </c>
       <c r="P73" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="Q73" s="5" t="s">
-        <v>1375</v>
+        <v>1079</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>1080</v>
       </c>
       <c r="R73" s="1" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
@@ -8049,18 +8066,18 @@
       <c r="AK73" s="1"/>
       <c r="AL73" s="1"/>
     </row>
-    <row r="74" spans="1:38" ht="119" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>1045</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1088</v>
+        <v>1374</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1041</v>
+        <v>1084</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>115</v>
@@ -8075,13 +8092,13 @@
         <v>472</v>
       </c>
       <c r="P74" s="1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="Q74" s="1" t="s">
-        <v>1090</v>
+        <v>1085</v>
+      </c>
+      <c r="Q74" s="5" t="s">
+        <v>1375</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
@@ -8097,15 +8114,15 @@
       <c r="AK74" s="1"/>
       <c r="AL74" s="1"/>
     </row>
-    <row r="75" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>1045</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>1041</v>
@@ -8123,13 +8140,13 @@
         <v>472</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="Q75" s="1" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
@@ -8145,18 +8162,18 @@
       <c r="AK75" s="1"/>
       <c r="AL75" s="1"/>
     </row>
-    <row r="76" spans="1:38" ht="34" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1098</v>
+        <v>1045</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1117</v>
+        <v>1041</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>115</v>
@@ -8171,13 +8188,13 @@
         <v>472</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
@@ -8193,18 +8210,18 @@
       <c r="AK76" s="1"/>
       <c r="AL76" s="1"/>
     </row>
-    <row r="77" spans="1:38" ht="51" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:38" ht="34" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1051</v>
+        <v>1098</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>1024</v>
+        <v>1117</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>115</v>
@@ -8219,13 +8236,13 @@
         <v>472</v>
       </c>
       <c r="P77" s="1" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
@@ -8241,18 +8258,18 @@
       <c r="AK77" s="1"/>
       <c r="AL77" s="1"/>
     </row>
-    <row r="78" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:38" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>1051</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1301</v>
+        <v>1104</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1041</v>
+        <v>1024</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>115</v>
@@ -8267,13 +8284,13 @@
         <v>472</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>1080</v>
+        <v>1106</v>
       </c>
       <c r="R78" s="1" t="s">
-        <v>1081</v>
+        <v>1107</v>
       </c>
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
@@ -8289,15 +8306,15 @@
       <c r="AK78" s="1"/>
       <c r="AL78" s="1"/>
     </row>
-    <row r="79" spans="1:38" ht="119" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>1051</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1111</v>
+        <v>1301</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>1041</v>
@@ -8315,13 +8332,13 @@
         <v>472</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>1113</v>
+        <v>1080</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
@@ -8339,13 +8356,13 @@
     </row>
     <row r="80" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>1051</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>1041</v>
@@ -8363,10 +8380,10 @@
         <v>472</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>1090</v>
+        <v>1113</v>
       </c>
       <c r="R80" s="1" t="s">
         <v>1091</v>
@@ -8385,15 +8402,15 @@
       <c r="AK80" s="1"/>
       <c r="AL80" s="1"/>
     </row>
-    <row r="81" spans="1:38" ht="102" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:38" ht="119" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1304</v>
+        <v>1051</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1302</v>
+        <v>1115</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>1041</v>
@@ -8411,13 +8428,13 @@
         <v>472</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>1082</v>
+        <v>1116</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>1127</v>
+        <v>1090</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>1081</v>
+        <v>1091</v>
       </c>
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
@@ -8433,18 +8450,18 @@
       <c r="AK81" s="1"/>
       <c r="AL81" s="1"/>
     </row>
-    <row r="82" spans="1:38" ht="34" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:38" ht="102" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>1129</v>
+        <v>1041</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>115</v>
@@ -8462,7 +8479,10 @@
         <v>1082</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>1130</v>
+        <v>1127</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>1081</v>
       </c>
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
@@ -8478,9 +8498,54 @@
       <c r="AK82" s="1"/>
       <c r="AL82" s="1"/>
     </row>
+    <row r="83" spans="1:38" ht="34" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="Z83" s="1"/>
+      <c r="AA83" s="1"/>
+      <c r="AB83" s="1"/>
+      <c r="AC83" s="1"/>
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="1"/>
+      <c r="AF83" s="1"/>
+      <c r="AG83" s="1"/>
+      <c r="AH83" s="1"/>
+      <c r="AI83" s="1"/>
+      <c r="AJ83" s="1"/>
+      <c r="AK83" s="1"/>
+      <c r="AL83" s="1"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL82">
-    <sortCondition ref="A2:A82"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AL83">
+    <sortCondition ref="A2:A83"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12968,28 +13033,28 @@
     </row>
     <row r="102" spans="1:34" ht="136" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B102" s="7" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C102" s="7" t="s">
         <v>1392</v>
       </c>
-      <c r="C102" s="7" t="s">
-        <v>1393</v>
-      </c>
       <c r="D102" s="7" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G102" s="7" t="s">
+        <v>1388</v>
+      </c>
+      <c r="H102" s="7" t="s">
         <v>1389</v>
       </c>
-      <c r="H102" s="7" t="s">
+      <c r="I102" s="7" t="s">
         <v>1390</v>
-      </c>
-      <c r="I102" s="7" t="s">
-        <v>1391</v>
       </c>
       <c r="L102" s="7" t="s">
         <v>117</v>
@@ -13006,25 +13071,25 @@
     </row>
     <row r="103" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="L103" s="7" t="s">
         <v>117</v>
@@ -13036,30 +13101,30 @@
         <v>1888</v>
       </c>
       <c r="T103" s="7" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="104" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C104" s="7" t="s">
         <v>1401</v>
       </c>
-      <c r="B104" s="7" t="s">
-        <v>1392</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>1402</v>
-      </c>
       <c r="F104" s="7" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="G104" s="7" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H104" s="7" t="s">
         <v>1398</v>
       </c>
-      <c r="H104" s="7" t="s">
+      <c r="I104" s="7" t="s">
         <v>1399</v>
-      </c>
-      <c r="I104" s="7" t="s">
-        <v>1400</v>
       </c>
       <c r="L104" s="7" t="s">
         <v>117</v>
@@ -13076,22 +13141,22 @@
     </row>
     <row r="105" spans="1:34" ht="102" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C105" s="7" t="s">
         <v>1403</v>
       </c>
-      <c r="B105" s="7" t="s">
-        <v>1392</v>
-      </c>
-      <c r="C105" s="7" t="s">
+      <c r="F105" s="7" t="s">
+        <v>1384</v>
+      </c>
+      <c r="G105" s="7" t="s">
         <v>1404</v>
       </c>
-      <c r="F105" s="7" t="s">
-        <v>1385</v>
-      </c>
-      <c r="G105" s="7" t="s">
+      <c r="H105" s="7" t="s">
         <v>1405</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>1406</v>
       </c>
       <c r="I105" s="7" t="s">
         <v>170</v>
@@ -13106,36 +13171,36 @@
         <v>1873</v>
       </c>
       <c r="T105" s="7" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="106" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="G106" s="7" t="s">
+        <v>1388</v>
+      </c>
+      <c r="H106" s="7" t="s">
         <v>1389</v>
       </c>
-      <c r="H106" s="7" t="s">
+      <c r="I106" s="7" t="s">
         <v>1390</v>
-      </c>
-      <c r="I106" s="7" t="s">
-        <v>1391</v>
       </c>
       <c r="L106" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M106" s="11" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="O106" s="7" t="s">
         <v>16</v>
@@ -13147,7 +13212,7 @@
         <v>1165</v>
       </c>
       <c r="R106" s="7" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="S106" s="7">
         <v>1864</v>
@@ -13158,31 +13223,31 @@
     </row>
     <row r="107" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="G107" s="7" t="s">
+        <v>1388</v>
+      </c>
+      <c r="H107" s="7" t="s">
         <v>1389</v>
       </c>
-      <c r="H107" s="7" t="s">
+      <c r="I107" s="7" t="s">
         <v>1390</v>
-      </c>
-      <c r="I107" s="7" t="s">
-        <v>1391</v>
       </c>
       <c r="L107" s="7" t="s">
         <v>117</v>
       </c>
       <c r="M107" s="11" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="O107" s="7" t="s">
         <v>16</v>
@@ -13194,7 +13259,7 @@
         <v>1165</v>
       </c>
       <c r="R107" s="7" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="S107" s="7">
         <v>1864</v>
@@ -13205,25 +13270,25 @@
     </row>
     <row r="108" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>1161</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="F108" s="7" t="s">
+        <v>1387</v>
+      </c>
+      <c r="G108" s="7" t="s">
         <v>1388</v>
       </c>
-      <c r="G108" s="7" t="s">
-        <v>1389</v>
-      </c>
       <c r="H108" s="7" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="I108" s="7" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="L108" s="7" t="s">
         <v>117</v>
@@ -13238,10 +13303,10 @@
         <v>1165</v>
       </c>
       <c r="R108" s="7" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="S108" s="7" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="T108" s="7" t="s">
         <v>64</v>
@@ -13249,22 +13314,22 @@
     </row>
     <row r="109" spans="1:34" ht="170" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>170</v>
@@ -13276,22 +13341,22 @@
         <v>810</v>
       </c>
       <c r="V109" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="W109" s="10" t="s">
         <v>1456</v>
       </c>
-      <c r="W109" s="10" t="s">
+      <c r="X109" s="1" t="s">
         <v>1457</v>
       </c>
-      <c r="X109" s="1" t="s">
+      <c r="Y109" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="Y109" s="1" t="s">
+      <c r="AC109" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="AC109" s="1" t="s">
-        <v>1460</v>
-      </c>
       <c r="AG109" s="7" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="AH109" s="1" t="s">
         <v>207</v>
@@ -13299,22 +13364,22 @@
     </row>
     <row r="110" spans="1:34" ht="170" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>170</v>
@@ -13326,48 +13391,48 @@
         <v>810</v>
       </c>
       <c r="V110" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="W110" s="10" t="s">
         <v>1456</v>
       </c>
-      <c r="W110" s="10" t="s">
+      <c r="X110" s="1" t="s">
         <v>1457</v>
       </c>
-      <c r="X110" s="1" t="s">
+      <c r="Y110" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="Y110" s="1" t="s">
+      <c r="AC110" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="AC110" s="1" t="s">
-        <v>1460</v>
-      </c>
       <c r="AG110" s="7" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="AH110" s="1" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="111" spans="1:34" ht="170" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="L111" s="7" t="s">
         <v>115</v>
@@ -13376,45 +13441,45 @@
         <v>810</v>
       </c>
       <c r="V111" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="W111" s="10" t="s">
         <v>1456</v>
       </c>
-      <c r="W111" s="10" t="s">
+      <c r="X111" s="1" t="s">
         <v>1457</v>
       </c>
-      <c r="X111" s="1" t="s">
+      <c r="Y111" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="Y111" s="1" t="s">
+      <c r="AC111" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="AC111" s="1" t="s">
-        <v>1460</v>
-      </c>
       <c r="AG111" s="7" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="AH111" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="112" spans="1:34" ht="170" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="G112" s="14" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>170</v>
@@ -13426,48 +13491,48 @@
         <v>810</v>
       </c>
       <c r="V112" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="W112" s="10" t="s">
         <v>1456</v>
       </c>
-      <c r="W112" s="10" t="s">
+      <c r="X112" s="1" t="s">
         <v>1457</v>
       </c>
-      <c r="X112" s="1" t="s">
+      <c r="Y112" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="Y112" s="1" t="s">
+      <c r="AC112" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="AC112" s="1" t="s">
-        <v>1460</v>
-      </c>
       <c r="AG112" s="7" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="AH112" s="1" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="113" spans="1:34" ht="170" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="G113" s="14" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="H113" s="7" t="s">
+        <v>1454</v>
+      </c>
+      <c r="I113" s="1" t="s">
         <v>1455</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>1456</v>
       </c>
       <c r="L113" s="7" t="s">
         <v>115</v>
@@ -13476,22 +13541,22 @@
         <v>810</v>
       </c>
       <c r="V113" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="W113" s="10" t="s">
         <v>1456</v>
       </c>
-      <c r="W113" s="10" t="s">
+      <c r="X113" s="1" t="s">
         <v>1457</v>
       </c>
-      <c r="X113" s="1" t="s">
+      <c r="Y113" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="Y113" s="1" t="s">
+      <c r="AC113" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="AC113" s="1" t="s">
+      <c r="AG113" s="7" t="s">
         <v>1460</v>
-      </c>
-      <c r="AG113" s="7" t="s">
-        <v>1461</v>
       </c>
       <c r="AH113" s="1">
         <v>281</v>
@@ -13499,28 +13564,28 @@
     </row>
     <row r="114" spans="1:34" ht="170" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="G114" s="14" t="s">
+        <v>1467</v>
+      </c>
+      <c r="H114" s="7" t="s">
         <v>1468</v>
       </c>
-      <c r="H114" s="7" t="s">
-        <v>1469</v>
-      </c>
       <c r="I114" s="1" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="L114" s="7" t="s">
         <v>115</v>
@@ -13529,45 +13594,45 @@
         <v>810</v>
       </c>
       <c r="V114" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="W114" s="10" t="s">
         <v>1456</v>
       </c>
-      <c r="W114" s="10" t="s">
+      <c r="X114" s="1" t="s">
         <v>1457</v>
       </c>
-      <c r="X114" s="1" t="s">
+      <c r="Y114" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="Y114" s="1" t="s">
+      <c r="AC114" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="AC114" s="1" t="s">
-        <v>1460</v>
-      </c>
       <c r="AG114" s="7" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="AH114" s="1" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="115" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B115" s="7" t="s">
         <v>1473</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="C115" s="7" t="s">
         <v>1474</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="F115" s="1" t="s">
         <v>1475</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="G115" s="7" t="s">
+        <v>1388</v>
+      </c>
+      <c r="H115" s="7" t="s">
         <v>1476</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>1389</v>
-      </c>
-      <c r="H115" s="7" t="s">
-        <v>1477</v>
       </c>
       <c r="I115" s="7" t="s">
         <v>170</v>
@@ -13582,10 +13647,10 @@
         <v>471</v>
       </c>
       <c r="Q115" s="7" t="s">
+        <v>1477</v>
+      </c>
+      <c r="S115" s="7" t="s">
         <v>1478</v>
-      </c>
-      <c r="S115" s="7" t="s">
-        <v>1479</v>
       </c>
       <c r="T115" s="7" t="s">
         <v>699</v>
@@ -13593,25 +13658,25 @@
     </row>
     <row r="116" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B116" s="7" t="s">
         <v>1486</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="C116" s="7" t="s">
         <v>1487</v>
       </c>
-      <c r="C116" s="7" t="s">
-        <v>1488</v>
-      </c>
       <c r="F116" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>1484</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>1483</v>
+      </c>
+      <c r="I116" s="1" t="s">
         <v>1480</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>1485</v>
-      </c>
-      <c r="H116" s="7" t="s">
-        <v>1484</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>1481</v>
       </c>
       <c r="L116" s="7" t="s">
         <v>115</v>
@@ -13626,39 +13691,39 @@
         <v>65</v>
       </c>
       <c r="R116" s="7" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="S116" s="7">
         <v>1874</v>
       </c>
       <c r="T116" s="7" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="117" spans="1:34" ht="119" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C117" s="7" t="s">
         <v>1500</v>
       </c>
-      <c r="B117" s="7" t="s">
-        <v>1392</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>1501</v>
-      </c>
       <c r="F117" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="G117" s="7" t="s">
         <v>1489</v>
       </c>
-      <c r="G117" s="7" t="s">
+      <c r="H117" s="7" t="s">
         <v>1490</v>
       </c>
-      <c r="H117" s="7" t="s">
+      <c r="I117" s="7" t="s">
         <v>1491</v>
       </c>
-      <c r="I117" s="7" t="s">
+      <c r="J117" s="7" t="s">
         <v>1492</v>
-      </c>
-      <c r="J117" s="7" t="s">
-        <v>1493</v>
       </c>
       <c r="L117" s="7" t="s">
         <v>115</v>
@@ -13667,45 +13732,45 @@
         <v>810</v>
       </c>
       <c r="V117" s="10" t="s">
+        <v>1493</v>
+      </c>
+      <c r="W117" s="10" t="s">
         <v>1494</v>
       </c>
-      <c r="W117" s="10" t="s">
+      <c r="X117" s="7" t="s">
         <v>1495</v>
       </c>
-      <c r="X117" s="7" t="s">
+      <c r="Y117" s="7" t="s">
         <v>1496</v>
       </c>
-      <c r="Y117" s="7" t="s">
+      <c r="AC117" s="7" t="s">
         <v>1497</v>
       </c>
-      <c r="AC117" s="7" t="s">
+      <c r="AG117" s="7" t="s">
         <v>1498</v>
       </c>
-      <c r="AG117" s="7" t="s">
-        <v>1499</v>
-      </c>
       <c r="AH117" s="7" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="118" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="I118" s="7" t="s">
         <v>170</v>
@@ -13723,10 +13788,10 @@
         <v>152</v>
       </c>
       <c r="R118" s="7" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="S118" s="7" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="T118" s="7" t="s">
         <v>993</v>
@@ -13734,22 +13799,22 @@
     </row>
     <row r="119" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A119" s="7" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="I119" s="7" t="s">
         <v>170</v>
@@ -13767,10 +13832,10 @@
         <v>152</v>
       </c>
       <c r="R119" s="7" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="S119" s="7" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="T119" s="7" t="s">
         <v>993</v>
@@ -13778,22 +13843,22 @@
     </row>
     <row r="120" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A120" s="7" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="I120" s="7" t="s">
         <v>170</v>
@@ -13811,10 +13876,10 @@
         <v>152</v>
       </c>
       <c r="R120" s="7" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="S120" s="7" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="T120" s="7" t="s">
         <v>993</v>
@@ -13822,25 +13887,25 @@
     </row>
     <row r="121" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="7" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="G121" s="7" t="s">
         <v>1004</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="I121" s="7" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="L121" s="7" t="s">
         <v>117</v>
@@ -13855,7 +13920,7 @@
         <v>34</v>
       </c>
       <c r="R121" s="7" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="S121" s="7" t="s">
         <v>1001</v>
@@ -13866,25 +13931,25 @@
     </row>
     <row r="122" spans="1:34" ht="85" x14ac:dyDescent="0.2">
       <c r="A122" s="7" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="I122" s="7" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="L122" s="7" t="s">
         <v>117</v>
@@ -13896,10 +13961,10 @@
         <v>45</v>
       </c>
       <c r="Q122" s="7" t="s">
+        <v>1529</v>
+      </c>
+      <c r="R122" s="7" t="s">
         <v>1530</v>
-      </c>
-      <c r="R122" s="7" t="s">
-        <v>1531</v>
       </c>
       <c r="S122" s="7">
         <v>1981</v>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7904644-5136-204F-93D1-4239164765FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66654530-795D-7944-83F0-5AE02C224CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="460" windowWidth="24960" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2702" uniqueCount="1547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="1551">
   <si>
     <t>liv_000017</t>
   </si>
@@ -4664,9 +4664,6 @@
     <t>liv_020065</t>
   </si>
   <si>
-    <t>Donkin, Rufane, 1772-1841</t>
-  </si>
-  <si>
     <t>“Minutes of Evidence” (Excerpt)</t>
   </si>
   <si>
@@ -4689,6 +4686,21 @@
   </si>
   <si>
     <t>Stoffels, Andries, late 1770s-1837</t>
+  </si>
+  <si>
+    <t>Buxton, Fowell, 1786-1845</t>
+  </si>
+  <si>
+    <t>Baines, Edward, 1800-1890</t>
+  </si>
+  <si>
+    <t>Bagshawe, John, 1784-1861</t>
+  </si>
+  <si>
+    <t>Lushington, Charles, 1785-1866</t>
+  </si>
+  <si>
+    <t>Gladstone, William, 1809-1898</t>
   </si>
 </sst>
 </file>
@@ -5183,9 +5195,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97A9DD5-2802-8C46-B4DE-35FF576EF7FC}">
   <dimension ref="A1:AL83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK60" sqref="AK60"/>
+      <selection pane="bottomLeft" activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7392,7 +7404,7 @@
         <v>657</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>429</v>
@@ -7418,37 +7430,49 @@
         <v>1537</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>1539</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>1540</v>
-      </c>
       <c r="D60" s="1" t="s">
-        <v>1538</v>
+        <v>1546</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>1546</v>
+        <v>1545</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>1550</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>429</v>
       </c>
       <c r="AD60" s="4" t="s">
+        <v>1540</v>
+      </c>
+      <c r="AE60" s="4" t="s">
         <v>1541</v>
       </c>
-      <c r="AE60" s="4" t="s">
+      <c r="AI60" s="4" t="s">
         <v>1542</v>
       </c>
-      <c r="AI60" s="4" t="s">
+      <c r="AK60" s="4" t="s">
         <v>1543</v>
       </c>
-      <c r="AK60" s="4" t="s">
+      <c r="AL60" s="4" t="s">
         <v>1544</v>
-      </c>
-      <c r="AL60" s="4" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="61" spans="1:38" ht="51" x14ac:dyDescent="0.2">

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66654530-795D-7944-83F0-5AE02C224CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF3E94A-AEF8-2C49-9FD6-9009B93EB39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="24960" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="460" windowWidth="24920" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="1551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="1571">
   <si>
     <t>liv_000017</t>
   </si>
@@ -4701,6 +4701,66 @@
   </si>
   <si>
     <t>Gladstone, William, 1809-1898</t>
+  </si>
+  <si>
+    <t>https://calmview.derbyshire.gov.uk/calmview/Record.aspx?src=CalmView.Catalog&amp;id=D3287%2f37%2f12%2f1</t>
+  </si>
+  <si>
+    <t>Images courtesy of Derbyshire Record Office.</t>
+  </si>
+  <si>
+    <t>Handwritten page of Wainwright's ”Speech at Lenton Church Missionary Society Meeting.”</t>
+  </si>
+  <si>
+    <t>liv_021119</t>
+  </si>
+  <si>
+    <t>Speech at Lenton Church Missionary Society Meeting</t>
+  </si>
+  <si>
+    <t>Speech at Lenton Church Missionary Society Meeting, 17 June 1874</t>
+  </si>
+  <si>
+    <t>Wright, H.</t>
+  </si>
+  <si>
+    <t>Matlock</t>
+  </si>
+  <si>
+    <t>Derbyshire Record Office</t>
+  </si>
+  <si>
+    <t>D3287/37/12/1/1</t>
+  </si>
+  <si>
+    <t>17 June 1874</t>
+  </si>
+  <si>
+    <t>transcriptions</t>
+  </si>
+  <si>
+    <t>Lenton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacob Wainwright, standing in quarter profile with one foot on barrel, holding basket with one hand. </t>
+  </si>
+  <si>
+    <t>Verso of Wainwight's Carte de Visit with printed credit to Elliott &amp; Fry and misc. notes in pencil.</t>
+  </si>
+  <si>
+    <t>liv_021120</t>
+  </si>
+  <si>
+    <t>Carte de Visit, Portrait of Jacob Wainwright</t>
+  </si>
+  <si>
+    <t>D3287/37/12/1/2</t>
+  </si>
+  <si>
+    <t>Carte de Visit, Portrait of Jacob Wainwright, [1874]</t>
+  </si>
+  <si>
+    <t>[1874]</t>
   </si>
 </sst>
 </file>
@@ -5195,7 +5255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97A9DD5-2802-8C46-B4DE-35FF576EF7FC}">
   <dimension ref="A1:AL83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J60" sqref="J60"/>
     </sheetView>
@@ -8579,11 +8639,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ122"/>
+  <dimension ref="A1:AQ124"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S121" sqref="S121"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U124" sqref="U124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13995,6 +14055,103 @@
       </c>
       <c r="T122" s="7" t="s">
         <v>972</v>
+      </c>
+    </row>
+    <row r="123" spans="1:34" ht="85" x14ac:dyDescent="0.2">
+      <c r="A123" s="7" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>1555</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>1556</v>
+      </c>
+      <c r="I123" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J123" s="7" t="s">
+        <v>1557</v>
+      </c>
+      <c r="L123" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M123" s="11" t="s">
+        <v>1562</v>
+      </c>
+      <c r="O123" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P123" s="7" t="s">
+        <v>1558</v>
+      </c>
+      <c r="Q123" s="7" t="s">
+        <v>1559</v>
+      </c>
+      <c r="R123" s="7" t="s">
+        <v>1560</v>
+      </c>
+      <c r="S123" s="7" t="s">
+        <v>1561</v>
+      </c>
+      <c r="T123" s="7" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="124" spans="1:34" ht="85" x14ac:dyDescent="0.2">
+      <c r="A124" s="7" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>1567</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>1569</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L124" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O124" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P124" s="7" t="s">
+        <v>1558</v>
+      </c>
+      <c r="Q124" s="7" t="s">
+        <v>1559</v>
+      </c>
+      <c r="R124" s="7" t="s">
+        <v>1568</v>
+      </c>
+      <c r="S124" s="7" t="s">
+        <v>1570</v>
+      </c>
+      <c r="T124" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF3E94A-AEF8-2C49-9FD6-9009B93EB39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF707852-E9D3-2F4F-B1A7-8656C84A0269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="460" windowWidth="24920" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="1571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="1583">
   <si>
     <t>liv_000017</t>
   </si>
@@ -4761,6 +4761,42 @@
   </si>
   <si>
     <t>[1874]</t>
+  </si>
+  <si>
+    <t>liv_021121</t>
+  </si>
+  <si>
+    <t>liv_021122</t>
+  </si>
+  <si>
+    <t>liv_021123</t>
+  </si>
+  <si>
+    <t>James Chuma</t>
+  </si>
+  <si>
+    <t>BLTDL 20659 [previously 81a]</t>
+  </si>
+  <si>
+    <t>BLTDL 20660 [previously 81b]</t>
+  </si>
+  <si>
+    <t>BLTDL 20661 [previously 81c]</t>
+  </si>
+  <si>
+    <t>James Chuma, 1874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyright David Livingstone Centre. Object image(s) used by permission. May not be reproduced without the express written consent of the National Trust for Scotland, on behalf of the Scottish National Memorial to David Livingstone Trust. </t>
+  </si>
+  <si>
+    <t>Chuma, seated with legs extended, smoking pipe and being watched by Susi who holds rifle upright.</t>
+  </si>
+  <si>
+    <t>Chuma, standing, with long bow and arrow, beside Susi, with rifle across shoulder.</t>
+  </si>
+  <si>
+    <t>Chuma, standing, in traditional waist covering, with long bow and arrow.</t>
   </si>
 </sst>
 </file>
@@ -4884,7 +4920,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4938,6 +4974,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8639,11 +8678,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ124"/>
+  <dimension ref="A1:AQ127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U124" sqref="U124"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S125" sqref="S125:S127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14151,6 +14190,129 @@
         <v>1570</v>
       </c>
       <c r="T124" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="125" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+      <c r="B125" s="7" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>1203</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>1204</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>1205</v>
+      </c>
+      <c r="L125" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O125" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P125" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q125" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="R125" s="7" t="s">
+        <v>1575</v>
+      </c>
+      <c r="S125" s="21" t="s">
+        <v>1206</v>
+      </c>
+      <c r="T125" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="126" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+      <c r="B126" s="7" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>1203</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>1204</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>1205</v>
+      </c>
+      <c r="L126" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O126" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P126" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q126" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="R126" s="7" t="s">
+        <v>1576</v>
+      </c>
+      <c r="S126" s="21" t="s">
+        <v>1206</v>
+      </c>
+      <c r="T126" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="127" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+      <c r="B127" s="7" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>1574</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>1578</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>1205</v>
+      </c>
+      <c r="L127" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O127" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P127" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q127" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="R127" s="7" t="s">
+        <v>1577</v>
+      </c>
+      <c r="S127" s="21" t="s">
+        <v>1206</v>
+      </c>
+      <c r="T127" s="7" t="s">
         <v>64</v>
       </c>
     </row>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF707852-E9D3-2F4F-B1A7-8656C84A0269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C985728-A875-954D-8EE4-4A7FEE3705BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="460" windowWidth="24880" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documents" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="1583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2812" uniqueCount="1605">
   <si>
     <t>liv_000017</t>
   </si>
@@ -4797,6 +4797,72 @@
   </si>
   <si>
     <t>Chuma, standing, in traditional waist covering, with long bow and arrow.</t>
+  </si>
+  <si>
+    <t>liv_021124</t>
+  </si>
+  <si>
+    <t>liv_021125</t>
+  </si>
+  <si>
+    <t>liv_021126</t>
+  </si>
+  <si>
+    <t>Half-body portrait of James Read, Jr., facing to his right.</t>
+  </si>
+  <si>
+    <t>James Read, Jr.</t>
+  </si>
+  <si>
+    <t>James Read, Jr., [nineteenth century]</t>
+  </si>
+  <si>
+    <t>CWM/LMS/Home/Miniature Portraits/Box 9</t>
+  </si>
+  <si>
+    <t>Rabindranath Tagore's House (1912)</t>
+  </si>
+  <si>
+    <t>Façade of Rabindranath Tagore residence (1912), showing front door, first story, and second story plus blue plaque.</t>
+  </si>
+  <si>
+    <t>Creative Commons Attribution-NonCommercial 4.0 International</t>
+  </si>
+  <si>
+    <t>Rabindranath Tagore's House (1912), 12 June 2022</t>
+  </si>
+  <si>
+    <t>Wisnicki, Adrian S.</t>
+  </si>
+  <si>
+    <t>paintings</t>
+  </si>
+  <si>
+    <t>Lincoln, NE</t>
+  </si>
+  <si>
+    <t>One More Voice</t>
+  </si>
+  <si>
+    <t>Vale of Health, Hampstead, London</t>
+  </si>
+  <si>
+    <t>“Tippo-Tip, Vali des Falls [Governor of the Falls]”</t>
+  </si>
+  <si>
+    <t>“Tippo-Tip, Vali des Falls [Governor of the Falls],” [c.1890]</t>
+  </si>
+  <si>
+    <t>Tippu Tip, seated, facing forward, head turned to his left, holding long sword that touches ground.</t>
+  </si>
+  <si>
+    <t>Le Congo Illustré</t>
+  </si>
+  <si>
+    <t>P. Weissenbruch Imprimeur du Roi</t>
+  </si>
+  <si>
+    <t>A.J. Wauters</t>
   </si>
 </sst>
 </file>
@@ -4920,7 +4986,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4976,6 +5042,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8678,11 +8747,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ127"/>
+  <dimension ref="A1:AQ130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S125" sqref="S125:S127"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U130" sqref="U130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14314,6 +14383,129 @@
       </c>
       <c r="T127" s="7" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="128" spans="1:34" ht="68" x14ac:dyDescent="0.2">
+      <c r="B128" s="7" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>1586</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>1588</v>
+      </c>
+      <c r="I128" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L128" s="7" t="s">
+        <v>1595</v>
+      </c>
+      <c r="O128" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P128" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q128" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="R128" s="7" t="s">
+        <v>1589</v>
+      </c>
+      <c r="S128" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="T128" s="7" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="129" spans="2:34" ht="68" x14ac:dyDescent="0.2">
+      <c r="B129" s="7" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>1591</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>1590</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>1593</v>
+      </c>
+      <c r="I129" s="7" t="s">
+        <v>1594</v>
+      </c>
+      <c r="L129" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O129" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P129" s="7" t="s">
+        <v>1596</v>
+      </c>
+      <c r="Q129" s="7" t="s">
+        <v>1597</v>
+      </c>
+      <c r="R129" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="S129" s="22">
+        <v>44724</v>
+      </c>
+      <c r="T129" s="7" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="130" spans="2:34" ht="51" x14ac:dyDescent="0.2">
+      <c r="B130" s="7" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L130" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="V130" s="10" t="s">
+        <v>1604</v>
+      </c>
+      <c r="X130" s="7" t="s">
+        <v>1602</v>
+      </c>
+      <c r="Y130" s="7" t="s">
+        <v>973</v>
+      </c>
+      <c r="AC130" s="7" t="s">
+        <v>1603</v>
+      </c>
+      <c r="AG130" s="7">
+        <v>1892</v>
+      </c>
+      <c r="AH130" s="7">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C985728-A875-954D-8EE4-4A7FEE3705BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE389A1-1CD3-4F4A-90E6-4E8F089CA3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="460" windowWidth="24880" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2812" uniqueCount="1605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2824" uniqueCount="1612">
   <si>
     <t>liv_000017</t>
   </si>
@@ -4863,6 +4863,27 @@
   </si>
   <si>
     <t>A.J. Wauters</t>
+  </si>
+  <si>
+    <t>https://archive.org/details/cu31924087982504/page/696/mode/2up</t>
+  </si>
+  <si>
+    <t>Apolo Kagwa, seated, facing forward.</t>
+  </si>
+  <si>
+    <t>liv_021127</t>
+  </si>
+  <si>
+    <t>Apolo Kagwa</t>
+  </si>
+  <si>
+    <t>Apolo Kagwa, 1092</t>
+  </si>
+  <si>
+    <t>Harry Johnston</t>
+  </si>
+  <si>
+    <t>The Uganda Protectorate</t>
   </si>
 </sst>
 </file>
@@ -8747,11 +8768,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ130"/>
+  <dimension ref="A1:AQ131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U130" sqref="U130"/>
+      <selection pane="bottomLeft" activeCell="AH131" sqref="AH131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14426,7 +14447,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="129" spans="2:34" ht="68" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:34" ht="68" x14ac:dyDescent="0.2">
       <c r="B129" s="7" t="s">
         <v>1592</v>
       </c>
@@ -14467,7 +14488,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="130" spans="2:34" ht="51" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:34" ht="51" x14ac:dyDescent="0.2">
       <c r="B130" s="7" t="s">
         <v>1391</v>
       </c>
@@ -14506,6 +14527,50 @@
       </c>
       <c r="AH130" s="7">
         <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:34" ht="51" x14ac:dyDescent="0.2">
+      <c r="A131" s="7" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>1606</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>1608</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>1609</v>
+      </c>
+      <c r="I131" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L131" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="V131" s="10" t="s">
+        <v>1610</v>
+      </c>
+      <c r="X131" s="7" t="s">
+        <v>1611</v>
+      </c>
+      <c r="Y131" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC131" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG131" s="7">
+        <v>1902</v>
+      </c>
+      <c r="AH131" s="7">
+        <v>0.56666666666666665</v>
       </c>
     </row>
   </sheetData>

--- a/xml/OMV-MODS-worksheet.xlsx
+++ b/xml/OMV-MODS-worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awisnicki2/GitHub/onemorevoice/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE389A1-1CD3-4F4A-90E6-4E8F089CA3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07ABB10-C3AF-804A-8CB1-F2A4F03A4BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="460" windowWidth="24880" windowHeight="15260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2824" uniqueCount="1612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2838" uniqueCount="1621">
   <si>
     <t>liv_000017</t>
   </si>
@@ -4884,6 +4884,33 @@
   </si>
   <si>
     <t>The Uganda Protectorate</t>
+  </si>
+  <si>
+    <t>2:696</t>
+  </si>
+  <si>
+    <t>George W. Jacobs &amp; Co.</t>
+  </si>
+  <si>
+    <t>The Story of Yone Noguchi: Told by Himself</t>
+  </si>
+  <si>
+    <t>Yone Noguchi</t>
+  </si>
+  <si>
+    <t>Yoshio Markino</t>
+  </si>
+  <si>
+    <t>Yone Noguchi, 1915</t>
+  </si>
+  <si>
+    <t>liv_021128</t>
+  </si>
+  <si>
+    <t>https://archive.org/details/storyofyonenoguc00nogurich/page/n7/mode/2up</t>
+  </si>
+  <si>
+    <t>Head and shoulders portrait of Yone Noguchi in half profile, facing left.</t>
   </si>
 </sst>
 </file>
@@ -8768,11 +8795,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ131"/>
+  <dimension ref="A1:AQ132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH131" sqref="AH131"/>
+      <selection pane="bottomLeft" activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14569,8 +14596,52 @@
       <c r="AG131" s="7">
         <v>1902</v>
       </c>
-      <c r="AH131" s="7">
-        <v>0.56666666666666665</v>
+      <c r="AH131" s="16" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="132" spans="1:34" ht="51" x14ac:dyDescent="0.2">
+      <c r="A132" s="7" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>1618</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>1615</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>1617</v>
+      </c>
+      <c r="I132" s="7" t="s">
+        <v>1616</v>
+      </c>
+      <c r="L132" s="7" t="s">
+        <v>1595</v>
+      </c>
+      <c r="V132" s="10" t="s">
+        <v>1615</v>
+      </c>
+      <c r="X132" s="7" t="s">
+        <v>1614</v>
+      </c>
+      <c r="Y132" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC132" s="7" t="s">
+        <v>1613</v>
+      </c>
+      <c r="AG132" s="7">
+        <v>1915</v>
+      </c>
+      <c r="AH132" s="7" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
